--- a/Данные для проверки на режимах.xlsx
+++ b/Данные для проверки на режимах.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vladimir\Documents\GitHub\GZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Employee3\Documents\GitHub\GZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F57FEB5-1EF7-4F16-B2AE-03EA1FA9CA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3ADCF0-EFCD-4F74-8DAA-19473AF21CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1480" windowWidth="14400" windowHeight="7360" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Тепловикация" sheetId="2" r:id="rId1"/>
-    <sheet name="Турбоустановка с теплофикацией" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Лист1" sheetId="3" r:id="rId4"/>
+    <sheet name="Турбина" sheetId="5" r:id="rId2"/>
+    <sheet name="Турбоустановка с теплофикацией" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="3" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="191029" iterateCount="2000" iterateDelta="0.1"/>
+  <calcPr calcId="181029" iterateCount="2000" iterateDelta="0.1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="90">
   <si>
     <t>Пар в отборе 2:</t>
   </si>
@@ -228,12 +229,93 @@
   <si>
     <t>Расход сетевой</t>
   </si>
+  <si>
+    <t>Расход пара, кг/с</t>
+  </si>
+  <si>
+    <t>Пар после смешения:</t>
+  </si>
+  <si>
+    <t>Температура пара,°С</t>
+  </si>
+  <si>
+    <t>Степень сухости/влажность пара, %</t>
+  </si>
+  <si>
+    <t>Пар после ЦНД:</t>
+  </si>
+  <si>
+    <t>ВД</t>
+  </si>
+  <si>
+    <t>НД</t>
+  </si>
+  <si>
+    <t>Смешение</t>
+  </si>
+  <si>
+    <t>Отб2</t>
+  </si>
+  <si>
+    <t>Т - Тнас</t>
+  </si>
+  <si>
+    <t>Отб1</t>
+  </si>
+  <si>
+    <t>Перед ЦНД</t>
+  </si>
+  <si>
+    <t>Давление</t>
+  </si>
+  <si>
+    <t>Энтропия</t>
+  </si>
+  <si>
+    <t>в ЦНД</t>
+  </si>
+  <si>
+    <t>Энтальпия в ЦНД теор</t>
+  </si>
+  <si>
+    <t>КПД ЦНД</t>
+  </si>
+  <si>
+    <t>Объемный расход на входе</t>
+  </si>
+  <si>
+    <t>Удельный объем</t>
+  </si>
+  <si>
+    <t>Массовый расход на входе</t>
+  </si>
+  <si>
+    <t>210.2</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Влажность на входе</t>
+  </si>
+  <si>
+    <t>Влажность на выходе</t>
+  </si>
+  <si>
+    <t>Сумма расходов</t>
+  </si>
+  <si>
+    <t>Расход в ЦНД</t>
+  </si>
+  <si>
+    <t>Дельта</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +327,8 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -275,7 +359,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -288,6 +372,1035 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Турбина!$C$61:$Z$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>129.42238652846399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>129.53292601939145</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>129.31083612288003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129.49051611903923</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.7935048012024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127.0756577405991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129.78959637693708</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>129.80517084414842</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>129.60344426049951</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>129.53823435497904</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>129.4935320971388</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>127.55488549149568</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>87.221989050777708</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>87.270517107270095</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>88.897764205826419</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>87.435795378206393</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>87.247001574567491</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>87.329085178016712</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>87.228316960183705</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>87.660361072656244</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>87.500349347632792</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>87.273434801362498</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>86.848582224808922</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>86.602627383410564</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Турбина!$C$62:$Z$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.71285737734156329</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71176006042473139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71299110674531008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71367701457000521</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7249714436813629</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72923320414461013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71816913659243165</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.71628874448890889</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71605259824407563</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.72229729084584471</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72678745360735753</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.72613217584188605</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.71841941437485812</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.71746257219888998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.72835487464792881</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.71895959943997345</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.72530650083312076</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72311342744817164</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.72300195758193919</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.72627003017833369</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.72261212015984089</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.72846324413208419</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.73580709461544236</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.73822114038813613</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD74-4A6E-AD7C-A6A8BFA0F24D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1197012912"/>
+        <c:axId val="1197019152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1197012912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="80"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1197019152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1197019152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1197012912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4817EC37-255E-D5D8-2A16-FA114DF5B586}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -572,19 +1685,19 @@
   <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D1" s="1">
         <v>0.5</v>
       </c>
@@ -592,7 +1705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C2">
         <v>-40</v>
       </c>
@@ -645,7 +1758,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>13</v>
       </c>
@@ -653,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -709,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -765,7 +1878,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -821,7 +1934,7 @@
         <v>121.8</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>14</v>
       </c>
@@ -829,7 +1942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -885,7 +1998,7 @@
         <v>46.75</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -941,7 +2054,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>3</v>
       </c>
@@ -997,7 +2110,7 @@
         <v>81.73</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -1053,7 +2166,7 @@
         <v>833.3</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -1109,7 +2222,7 @@
         <v>117.5</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -1165,7 +2278,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -1221,7 +2334,7 @@
         <v>73.400000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -1277,7 +2390,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>37</v>
       </c>
@@ -1336,7 +2449,7 @@
         <v>102.67</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -1392,7 +2505,7 @@
         <v>88.3</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>38</v>
       </c>
@@ -1451,7 +2564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -1507,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>39</v>
       </c>
@@ -1566,7 +2679,7 @@
         <v>6.43</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1622,22 +2735,22 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C23">
         <f>C31-C10</f>
         <v>-4.456596037218219E-2</v>
       </c>
       <c r="D23">
         <f t="shared" ref="D23:S23" si="0">D31-D10</f>
-        <v>3.6677426674415869E-2</v>
+        <v>3.6677426674700087E-2</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>9.6953343571328787E-3</v>
+        <v>9.6953343566781314E-3</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>2.4037222135703473E-2</v>
+        <v>2.4037222135532943E-2</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
@@ -1692,7 +2805,7 @@
         <v>3.189778003651611E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -1768,7 +2881,7 @@
         <v>815.8</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -1844,7 +2957,7 @@
         <v>73.400000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -1920,7 +3033,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -1996,7 +3109,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -2029,7 +3142,7 @@
       </c>
       <c r="I29">
         <f>[1]!PropsSI("H","Q",1,"P",I5*10^6,"Water")/1000</f>
-        <v>2709.8279245900358</v>
+        <v>2709.8279245900353</v>
       </c>
       <c r="J29">
         <f>[1]!PropsSI("H","T",J6+273.15,"P",J5*10^6,"Water")/1000</f>
@@ -2072,7 +3185,7 @@
         <v>2710.2420153440662</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -2148,7 +3261,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -2161,15 +3274,15 @@
       </c>
       <c r="D31">
         <f>[1]!PropsSI("T","Q",0,"P",D9*10^6,"Water")-273.15</f>
-        <v>98.236677426674419</v>
+        <v>98.236677426674703</v>
       </c>
       <c r="E31">
         <f>[1]!PropsSI("T","Q",0,"P",E9*10^6,"Water")-273.15</f>
-        <v>78.109695334357127</v>
+        <v>78.109695334356672</v>
       </c>
       <c r="F31">
         <f>[1]!PropsSI("T","Q",0,"P",F9*10^6,"Water")-273.15</f>
-        <v>69.324037222135701</v>
+        <v>69.32403722213553</v>
       </c>
       <c r="G31">
         <f>[1]!PropsSI("T","Q",0,"P",G9*10^6,"Water")-273.15</f>
@@ -2224,7 +3337,7 @@
         <v>81.76189778003652</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -2237,15 +3350,15 @@
       </c>
       <c r="D32">
         <f>[1]!PropsSI("H","Q",1,"P",D9*10^6,"Water")/1000</f>
-        <v>2672.7791885906672</v>
+        <v>2672.7791885906677</v>
       </c>
       <c r="E32">
         <f>[1]!PropsSI("H","Q",1,"P",E9*10^6,"Water")/1000</f>
-        <v>2639.8466521571941</v>
+        <v>2639.8466521571922</v>
       </c>
       <c r="F32">
         <f>[1]!PropsSI("H","Q",1,"P",F9*10^6,"Water")/1000</f>
-        <v>2624.9396880914796</v>
+        <v>2624.9396880914787</v>
       </c>
       <c r="G32">
         <f>[1]!PropsSI("H","Q",1,"P",G9*10^6,"Water")/1000</f>
@@ -2300,7 +3413,7 @@
         <v>2645.9568094246006</v>
       </c>
     </row>
-    <row r="34" spans="2:19">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>39</v>
       </c>
@@ -2373,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:19">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>40</v>
       </c>
@@ -2446,7 +3559,7 @@
         <v>46.75</v>
       </c>
     </row>
-    <row r="36" spans="2:19">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>43</v>
       </c>
@@ -2525,19 +3638,4340 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E67E9C-E058-4529-B9FA-B8753B83F0AC}">
+  <dimension ref="A1:Z69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="K76" sqref="K76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="31.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="D1">
+        <v>50</v>
+      </c>
+      <c r="L1">
+        <v>75</v>
+      </c>
+      <c r="S1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4">
+        <v>41.97</v>
+      </c>
+      <c r="D4">
+        <v>42.97</v>
+      </c>
+      <c r="E4">
+        <v>44.5</v>
+      </c>
+      <c r="F4">
+        <v>44.44</v>
+      </c>
+      <c r="G4">
+        <v>43.17</v>
+      </c>
+      <c r="H4">
+        <v>41.42</v>
+      </c>
+      <c r="I4">
+        <v>51.75</v>
+      </c>
+      <c r="J4">
+        <v>53</v>
+      </c>
+      <c r="K4">
+        <v>54.97</v>
+      </c>
+      <c r="L4">
+        <v>54.61</v>
+      </c>
+      <c r="M4">
+        <v>53.06</v>
+      </c>
+      <c r="N4">
+        <v>50.92</v>
+      </c>
+      <c r="O4">
+        <v>61.51</v>
+      </c>
+      <c r="P4">
+        <v>61.36</v>
+      </c>
+      <c r="Q4">
+        <v>62.88</v>
+      </c>
+      <c r="R4">
+        <v>63.95</v>
+      </c>
+      <c r="S4">
+        <v>65.14</v>
+      </c>
+      <c r="T4">
+        <v>64.47</v>
+      </c>
+      <c r="U4">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="V4">
+        <v>63.4</v>
+      </c>
+      <c r="W4">
+        <v>62.63</v>
+      </c>
+      <c r="X4">
+        <v>62.63</v>
+      </c>
+      <c r="Y4">
+        <v>60.24</v>
+      </c>
+      <c r="Z4">
+        <v>60.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>5.1989999999999998</v>
+      </c>
+      <c r="D5">
+        <v>5.3310000000000004</v>
+      </c>
+      <c r="E5">
+        <v>5.5289999999999999</v>
+      </c>
+      <c r="F5">
+        <v>5.53</v>
+      </c>
+      <c r="G5">
+        <v>5.4039999999999999</v>
+      </c>
+      <c r="H5">
+        <v>5.2460000000000004</v>
+      </c>
+      <c r="I5">
+        <v>6.4009999999999998</v>
+      </c>
+      <c r="J5">
+        <v>6.5640000000000001</v>
+      </c>
+      <c r="K5">
+        <v>6.8209999999999997</v>
+      </c>
+      <c r="L5">
+        <v>6.7889999999999997</v>
+      </c>
+      <c r="M5">
+        <v>6.633</v>
+      </c>
+      <c r="N5">
+        <v>6.4409999999999998</v>
+      </c>
+      <c r="O5">
+        <v>7.4930000000000003</v>
+      </c>
+      <c r="P5">
+        <v>7.48</v>
+      </c>
+      <c r="Q5">
+        <v>7.6760000000000002</v>
+      </c>
+      <c r="R5">
+        <v>7.8109999999999999</v>
+      </c>
+      <c r="S5">
+        <v>7.9610000000000003</v>
+      </c>
+      <c r="T5">
+        <v>7.8959999999999999</v>
+      </c>
+      <c r="U5">
+        <v>7.8890000000000002</v>
+      </c>
+      <c r="V5">
+        <v>7.8449999999999998</v>
+      </c>
+      <c r="W5">
+        <v>7.7229999999999999</v>
+      </c>
+      <c r="X5">
+        <v>7.7229999999999999</v>
+      </c>
+      <c r="Y5">
+        <v>7.5170000000000003</v>
+      </c>
+      <c r="Z5">
+        <v>7.5170000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>492.2</v>
+      </c>
+      <c r="D6">
+        <v>495</v>
+      </c>
+      <c r="E6">
+        <v>499</v>
+      </c>
+      <c r="F6">
+        <v>500.9</v>
+      </c>
+      <c r="G6">
+        <v>507.8</v>
+      </c>
+      <c r="H6">
+        <v>522.1</v>
+      </c>
+      <c r="I6">
+        <v>497.9</v>
+      </c>
+      <c r="J6">
+        <v>500.5</v>
+      </c>
+      <c r="K6">
+        <v>504.1</v>
+      </c>
+      <c r="L6">
+        <v>506.1</v>
+      </c>
+      <c r="M6">
+        <v>513.1</v>
+      </c>
+      <c r="N6">
+        <v>527.29999999999995</v>
+      </c>
+      <c r="O6">
+        <v>493.8</v>
+      </c>
+      <c r="P6">
+        <v>494.5</v>
+      </c>
+      <c r="Q6">
+        <v>496.8</v>
+      </c>
+      <c r="R6">
+        <v>498.2</v>
+      </c>
+      <c r="S6">
+        <v>500</v>
+      </c>
+      <c r="T6">
+        <v>502.2</v>
+      </c>
+      <c r="U6">
+        <v>502.4</v>
+      </c>
+      <c r="V6">
+        <v>508.6</v>
+      </c>
+      <c r="W6">
+        <v>509.4</v>
+      </c>
+      <c r="X6">
+        <v>509.4</v>
+      </c>
+      <c r="Y6">
+        <v>524</v>
+      </c>
+      <c r="Z6">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8">
+        <v>10.57</v>
+      </c>
+      <c r="D8">
+        <v>10.74</v>
+      </c>
+      <c r="E8">
+        <v>11.04</v>
+      </c>
+      <c r="F8">
+        <v>10.92</v>
+      </c>
+      <c r="G8">
+        <v>10.17</v>
+      </c>
+      <c r="H8">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="I8">
+        <v>12.74</v>
+      </c>
+      <c r="J8">
+        <v>12.87</v>
+      </c>
+      <c r="K8">
+        <v>13.1</v>
+      </c>
+      <c r="L8">
+        <v>12.88</v>
+      </c>
+      <c r="M8">
+        <v>12.09</v>
+      </c>
+      <c r="N8">
+        <v>10.85</v>
+      </c>
+      <c r="O8">
+        <v>15.51</v>
+      </c>
+      <c r="P8">
+        <v>15.42</v>
+      </c>
+      <c r="Q8">
+        <v>15.59</v>
+      </c>
+      <c r="R8">
+        <v>15.69</v>
+      </c>
+      <c r="S8">
+        <v>15.78</v>
+      </c>
+      <c r="T8">
+        <v>15.46</v>
+      </c>
+      <c r="U8">
+        <v>15.43</v>
+      </c>
+      <c r="V8">
+        <v>14.76</v>
+      </c>
+      <c r="W8">
+        <v>14.49</v>
+      </c>
+      <c r="X8">
+        <v>14.53</v>
+      </c>
+      <c r="Y8">
+        <v>13</v>
+      </c>
+      <c r="Z8">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0.4</v>
+      </c>
+      <c r="D9">
+        <v>0.4</v>
+      </c>
+      <c r="E9">
+        <v>0.4</v>
+      </c>
+      <c r="F9">
+        <v>0.4</v>
+      </c>
+      <c r="G9">
+        <v>0.4</v>
+      </c>
+      <c r="H9">
+        <v>0.4</v>
+      </c>
+      <c r="I9">
+        <v>0.48</v>
+      </c>
+      <c r="J9">
+        <v>0.49</v>
+      </c>
+      <c r="K9">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="L9">
+        <v>0.503</v>
+      </c>
+      <c r="M9">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="N9">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="O9">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="P9">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="Q9">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="R9">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="S9">
+        <v>0.627</v>
+      </c>
+      <c r="T9">
+        <v>0.62</v>
+      </c>
+      <c r="U9">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="V9">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="W9">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="X9">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="Y9">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="Z9">
+        <v>0.57899999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>199.4</v>
+      </c>
+      <c r="D10">
+        <v>199.6</v>
+      </c>
+      <c r="E10">
+        <v>199.8</v>
+      </c>
+      <c r="F10">
+        <v>199.7</v>
+      </c>
+      <c r="G10">
+        <v>199</v>
+      </c>
+      <c r="H10">
+        <v>197.8</v>
+      </c>
+      <c r="I10">
+        <v>204.7</v>
+      </c>
+      <c r="J10">
+        <v>205.2</v>
+      </c>
+      <c r="K10">
+        <v>206</v>
+      </c>
+      <c r="L10">
+        <v>205.7</v>
+      </c>
+      <c r="M10">
+        <v>204.4</v>
+      </c>
+      <c r="N10">
+        <v>202.4</v>
+      </c>
+      <c r="O10">
+        <v>210.3</v>
+      </c>
+      <c r="P10" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10">
+        <v>210.7</v>
+      </c>
+      <c r="R10">
+        <v>211.1</v>
+      </c>
+      <c r="S10">
+        <v>211.4</v>
+      </c>
+      <c r="T10">
+        <v>210.8</v>
+      </c>
+      <c r="U10">
+        <v>210.8</v>
+      </c>
+      <c r="V10">
+        <v>209.8</v>
+      </c>
+      <c r="W10">
+        <v>209.2</v>
+      </c>
+      <c r="X10">
+        <v>209.2</v>
+      </c>
+      <c r="Y10">
+        <v>206.5</v>
+      </c>
+      <c r="Z10">
+        <v>206.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>52.33</v>
+      </c>
+      <c r="D12">
+        <v>53.5</v>
+      </c>
+      <c r="E12">
+        <v>55.33</v>
+      </c>
+      <c r="F12">
+        <v>55.2</v>
+      </c>
+      <c r="G12">
+        <v>53.14</v>
+      </c>
+      <c r="H12">
+        <v>50.25</v>
+      </c>
+      <c r="I12">
+        <v>64.25</v>
+      </c>
+      <c r="J12">
+        <v>65.61</v>
+      </c>
+      <c r="K12">
+        <v>67.81</v>
+      </c>
+      <c r="L12">
+        <v>67.22</v>
+      </c>
+      <c r="M12">
+        <v>64.89</v>
+      </c>
+      <c r="N12">
+        <v>61.55</v>
+      </c>
+      <c r="O12">
+        <v>76.72</v>
+      </c>
+      <c r="P12">
+        <v>76.5</v>
+      </c>
+      <c r="Q12">
+        <v>78.17</v>
+      </c>
+      <c r="R12">
+        <v>79.33</v>
+      </c>
+      <c r="S12">
+        <v>80.61</v>
+      </c>
+      <c r="T12">
+        <v>79.62</v>
+      </c>
+      <c r="U12">
+        <v>79.52</v>
+      </c>
+      <c r="V12">
+        <v>78.16</v>
+      </c>
+      <c r="W12">
+        <v>76.819999999999993</v>
+      </c>
+      <c r="X12">
+        <v>76.86</v>
+      </c>
+      <c r="Y12">
+        <v>72.94</v>
+      </c>
+      <c r="Z12">
+        <v>72.94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>0.36</v>
+      </c>
+      <c r="D13">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="E13">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="F13">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="G13">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="H13">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="I13">
+        <v>0.442</v>
+      </c>
+      <c r="J13">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="K13">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="L13">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="M13">
+        <v>0.45</v>
+      </c>
+      <c r="N13">
+        <v>0.43</v>
+      </c>
+      <c r="O13">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="P13">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="Q13">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="R13">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="S13">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="T13">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="U13">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="V13">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="W13">
+        <v>0.54</v>
+      </c>
+      <c r="X13">
+        <v>0.54</v>
+      </c>
+      <c r="Y13">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="Z13">
+        <v>0.51700000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14">
+        <v>191.9</v>
+      </c>
+      <c r="D14">
+        <v>193.2</v>
+      </c>
+      <c r="E14">
+        <v>195.2</v>
+      </c>
+      <c r="F14">
+        <v>196</v>
+      </c>
+      <c r="G14">
+        <v>196.1</v>
+      </c>
+      <c r="H14">
+        <v>205.8</v>
+      </c>
+      <c r="I14">
+        <v>191.7</v>
+      </c>
+      <c r="J14">
+        <v>192.8</v>
+      </c>
+      <c r="K14">
+        <v>194.4</v>
+      </c>
+      <c r="L14">
+        <v>195.3</v>
+      </c>
+      <c r="M14">
+        <v>198.3</v>
+      </c>
+      <c r="N14">
+        <v>205.1</v>
+      </c>
+      <c r="O14">
+        <v>191.6</v>
+      </c>
+      <c r="P14">
+        <v>191.9</v>
+      </c>
+      <c r="Q14">
+        <v>192.8</v>
+      </c>
+      <c r="R14">
+        <v>193.3</v>
+      </c>
+      <c r="S14">
+        <v>194.4</v>
+      </c>
+      <c r="T14">
+        <v>195.1</v>
+      </c>
+      <c r="U14">
+        <v>195.2</v>
+      </c>
+      <c r="V14">
+        <v>197.8</v>
+      </c>
+      <c r="W14">
+        <v>198</v>
+      </c>
+      <c r="X14">
+        <v>198</v>
+      </c>
+      <c r="Y14">
+        <v>204.7</v>
+      </c>
+      <c r="Z14">
+        <v>204.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>0.15</v>
+      </c>
+      <c r="D17">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="E17">
+        <v>0.1595</v>
+      </c>
+      <c r="F17">
+        <v>0.15909999999999999</v>
+      </c>
+      <c r="G17">
+        <v>0.153</v>
+      </c>
+      <c r="H17">
+        <v>0.1469</v>
+      </c>
+      <c r="I17">
+        <v>0.184</v>
+      </c>
+      <c r="J17">
+        <v>0.189</v>
+      </c>
+      <c r="K17">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="L17">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="M17">
+        <v>0.188</v>
+      </c>
+      <c r="N17">
+        <v>0.18</v>
+      </c>
+      <c r="O17">
+        <v>0.24829999999999999</v>
+      </c>
+      <c r="P17">
+        <v>0.24759999999999999</v>
+      </c>
+      <c r="Q17">
+        <v>0.25330000000000003</v>
+      </c>
+      <c r="R17">
+        <v>0.25719999999999998</v>
+      </c>
+      <c r="S17">
+        <v>0.2616</v>
+      </c>
+      <c r="T17">
+        <v>0.25850000000000001</v>
+      </c>
+      <c r="U17">
+        <v>0.25819999999999999</v>
+      </c>
+      <c r="V17">
+        <v>0.25419999999999998</v>
+      </c>
+      <c r="W17">
+        <v>0.25</v>
+      </c>
+      <c r="X17">
+        <v>0.25019999999999998</v>
+      </c>
+      <c r="Y17">
+        <v>0.2392</v>
+      </c>
+      <c r="Z17">
+        <v>0.23980000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>119.3</v>
+      </c>
+      <c r="D18">
+        <v>120.4</v>
+      </c>
+      <c r="E18">
+        <v>122.1</v>
+      </c>
+      <c r="F18">
+        <v>122.9</v>
+      </c>
+      <c r="G18">
+        <v>122.1</v>
+      </c>
+      <c r="H18">
+        <v>131.6</v>
+      </c>
+      <c r="I18">
+        <v>118.4</v>
+      </c>
+      <c r="J18">
+        <v>119.3</v>
+      </c>
+      <c r="K18">
+        <v>120.4</v>
+      </c>
+      <c r="L18">
+        <v>121.1</v>
+      </c>
+      <c r="M18">
+        <v>123.9</v>
+      </c>
+      <c r="N18">
+        <v>129.9</v>
+      </c>
+      <c r="O18">
+        <v>127.2</v>
+      </c>
+      <c r="P18">
+        <v>127.1</v>
+      </c>
+      <c r="Q18">
+        <v>127.8</v>
+      </c>
+      <c r="R18">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="S18">
+        <v>128.9</v>
+      </c>
+      <c r="T18">
+        <v>129</v>
+      </c>
+      <c r="U18">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="V18">
+        <v>131.4</v>
+      </c>
+      <c r="W18">
+        <v>131.6</v>
+      </c>
+      <c r="X18">
+        <v>131.69999999999999</v>
+      </c>
+      <c r="Y18">
+        <v>137.6</v>
+      </c>
+      <c r="Z18">
+        <v>137.69999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>6.4699999999999994E-2</v>
+      </c>
+      <c r="D21">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="E21">
+        <v>6.88E-2</v>
+      </c>
+      <c r="F21">
+        <v>6.8599999999999994E-2</v>
+      </c>
+      <c r="G21">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="H21">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="I21">
+        <v>0.08</v>
+      </c>
+      <c r="J21">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="K21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="L21">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="M21">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="N21">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="O21">
+        <v>0.1492</v>
+      </c>
+      <c r="P21">
+        <v>0.1487</v>
+      </c>
+      <c r="Q21">
+        <v>0.1522</v>
+      </c>
+      <c r="R21">
+        <v>0.15459999999999999</v>
+      </c>
+      <c r="S21">
+        <v>0.15720000000000001</v>
+      </c>
+      <c r="T21">
+        <v>0.15540000000000001</v>
+      </c>
+      <c r="U21">
+        <v>0.1552</v>
+      </c>
+      <c r="V21">
+        <v>0.1525</v>
+      </c>
+      <c r="W21">
+        <v>0.15</v>
+      </c>
+      <c r="X21">
+        <v>0.15029999999999999</v>
+      </c>
+      <c r="Y21">
+        <v>0.14369999999999999</v>
+      </c>
+      <c r="Z21">
+        <v>0.14460000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>87.9</v>
+      </c>
+      <c r="D22">
+        <v>88.5</v>
+      </c>
+      <c r="E22">
+        <v>89.5</v>
+      </c>
+      <c r="F22">
+        <v>89.4</v>
+      </c>
+      <c r="G22">
+        <v>88.4</v>
+      </c>
+      <c r="H22">
+        <v>87.6</v>
+      </c>
+      <c r="I22">
+        <v>93.4</v>
+      </c>
+      <c r="J22">
+        <v>94</v>
+      </c>
+      <c r="K22">
+        <v>95</v>
+      </c>
+      <c r="L22">
+        <v>94.8</v>
+      </c>
+      <c r="M22">
+        <v>93.9</v>
+      </c>
+      <c r="N22">
+        <v>93</v>
+      </c>
+      <c r="O22">
+        <v>111.2</v>
+      </c>
+      <c r="P22">
+        <v>111.1</v>
+      </c>
+      <c r="Q22">
+        <v>111.8</v>
+      </c>
+      <c r="R22">
+        <v>112.2</v>
+      </c>
+      <c r="S22">
+        <v>112.8</v>
+      </c>
+      <c r="T22">
+        <v>112.4</v>
+      </c>
+      <c r="U22">
+        <v>112.4</v>
+      </c>
+      <c r="V22">
+        <v>111.8</v>
+      </c>
+      <c r="W22">
+        <v>111.3</v>
+      </c>
+      <c r="X22">
+        <v>111.4</v>
+      </c>
+      <c r="Y22">
+        <v>110.1</v>
+      </c>
+      <c r="Z22">
+        <v>110.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>52.33</v>
+      </c>
+      <c r="D24">
+        <v>53.5</v>
+      </c>
+      <c r="E24">
+        <v>55.33</v>
+      </c>
+      <c r="F24">
+        <v>55.17</v>
+      </c>
+      <c r="G24">
+        <v>53.14</v>
+      </c>
+      <c r="H24">
+        <v>50.25</v>
+      </c>
+      <c r="I24">
+        <v>64.25</v>
+      </c>
+      <c r="J24">
+        <v>65.61</v>
+      </c>
+      <c r="K24">
+        <v>67.81</v>
+      </c>
+      <c r="L24">
+        <v>67.22</v>
+      </c>
+      <c r="M24">
+        <v>64.89</v>
+      </c>
+      <c r="N24">
+        <v>61.55</v>
+      </c>
+      <c r="O24">
+        <v>76.72</v>
+      </c>
+      <c r="P24">
+        <v>76.5</v>
+      </c>
+      <c r="Q24">
+        <v>78.17</v>
+      </c>
+      <c r="R24">
+        <v>79.33</v>
+      </c>
+      <c r="S24">
+        <v>80.61</v>
+      </c>
+      <c r="T24">
+        <v>79.62</v>
+      </c>
+      <c r="U24">
+        <v>79.52</v>
+      </c>
+      <c r="V24">
+        <v>78.16</v>
+      </c>
+      <c r="W24">
+        <v>76.819999999999993</v>
+      </c>
+      <c r="X24">
+        <v>76.86</v>
+      </c>
+      <c r="Y24">
+        <v>72.94</v>
+      </c>
+      <c r="Z24">
+        <v>72.94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>87.9</v>
+      </c>
+      <c r="D25">
+        <v>88.5</v>
+      </c>
+      <c r="E25">
+        <v>89.5</v>
+      </c>
+      <c r="F25">
+        <v>89.4</v>
+      </c>
+      <c r="G25">
+        <v>88.5</v>
+      </c>
+      <c r="H25">
+        <v>87.6</v>
+      </c>
+      <c r="I25">
+        <v>93.4</v>
+      </c>
+      <c r="J25">
+        <v>94</v>
+      </c>
+      <c r="K25">
+        <v>95</v>
+      </c>
+      <c r="L25">
+        <v>94.8</v>
+      </c>
+      <c r="M25">
+        <v>93.9</v>
+      </c>
+      <c r="N25">
+        <v>93</v>
+      </c>
+      <c r="O25">
+        <v>111.2</v>
+      </c>
+      <c r="P25">
+        <v>111.1</v>
+      </c>
+      <c r="Q25">
+        <v>111.2</v>
+      </c>
+      <c r="R25">
+        <v>112.2</v>
+      </c>
+      <c r="S25">
+        <v>112.8</v>
+      </c>
+      <c r="T25">
+        <v>112.4</v>
+      </c>
+      <c r="U25">
+        <v>112.4</v>
+      </c>
+      <c r="V25">
+        <v>111.8</v>
+      </c>
+      <c r="W25">
+        <v>111.3</v>
+      </c>
+      <c r="X25">
+        <v>111.4</v>
+      </c>
+      <c r="Y25">
+        <v>110.1</v>
+      </c>
+      <c r="Z25">
+        <v>110.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26">
+        <v>2.75</v>
+      </c>
+      <c r="D26">
+        <f>2.72</f>
+        <v>2.72</v>
+      </c>
+      <c r="E26">
+        <f>2.68</f>
+        <v>2.68</v>
+      </c>
+      <c r="F26">
+        <f>2.61</f>
+        <v>2.61</v>
+      </c>
+      <c r="G26">
+        <f>2.62</f>
+        <v>2.62</v>
+      </c>
+      <c r="H26">
+        <f>1.63</f>
+        <v>1.63</v>
+      </c>
+      <c r="I26">
+        <f>3.5</f>
+        <v>3.5</v>
+      </c>
+      <c r="J26">
+        <f>3.5</f>
+        <v>3.5</v>
+      </c>
+      <c r="K26">
+        <f>3.5</f>
+        <v>3.5</v>
+      </c>
+      <c r="L26">
+        <f>3.37</f>
+        <v>3.37</v>
+      </c>
+      <c r="M26">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="N26">
+        <f>2.37</f>
+        <v>2.37</v>
+      </c>
+      <c r="O26">
+        <f>2.39</f>
+        <v>2.39</v>
+      </c>
+      <c r="P26">
+        <f>2.36</f>
+        <v>2.36</v>
+      </c>
+      <c r="Q26">
+        <f>2.36</f>
+        <v>2.36</v>
+      </c>
+      <c r="R26">
+        <f>2.38</f>
+        <v>2.38</v>
+      </c>
+      <c r="S26">
+        <f>2.34</f>
+        <v>2.34</v>
+      </c>
+      <c r="T26">
+        <f>2.25</f>
+        <v>2.25</v>
+      </c>
+      <c r="U26">
+        <f>2.24</f>
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="V26">
+        <f>1.89</f>
+        <v>1.89</v>
+      </c>
+      <c r="W26">
+        <f>1.9</f>
+        <v>1.9</v>
+      </c>
+      <c r="X26">
+        <f>1.9</f>
+        <v>1.9</v>
+      </c>
+      <c r="Y26">
+        <f>1.23</f>
+        <v>1.23</v>
+      </c>
+      <c r="Z26">
+        <f>1.2</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>52.3</v>
+      </c>
+      <c r="D28">
+        <v>53.5</v>
+      </c>
+      <c r="E28">
+        <v>55.33</v>
+      </c>
+      <c r="F28">
+        <v>55.17</v>
+      </c>
+      <c r="G28">
+        <v>53.14</v>
+      </c>
+      <c r="H28">
+        <v>50.25</v>
+      </c>
+      <c r="I28">
+        <v>64.25</v>
+      </c>
+      <c r="J28">
+        <v>65.61</v>
+      </c>
+      <c r="K28">
+        <v>67.81</v>
+      </c>
+      <c r="L28">
+        <v>67.22</v>
+      </c>
+      <c r="M28">
+        <v>64.89</v>
+      </c>
+      <c r="N28">
+        <v>61.55</v>
+      </c>
+      <c r="O28">
+        <v>76.73</v>
+      </c>
+      <c r="P28">
+        <v>76.489999999999995</v>
+      </c>
+      <c r="Q28">
+        <v>78.17</v>
+      </c>
+      <c r="R28">
+        <v>79.33</v>
+      </c>
+      <c r="S28">
+        <v>80.61</v>
+      </c>
+      <c r="T28">
+        <v>79.62</v>
+      </c>
+      <c r="U28">
+        <v>79.52</v>
+      </c>
+      <c r="V28">
+        <v>78.16</v>
+      </c>
+      <c r="W28">
+        <v>76.819999999999993</v>
+      </c>
+      <c r="X28">
+        <v>76.86</v>
+      </c>
+      <c r="Y28">
+        <v>72.94</v>
+      </c>
+      <c r="Z28">
+        <v>72.94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="D29">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="E29">
+        <v>6.6E-3</v>
+      </c>
+      <c r="F29">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="G29">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="H29">
+        <v>1.47E-2</v>
+      </c>
+      <c r="I29">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J29">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K29">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L29">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="M29">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="N29">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="O29">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="P29">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="Q29">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="R29">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="S29">
+        <v>0.01</v>
+      </c>
+      <c r="T29">
+        <v>1.06E-2</v>
+      </c>
+      <c r="U29">
+        <v>1.06E-2</v>
+      </c>
+      <c r="V29">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="W29">
+        <v>0.01</v>
+      </c>
+      <c r="X29">
+        <v>1.32E-2</v>
+      </c>
+      <c r="Y29">
+        <v>0.02</v>
+      </c>
+      <c r="Z29">
+        <v>2.52E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30">
+        <f>9.27</f>
+        <v>9.27</v>
+      </c>
+      <c r="D30">
+        <f>8.92</f>
+        <v>8.92</v>
+      </c>
+      <c r="E30">
+        <f>8.68</f>
+        <v>8.68</v>
+      </c>
+      <c r="F30">
+        <f>8.4</f>
+        <v>8.4</v>
+      </c>
+      <c r="G30">
+        <f>7.94</f>
+        <v>7.94</v>
+      </c>
+      <c r="H30">
+        <f>5.87</f>
+        <v>5.87</v>
+      </c>
+      <c r="I30">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="J30">
+        <f>9.7</f>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="K30">
+        <f>9.5</f>
+        <v>9.5</v>
+      </c>
+      <c r="L30">
+        <f>9.2</f>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M30">
+        <f>8.4</f>
+        <v>8.4</v>
+      </c>
+      <c r="N30">
+        <f>6.7</f>
+        <v>6.7</v>
+      </c>
+      <c r="O30">
+        <f>10.27</f>
+        <v>10.27</v>
+      </c>
+      <c r="P30">
+        <f>10.25</f>
+        <v>10.25</v>
+      </c>
+      <c r="Q30">
+        <f>10.04</f>
+        <v>10.039999999999999</v>
+      </c>
+      <c r="R30">
+        <f>9.95</f>
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="S30">
+        <f>9.73</f>
+        <v>9.73</v>
+      </c>
+      <c r="T30">
+        <f>9.46</f>
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="U30">
+        <f>9.45</f>
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="V30">
+        <f>9.78</f>
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="W30">
+        <f>9.2</f>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="X30">
+        <f>8.68</f>
+        <v>8.68</v>
+      </c>
+      <c r="Y30">
+        <f>7.1</f>
+        <v>7.1</v>
+      </c>
+      <c r="Z30">
+        <f>6.52</f>
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="O31" t="s">
+        <v>84</v>
+      </c>
+      <c r="P31" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>84</v>
+      </c>
+      <c r="R31" t="s">
+        <v>84</v>
+      </c>
+      <c r="S31" t="s">
+        <v>84</v>
+      </c>
+      <c r="T31" t="s">
+        <v>84</v>
+      </c>
+      <c r="U31" t="s">
+        <v>84</v>
+      </c>
+      <c r="V31" t="s">
+        <v>84</v>
+      </c>
+      <c r="W31" t="s">
+        <v>84</v>
+      </c>
+      <c r="X31" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32">
+        <f>[1]!PropsSI("H","T",C6+273.15,"P",C5*10^6,"Water")/1000</f>
+        <v>3414.0936824129262</v>
+      </c>
+      <c r="D32">
+        <f>[1]!PropsSI("H","T",D6+273.15,"P",D5*10^6,"Water")/1000</f>
+        <v>3419.1110348616726</v>
+      </c>
+      <c r="E32">
+        <f>[1]!PropsSI("H","T",E6+273.15,"P",E5*10^6,"Water")/1000</f>
+        <v>3426.215447531034</v>
+      </c>
+      <c r="F32">
+        <f>[1]!PropsSI("H","T",F6+273.15,"P",F5*10^6,"Water")/1000</f>
+        <v>3430.6810594860967</v>
+      </c>
+      <c r="G32">
+        <f>[1]!PropsSI("H","T",G6+273.15,"P",G5*10^6,"Water")/1000</f>
+        <v>3448.3317199181238</v>
+      </c>
+      <c r="H32">
+        <f>[1]!PropsSI("H","T",H6+273.15,"P",H5*10^6,"Water")/1000</f>
+        <v>3483.5075944401037</v>
+      </c>
+      <c r="I32">
+        <f>[1]!PropsSI("H","T",I6+273.15,"P",I5*10^6,"Water")/1000</f>
+        <v>3413.3997864009575</v>
+      </c>
+      <c r="J32">
+        <f>[1]!PropsSI("H","T",J6+273.15,"P",J5*10^6,"Water")/1000</f>
+        <v>3417.7283583381827</v>
+      </c>
+      <c r="K32">
+        <f>[1]!PropsSI("H","T",K6+273.15,"P",K5*10^6,"Water")/1000</f>
+        <v>3423.4076628690132</v>
+      </c>
+      <c r="L32">
+        <f>[1]!PropsSI("H","T",L6+273.15,"P",L5*10^6,"Water")/1000</f>
+        <v>3428.5996944727431</v>
+      </c>
+      <c r="M32">
+        <f>[1]!PropsSI("H","T",M6+273.15,"P",M5*10^6,"Water")/1000</f>
+        <v>3447.1858275049854</v>
+      </c>
+      <c r="N32">
+        <f>[1]!PropsSI("H","T",N6+273.15,"P",N5*10^6,"Water")/1000</f>
+        <v>3483.1658033234385</v>
+      </c>
+      <c r="O32">
+        <f>[1]!PropsSI("H","T",O6+273.15,"P",O5*10^6,"Water")/1000</f>
+        <v>3390.3304424251678</v>
+      </c>
+      <c r="P32">
+        <f>[1]!PropsSI("H","T",P6+273.15,"P",P5*10^6,"Water")/1000</f>
+        <v>3392.2096219003161</v>
+      </c>
+      <c r="Q32">
+        <f>[1]!PropsSI("H","T",Q6+273.15,"P",Q5*10^6,"Water")/1000</f>
+        <v>3395.4900334627305</v>
+      </c>
+      <c r="R32">
+        <f>[1]!PropsSI("H","T",R6+273.15,"P",R5*10^6,"Water")/1000</f>
+        <v>3397.3132280525983</v>
+      </c>
+      <c r="S32">
+        <f>[1]!PropsSI("H","T",S6+273.15,"P",S5*10^6,"Water")/1000</f>
+        <v>3399.9592891403095</v>
+      </c>
+      <c r="T32">
+        <f>[1]!PropsSI("H","T",T6+273.15,"P",T5*10^6,"Water")/1000</f>
+        <v>3406.1705083268293</v>
+      </c>
+      <c r="U32">
+        <f>[1]!PropsSI("H","T",U6+273.15,"P",U5*10^6,"Water")/1000</f>
+        <v>3406.7470047604315</v>
+      </c>
+      <c r="V32">
+        <f>[1]!PropsSI("H","T",V6+273.15,"P",V5*10^6,"Water")/1000</f>
+        <v>3422.525471918223</v>
+      </c>
+      <c r="W32">
+        <f>[1]!PropsSI("H","T",W6+273.15,"P",W5*10^6,"Water")/1000</f>
+        <v>3425.8928013035993</v>
+      </c>
+      <c r="X32">
+        <f>[1]!PropsSI("H","T",X6+273.15,"P",X5*10^6,"Water")/1000</f>
+        <v>3425.8928013035993</v>
+      </c>
+      <c r="Y32">
+        <f>[1]!PropsSI("H","T",Y6+273.15,"P",Y5*10^6,"Water")/1000</f>
+        <v>3463.7729518552123</v>
+      </c>
+      <c r="Z32">
+        <f>[1]!PropsSI("H","T",Z6+273.15,"P",Z5*10^6,"Water")/1000</f>
+        <v>3463.7729518552123</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34">
+        <f>[1]!PropsSI("H","T",C10+273.15,"P",C9*10^6,"Water")/1000</f>
+        <v>2859.6691118398307</v>
+      </c>
+      <c r="D34">
+        <f>[1]!PropsSI("H","T",D10+273.15,"P",D9*10^6,"Water")/1000</f>
+        <v>2860.088650191512</v>
+      </c>
+      <c r="E34">
+        <f>[1]!PropsSI("H","T",E10+273.15,"P",E9*10^6,"Water")/1000</f>
+        <v>2860.5081249383179</v>
+      </c>
+      <c r="F34">
+        <f>[1]!PropsSI("H","T",F10+273.15,"P",F9*10^6,"Water")/1000</f>
+        <v>2860.298395494448</v>
+      </c>
+      <c r="G34">
+        <f>[1]!PropsSI("H","T",G10+273.15,"P",G9*10^6,"Water")/1000</f>
+        <v>2858.8298429671418</v>
+      </c>
+      <c r="H34">
+        <f>[1]!PropsSI("H","T",H10+273.15,"P",H9*10^6,"Water")/1000</f>
+        <v>2856.3104743064582</v>
+      </c>
+      <c r="I34">
+        <f>[1]!PropsSI("H","T",I10+273.15,"P",I9*10^6,"Water")/1000</f>
+        <v>2866.8701779004573</v>
+      </c>
+      <c r="J34">
+        <f>[1]!PropsSI("H","T",J10+273.15,"P",J9*10^6,"Water")/1000</f>
+        <v>2867.4418538997743</v>
+      </c>
+      <c r="K34">
+        <f>[1]!PropsSI("H","T",K10+273.15,"P",K9*10^6,"Water")/1000</f>
+        <v>2868.3621519748422</v>
+      </c>
+      <c r="L34">
+        <f>[1]!PropsSI("H","T",L10+273.15,"P",L9*10^6,"Water")/1000</f>
+        <v>2867.8692795759521</v>
+      </c>
+      <c r="M34">
+        <f>[1]!PropsSI("H","T",M10+273.15,"P",M9*10^6,"Water")/1000</f>
+        <v>2865.8381117872823</v>
+      </c>
+      <c r="N34">
+        <f>[1]!PropsSI("H","T",N10+273.15,"P",N9*10^6,"Water")/1000</f>
+        <v>2862.5812156897764</v>
+      </c>
+      <c r="O34">
+        <f>[1]!PropsSI("H","T",O10+273.15,"P",O9*10^6,"Water")/1000</f>
+        <v>2873.1375056932461</v>
+      </c>
+      <c r="P34">
+        <f>[1]!PropsSI("H","T",P10+273.15,"P",P9*10^6,"Water")/1000</f>
+        <v>2873.0174038724017</v>
+      </c>
+      <c r="Q34">
+        <f>[1]!PropsSI("H","T",Q10+273.15,"P",Q9*10^6,"Water")/1000</f>
+        <v>2873.5229527794008</v>
+      </c>
+      <c r="R34">
+        <f>[1]!PropsSI("H","T",R10+273.15,"P",R9*10^6,"Water")/1000</f>
+        <v>2873.9583102899155</v>
+      </c>
+      <c r="S34">
+        <f>[1]!PropsSI("H","T",S10+273.15,"P",S9*10^6,"Water")/1000</f>
+        <v>2874.1303541095044</v>
+      </c>
+      <c r="T34">
+        <f>[1]!PropsSI("H","T",T10+273.15,"P",T9*10^6,"Water")/1000</f>
+        <v>2873.1631650310483</v>
+      </c>
+      <c r="U34">
+        <f>[1]!PropsSI("H","T",U10+273.15,"P",U9*10^6,"Water")/1000</f>
+        <v>2873.2112588439263</v>
+      </c>
+      <c r="V34">
+        <f>[1]!PropsSI("H","T",V10+273.15,"P",V9*10^6,"Water")/1000</f>
+        <v>2871.4269447672918</v>
+      </c>
+      <c r="W34">
+        <f>[1]!PropsSI("H","T",W10+273.15,"P",W9*10^6,"Water")/1000</f>
+        <v>2870.5623662331886</v>
+      </c>
+      <c r="X34">
+        <f>[1]!PropsSI("H","T",X10+273.15,"P",X9*10^6,"Water")/1000</f>
+        <v>2870.5623662331886</v>
+      </c>
+      <c r="Y34">
+        <f>[1]!PropsSI("H","T",Y10+273.15,"P",Y9*10^6,"Water")/1000</f>
+        <v>2865.8928376731551</v>
+      </c>
+      <c r="Z34">
+        <f>[1]!PropsSI("H","T",Z10+273.15,"P",Z9*10^6,"Water")/1000</f>
+        <v>2865.8433103593825</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36">
+        <f>[1]!PropsSI("H","T",C14+273.15,"P",C13*10^6,"Water")/1000</f>
+        <v>2846.0391045509723</v>
+      </c>
+      <c r="D36">
+        <f>[1]!PropsSI("H","T",D14+273.15,"P",D13*10^6,"Water")/1000</f>
+        <v>2848.2799186705533</v>
+      </c>
+      <c r="E36">
+        <f>[1]!PropsSI("H","T",E14+273.15,"P",E13*10^6,"Water")/1000</f>
+        <v>2851.7858417851976</v>
+      </c>
+      <c r="F36">
+        <f>[1]!PropsSI("H","T",F14+273.15,"P",F13*10^6,"Water")/1000</f>
+        <v>2853.5142561457455</v>
+      </c>
+      <c r="G36">
+        <f>[1]!PropsSI("H","T",G14+273.15,"P",G13*10^6,"Water")/1000</f>
+        <v>2854.4473849612614</v>
+      </c>
+      <c r="H36">
+        <f>[1]!PropsSI("H","T",H14+273.15,"P",H13*10^6,"Water")/1000</f>
+        <v>2875.3924895558066</v>
+      </c>
+      <c r="I36">
+        <f>[1]!PropsSI("H","T",I14+273.15,"P",I13*10^6,"Water")/1000</f>
+        <v>2841.1745645407345</v>
+      </c>
+      <c r="J36">
+        <f>[1]!PropsSI("H","T",J14+273.15,"P",J13*10^6,"Water")/1000</f>
+        <v>2842.9759448711088</v>
+      </c>
+      <c r="K36">
+        <f>[1]!PropsSI("H","T",K14+273.15,"P",K13*10^6,"Water")/1000</f>
+        <v>2845.5302967406042</v>
+      </c>
+      <c r="L36">
+        <f>[1]!PropsSI("H","T",L14+273.15,"P",L13*10^6,"Water")/1000</f>
+        <v>2847.6156985999764</v>
+      </c>
+      <c r="M36">
+        <f>[1]!PropsSI("H","T",M14+273.15,"P",M13*10^6,"Water")/1000</f>
+        <v>2854.7924384670641</v>
+      </c>
+      <c r="N36">
+        <f>[1]!PropsSI("H","T",N14+273.15,"P",N13*10^6,"Water")/1000</f>
+        <v>2870.1548432811865</v>
+      </c>
+      <c r="O36">
+        <f>[1]!PropsSI("H","T",O14+273.15,"P",O13*10^6,"Water")/1000</f>
+        <v>2835.7289538722171</v>
+      </c>
+      <c r="P36">
+        <f>[1]!PropsSI("H","T",P14+273.15,"P",P13*10^6,"Water")/1000</f>
+        <v>2836.4965788352215</v>
+      </c>
+      <c r="Q36">
+        <f>[1]!PropsSI("H","T",Q14+273.15,"P",Q13*10^6,"Water")/1000</f>
+        <v>2837.7894281519393</v>
+      </c>
+      <c r="R36">
+        <f>[1]!PropsSI("H","T",R14+273.15,"P",R13*10^6,"Water")/1000</f>
+        <v>2838.3806061067994</v>
+      </c>
+      <c r="S36">
+        <f>[1]!PropsSI("H","T",S14+273.15,"P",S13*10^6,"Water")/1000</f>
+        <v>2840.2343835937672</v>
+      </c>
+      <c r="T36">
+        <f>[1]!PropsSI("H","T",T14+273.15,"P",T13*10^6,"Water")/1000</f>
+        <v>2842.1518933088296</v>
+      </c>
+      <c r="U36">
+        <f>[1]!PropsSI("H","T",U14+273.15,"P",U13*10^6,"Water")/1000</f>
+        <v>2842.4252047960645</v>
+      </c>
+      <c r="V36">
+        <f>[1]!PropsSI("H","T",V14+273.15,"P",V13*10^6,"Water")/1000</f>
+        <v>2848.5216025782688</v>
+      </c>
+      <c r="W36">
+        <f>[1]!PropsSI("H","T",W14+273.15,"P",W13*10^6,"Water")/1000</f>
+        <v>2849.4343877059005</v>
+      </c>
+      <c r="X36">
+        <f>[1]!PropsSI("H","T",X14+273.15,"P",X13*10^6,"Water")/1000</f>
+        <v>2849.4343877059005</v>
+      </c>
+      <c r="Y36">
+        <f>[1]!PropsSI("H","T",Y14+273.15,"P",Y13*10^6,"Water")/1000</f>
+        <v>2865.092449213374</v>
+      </c>
+      <c r="Z36">
+        <f>[1]!PropsSI("H","T",Z14+273.15,"P",Z13*10^6,"Water")/1000</f>
+        <v>2864.8288037388534</v>
+      </c>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38">
+        <f>[1]!PropsSI("H","T",C18+273.15,"P",C17*10^6,"Water")/1000</f>
+        <v>2709.8865945447133</v>
+      </c>
+      <c r="D38">
+        <f>[1]!PropsSI("H","T",D18+273.15,"P",D17*10^6,"Water")/1000</f>
+        <v>2711.7769085724917</v>
+      </c>
+      <c r="E38">
+        <f>[1]!PropsSI("H","T",E18+273.15,"P",E17*10^6,"Water")/1000</f>
+        <v>2714.7299691306707</v>
+      </c>
+      <c r="F38">
+        <f>[1]!PropsSI("H","T",F18+273.15,"P",F17*10^6,"Water")/1000</f>
+        <v>2716.4485742152665</v>
+      </c>
+      <c r="G38">
+        <f>[1]!PropsSI("H","T",G18+273.15,"P",G17*10^6,"Water")/1000</f>
+        <v>2715.4174040630851</v>
+      </c>
+      <c r="H38">
+        <f>[1]!PropsSI("H","T",H18+273.15,"P",H17*10^6,"Water")/1000</f>
+        <v>2735.6761744385612</v>
+      </c>
+      <c r="I38">
+        <f>[1]!PropsSI("H","T",I18+273.15,"P",I17*10^6,"Water")/1000</f>
+        <v>2704.1524547242061</v>
+      </c>
+      <c r="J38">
+        <f>[1]!PropsSI("H","T",J18+273.15,"P",J17*10^6,"Water")/1000</f>
+        <v>2705.5198034890777</v>
+      </c>
+      <c r="K38">
+        <f>[1]!PropsSI("H","T",K18+273.15,"P",K17*10^6,"Water")/1000</f>
+        <v>2707.2149384804129</v>
+      </c>
+      <c r="L38">
+        <f>[1]!PropsSI("H","T",L18+273.15,"P",L17*10^6,"Water")/1000</f>
+        <v>2708.8423288003542</v>
+      </c>
+      <c r="M38">
+        <f>[1]!PropsSI("H","T",M18+273.15,"P",M17*10^6,"Water")/1000</f>
+        <v>2715.5088724879338</v>
+      </c>
+      <c r="N38">
+        <f>[1]!PropsSI("H","T",N18+273.15,"P",N17*10^6,"Water")/1000</f>
+        <v>2729.0121469959981</v>
+      </c>
+      <c r="O38">
+        <f>[1]!PropsSI("H","T",O18+273.15,"P",O17*10^6,"Water")/1000</f>
+        <v>2716.2048080580698</v>
+      </c>
+      <c r="P38">
+        <f>[1]!PropsSI("H","T",P18+273.15,"P",P17*10^6,"Water")/1000</f>
+        <v>2716.0589890005158</v>
+      </c>
+      <c r="Q38">
+        <f>[1]!PropsSI("H","T",Q18+273.15,"P",Q17*10^6,"Water")/1000</f>
+        <v>537.00145766431888</v>
+      </c>
+      <c r="R38">
+        <f>[1]!PropsSI("H","T",R18+273.15,"P",R17*10^6,"Water")/1000</f>
+        <v>539.13299380731746</v>
+      </c>
+      <c r="S38">
+        <f>[1]!PropsSI("H","T",S18+273.15,"P",S17*10^6,"Water")/1000</f>
+        <v>541.69126607803025</v>
+      </c>
+      <c r="T38">
+        <f>[1]!PropsSI("H","T",T18+273.15,"P",T17*10^6,"Water")/1000</f>
+        <v>2719.1060194349493</v>
+      </c>
+      <c r="U38">
+        <f>[1]!PropsSI("H","T",U18+273.15,"P",U17*10^6,"Water")/1000</f>
+        <v>2719.5827272052361</v>
+      </c>
+      <c r="V38">
+        <f>[1]!PropsSI("H","T",V18+273.15,"P",V17*10^6,"Water")/1000</f>
+        <v>2724.8615334140964</v>
+      </c>
+      <c r="W38">
+        <f>[1]!PropsSI("H","T",W18+273.15,"P",W17*10^6,"Water")/1000</f>
+        <v>2725.726881592223</v>
+      </c>
+      <c r="X38">
+        <f>[1]!PropsSI("H","T",X18+273.15,"P",X17*10^6,"Water")/1000</f>
+        <v>2725.9256810163201</v>
+      </c>
+      <c r="Y38">
+        <f>[1]!PropsSI("H","T",Y18+273.15,"P",Y17*10^6,"Water")/1000</f>
+        <v>2739.7581180783222</v>
+      </c>
+      <c r="Z38">
+        <f>[1]!PropsSI("H","T",Z18+273.15,"P",Z17*10^6,"Water")/1000</f>
+        <v>2739.9174319711183</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39">
+        <f>C18 - ([1]!PropsSI("T","Q",0,"P",C17*10^6,"Water")-273.15)</f>
+        <v>7.9506210992273481</v>
+      </c>
+      <c r="D39">
+        <f>D18 - ([1]!PropsSI("T","Q",0,"P",D17*10^6,"Water")-273.15)</f>
+        <v>8.2981663974760238</v>
+      </c>
+      <c r="E39">
+        <f>E18 - ([1]!PropsSI("T","Q",0,"P",E17*10^6,"Water")-273.15)</f>
+        <v>8.8976158404407499</v>
+      </c>
+      <c r="F39">
+        <f>F18 - ([1]!PropsSI("T","Q",0,"P",F17*10^6,"Water")-273.15)</f>
+        <v>9.7737850991997277</v>
+      </c>
+      <c r="G39">
+        <f>G18 - ([1]!PropsSI("T","Q",0,"P",G17*10^6,"Water")-273.15)</f>
+        <v>10.155298657210636</v>
+      </c>
+      <c r="H39">
+        <f>H18 - ([1]!PropsSI("T","Q",0,"P",H17*10^6,"Water")-273.15)</f>
+        <v>20.876154744344575</v>
+      </c>
+      <c r="I39">
+        <f>I18 - ([1]!PropsSI("T","Q",0,"P",I17*10^6,"Water")-273.15)</f>
+        <v>0.80579211475910029</v>
+      </c>
+      <c r="J39">
+        <f>J18 - ([1]!PropsSI("T","Q",0,"P",J17*10^6,"Water")-273.15)</f>
+        <v>0.86899534337213424</v>
+      </c>
+      <c r="K39">
+        <f>K18 - ([1]!PropsSI("T","Q",0,"P",K17*10^6,"Water")-273.15)</f>
+        <v>0.98840584735737025</v>
+      </c>
+      <c r="L39">
+        <f>L18 - ([1]!PropsSI("T","Q",0,"P",L17*10^6,"Water")-273.15)</f>
+        <v>1.8501088804770518</v>
+      </c>
+      <c r="M39">
+        <f>M18 - ([1]!PropsSI("T","Q",0,"P",M17*10^6,"Water")-273.15)</f>
+        <v>5.6348938881303923</v>
+      </c>
+      <c r="N39">
+        <f>N18 - ([1]!PropsSI("T","Q",0,"P",N17*10^6,"Water")-273.15)</f>
+        <v>12.98873102022489</v>
+      </c>
+      <c r="O39">
+        <f>O18 - ([1]!PropsSI("T","Q",0,"P",O17*10^6,"Water")-273.15)</f>
+        <v>1.3247736461167392E-2</v>
+      </c>
+      <c r="P39">
+        <f>P18 - ([1]!PropsSI("T","Q",0,"P",P17*10^6,"Water")-273.15)</f>
+        <v>6.1159772472763052E-3</v>
+      </c>
+      <c r="Q39">
+        <f>Q18 - ([1]!PropsSI("T","Q",0,"P",Q17*10^6,"Water")-273.15)</f>
+        <v>-4.3978603282894824E-2</v>
+      </c>
+      <c r="R39">
+        <f>R18 - ([1]!PropsSI("T","Q",0,"P",R17*10^6,"Water")-273.15)</f>
+        <v>-4.9335295598496032E-2</v>
+      </c>
+      <c r="S39">
+        <f>S18 - ([1]!PropsSI("T","Q",0,"P",S17*10^6,"Water")-273.15)</f>
+        <v>-1.2062255780136866E-2</v>
+      </c>
+      <c r="T39">
+        <f>T18 - ([1]!PropsSI("T","Q",0,"P",T17*10^6,"Water")-273.15)</f>
+        <v>0.48359585117003689</v>
+      </c>
+      <c r="U39">
+        <f>U18 - ([1]!PropsSI("T","Q",0,"P",U17*10^6,"Water")-273.15)</f>
+        <v>0.7220895231941995</v>
+      </c>
+      <c r="V39">
+        <f>V18 - ([1]!PropsSI("T","Q",0,"P",V17*10^6,"Water")-273.15)</f>
+        <v>3.4388423888838986</v>
+      </c>
+      <c r="W39">
+        <f>W18 - ([1]!PropsSI("T","Q",0,"P",W17*10^6,"Water")-273.15)</f>
+        <v>4.1885935262042437</v>
+      </c>
+      <c r="X39">
+        <f>X18 - ([1]!PropsSI("T","Q",0,"P",X17*10^6,"Water")-273.15)</f>
+        <v>4.2622453307585033</v>
+      </c>
+      <c r="Y39">
+        <f>Y18 - ([1]!PropsSI("T","Q",0,"P",Y17*10^6,"Water")-273.15)</f>
+        <v>11.63752872276595</v>
+      </c>
+      <c r="Z39">
+        <f>Z18 - ([1]!PropsSI("T","Q",0,"P",Z17*10^6,"Water")-273.15)</f>
+        <v>11.65565067167114</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41">
+        <f>[1]!PropsSI("H","T",C22+273.15,"P",C21*10^6,"Water")/1000</f>
+        <v>2656.1097060673692</v>
+      </c>
+      <c r="D41">
+        <f>[1]!PropsSI("H","T",D22+273.15,"P",D21*10^6,"Water")/1000</f>
+        <v>370.72950507159095</v>
+      </c>
+      <c r="E41">
+        <f>[1]!PropsSI("H","T",E22+273.15,"P",E21*10^6,"Water")/1000</f>
+        <v>2658.7242793399196</v>
+      </c>
+      <c r="F41">
+        <f>[1]!PropsSI("H","T",F22+273.15,"P",F21*10^6,"Water")/1000</f>
+        <v>374.51516400332605</v>
+      </c>
+      <c r="G41">
+        <f>[1]!PropsSI("H","T",G22+273.15,"P",G21*10^6,"Water")/1000</f>
+        <v>2656.9215096914595</v>
+      </c>
+      <c r="H41">
+        <f>[1]!PropsSI("H","T",H22+273.15,"P",H21*10^6,"Water")/1000</f>
+        <v>2655.6108587792123</v>
+      </c>
+      <c r="I41">
+        <f>[1]!PropsSI("H","T",I22+273.15,"P",I21*10^6,"Water")/1000</f>
+        <v>391.35042212178661</v>
+      </c>
+      <c r="J41">
+        <f>[1]!PropsSI("H","T",J22+273.15,"P",J21*10^6,"Water")/1000</f>
+        <v>393.87727877475322</v>
+      </c>
+      <c r="K41">
+        <f>[1]!PropsSI("H","T",K22+273.15,"P",K21*10^6,"Water")/1000</f>
+        <v>398.08926211764475</v>
+      </c>
+      <c r="L41">
+        <f>[1]!PropsSI("H","T",L22+273.15,"P",L21*10^6,"Water")/1000</f>
+        <v>397.24647832503075</v>
+      </c>
+      <c r="M41">
+        <f>[1]!PropsSI("H","T",M22+273.15,"P",M21*10^6,"Water")/1000</f>
+        <v>2665.8815467094801</v>
+      </c>
+      <c r="N41">
+        <f>[1]!PropsSI("H","T",N22+273.15,"P",N21*10^6,"Water")/1000</f>
+        <v>389.66630636727666</v>
+      </c>
+      <c r="O41">
+        <f>[1]!PropsSI("H","T",O22+273.15,"P",O21*10^6,"Water")/1000</f>
+        <v>2692.8865900908991</v>
+      </c>
+      <c r="P41">
+        <f>[1]!PropsSI("H","T",P22+273.15,"P",P21*10^6,"Water")/1000</f>
+        <v>2692.735767504204</v>
+      </c>
+      <c r="Q41">
+        <f>[1]!PropsSI("H","T",Q22+273.15,"P",Q21*10^6,"Water")/1000</f>
+        <v>2693.7937531286616</v>
+      </c>
+      <c r="R41">
+        <f>[1]!PropsSI("H","T",R22+273.15,"P",R21*10^6,"Water")/1000</f>
+        <v>470.72904931122554</v>
+      </c>
+      <c r="S41">
+        <f>[1]!PropsSI("H","T",S22+273.15,"P",S21*10^6,"Water")/1000</f>
+        <v>2695.3140893552791</v>
+      </c>
+      <c r="T41">
+        <f>[1]!PropsSI("H","T",T22+273.15,"P",T21*10^6,"Water")/1000</f>
+        <v>471.57594427693141</v>
+      </c>
+      <c r="U41">
+        <f>[1]!PropsSI("H","T",U22+273.15,"P",U21*10^6,"Water")/1000</f>
+        <v>2694.7047045070717</v>
+      </c>
+      <c r="V41">
+        <f>[1]!PropsSI("H","T",V22+273.15,"P",V21*10^6,"Water")/1000</f>
+        <v>469.03506993492726</v>
+      </c>
+      <c r="W41">
+        <f>[1]!PropsSI("H","T",W22+273.15,"P",W21*10^6,"Water")/1000</f>
+        <v>466.91800556943764</v>
+      </c>
+      <c r="X41">
+        <f>[1]!PropsSI("H","T",X22+273.15,"P",X21*10^6,"Water")/1000</f>
+        <v>467.34124533303918</v>
+      </c>
+      <c r="Y41">
+        <f>[1]!PropsSI("H","T",Y22+273.15,"P",Y21*10^6,"Water")/1000</f>
+        <v>2691.2334360283794</v>
+      </c>
+      <c r="Z41">
+        <f>[1]!PropsSI("H","T",Z22+273.15,"P",Z21*10^6,"Water")/1000</f>
+        <v>462.26177136439077</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42">
+        <f>C22 - ([1]!PropsSI("T","Q",0,"P",C21*10^6,"Water")-273.15)</f>
+        <v>2.6966486219947683E-2</v>
+      </c>
+      <c r="D42">
+        <f>D22 - ([1]!PropsSI("T","Q",0,"P",D21*10^6,"Water")-273.15)</f>
+        <v>-8.9150316320001366E-3</v>
+      </c>
+      <c r="E42">
+        <f>E22 - ([1]!PropsSI("T","Q",0,"P",E21*10^6,"Water")-273.15)</f>
+        <v>2.2700643263078746E-2</v>
+      </c>
+      <c r="F42">
+        <f>F22 - ([1]!PropsSI("T","Q",0,"P",F21*10^6,"Water")-273.15)</f>
+        <v>-9.18649094870716E-4</v>
+      </c>
+      <c r="G42">
+        <f>G22 - ([1]!PropsSI("T","Q",0,"P",G21*10^6,"Water")-273.15)</f>
+        <v>9.3296232413706548E-3</v>
+      </c>
+      <c r="H42">
+        <f>H22 - ([1]!PropsSI("T","Q",0,"P",H21*10^6,"Water")-273.15)</f>
+        <v>9.3009745081360506E-3</v>
+      </c>
+      <c r="I42">
+        <f>I22 - ([1]!PropsSI("T","Q",0,"P",I21*10^6,"Water")-273.15)</f>
+        <v>-8.5536319055023569E-2</v>
+      </c>
+      <c r="J42">
+        <f>J22 - ([1]!PropsSI("T","Q",0,"P",J21*10^6,"Water")-273.15)</f>
+        <v>-0.15146829281144392</v>
+      </c>
+      <c r="K42">
+        <f>K22 - ([1]!PropsSI("T","Q",0,"P",K21*10^6,"Water")-273.15)</f>
+        <v>-0.12548298710800054</v>
+      </c>
+      <c r="L42">
+        <f>L22 - ([1]!PropsSI("T","Q",0,"P",L21*10^6,"Water")-273.15)</f>
+        <v>-4.0311938682435766E-3</v>
+      </c>
+      <c r="M42">
+        <f>M22 - ([1]!PropsSI("T","Q",0,"P",M21*10^6,"Water")-273.15)</f>
+        <v>7.9788521004644508E-2</v>
+      </c>
+      <c r="N42">
+        <f>N22 - ([1]!PropsSI("T","Q",0,"P",N21*10^6,"Water")-273.15)</f>
+        <v>-0.14736332244757477</v>
+      </c>
+      <c r="O42">
+        <f>O22 - ([1]!PropsSI("T","Q",0,"P",O21*10^6,"Water")-273.15)</f>
+        <v>1.1024632616184249E-2</v>
+      </c>
+      <c r="P42">
+        <f>P22 - ([1]!PropsSI("T","Q",0,"P",P21*10^6,"Water")-273.15)</f>
+        <v>1.163606814171203E-2</v>
+      </c>
+      <c r="Q42">
+        <f>Q22 - ([1]!PropsSI("T","Q",0,"P",Q21*10^6,"Water")-273.15)</f>
+        <v>1.310713333946012E-2</v>
+      </c>
+      <c r="R42">
+        <f>R22 - ([1]!PropsSI("T","Q",0,"P",R21*10^6,"Water")-273.15)</f>
+        <v>-5.8296109430656884E-2</v>
+      </c>
+      <c r="S42">
+        <f>S22 - ([1]!PropsSI("T","Q",0,"P",S21*10^6,"Water")-273.15)</f>
+        <v>3.7749885158561369E-2</v>
+      </c>
+      <c r="T42">
+        <f>T22 - ([1]!PropsSI("T","Q",0,"P",T21*10^6,"Water")-273.15)</f>
+        <v>-1.4095231983873191E-2</v>
+      </c>
+      <c r="U42">
+        <f>U22 - ([1]!PropsSI("T","Q",0,"P",U21*10^6,"Water")-273.15)</f>
+        <v>2.4792701125107897E-2</v>
+      </c>
+      <c r="V42">
+        <f>V22 - ([1]!PropsSI("T","Q",0,"P",V21*10^6,"Water")-273.15)</f>
+        <v>-4.6150703620767786E-2</v>
+      </c>
+      <c r="W42">
+        <f>W22 - ([1]!PropsSI("T","Q",0,"P",W21*10^6,"Water")-273.15)</f>
+        <v>-4.9378900772651946E-2</v>
+      </c>
+      <c r="X42">
+        <f>X22 - ([1]!PropsSI("T","Q",0,"P",X21*10^6,"Water")-273.15)</f>
+        <v>-9.3490432819578473E-3</v>
+      </c>
+      <c r="Y42">
+        <f>Y22 - ([1]!PropsSI("T","Q",0,"P",Y21*10^6,"Water")-273.15)</f>
+        <v>3.3353097751586347E-2</v>
+      </c>
+      <c r="Z42">
+        <f>Z22 - ([1]!PropsSI("T","Q",0,"P",Z21*10^6,"Water")-273.15)</f>
+        <v>-5.2690252559713713E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44">
+        <f>[1]!PropsSI("H","Q",1-C26/100,"T",C25+273.15,"Water")/1000</f>
+        <v>2593.1819450430053</v>
+      </c>
+      <c r="D44">
+        <f>[1]!PropsSI("H","Q",1-D26/100,"T",D25+273.15,"Water")/1000</f>
+        <v>2594.8926109753197</v>
+      </c>
+      <c r="E44">
+        <f>[1]!PropsSI("H","Q",1-E26/100,"T",E25+273.15,"Water")/1000</f>
+        <v>2597.5096954704873</v>
+      </c>
+      <c r="F44">
+        <f>[1]!PropsSI("H","Q",1-F26/100,"T",F25+273.15,"Water")/1000</f>
+        <v>2598.9384703786586</v>
+      </c>
+      <c r="G44">
+        <f>[1]!PropsSI("H","Q",1-G26/100,"T",G25+273.15,"Water")/1000</f>
+        <v>2597.1789628703787</v>
+      </c>
+      <c r="H44">
+        <f>[1]!PropsSI("H","Q",1-H26/100,"T",H25+273.15,"Water")/1000</f>
+        <v>2618.3019860503568</v>
+      </c>
+      <c r="I44">
+        <f>[1]!PropsSI("H","Q",1-I26/100,"T",I25+273.15,"Water")/1000</f>
+        <v>2585.4612394434348</v>
+      </c>
+      <c r="J44">
+        <f>[1]!PropsSI("H","Q",1-J26/100,"T",J25+273.15,"Water")/1000</f>
+        <v>2586.4823657805773</v>
+      </c>
+      <c r="K44">
+        <f>[1]!PropsSI("H","Q",1-K26/100,"T",K25+273.15,"Water")/1000</f>
+        <v>2588.1803833112126</v>
+      </c>
+      <c r="L44">
+        <f>[1]!PropsSI("H","Q",1-L26/100,"T",L25+273.15,"Water")/1000</f>
+        <v>2590.7922286250619</v>
+      </c>
+      <c r="M44">
+        <f>[1]!PropsSI("H","Q",1-M26/100,"T",M25+273.15,"Water")/1000</f>
+        <v>2597.6742488756126</v>
+      </c>
+      <c r="N44">
+        <f>[1]!PropsSI("H","Q",1-N26/100,"T",N25+273.15,"Water")/1000</f>
+        <v>2610.4839715625935</v>
+      </c>
+      <c r="O44">
+        <f>[1]!PropsSI("H","Q",1-O26/100,"T",O25+273.15,"Water")/1000</f>
+        <v>2639.6691619841622</v>
+      </c>
+      <c r="P44">
+        <f>[1]!PropsSI("H","Q",1-P26/100,"T",P25+273.15,"Water")/1000</f>
+        <v>2640.1794668669636</v>
+      </c>
+      <c r="Q44">
+        <f>[1]!PropsSI("H","Q",1-Q26/100,"T",Q25+273.15,"Water")/1000</f>
+        <v>2640.337077578235</v>
+      </c>
+      <c r="R44">
+        <f>[1]!PropsSI("H","Q",1-R26/100,"T",R25+273.15,"Water")/1000</f>
+        <v>2641.4650415456886</v>
+      </c>
+      <c r="S44">
+        <f>[1]!PropsSI("H","Q",1-S26/100,"T",S25+273.15,"Water")/1000</f>
+        <v>2643.2947963551524</v>
+      </c>
+      <c r="T44">
+        <f>[1]!PropsSI("H","Q",1-T26/100,"T",T25+273.15,"Water")/1000</f>
+        <v>2644.6689886578747</v>
+      </c>
+      <c r="U44">
+        <f>[1]!PropsSI("H","Q",1-U26/100,"T",U25+273.15,"Water")/1000</f>
+        <v>2644.8912999721174</v>
+      </c>
+      <c r="V44">
+        <f>[1]!PropsSI("H","Q",1-V26/100,"T",V25+273.15,"Water")/1000</f>
+        <v>2651.7377696394324</v>
+      </c>
+      <c r="W44">
+        <f>[1]!PropsSI("H","Q",1-W26/100,"T",W25+273.15,"Water")/1000</f>
+        <v>2650.7347466147012</v>
+      </c>
+      <c r="X44">
+        <f>[1]!PropsSI("H","Q",1-X26/100,"T",X25+273.15,"Water")/1000</f>
+        <v>2650.8909809800493</v>
+      </c>
+      <c r="Y44">
+        <f>[1]!PropsSI("H","Q",1-Y26/100,"T",Y25+273.15,"Water")/1000</f>
+        <v>2663.7919144221828</v>
+      </c>
+      <c r="Z44">
+        <f>[1]!PropsSI("H","Q",1-Z26/100,"T",Z25+273.15,"Water")/1000</f>
+        <v>2664.6158030776251</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45">
+        <f>[1]!PropsSI("P","Q",1-C26/100,"T",C25+273.15,"Water")/1000000</f>
+        <v>6.4767191933888787E-2</v>
+      </c>
+      <c r="D45">
+        <f>[1]!PropsSI("P","Q",1-D26/100,"T",D25+273.15,"Water")/1000000</f>
+        <v>6.6277341963131509E-2</v>
+      </c>
+      <c r="E45">
+        <f>[1]!PropsSI("P","Q",1-E26/100,"T",E25+273.15,"Water")/1000000</f>
+        <v>6.8859534440163031E-2</v>
+      </c>
+      <c r="F45">
+        <f>[1]!PropsSI("P","Q",1-F26/100,"T",F25+273.15,"Water")/1000000</f>
+        <v>6.8597597508601588E-2</v>
+      </c>
+      <c r="G45">
+        <f>[1]!PropsSI("P","Q",1-G26/100,"T",G25+273.15,"Water")/1000000</f>
+        <v>6.6277341963131509E-2</v>
+      </c>
+      <c r="H45">
+        <f>[1]!PropsSI("P","Q",1-H26/100,"T",H25+273.15,"Water")/1000000</f>
+        <v>6.4022958996165141E-2</v>
+      </c>
+      <c r="I45">
+        <f>[1]!PropsSI("P","Q",1-I26/100,"T",I25+273.15,"Water")/1000000</f>
+        <v>7.9746074175095868E-2</v>
+      </c>
+      <c r="J45">
+        <f>[1]!PropsSI("P","Q",1-J26/100,"T",J25+273.15,"Water")/1000000</f>
+        <v>8.1541480565424374E-2</v>
+      </c>
+      <c r="K45">
+        <f>[1]!PropsSI("P","Q",1-K26/100,"T",K25+273.15,"Water")/1000000</f>
+        <v>8.4608466319554598E-2</v>
+      </c>
+      <c r="L45">
+        <f>[1]!PropsSI("P","Q",1-L26/100,"T",L25+273.15,"Water")/1000000</f>
+        <v>8.3987521762633716E-2</v>
+      </c>
+      <c r="M45">
+        <f>[1]!PropsSI("P","Q",1-M26/100,"T",M25+273.15,"Water")/1000000</f>
+        <v>8.1239933970178688E-2</v>
+      </c>
+      <c r="N45">
+        <f>[1]!PropsSI("P","Q",1-N26/100,"T",N25+273.15,"Water")/1000000</f>
+        <v>7.8567501856889765E-2</v>
+      </c>
+      <c r="O45">
+        <f>[1]!PropsSI("P","Q",1-O26/100,"T",O25+273.15,"Water")/1000000</f>
+        <v>0.14925487204102467</v>
+      </c>
+      <c r="P45">
+        <f>[1]!PropsSI("P","Q",1-P26/100,"T",P25+273.15,"Water")/1000000</f>
+        <v>0.14875775625359325</v>
+      </c>
+      <c r="Q45">
+        <f>[1]!PropsSI("P","Q",1-Q26/100,"T",Q25+273.15,"Water")/1000000</f>
+        <v>0.14925487204102467</v>
+      </c>
+      <c r="R45">
+        <f>[1]!PropsSI("P","Q",1-R26/100,"T",R25+273.15,"Water")/1000000</f>
+        <v>0.1543015309035089</v>
+      </c>
+      <c r="S45">
+        <f>[1]!PropsSI("P","Q",1-S26/100,"T",S25+273.15,"Water")/1000000</f>
+        <v>0.15739619525788018</v>
+      </c>
+      <c r="T45">
+        <f>[1]!PropsSI("P","Q",1-T26/100,"T",T25+273.15,"Water")/1000000</f>
+        <v>0.1553274840163118</v>
+      </c>
+      <c r="U45">
+        <f>[1]!PropsSI("P","Q",1-U26/100,"T",U25+273.15,"Water")/1000000</f>
+        <v>0.1553274840163118</v>
+      </c>
+      <c r="V45">
+        <f>[1]!PropsSI("P","Q",1-V26/100,"T",V25+273.15,"Water")/1000000</f>
+        <v>0.15226631466586293</v>
+      </c>
+      <c r="W45">
+        <f>[1]!PropsSI("P","Q",1-W26/100,"T",W25+273.15,"Water")/1000000</f>
+        <v>0.14975335205077175</v>
+      </c>
+      <c r="X45">
+        <f>[1]!PropsSI("P","Q",1-X26/100,"T",X25+273.15,"Water")/1000000</f>
+        <v>0.15025319910043264</v>
+      </c>
+      <c r="Y45">
+        <f>[1]!PropsSI("P","Q",1-Y26/100,"T",Y25+273.15,"Water")/1000000</f>
+        <v>0.14386100857145734</v>
+      </c>
+      <c r="Z45">
+        <f>[1]!PropsSI("P","Q",1-Z26/100,"T",Z25+273.15,"Water")/1000000</f>
+        <v>0.14434463745968584</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46">
+        <f>[1]!PropsSI("S","Q",1-C26/100,"T",C25+273.15,"Water")/1000</f>
+        <v>7.3309999308105773</v>
+      </c>
+      <c r="D46">
+        <f>[1]!PropsSI("S","Q",1-D26/100,"T",D25+273.15,"Water")/1000</f>
+        <v>7.3255075735443418</v>
+      </c>
+      <c r="E46">
+        <f>[1]!PropsSI("S","Q",1-E26/100,"T",E25+273.15,"Water")/1000</f>
+        <v>7.3157741511460079</v>
+      </c>
+      <c r="F46">
+        <f>[1]!PropsSI("S","Q",1-F26/100,"T",F25+273.15,"Water")/1000</f>
+        <v>7.3214064069673137</v>
+      </c>
+      <c r="G46">
+        <f>[1]!PropsSI("S","Q",1-G26/100,"T",G25+273.15,"Water")/1000</f>
+        <v>7.331829575189742</v>
+      </c>
+      <c r="H46">
+        <f>[1]!PropsSI("S","Q",1-H26/100,"T",H25+273.15,"Water")/1000</f>
+        <v>7.4057610924286568</v>
+      </c>
+      <c r="I46">
+        <f>[1]!PropsSI("S","Q",1-I26/100,"T",I25+273.15,"Water")/1000</f>
+        <v>7.2179053454798465</v>
+      </c>
+      <c r="J46">
+        <f>[1]!PropsSI("S","Q",1-J26/100,"T",J25+273.15,"Water")/1000</f>
+        <v>7.2109049929027984</v>
+      </c>
+      <c r="K46">
+        <f>[1]!PropsSI("S","Q",1-K26/100,"T",K25+273.15,"Water")/1000</f>
+        <v>7.1993026450009241</v>
+      </c>
+      <c r="L46">
+        <f>[1]!PropsSI("S","Q",1-L26/100,"T",L25+273.15,"Water")/1000</f>
+        <v>7.2096369340188904</v>
+      </c>
+      <c r="M46">
+        <f>[1]!PropsSI("S","Q",1-M26/100,"T",M25+273.15,"Water")/1000</f>
+        <v>7.2430244582600416</v>
+      </c>
+      <c r="N46">
+        <f>[1]!PropsSI("S","Q",1-N26/100,"T",N25+273.15,"Water")/1000</f>
+        <v>7.2927905344969437</v>
+      </c>
+      <c r="O46">
+        <f>[1]!PropsSI("S","Q",1-O26/100,"T",O25+273.15,"Water")/1000</f>
+        <v>7.0862016389911631</v>
+      </c>
+      <c r="P46">
+        <f>[1]!PropsSI("S","Q",1-P26/100,"T",P25+273.15,"Water")/1000</f>
+        <v>7.0890026765862029</v>
+      </c>
+      <c r="Q46">
+        <f>[1]!PropsSI("S","Q",1-Q26/100,"T",Q25+273.15,"Water")/1000</f>
+        <v>7.0879394186036864</v>
+      </c>
+      <c r="R46">
+        <f>[1]!PropsSI("S","Q",1-R26/100,"T",R25+273.15,"Water")/1000</f>
+        <v>7.076189717910931</v>
+      </c>
+      <c r="S46">
+        <f>[1]!PropsSI("S","Q",1-S26/100,"T",S25+273.15,"Water")/1000</f>
+        <v>7.0721699637854751</v>
+      </c>
+      <c r="T46">
+        <f>[1]!PropsSI("S","Q",1-T26/100,"T",T25+273.15,"Water")/1000</f>
+        <v>7.0815754130567639</v>
+      </c>
+      <c r="U46">
+        <f>[1]!PropsSI("S","Q",1-U26/100,"T",U25+273.15,"Water")/1000</f>
+        <v>7.082152021315725</v>
+      </c>
+      <c r="V46">
+        <f>[1]!PropsSI("S","Q",1-V26/100,"T",V25+273.15,"Water")/1000</f>
+        <v>7.1087368332517284</v>
+      </c>
+      <c r="W46">
+        <f>[1]!PropsSI("S","Q",1-W26/100,"T",W25+273.15,"Water")/1000</f>
+        <v>7.1135126010224043</v>
+      </c>
+      <c r="X46">
+        <f>[1]!PropsSI("S","Q",1-X26/100,"T",X25+273.15,"Water")/1000</f>
+        <v>7.1124405076630879</v>
+      </c>
+      <c r="Y46">
+        <f>[1]!PropsSI("S","Q",1-Y26/100,"T",Y25+273.15,"Water")/1000</f>
+        <v>7.1654049268637063</v>
+      </c>
+      <c r="Z46">
+        <f>[1]!PropsSI("S","Q",1-Z26/100,"T",Z25+273.15,"Water")/1000</f>
+        <v>7.1660541706285521</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47">
+        <f>1/[1]!PropsSI("D","Q",1-C26/100,"T",C25+273.15,"Water")</f>
+        <v>2.4731967614841199</v>
+      </c>
+      <c r="D47">
+        <f>1/[1]!PropsSI("D","Q",1-D26/100,"T",D25+273.15,"Water")</f>
+        <v>2.4211761872783448</v>
+      </c>
+      <c r="E47">
+        <f>1/[1]!PropsSI("D","Q",1-E26/100,"T",E25+273.15,"Water")</f>
+        <v>2.3370836096670891</v>
+      </c>
+      <c r="F47">
+        <f>1/[1]!PropsSI("D","Q",1-F26/100,"T",F25+273.15,"Water")</f>
+        <v>2.347118291082821</v>
+      </c>
+      <c r="G47">
+        <f>1/[1]!PropsSI("D","Q",1-G26/100,"T",G25+273.15,"Water")</f>
+        <v>2.4236639970117126</v>
+      </c>
+      <c r="H47">
+        <f>1/[1]!PropsSI("D","Q",1-H26/100,"T",H25+273.15,"Water")</f>
+        <v>2.5288688107581909</v>
+      </c>
+      <c r="I47">
+        <f>1/[1]!PropsSI("D","Q",1-I26/100,"T",I25+273.15,"Water")</f>
+        <v>2.0200715389406549</v>
+      </c>
+      <c r="J47">
+        <f>1/[1]!PropsSI("D","Q",1-J26/100,"T",J25+273.15,"Water")</f>
+        <v>1.9784357696105535</v>
+      </c>
+      <c r="K47">
+        <f>1/[1]!PropsSI("D","Q",1-K26/100,"T",K25+273.15,"Water")</f>
+        <v>1.9112733263604116</v>
+      </c>
+      <c r="L47">
+        <f>1/[1]!PropsSI("D","Q",1-L26/100,"T",L25+273.15,"Water")</f>
+        <v>1.9270787616033778</v>
+      </c>
+      <c r="M47">
+        <f>1/[1]!PropsSI("D","Q",1-M26/100,"T",M25+273.15,"Water")</f>
+        <v>1.9955853305153153</v>
+      </c>
+      <c r="N47">
+        <f>1/[1]!PropsSI("D","Q",1-N26/100,"T",N25+273.15,"Water")</f>
+        <v>2.0723783183021234</v>
+      </c>
+      <c r="O47">
+        <f>1/[1]!PropsSI("D","Q",1-O26/100,"T",O25+273.15,"Water")</f>
+        <v>1.1368872399736407</v>
+      </c>
+      <c r="P47">
+        <f>1/[1]!PropsSI("D","Q",1-P26/100,"T",P25+273.15,"Water")</f>
+        <v>1.1407910732976483</v>
+      </c>
+      <c r="Q47">
+        <f>1/[1]!PropsSI("D","Q",1-Q26/100,"T",Q25+273.15,"Water")</f>
+        <v>1.1372363337063633</v>
+      </c>
+      <c r="R47">
+        <f>1/[1]!PropsSI("D","Q",1-R26/100,"T",R25+273.15,"Water")</f>
+        <v>1.1021781845229597</v>
+      </c>
+      <c r="S47">
+        <f>1/[1]!PropsSI("D","Q",1-S26/100,"T",S25+273.15,"Water")</f>
+        <v>1.0823347174614502</v>
+      </c>
+      <c r="T47">
+        <f>1/[1]!PropsSI("D","Q",1-T26/100,"T",T25+273.15,"Water")</f>
+        <v>1.0968234762373361</v>
+      </c>
+      <c r="U47">
+        <f>1/[1]!PropsSI("D","Q",1-U26/100,"T",U25+273.15,"Water")</f>
+        <v>1.0969355754550265</v>
+      </c>
+      <c r="V47">
+        <f>1/[1]!PropsSI("D","Q",1-V26/100,"T",V25+273.15,"Water")</f>
+        <v>1.1215501672550696</v>
+      </c>
+      <c r="W47">
+        <f>1/[1]!PropsSI("D","Q",1-W26/100,"T",W25+273.15,"Water")</f>
+        <v>1.1390308428486435</v>
+      </c>
+      <c r="X47">
+        <f>1/[1]!PropsSI("D","Q",1-X26/100,"T",X25+273.15,"Water")</f>
+        <v>1.1354857507333138</v>
+      </c>
+      <c r="Y47">
+        <f>1/[1]!PropsSI("D","Q",1-Y26/100,"T",Y25+273.15,"Water")</f>
+        <v>1.1906852512312713</v>
+      </c>
+      <c r="Z47">
+        <f>1/[1]!PropsSI("D","Q",1-Z26/100,"T",Z25+273.15,"Water")</f>
+        <v>1.1873132353086175</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48">
+        <f>[1]!PropsSI("H","Q",1-C30/100,"P",C29*10^6,"Water")/1000</f>
+        <v>2334.650924854951</v>
+      </c>
+      <c r="D48">
+        <f>[1]!PropsSI("H","Q",1-D30/100,"P",D29*10^6,"Water")/1000</f>
+        <v>2349.3260689215881</v>
+      </c>
+      <c r="E48">
+        <f>[1]!PropsSI("H","Q",1-E30/100,"P",E29*10^6,"Water")/1000</f>
+        <v>2360.4937861198173</v>
+      </c>
+      <c r="F48">
+        <f>[1]!PropsSI("H","Q",1-F30/100,"P",F29*10^6,"Water")/1000</f>
+        <v>2370.9769907541017</v>
+      </c>
+      <c r="G48">
+        <f>[1]!PropsSI("H","Q",1-G30/100,"P",G29*10^6,"Water")/1000</f>
+        <v>2390.7372963216285</v>
+      </c>
+      <c r="H48">
+        <f>[1]!PropsSI("H","Q",1-H30/100,"P",H29*10^6,"Water")/1000</f>
+        <v>2458.2332696425365</v>
+      </c>
+      <c r="I48">
+        <f>[1]!PropsSI("H","Q",1-I30/100,"P",I29*10^6,"Water")/1000</f>
+        <v>2325.1144715080763</v>
+      </c>
+      <c r="J48">
+        <f>[1]!PropsSI("H","Q",1-J30/100,"P",J29*10^6,"Water")/1000</f>
+        <v>2338.108881416475</v>
+      </c>
+      <c r="K48">
+        <f>[1]!PropsSI("H","Q",1-K30/100,"P",K29*10^6,"Water")/1000</f>
+        <v>2347.9809430633945</v>
+      </c>
+      <c r="L48">
+        <f>[1]!PropsSI("H","Q",1-L30/100,"P",L29*10^6,"Water")/1000</f>
+        <v>2359.6993548942419</v>
+      </c>
+      <c r="M48">
+        <f>[1]!PropsSI("H","Q",1-M30/100,"P",M29*10^6,"Water")/1000</f>
+        <v>2386.6357181332796</v>
+      </c>
+      <c r="N48">
+        <f>[1]!PropsSI("H","Q",1-N30/100,"P",N29*10^6,"Water")/1000</f>
+        <v>2444.3546727619446</v>
+      </c>
+      <c r="O48">
+        <f>[1]!PropsSI("H","Q",1-O30/100,"P",O29*10^6,"Water")/1000</f>
+        <v>2324.3811755470679</v>
+      </c>
+      <c r="P48">
+        <f>[1]!PropsSI("H","Q",1-P30/100,"P",P29*10^6,"Water")/1000</f>
+        <v>2324.3181709760433</v>
+      </c>
+      <c r="Q48">
+        <f>[1]!PropsSI("H","Q",1-Q30/100,"P",Q29*10^6,"Water")/1000</f>
+        <v>2336.8878005517745</v>
+      </c>
+      <c r="R48">
+        <f>[1]!PropsSI("H","Q",1-R30/100,"P",R29*10^6,"Water")/1000</f>
+        <v>2339.5050417499783</v>
+      </c>
+      <c r="S48">
+        <f>[1]!PropsSI("H","Q",1-S30/100,"P",S29*10^6,"Water")/1000</f>
+        <v>2351.1119414318946</v>
+      </c>
+      <c r="T48">
+        <f>[1]!PropsSI("H","Q",1-T30/100,"P",T29*10^6,"Water")/1000</f>
+        <v>2359.8624111890977</v>
+      </c>
+      <c r="U48">
+        <f>[1]!PropsSI("H","Q",1-U30/100,"P",U29*10^6,"Water")/1000</f>
+        <v>2360.1013411228237</v>
+      </c>
+      <c r="V48">
+        <f>[1]!PropsSI("H","Q",1-V30/100,"P",V29*10^6,"Water")/1000</f>
+        <v>2341.2543185335167</v>
+      </c>
+      <c r="W48">
+        <f>[1]!PropsSI("H","Q",1-W30/100,"P",W29*10^6,"Water")/1000</f>
+        <v>2363.7898208862248</v>
+      </c>
+      <c r="X48">
+        <f>[1]!PropsSI("H","Q",1-X30/100,"P",X29*10^6,"Water")/1000</f>
+        <v>2387.191685975391</v>
+      </c>
+      <c r="Y48">
+        <f>[1]!PropsSI("H","Q",1-Y30/100,"P",Y29*10^6,"Water")/1000</f>
+        <v>2441.5523826727449</v>
+      </c>
+      <c r="Z48">
+        <f>[1]!PropsSI("H","Q",1-Z30/100,"P",Z29*10^6,"Water")/1000</f>
+        <v>2464.8514322412097</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49">
+        <f>[1]!PropsSI("P","Q",1-C30/100,"P",C29*10^6,"Water")/1000000</f>
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="D49">
+        <f>[1]!PropsSI("P","Q",1-D30/100,"P",D29*10^6,"Water")/1000000</f>
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="E49">
+        <f>[1]!PropsSI("P","Q",1-E30/100,"P",E29*10^6,"Water")/1000000</f>
+        <v>6.6E-3</v>
+      </c>
+      <c r="F49">
+        <f>[1]!PropsSI("P","Q",1-F30/100,"P",F29*10^6,"Water")/1000000</f>
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="G49">
+        <f>[1]!PropsSI("P","Q",1-G30/100,"P",G29*10^6,"Water")/1000000</f>
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="H49">
+        <f>[1]!PropsSI("P","Q",1-H30/100,"P",H29*10^6,"Water")/1000000</f>
+        <v>1.47E-2</v>
+      </c>
+      <c r="I49">
+        <f>[1]!PropsSI("P","Q",1-I30/100,"P",I29*10^6,"Water")/1000000</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J49">
+        <f>[1]!PropsSI("P","Q",1-J30/100,"P",J29*10^6,"Water")/1000000</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K49">
+        <f>[1]!PropsSI("P","Q",1-K30/100,"P",K29*10^6,"Water")/1000000</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L49">
+        <f>[1]!PropsSI("P","Q",1-L30/100,"P",L29*10^6,"Water")/1000000</f>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="M49">
+        <f>[1]!PropsSI("P","Q",1-M30/100,"P",M29*10^6,"Water")/1000000</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="N49">
+        <f>[1]!PropsSI("P","Q",1-N30/100,"P",N29*10^6,"Water")/1000000</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="O49">
+        <f>[1]!PropsSI("P","Q",1-O30/100,"P",O29*10^6,"Water")/1000000</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="P49">
+        <f>[1]!PropsSI("P","Q",1-P30/100,"P",P29*10^6,"Water")/1000000</f>
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="Q49">
+        <f>[1]!PropsSI("P","Q",1-Q30/100,"P",Q29*10^6,"Water")/1000000</f>
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="R49">
+        <f>[1]!PropsSI("P","Q",1-R30/100,"P",R29*10^6,"Water")/1000000</f>
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="S49">
+        <f>[1]!PropsSI("P","Q",1-S30/100,"P",S29*10^6,"Water")/1000000</f>
+        <v>0.01</v>
+      </c>
+      <c r="T49">
+        <f>[1]!PropsSI("P","Q",1-T30/100,"P",T29*10^6,"Water")/1000000</f>
+        <v>1.06E-2</v>
+      </c>
+      <c r="U49">
+        <f>[1]!PropsSI("P","Q",1-U30/100,"P",U29*10^6,"Water")/1000000</f>
+        <v>1.06E-2</v>
+      </c>
+      <c r="V49">
+        <f>[1]!PropsSI("P","Q",1-V30/100,"P",V29*10^6,"Water")/1000000</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="W49">
+        <f>[1]!PropsSI("P","Q",1-W30/100,"P",W29*10^6,"Water")/1000000</f>
+        <v>0.01</v>
+      </c>
+      <c r="X49">
+        <f>[1]!PropsSI("P","Q",1-X30/100,"P",X29*10^6,"Water")/1000000</f>
+        <v>1.32E-2</v>
+      </c>
+      <c r="Y49">
+        <f>[1]!PropsSI("P","Q",1-Y30/100,"P",Y29*10^6,"Water")/1000000</f>
+        <v>0.02</v>
+      </c>
+      <c r="Z49">
+        <f>[1]!PropsSI("P","Q",1-Z30/100,"P",Z29*10^6,"Water")/1000000</f>
+        <v>2.52E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50">
+        <f>[1]!PropsSI("S","Q",1-C30/100,"P",C29*10^6,"Water")/1000</f>
+        <v>7.6720996636240839</v>
+      </c>
+      <c r="D50">
+        <f>[1]!PropsSI("S","Q",1-D30/100,"P",D29*10^6,"Water")/1000</f>
+        <v>7.647991502559349</v>
+      </c>
+      <c r="E50">
+        <f>[1]!PropsSI("S","Q",1-E30/100,"P",E29*10^6,"Water")/1000</f>
+        <v>7.6224975796385017</v>
+      </c>
+      <c r="F50">
+        <f>[1]!PropsSI("S","Q",1-F30/100,"P",F29*10^6,"Water")/1000</f>
+        <v>7.6136630179694871</v>
+      </c>
+      <c r="G50">
+        <f>[1]!PropsSI("S","Q",1-G30/100,"P",G29*10^6,"Water")/1000</f>
+        <v>7.5786246319726116</v>
+      </c>
+      <c r="H50">
+        <f>[1]!PropsSI("S","Q",1-H30/100,"P",H29*10^6,"Water")/1000</f>
+        <v>7.5876828373226273</v>
+      </c>
+      <c r="I50">
+        <f>[1]!PropsSI("S","Q",1-I30/100,"P",I29*10^6,"Water")/1000</f>
+        <v>7.5482151649336462</v>
+      </c>
+      <c r="J50">
+        <f>[1]!PropsSI("S","Q",1-J30/100,"P",J29*10^6,"Water")/1000</f>
+        <v>7.5260648796293435</v>
+      </c>
+      <c r="K50">
+        <f>[1]!PropsSI("S","Q",1-K30/100,"P",K29*10^6,"Water")/1000</f>
+        <v>7.5020115037089719</v>
+      </c>
+      <c r="L50">
+        <f>[1]!PropsSI("S","Q",1-L30/100,"P",L29*10^6,"Water")/1000</f>
+        <v>7.4899955722043039</v>
+      </c>
+      <c r="M50">
+        <f>[1]!PropsSI("S","Q",1-M30/100,"P",M29*10^6,"Water")/1000</f>
+        <v>7.4902969438097236</v>
+      </c>
+      <c r="N50">
+        <f>[1]!PropsSI("S","Q",1-N30/100,"P",N29*10^6,"Water")/1000</f>
+        <v>7.482812650934239</v>
+      </c>
+      <c r="O50">
+        <f>[1]!PropsSI("S","Q",1-O30/100,"P",O29*10^6,"Water")/1000</f>
+        <v>7.4820869041939551</v>
+      </c>
+      <c r="P50">
+        <f>[1]!PropsSI("S","Q",1-P30/100,"P",P29*10^6,"Water")/1000</f>
+        <v>7.4878282287334779</v>
+      </c>
+      <c r="Q50">
+        <f>[1]!PropsSI("S","Q",1-Q30/100,"P",Q29*10^6,"Water")/1000</f>
+        <v>7.446552175317116</v>
+      </c>
+      <c r="R50">
+        <f>[1]!PropsSI("S","Q",1-R30/100,"P",R29*10^6,"Water")/1000</f>
+        <v>7.4499415789713721</v>
+      </c>
+      <c r="S50">
+        <f>[1]!PropsSI("S","Q",1-S30/100,"P",S29*10^6,"Water")/1000</f>
+        <v>7.4191067217341287</v>
+      </c>
+      <c r="T50">
+        <f>[1]!PropsSI("S","Q",1-T30/100,"P",T29*10^6,"Water")/1000</f>
+        <v>7.4222649710909128</v>
+      </c>
+      <c r="U50">
+        <f>[1]!PropsSI("S","Q",1-U30/100,"P",U29*10^6,"Water")/1000</f>
+        <v>7.4230113921798084</v>
+      </c>
+      <c r="V50">
+        <f>[1]!PropsSI("S","Q",1-V30/100,"P",V29*10^6,"Water")/1000</f>
+        <v>7.4806339821909402</v>
+      </c>
+      <c r="W50">
+        <f>[1]!PropsSI("S","Q",1-W30/100,"P",W29*10^6,"Water")/1000</f>
+        <v>7.4588547320561105</v>
+      </c>
+      <c r="X50">
+        <f>[1]!PropsSI("S","Q",1-X30/100,"P",X29*10^6,"Water")/1000</f>
+        <v>7.4153567432082887</v>
+      </c>
+      <c r="Y50">
+        <f>[1]!PropsSI("S","Q",1-Y30/100,"P",Y29*10^6,"Water")/1000</f>
+        <v>7.4048815497758111</v>
+      </c>
+      <c r="Z50">
+        <f>[1]!PropsSI("S","Q",1-Z30/100,"P",Z29*10^6,"Water")/1000</f>
+        <v>7.3754536621012123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52">
+        <f>[1]!PropsSI("H","S",C46*1000,"P",C49*10^6,"Water")/1000</f>
+        <v>2230.5132985429354</v>
+      </c>
+      <c r="D52">
+        <f>[1]!PropsSI("H","S",D46*1000,"P",D49*10^6,"Water")/1000</f>
+        <v>2249.8795149789053</v>
+      </c>
+      <c r="E52">
+        <f>[1]!PropsSI("H","S",E46*1000,"P",E49*10^6,"Water")/1000</f>
+        <v>2265.0849189082528</v>
+      </c>
+      <c r="F52">
+        <f>[1]!PropsSI("H","S",F46*1000,"P",F49*10^6,"Water")/1000</f>
+        <v>2279.5201971673446</v>
+      </c>
+      <c r="G52">
+        <f>[1]!PropsSI("H","S",G46*1000,"P",G49*10^6,"Water")/1000</f>
+        <v>2312.4206205273322</v>
+      </c>
+      <c r="H52">
+        <f>[1]!PropsSI("H","S",H46*1000,"P",H49*10^6,"Water")/1000</f>
+        <v>2398.7992049124891</v>
+      </c>
+      <c r="I52">
+        <f>[1]!PropsSI("H","S",I46*1000,"P",I49*10^6,"Water")/1000</f>
+        <v>2222.9466803095634</v>
+      </c>
+      <c r="J52">
+        <f>[1]!PropsSI("H","S",J46*1000,"P",J49*10^6,"Water")/1000</f>
+        <v>2239.7318601010229</v>
+      </c>
+      <c r="K52">
+        <f>[1]!PropsSI("H","S",K46*1000,"P",K49*10^6,"Water")/1000</f>
+        <v>2252.7309472825718</v>
+      </c>
+      <c r="L52">
+        <f>[1]!PropsSI("H","S",L46*1000,"P",L49*10^6,"Water")/1000</f>
+        <v>2270.8507354758917</v>
+      </c>
+      <c r="M52">
+        <f>[1]!PropsSI("H","S",M46*1000,"P",M49*10^6,"Water")/1000</f>
+        <v>2307.3025181930611</v>
+      </c>
+      <c r="N52">
+        <f>[1]!PropsSI("H","S",N46*1000,"P",N49*10^6,"Water")/1000</f>
+        <v>2381.6973892739948</v>
+      </c>
+      <c r="O52">
+        <f>[1]!PropsSI("H","S",O46*1000,"P",O49*10^6,"Water")/1000</f>
+        <v>2200.80576251514</v>
+      </c>
+      <c r="P52">
+        <f>[1]!PropsSI("H","S",P46*1000,"P",P49*10^6,"Water")/1000</f>
+        <v>2199.9316990665279</v>
+      </c>
+      <c r="Q52">
+        <f>[1]!PropsSI("H","S",Q46*1000,"P",Q49*10^6,"Water")/1000</f>
+        <v>2223.7142367231622</v>
+      </c>
+      <c r="R52">
+        <f>[1]!PropsSI("H","S",R46*1000,"P",R49*10^6,"Water")/1000</f>
+        <v>2221.4692587076556</v>
+      </c>
+      <c r="S52">
+        <f>[1]!PropsSI("H","S",S46*1000,"P",S49*10^6,"Water")/1000</f>
+        <v>2240.4542667478167</v>
+      </c>
+      <c r="T52">
+        <f>[1]!PropsSI("H","S",T46*1000,"P",T49*10^6,"Water")/1000</f>
+        <v>2250.807435742388</v>
+      </c>
+      <c r="U52">
+        <f>[1]!PropsSI("H","S",U46*1000,"P",U49*10^6,"Water")/1000</f>
+        <v>2250.9920084656792</v>
+      </c>
+      <c r="V52">
+        <f>[1]!PropsSI("H","S",V46*1000,"P",V49*10^6,"Water")/1000</f>
+        <v>2224.2336207629087</v>
+      </c>
+      <c r="W52">
+        <f>[1]!PropsSI("H","S",W46*1000,"P",W49*10^6,"Water")/1000</f>
+        <v>2253.6407625489419</v>
+      </c>
+      <c r="X52">
+        <f>[1]!PropsSI("H","S",X46*1000,"P",X49*10^6,"Water")/1000</f>
+        <v>2288.8970202293754</v>
+      </c>
+      <c r="Y52">
+        <f>[1]!PropsSI("H","S",Y46*1000,"P",Y49*10^6,"Water")/1000</f>
+        <v>2361.7568655951695</v>
+      </c>
+      <c r="Z52">
+        <f>[1]!PropsSI("H","S",Z46*1000,"P",Z49*10^6,"Water")/1000</f>
+        <v>2394.0134592712898</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53">
+        <f>(C44-C48)/(C44-C52)</f>
+        <v>0.71285737734156329</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ref="D53:H53" si="0">(D44-D48)/(D44-D52)</f>
+        <v>0.71176006042473139</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>0.71299110674531008</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>0.71367701457000521</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>0.7249714436813629</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>0.72923320414461013</v>
+      </c>
+      <c r="I53">
+        <f t="shared" ref="I53" si="1">(I44-I48)/(I44-I52)</f>
+        <v>0.71816913659243165</v>
+      </c>
+      <c r="J53">
+        <f t="shared" ref="J53" si="2">(J44-J48)/(J44-J52)</f>
+        <v>0.71628874448890889</v>
+      </c>
+      <c r="K53">
+        <f t="shared" ref="K53" si="3">(K44-K48)/(K44-K52)</f>
+        <v>0.71605259824407563</v>
+      </c>
+      <c r="L53">
+        <f t="shared" ref="L53" si="4">(L44-L48)/(L44-L52)</f>
+        <v>0.72229729084584471</v>
+      </c>
+      <c r="M53">
+        <f t="shared" ref="M53" si="5">(M44-M48)/(M44-M52)</f>
+        <v>0.72678745360735753</v>
+      </c>
+      <c r="N53">
+        <f t="shared" ref="N53:O53" si="6">(N44-N48)/(N44-N52)</f>
+        <v>0.72613217584188605</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="6"/>
+        <v>0.71841941437485812</v>
+      </c>
+      <c r="P53">
+        <f t="shared" ref="P53" si="7">(P44-P48)/(P44-P52)</f>
+        <v>0.71746257219888998</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" ref="Q53" si="8">(Q44-Q48)/(Q44-Q52)</f>
+        <v>0.72835487464792881</v>
+      </c>
+      <c r="R53">
+        <f t="shared" ref="R53" si="9">(R44-R48)/(R44-R52)</f>
+        <v>0.71895959943997345</v>
+      </c>
+      <c r="S53">
+        <f t="shared" ref="S53" si="10">(S44-S48)/(S44-S52)</f>
+        <v>0.72530650083312076</v>
+      </c>
+      <c r="T53">
+        <f t="shared" ref="T53" si="11">(T44-T48)/(T44-T52)</f>
+        <v>0.72311342744817164</v>
+      </c>
+      <c r="U53">
+        <f t="shared" ref="U53" si="12">(U44-U48)/(U44-U52)</f>
+        <v>0.72300195758193919</v>
+      </c>
+      <c r="V53">
+        <f t="shared" ref="V53" si="13">(V44-V48)/(V44-V52)</f>
+        <v>0.72627003017833369</v>
+      </c>
+      <c r="W53">
+        <f t="shared" ref="W53" si="14">(W44-W48)/(W44-W52)</f>
+        <v>0.72261212015984089</v>
+      </c>
+      <c r="X53">
+        <f t="shared" ref="X53" si="15">(X44-X48)/(X44-X52)</f>
+        <v>0.72846324413208419</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" ref="Y53" si="16">(Y44-Y48)/(Y44-Y52)</f>
+        <v>0.73580709461544236</v>
+      </c>
+      <c r="Z53">
+        <f t="shared" ref="Z53" si="17">(Z44-Z48)/(Z44-Z52)</f>
+        <v>0.73822114038813613</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54">
+        <f>C24</f>
+        <v>52.33</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ref="D54:H54" si="18">D24</f>
+        <v>53.5</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="18"/>
+        <v>55.33</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="18"/>
+        <v>55.17</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="18"/>
+        <v>53.14</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="18"/>
+        <v>50.25</v>
+      </c>
+      <c r="I54">
+        <f t="shared" ref="I54:N54" si="19">I24</f>
+        <v>64.25</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="19"/>
+        <v>65.61</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="19"/>
+        <v>67.81</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="19"/>
+        <v>67.22</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="19"/>
+        <v>64.89</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="19"/>
+        <v>61.55</v>
+      </c>
+      <c r="O54">
+        <f t="shared" ref="O54:W54" si="20">O24</f>
+        <v>76.72</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="20"/>
+        <v>76.5</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="20"/>
+        <v>78.17</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="20"/>
+        <v>79.33</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="20"/>
+        <v>80.61</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="20"/>
+        <v>79.62</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="20"/>
+        <v>79.52</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="20"/>
+        <v>78.16</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="20"/>
+        <v>76.819999999999993</v>
+      </c>
+      <c r="X54">
+        <f t="shared" ref="X54:Z54" si="21">X24</f>
+        <v>76.86</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="21"/>
+        <v>72.94</v>
+      </c>
+      <c r="Z54">
+        <f t="shared" si="21"/>
+        <v>72.94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <f>C47*C24</f>
+        <v>129.42238652846399</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ref="D55:H55" si="22">D47*D24</f>
+        <v>129.53292601939145</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="22"/>
+        <v>129.31083612288003</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="22"/>
+        <v>129.49051611903923</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="22"/>
+        <v>128.7935048012024</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="22"/>
+        <v>127.0756577405991</v>
+      </c>
+      <c r="I55">
+        <f t="shared" ref="I55:N55" si="23">I47*I24</f>
+        <v>129.78959637693708</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="23"/>
+        <v>129.80517084414842</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="23"/>
+        <v>129.60344426049951</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="23"/>
+        <v>129.53823435497904</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="23"/>
+        <v>129.4935320971388</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="23"/>
+        <v>127.55488549149568</v>
+      </c>
+      <c r="O55">
+        <f t="shared" ref="O55:W55" si="24">O47*O24</f>
+        <v>87.221989050777708</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="24"/>
+        <v>87.270517107270095</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="24"/>
+        <v>88.897764205826419</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="24"/>
+        <v>87.435795378206393</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="24"/>
+        <v>87.247001574567491</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="24"/>
+        <v>87.329085178016712</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="24"/>
+        <v>87.228316960183705</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="24"/>
+        <v>87.660361072656244</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="24"/>
+        <v>87.500349347632792</v>
+      </c>
+      <c r="X55">
+        <f t="shared" ref="X55:Z55" si="25">X47*X24</f>
+        <v>87.273434801362498</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="25"/>
+        <v>86.848582224808922</v>
+      </c>
+      <c r="Z55">
+        <f t="shared" si="25"/>
+        <v>86.602627383410564</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ref="C56:H56" si="26">C26</f>
+        <v>2.75</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="26"/>
+        <v>2.72</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="26"/>
+        <v>2.68</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="26"/>
+        <v>2.61</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="26"/>
+        <v>2.62</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="26"/>
+        <v>1.63</v>
+      </c>
+      <c r="I56">
+        <f>I26</f>
+        <v>3.5</v>
+      </c>
+      <c r="J56">
+        <f t="shared" ref="J56:Z56" si="27">J26</f>
+        <v>3.5</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="27"/>
+        <v>3.5</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="27"/>
+        <v>3.37</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="27"/>
+        <v>2.37</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="27"/>
+        <v>2.39</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="27"/>
+        <v>2.36</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="27"/>
+        <v>2.36</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="27"/>
+        <v>2.38</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="27"/>
+        <v>2.34</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="27"/>
+        <v>2.25</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="27"/>
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="27"/>
+        <v>1.89</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="27"/>
+        <v>1.9</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="27"/>
+        <v>1.9</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="27"/>
+        <v>1.23</v>
+      </c>
+      <c r="Z56">
+        <f t="shared" si="27"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ref="C57:H57" si="28">C30</f>
+        <v>9.27</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="28"/>
+        <v>8.92</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="28"/>
+        <v>8.68</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="28"/>
+        <v>8.4</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="28"/>
+        <v>7.94</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="28"/>
+        <v>5.87</v>
+      </c>
+      <c r="I57">
+        <f>I30</f>
+        <v>10</v>
+      </c>
+      <c r="J57">
+        <f t="shared" ref="J57:Z57" si="29">J30</f>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="29"/>
+        <v>9.5</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="29"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="29"/>
+        <v>8.4</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="29"/>
+        <v>6.7</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="29"/>
+        <v>10.27</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="29"/>
+        <v>10.25</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="29"/>
+        <v>10.039999999999999</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="29"/>
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="29"/>
+        <v>9.73</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="29"/>
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="29"/>
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="29"/>
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="29"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="29"/>
+        <v>8.68</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="29"/>
+        <v>7.1</v>
+      </c>
+      <c r="Z57">
+        <f t="shared" si="29"/>
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B61" t="str">
+        <f>B55</f>
+        <v>Объемный расход на входе</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ref="C61:Z61" si="30">C55</f>
+        <v>129.42238652846399</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="30"/>
+        <v>129.53292601939145</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="30"/>
+        <v>129.31083612288003</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="30"/>
+        <v>129.49051611903923</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="30"/>
+        <v>128.7935048012024</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="30"/>
+        <v>127.0756577405991</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="30"/>
+        <v>129.78959637693708</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="30"/>
+        <v>129.80517084414842</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="30"/>
+        <v>129.60344426049951</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="30"/>
+        <v>129.53823435497904</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="30"/>
+        <v>129.4935320971388</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="30"/>
+        <v>127.55488549149568</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="30"/>
+        <v>87.221989050777708</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="30"/>
+        <v>87.270517107270095</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="30"/>
+        <v>88.897764205826419</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="30"/>
+        <v>87.435795378206393</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="30"/>
+        <v>87.247001574567491</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="30"/>
+        <v>87.329085178016712</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="30"/>
+        <v>87.228316960183705</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="30"/>
+        <v>87.660361072656244</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="30"/>
+        <v>87.500349347632792</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="30"/>
+        <v>87.273434801362498</v>
+      </c>
+      <c r="Y61">
+        <f t="shared" si="30"/>
+        <v>86.848582224808922</v>
+      </c>
+      <c r="Z61">
+        <f t="shared" si="30"/>
+        <v>86.602627383410564</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B62" t="str">
+        <f>B53</f>
+        <v>КПД ЦНД</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ref="C62:Z62" si="31">C53</f>
+        <v>0.71285737734156329</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="31"/>
+        <v>0.71176006042473139</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="31"/>
+        <v>0.71299110674531008</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="31"/>
+        <v>0.71367701457000521</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="31"/>
+        <v>0.7249714436813629</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="31"/>
+        <v>0.72923320414461013</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="31"/>
+        <v>0.71816913659243165</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="31"/>
+        <v>0.71628874448890889</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="31"/>
+        <v>0.71605259824407563</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="31"/>
+        <v>0.72229729084584471</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="31"/>
+        <v>0.72678745360735753</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="31"/>
+        <v>0.72613217584188605</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="31"/>
+        <v>0.71841941437485812</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="31"/>
+        <v>0.71746257219888998</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="31"/>
+        <v>0.72835487464792881</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="31"/>
+        <v>0.71895959943997345</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="31"/>
+        <v>0.72530650083312076</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="31"/>
+        <v>0.72311342744817164</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="31"/>
+        <v>0.72300195758193919</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="31"/>
+        <v>0.72627003017833369</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="31"/>
+        <v>0.72261212015984089</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="31"/>
+        <v>0.72846324413208419</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" si="31"/>
+        <v>0.73580709461544236</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" si="31"/>
+        <v>0.73822114038813613</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67">
+        <f>C4+C8</f>
+        <v>52.54</v>
+      </c>
+      <c r="D67">
+        <f>D4+D8</f>
+        <v>53.71</v>
+      </c>
+      <c r="E67">
+        <f>E4+E8</f>
+        <v>55.54</v>
+      </c>
+      <c r="F67">
+        <f>F4+F8</f>
+        <v>55.36</v>
+      </c>
+      <c r="G67">
+        <f>G4+G8</f>
+        <v>53.34</v>
+      </c>
+      <c r="H67">
+        <f>H4+H8</f>
+        <v>50.45</v>
+      </c>
+      <c r="I67">
+        <f>I4+I8</f>
+        <v>64.489999999999995</v>
+      </c>
+      <c r="J67">
+        <f>J4+J8</f>
+        <v>65.87</v>
+      </c>
+      <c r="K67">
+        <f>K4+K8</f>
+        <v>68.069999999999993</v>
+      </c>
+      <c r="L67">
+        <f>L4+L8</f>
+        <v>67.489999999999995</v>
+      </c>
+      <c r="M67">
+        <f>M4+M8</f>
+        <v>65.150000000000006</v>
+      </c>
+      <c r="N67">
+        <f>N4+N8</f>
+        <v>61.77</v>
+      </c>
+      <c r="O67">
+        <f>O4+O8</f>
+        <v>77.02</v>
+      </c>
+      <c r="P67">
+        <f>P4+P8</f>
+        <v>76.78</v>
+      </c>
+      <c r="Q67">
+        <f>Q4+Q8</f>
+        <v>78.47</v>
+      </c>
+      <c r="R67">
+        <f>R4+R8</f>
+        <v>79.64</v>
+      </c>
+      <c r="S67">
+        <f>S4+S8</f>
+        <v>80.92</v>
+      </c>
+      <c r="T67">
+        <f>T4+T8</f>
+        <v>79.930000000000007</v>
+      </c>
+      <c r="U67">
+        <f>U4+U8</f>
+        <v>79.830000000000013</v>
+      </c>
+      <c r="V67">
+        <f>V4+V8</f>
+        <v>78.16</v>
+      </c>
+      <c r="W67">
+        <f>W4+W8</f>
+        <v>77.12</v>
+      </c>
+      <c r="X67">
+        <f>X4+X8</f>
+        <v>77.16</v>
+      </c>
+      <c r="Y67">
+        <f>Y4+Y8</f>
+        <v>73.240000000000009</v>
+      </c>
+      <c r="Z67">
+        <f>Z4+Z8</f>
+        <v>73.23</v>
+      </c>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68">
+        <f>C28</f>
+        <v>52.3</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ref="D68:AA68" si="32">D28</f>
+        <v>53.5</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="32"/>
+        <v>55.33</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="32"/>
+        <v>55.17</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="32"/>
+        <v>53.14</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="32"/>
+        <v>50.25</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="32"/>
+        <v>64.25</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="32"/>
+        <v>65.61</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="32"/>
+        <v>67.81</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="32"/>
+        <v>67.22</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="32"/>
+        <v>64.89</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="32"/>
+        <v>61.55</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="32"/>
+        <v>76.73</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="32"/>
+        <v>76.489999999999995</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="32"/>
+        <v>78.17</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="32"/>
+        <v>79.33</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="32"/>
+        <v>80.61</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="32"/>
+        <v>79.62</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="32"/>
+        <v>79.52</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="32"/>
+        <v>78.16</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="32"/>
+        <v>76.819999999999993</v>
+      </c>
+      <c r="X68">
+        <f t="shared" si="32"/>
+        <v>76.86</v>
+      </c>
+      <c r="Y68">
+        <f t="shared" si="32"/>
+        <v>72.94</v>
+      </c>
+      <c r="Z68">
+        <f t="shared" si="32"/>
+        <v>72.94</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69">
+        <f>C67-C68</f>
+        <v>0.24000000000000199</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ref="D69:Z69" si="33">D67-D68</f>
+        <v>0.21000000000000085</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="33"/>
+        <v>0.21000000000000085</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="33"/>
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="33"/>
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="33"/>
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="33"/>
+        <v>0.23999999999999488</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="33"/>
+        <v>0.26000000000000512</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="33"/>
+        <v>0.25999999999999091</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="33"/>
+        <v>0.26999999999999602</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="33"/>
+        <v>0.26000000000000512</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="33"/>
+        <v>0.22000000000000597</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="33"/>
+        <v>0.28999999999999204</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="33"/>
+        <v>0.29000000000000625</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="33"/>
+        <v>0.29999999999999716</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="33"/>
+        <v>0.31000000000000227</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="33"/>
+        <v>0.31000000000000227</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="33"/>
+        <v>0.31000000000000227</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="33"/>
+        <v>0.31000000000001648</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="33"/>
+        <v>0.30000000000001137</v>
+      </c>
+      <c r="X69">
+        <f t="shared" si="33"/>
+        <v>0.29999999999999716</v>
+      </c>
+      <c r="Y69">
+        <f t="shared" si="33"/>
+        <v>0.30000000000001137</v>
+      </c>
+      <c r="Z69">
+        <f t="shared" si="33"/>
+        <v>0.29000000000000625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EDE698-8E03-4106-955A-E67F477EFCC9}">
   <dimension ref="A3:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2560,7 +7994,7 @@
         <v>833.3</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -2583,7 +8017,7 @@
         <v>116.8</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -2606,33 +8040,33 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C6">
-        <f>C3-C5</f>
+        <f t="shared" ref="C6:H6" si="0">C3-C5</f>
         <v>784.09999999999991</v>
       </c>
       <c r="D6">
-        <f>D3-D5</f>
+        <f t="shared" si="0"/>
         <v>791.59999999999991</v>
       </c>
       <c r="E6">
-        <f>E3-E5</f>
+        <f t="shared" si="0"/>
         <v>796.59999999999991</v>
       </c>
       <c r="F6">
-        <f>F3-F5</f>
+        <f t="shared" si="0"/>
         <v>810.8</v>
       </c>
       <c r="G6">
-        <f>G3-G5</f>
+        <f t="shared" si="0"/>
         <v>821.59999999999991</v>
       </c>
       <c r="H6">
-        <f>H3-H5</f>
+        <f t="shared" si="0"/>
         <v>810.8</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -2655,7 +8089,7 @@
         <v>101.58</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -2678,7 +8112,7 @@
         <v>87.36</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -2701,7 +8135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -2724,7 +8158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>18</v>
       </c>
@@ -2747,7 +8181,7 @@
         <v>4.4800000000000004</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -2770,12 +8204,12 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>1</v>
       </c>
@@ -2798,7 +8232,7 @@
         <v>41.42</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>2</v>
       </c>
@@ -2821,7 +8255,7 @@
         <v>5.2460000000000004</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>51</v>
       </c>
@@ -2844,12 +8278,12 @@
         <v>522.1</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -2872,7 +8306,7 @@
         <v>9.0299999999999994</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>2</v>
       </c>
@@ -2895,7 +8329,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>3</v>
       </c>
@@ -2918,7 +8352,7 @@
         <v>197.8</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>13</v>
       </c>
@@ -2941,7 +8375,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>14</v>
       </c>
@@ -2964,36 +8398,36 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>10</v>
       </c>
       <c r="C25">
-        <f>C6</f>
+        <f t="shared" ref="C25:H25" si="1">C6</f>
         <v>784.09999999999991</v>
       </c>
       <c r="D25">
-        <f>D6</f>
+        <f t="shared" si="1"/>
         <v>791.59999999999991</v>
       </c>
       <c r="E25">
-        <f>E6</f>
+        <f t="shared" si="1"/>
         <v>796.59999999999991</v>
       </c>
       <c r="F25">
-        <f>F6</f>
+        <f t="shared" si="1"/>
         <v>810.8</v>
       </c>
       <c r="G25">
-        <f>G6</f>
+        <f t="shared" si="1"/>
         <v>821.59999999999991</v>
       </c>
       <c r="H25">
-        <f>H6</f>
+        <f t="shared" si="1"/>
         <v>810.8</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>53</v>
       </c>
@@ -3022,7 +8456,7 @@
         <v>3483.5075944401037</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>54</v>
       </c>
@@ -3051,36 +8485,36 @@
         <v>2856.3104743064582</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>55</v>
       </c>
       <c r="C29">
-        <f>C16</f>
+        <f t="shared" ref="C29:H29" si="2">C16</f>
         <v>41.97</v>
       </c>
       <c r="D29">
-        <f>D16</f>
+        <f t="shared" si="2"/>
         <v>42.97</v>
       </c>
       <c r="E29">
-        <f>E16</f>
+        <f t="shared" si="2"/>
         <v>44.5</v>
       </c>
       <c r="F29">
-        <f>F16</f>
+        <f t="shared" si="2"/>
         <v>44.44</v>
       </c>
       <c r="G29">
-        <f>G16</f>
+        <f t="shared" si="2"/>
         <v>43.17</v>
       </c>
       <c r="H29">
-        <f>H16</f>
+        <f t="shared" si="2"/>
         <v>41.42</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>56</v>
       </c>
@@ -3089,56 +8523,56 @@
         <v>10.57</v>
       </c>
       <c r="D30">
-        <f t="shared" ref="D30:H30" si="0">D20</f>
+        <f t="shared" ref="D30:H30" si="3">D20</f>
         <v>10.74</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>11.04</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>10.92</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>10.17</v>
       </c>
       <c r="H30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.0299999999999994</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>57</v>
       </c>
       <c r="C31">
-        <f>C18</f>
+        <f t="shared" ref="C31:H31" si="4">C18</f>
         <v>492.2</v>
       </c>
       <c r="D31">
-        <f>D18</f>
+        <f t="shared" si="4"/>
         <v>495</v>
       </c>
       <c r="E31">
-        <f>E18</f>
+        <f t="shared" si="4"/>
         <v>499</v>
       </c>
       <c r="F31">
-        <f>F18</f>
+        <f t="shared" si="4"/>
         <v>500.9</v>
       </c>
       <c r="G31">
-        <f>G18</f>
+        <f t="shared" si="4"/>
         <v>507.8</v>
       </c>
       <c r="H31">
-        <f>H18</f>
+        <f t="shared" si="4"/>
         <v>522.1</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>58</v>
       </c>
@@ -3147,27 +8581,27 @@
         <v>199.4</v>
       </c>
       <c r="D32">
-        <f t="shared" ref="D32:H32" si="1">D22</f>
+        <f t="shared" ref="D32:H32" si="5">D22</f>
         <v>199.6</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>199.8</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>199.7</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>199</v>
       </c>
       <c r="H32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>197.8</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>59</v>
       </c>
@@ -3176,27 +8610,27 @@
         <v>784.09999999999991</v>
       </c>
       <c r="D33">
-        <f t="shared" ref="D33:H33" si="2">D25</f>
+        <f t="shared" ref="D33:H33" si="6">D25</f>
         <v>791.59999999999991</v>
       </c>
       <c r="E33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>796.59999999999991</v>
       </c>
       <c r="F33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>810.8</v>
       </c>
       <c r="G33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>821.59999999999991</v>
       </c>
       <c r="H33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>810.8</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>60</v>
       </c>
@@ -3205,27 +8639,27 @@
         <v>69</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34:H34" si="3">D24</f>
+        <f t="shared" ref="D34:H34" si="7">D24</f>
         <v>69</v>
       </c>
       <c r="E34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>53.1</v>
       </c>
       <c r="F34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
       <c r="G34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="H34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>61</v>
       </c>
@@ -3234,27 +8668,27 @@
         <v>103.2</v>
       </c>
       <c r="D35">
-        <f t="shared" ref="D35:H35" si="4">D23</f>
+        <f t="shared" ref="D35:H35" si="8">D23</f>
         <v>104.1</v>
       </c>
       <c r="E35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>89.4</v>
       </c>
       <c r="F35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>81.8</v>
       </c>
       <c r="G35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>72</v>
       </c>
       <c r="H35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>62</v>
       </c>
@@ -3263,27 +8697,53 @@
         <v>784.09999999999991</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:H36" si="5">D25</f>
+        <f t="shared" ref="D36:H36" si="9">D25</f>
         <v>791.59999999999991</v>
       </c>
       <c r="E36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>796.59999999999991</v>
       </c>
       <c r="F36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>810.8</v>
       </c>
       <c r="G36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>821.59999999999991</v>
       </c>
       <c r="H36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>810.8</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D37">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="E37">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="F37">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="G37">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="H37">
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>13</v>
       </c>
@@ -3291,7 +8751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>1</v>
       </c>
@@ -3314,7 +8774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>2</v>
       </c>
@@ -3337,7 +8797,7 @@
         <v>0.14910000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>3</v>
       </c>
@@ -3360,7 +8820,7 @@
         <v>132.69999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>14</v>
       </c>
@@ -3368,7 +8828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>1</v>
       </c>
@@ -3391,7 +8851,7 @@
         <v>44.72</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>2</v>
       </c>
@@ -3414,7 +8874,7 @@
         <v>5.7799999999999997E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>3</v>
       </c>
@@ -3442,7 +8902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W25"/>
   <sheetViews>
@@ -3450,13 +8910,13 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="35.08984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="D1" s="1">
         <v>0.5</v>
       </c>
@@ -3464,7 +8924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C2">
         <v>-40</v>
       </c>
@@ -3517,7 +8977,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>13</v>
       </c>
@@ -3531,7 +8991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -3590,7 +9050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -3649,7 +9109,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -3708,7 +9168,7 @@
         <v>121.8</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>14</v>
       </c>
@@ -3722,7 +9182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -3781,7 +9241,7 @@
         <v>46.75</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -3840,7 +9300,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>3</v>
       </c>
@@ -3899,7 +9359,7 @@
         <v>81.73</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>15</v>
       </c>
@@ -3913,7 +9373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>1</v>
       </c>
@@ -3972,7 +9432,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -4031,7 +9491,7 @@
         <v>80.58</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>6</v>
       </c>
@@ -4090,7 +9550,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>10</v>
       </c>
@@ -4149,7 +9609,7 @@
         <v>833.3</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>11</v>
       </c>
@@ -4208,7 +9668,7 @@
         <v>117.5</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>12</v>
       </c>
@@ -4267,7 +9727,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -4326,7 +9786,7 @@
         <v>73.400000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>14</v>
       </c>
@@ -4385,7 +9845,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>37</v>
       </c>
@@ -4450,7 +9910,7 @@
         <v>102.67</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -4509,7 +9969,7 @@
         <v>88.3</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>38</v>
       </c>
@@ -4574,7 +10034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -4633,7 +10093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>39</v>
       </c>
@@ -4698,7 +10158,7 @@
         <v>6.43</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>16</v>
       </c>
@@ -4762,7 +10222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0167F3E-7BBE-4E10-9277-F2F26A5DBFC2}">
   <dimension ref="B3:F14"/>
   <sheetViews>
@@ -4770,9 +10230,9 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>49</v>
       </c>
@@ -4783,7 +10243,7 @@
         <v>35.402046464447999</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <v>112.27951314000001</v>
       </c>
@@ -4794,7 +10254,7 @@
         <v>34.106056587573498</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5">
         <f>B3-B4</f>
         <v>1.3141075156029984</v>
@@ -4808,29 +10268,29 @@
         <v>1.2959898768745006</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F7">
         <f>F5/F4*100</f>
         <v>3.7998819170044218</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
         <v>112.29741560779</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
         <v>112.27951314000001</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12">
         <f>B10-B11</f>
         <v>1.7902467789994603E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14">
         <f>B12/B10*100</f>
         <v>1.5942012283275308E-2</v>

--- a/Данные для проверки на режимах.xlsx
+++ b/Данные для проверки на режимах.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Employee3\Documents\GitHub\GZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3ADCF0-EFCD-4F74-8DAA-19473AF21CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C6CCE5-EF8B-488C-9354-AF3D1FE20663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Тепловикация" sheetId="2" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <sheet name="Турбоустановка с теплофикацией" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
     <sheet name="Лист1" sheetId="3" r:id="rId5"/>
+    <sheet name="Конденсатор" sheetId="6" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
-  <calcPr calcId="181029" iterateCount="2000" iterateDelta="0.1"/>
+  <calcPr calcId="181029" iterateCount="10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="93">
   <si>
     <t>Пар в отборе 2:</t>
   </si>
@@ -309,6 +310,15 @@
   </si>
   <si>
     <t>Дельта</t>
+  </si>
+  <si>
+    <t>тепл</t>
+  </si>
+  <si>
+    <t>конд</t>
+  </si>
+  <si>
+    <t>темпа на входе</t>
   </si>
 </sst>
 </file>
@@ -1403,6 +1413,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>169507</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>150803</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5593B3DD-8108-6CA1-98B9-88A3AD4EEFCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6578600" y="1733550"/>
+          <a:ext cx="8830907" cy="11307753"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -7654,99 +7713,99 @@
         <v>87</v>
       </c>
       <c r="C67">
-        <f>C4+C8</f>
+        <f t="shared" ref="C67:Z67" si="32">C4+C8</f>
         <v>52.54</v>
       </c>
       <c r="D67">
-        <f>D4+D8</f>
+        <f t="shared" si="32"/>
         <v>53.71</v>
       </c>
       <c r="E67">
-        <f>E4+E8</f>
+        <f t="shared" si="32"/>
         <v>55.54</v>
       </c>
       <c r="F67">
-        <f>F4+F8</f>
+        <f t="shared" si="32"/>
         <v>55.36</v>
       </c>
       <c r="G67">
-        <f>G4+G8</f>
+        <f t="shared" si="32"/>
         <v>53.34</v>
       </c>
       <c r="H67">
-        <f>H4+H8</f>
+        <f t="shared" si="32"/>
         <v>50.45</v>
       </c>
       <c r="I67">
-        <f>I4+I8</f>
+        <f t="shared" si="32"/>
         <v>64.489999999999995</v>
       </c>
       <c r="J67">
-        <f>J4+J8</f>
+        <f t="shared" si="32"/>
         <v>65.87</v>
       </c>
       <c r="K67">
-        <f>K4+K8</f>
+        <f t="shared" si="32"/>
         <v>68.069999999999993</v>
       </c>
       <c r="L67">
-        <f>L4+L8</f>
+        <f t="shared" si="32"/>
         <v>67.489999999999995</v>
       </c>
       <c r="M67">
-        <f>M4+M8</f>
+        <f t="shared" si="32"/>
         <v>65.150000000000006</v>
       </c>
       <c r="N67">
-        <f>N4+N8</f>
+        <f t="shared" si="32"/>
         <v>61.77</v>
       </c>
       <c r="O67">
-        <f>O4+O8</f>
+        <f t="shared" si="32"/>
         <v>77.02</v>
       </c>
       <c r="P67">
-        <f>P4+P8</f>
+        <f t="shared" si="32"/>
         <v>76.78</v>
       </c>
       <c r="Q67">
-        <f>Q4+Q8</f>
+        <f t="shared" si="32"/>
         <v>78.47</v>
       </c>
       <c r="R67">
-        <f>R4+R8</f>
+        <f t="shared" si="32"/>
         <v>79.64</v>
       </c>
       <c r="S67">
-        <f>S4+S8</f>
+        <f t="shared" si="32"/>
         <v>80.92</v>
       </c>
       <c r="T67">
-        <f>T4+T8</f>
+        <f t="shared" si="32"/>
         <v>79.930000000000007</v>
       </c>
       <c r="U67">
-        <f>U4+U8</f>
+        <f t="shared" si="32"/>
         <v>79.830000000000013</v>
       </c>
       <c r="V67">
-        <f>V4+V8</f>
+        <f t="shared" si="32"/>
         <v>78.16</v>
       </c>
       <c r="W67">
-        <f>W4+W8</f>
+        <f t="shared" si="32"/>
         <v>77.12</v>
       </c>
       <c r="X67">
-        <f>X4+X8</f>
+        <f t="shared" si="32"/>
         <v>77.16</v>
       </c>
       <c r="Y67">
-        <f>Y4+Y8</f>
+        <f t="shared" si="32"/>
         <v>73.240000000000009</v>
       </c>
       <c r="Z67">
-        <f>Z4+Z8</f>
+        <f t="shared" si="32"/>
         <v>73.23</v>
       </c>
     </row>
@@ -7759,95 +7818,95 @@
         <v>52.3</v>
       </c>
       <c r="D68">
-        <f t="shared" ref="D68:AA68" si="32">D28</f>
+        <f t="shared" ref="D68:Z68" si="33">D28</f>
         <v>53.5</v>
       </c>
       <c r="E68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>55.33</v>
       </c>
       <c r="F68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>55.17</v>
       </c>
       <c r="G68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>53.14</v>
       </c>
       <c r="H68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>50.25</v>
       </c>
       <c r="I68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>64.25</v>
       </c>
       <c r="J68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>65.61</v>
       </c>
       <c r="K68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>67.81</v>
       </c>
       <c r="L68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>67.22</v>
       </c>
       <c r="M68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>64.89</v>
       </c>
       <c r="N68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>61.55</v>
       </c>
       <c r="O68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>76.73</v>
       </c>
       <c r="P68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>76.489999999999995</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>78.17</v>
       </c>
       <c r="R68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>79.33</v>
       </c>
       <c r="S68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>80.61</v>
       </c>
       <c r="T68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>79.62</v>
       </c>
       <c r="U68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>79.52</v>
       </c>
       <c r="V68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>78.16</v>
       </c>
       <c r="W68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>76.819999999999993</v>
       </c>
       <c r="X68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>76.86</v>
       </c>
       <c r="Y68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>72.94</v>
       </c>
       <c r="Z68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>72.94</v>
       </c>
     </row>
@@ -7860,95 +7919,95 @@
         <v>0.24000000000000199</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:Z69" si="33">D67-D68</f>
+        <f t="shared" ref="D69:Z69" si="34">D67-D68</f>
         <v>0.21000000000000085</v>
       </c>
       <c r="E69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.21000000000000085</v>
       </c>
       <c r="F69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.18999999999999773</v>
       </c>
       <c r="G69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.20000000000000284</v>
       </c>
       <c r="H69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.20000000000000284</v>
       </c>
       <c r="I69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.23999999999999488</v>
       </c>
       <c r="J69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.26000000000000512</v>
       </c>
       <c r="K69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.25999999999999091</v>
       </c>
       <c r="L69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.26999999999999602</v>
       </c>
       <c r="M69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.26000000000000512</v>
       </c>
       <c r="N69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.22000000000000597</v>
       </c>
       <c r="O69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.28999999999999204</v>
       </c>
       <c r="P69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.29000000000000625</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.29999999999999716</v>
       </c>
       <c r="R69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.31000000000000227</v>
       </c>
       <c r="S69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.31000000000000227</v>
       </c>
       <c r="T69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.31000000000000227</v>
       </c>
       <c r="U69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.31000000000001648</v>
       </c>
       <c r="V69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.30000000000001137</v>
       </c>
       <c r="X69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.29999999999999716</v>
       </c>
       <c r="Y69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.30000000000001137</v>
       </c>
       <c r="Z69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.29000000000000625</v>
       </c>
     </row>
@@ -7962,7 +8021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EDE698-8E03-4106-955A-E67F477EFCC9}">
   <dimension ref="A3:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
@@ -10300,4 +10359,316 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD3BF47-064D-4ADE-AF40-A33E2E57375A}">
+  <dimension ref="B3:O18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>-42</v>
+      </c>
+      <c r="D3">
+        <v>-40</v>
+      </c>
+      <c r="E3">
+        <v>-28</v>
+      </c>
+      <c r="F3">
+        <v>-20</v>
+      </c>
+      <c r="G3">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="H3">
+        <v>-3.1</v>
+      </c>
+      <c r="I3">
+        <v>-2.5</v>
+      </c>
+      <c r="J3">
+        <v>15</v>
+      </c>
+      <c r="K3">
+        <v>15</v>
+      </c>
+      <c r="L3">
+        <v>15</v>
+      </c>
+      <c r="M3">
+        <v>37</v>
+      </c>
+      <c r="N3">
+        <v>37</v>
+      </c>
+      <c r="O3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+      <c r="L4">
+        <v>25</v>
+      </c>
+      <c r="M4">
+        <v>35</v>
+      </c>
+      <c r="N4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>-40</v>
+      </c>
+      <c r="E6">
+        <v>-28</v>
+      </c>
+      <c r="F6">
+        <v>-20</v>
+      </c>
+      <c r="G6">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="H6">
+        <v>-3.1</v>
+      </c>
+      <c r="I6">
+        <v>-2.5</v>
+      </c>
+      <c r="J6">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>15</v>
+      </c>
+      <c r="L6">
+        <v>37</v>
+      </c>
+      <c r="M6">
+        <v>37</v>
+      </c>
+      <c r="N6">
+        <v>37</v>
+      </c>
+      <c r="O6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>18</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+      <c r="J7">
+        <v>25</v>
+      </c>
+      <c r="K7">
+        <v>25</v>
+      </c>
+      <c r="L7">
+        <v>35</v>
+      </c>
+      <c r="M7">
+        <v>35</v>
+      </c>
+      <c r="N7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>-40</v>
+      </c>
+      <c r="D11">
+        <v>-28</v>
+      </c>
+      <c r="E11">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="F11">
+        <v>-3.1</v>
+      </c>
+      <c r="G11">
+        <v>15</v>
+      </c>
+      <c r="H11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>25</v>
+      </c>
+      <c r="H12">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>25</v>
+      </c>
+      <c r="H13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <v>-40</v>
+      </c>
+      <c r="D16">
+        <v>-28</v>
+      </c>
+      <c r="E16">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="F16">
+        <v>-3.1</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <v>25</v>
+      </c>
+      <c r="H17">
+        <v>35</v>
+      </c>
+      <c r="I17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>18</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <v>25</v>
+      </c>
+      <c r="H18">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Данные для проверки на режимах.xlsx
+++ b/Данные для проверки на режимах.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Employee3\Documents\GitHub\GZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C6CCE5-EF8B-488C-9354-AF3D1FE20663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D920D9-B6B3-41CE-B30A-F61DBB1B786E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Тепловикация" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <externalReferences>
     <externalReference r:id="rId7"/>
   </externalReferences>
-  <calcPr calcId="181029" iterateCount="10"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3700,11 +3700,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E67E9C-E058-4529-B9FA-B8753B83F0AC}">
   <dimension ref="A1:Z69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K76" sqref="K76"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10365,7 +10365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD3BF47-064D-4ADE-AF40-A33E2E57375A}">
   <dimension ref="B3:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/Данные для проверки на режимах.xlsx
+++ b/Данные для проверки на режимах.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Employee3\Documents\GitHub\GZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D920D9-B6B3-41CE-B30A-F61DBB1B786E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF5D6F9-14E0-42B8-8C1A-27201D4DBD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Тепловикация" sheetId="2" r:id="rId1"/>
@@ -1741,13 +1741,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F46D57-895F-4ADE-87F4-F285EE07A103}">
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
+      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3691,6 +3691,16 @@
         <v>109.1</v>
       </c>
     </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="I40">
+        <f>I16+I18</f>
+        <v>158.69999999999999</v>
+      </c>
+      <c r="J40">
+        <f>J16+J18</f>
+        <v>162.19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3701,10 +3711,10 @@
   <dimension ref="A1:Z69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8021,7 +8031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EDE698-8E03-4106-955A-E67F477EFCC9}">
   <dimension ref="A3:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>

--- a/Данные для проверки на режимах.xlsx
+++ b/Данные для проверки на режимах.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Employee3\Documents\GitHub\GZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF5D6F9-14E0-42B8-8C1A-27201D4DBD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD873CAC-C057-435A-BB27-D973B406535A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Тепловикация" sheetId="2" r:id="rId1"/>
@@ -19,9 +19,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
     <sheet name="Лист1" sheetId="3" r:id="rId5"/>
     <sheet name="Конденсатор" sheetId="6" r:id="rId6"/>
+    <sheet name="Давление начальное" sheetId="7" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="94">
   <si>
     <t>Пар в отборе 2:</t>
   </si>
@@ -320,12 +322,15 @@
   <si>
     <t>темпа на входе</t>
   </si>
+  <si>
+    <t>Давление пара в К, МПа</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,6 +345,22 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -349,7 +370,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -357,19 +378,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{7D2A8B1B-6292-436E-BD5E-D7B89EAA4212}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -816,6 +853,1618 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.24046347331583551"/>
+                  <c:y val="-9.680300379119277E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Давление начальное'!$A$4:$AU$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>1.0194521635569671</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0341405319571257</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0446605795950772</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0549821357681619</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0361254466057959</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0343390234219929</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98173878523223501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8973799126637555</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8973799126637555</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98173878523223501</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8973799126637555</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0246129416435095</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0194521635569671</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0341405319571257</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0446605795950772</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0549821357681619</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0361254466057959</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0343390234219929</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.98173878523223501</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.98173878523223501</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.8973799126637555</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.8973799126637555</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.85629217943628422</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.86840015879317189</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.88844779674473995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.87614132592298521</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.83009130607383874</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.75823739579198091</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.85629217943628422</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.86840015879317189</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.88844779674473995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.87614132592298521</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.83009130607383874</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.75823739579198091</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.7086145295752283</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.7185391028185788</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.73481540293767367</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.7288606589916633</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.69015482334259626</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.6304088924176261</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.7086145295752283</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.7185391028185788</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.73481540293767367</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.7288606589916633</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.69015482334259626</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.6304088924176261</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Давление начальное'!$A$5:$AU$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>8.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5370000000000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4640000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.4570000000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0440000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0440000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.2729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.0440000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.0109999999999992</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.2240000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.3719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.5359999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.4640000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.4570000000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.407</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.2729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.2729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.0429999999999993</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.0429999999999993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.0069999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.2869999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.2510000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.08</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.8680000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.83</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.0069999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.2869999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.2510000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.08</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.8680000000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.5270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.6689999999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.8840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.8849999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.7469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.5739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.5270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.6689999999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.8840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.8849999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.7469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.5739999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-254E-4672-9C8D-279771D96C08}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1769638944"/>
+        <c:axId val="1769636448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1769638944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1769636448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1769636448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1769638944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.24046347331583551"/>
+                  <c:y val="-9.680300379119277E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Давление начальное'!$A$4:$AU$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>1.0194521635569671</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0341405319571257</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0446605795950772</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0549821357681619</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0361254466057959</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0343390234219929</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98173878523223501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8973799126637555</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8973799126637555</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98173878523223501</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8973799126637555</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0246129416435095</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0194521635569671</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0341405319571257</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0446605795950772</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0549821357681619</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0361254466057959</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0343390234219929</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.98173878523223501</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.98173878523223501</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.8973799126637555</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.8973799126637555</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.85629217943628422</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.86840015879317189</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.88844779674473995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.87614132592298521</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.83009130607383874</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.75823739579198091</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.85629217943628422</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.86840015879317189</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.88844779674473995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.87614132592298521</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.83009130607383874</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.75823739579198091</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.7086145295752283</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.7185391028185788</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.73481540293767367</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.7288606589916633</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.69015482334259626</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.6304088924176261</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.7086145295752283</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.7185391028185788</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.73481540293767367</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.7288606589916633</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.69015482334259626</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.6304088924176261</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Давление начальное'!$A$6:$AU$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>0.68100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.627</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.68700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.68400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.69699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.70599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.71599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.70699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.70599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.69099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.68100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.64400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.64400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.55800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.56200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.55200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.55300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.52300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.55600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.56699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.58399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.57799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.55600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.52600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.46100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.46300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.46600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.46500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.45700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.44600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.46100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.46300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.46600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.46500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.44600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C39D-4B23-A12D-21859C2E023F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1769638944"/>
+        <c:axId val="1769636448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1769638944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1769636448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1769636448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1769638944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Давление начальное'!$B$45:$T$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Давление начальное'!$B$46:$T$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>8.4652799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4043899999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3757199999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3624700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3561200000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.35304</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3521300000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3513999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3515099999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.3508999999999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.3512000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.3507200000000008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.3508899999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.3505800000000008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.35032</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.3507099999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.3508200000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.3505800000000008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.3508999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B28F-4093-9463-058A0DF5F4F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1411083040"/>
+        <c:axId val="1411080544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1411083040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1411080544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1411080544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1411083040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -856,7 +2505,1675 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1462,6 +4779,121 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>117475</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>422275</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96F19301-C76E-B915-8DCB-BE259114C9E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>541565</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>156029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238579</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>136978</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5379AD19-1E2E-4AB4-B2A6-42435C05FE5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>430893</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>181429</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>146957</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4168E558-CDD9-22A6-00F2-C38095615271}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -1473,6 +4905,492 @@
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Модель ГТУ"/>
+      <sheetName val="КУ+ПТ номинальный режим"/>
+      <sheetName val="Теплофикационные режимы"/>
+      <sheetName val="Лист1"/>
+      <sheetName val="Конденсационные режимы"/>
+      <sheetName val="Граф. исх. данных"/>
+      <sheetName val="Таблицы для расчётов"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="11">
+          <cell r="C11">
+            <v>513.6</v>
+          </cell>
+          <cell r="D11">
+            <v>521</v>
+          </cell>
+          <cell r="E11">
+            <v>526.29999999999995</v>
+          </cell>
+          <cell r="F11">
+            <v>531.5</v>
+          </cell>
+          <cell r="G11">
+            <v>522</v>
+          </cell>
+          <cell r="H11">
+            <v>521.1</v>
+          </cell>
+          <cell r="I11">
+            <v>494.6</v>
+          </cell>
+          <cell r="J11">
+            <v>452.1</v>
+          </cell>
+          <cell r="K11">
+            <v>452.1</v>
+          </cell>
+          <cell r="L11">
+            <v>494.6</v>
+          </cell>
+          <cell r="M11">
+            <v>452.1</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23">
+            <v>8.01</v>
+          </cell>
+          <cell r="D23">
+            <v>8.2270000000000003</v>
+          </cell>
+          <cell r="E23">
+            <v>8.3719999999999999</v>
+          </cell>
+          <cell r="F23">
+            <v>8.5370000000000008</v>
+          </cell>
+          <cell r="G23">
+            <v>8.4640000000000004</v>
+          </cell>
+          <cell r="H23">
+            <v>8.4570000000000007</v>
+          </cell>
+          <cell r="I23">
+            <v>8.2729999999999997</v>
+          </cell>
+          <cell r="J23">
+            <v>8.0440000000000005</v>
+          </cell>
+          <cell r="K23">
+            <v>8.0440000000000005</v>
+          </cell>
+          <cell r="L23">
+            <v>8.2729999999999997</v>
+          </cell>
+          <cell r="M23">
+            <v>8.0440000000000005</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>0.68100000000000005</v>
+          </cell>
+          <cell r="D27">
+            <v>0.69599999999999995</v>
+          </cell>
+          <cell r="E27">
+            <v>0.69299999999999995</v>
+          </cell>
+          <cell r="F27">
+            <v>0.68500000000000005</v>
+          </cell>
+          <cell r="G27">
+            <v>0.66800000000000004</v>
+          </cell>
+          <cell r="H27">
+            <v>0.66700000000000004</v>
+          </cell>
+          <cell r="I27">
+            <v>0.63600000000000001</v>
+          </cell>
+          <cell r="J27">
+            <v>0.6</v>
+          </cell>
+          <cell r="K27">
+            <v>0.6</v>
+          </cell>
+          <cell r="L27">
+            <v>0.66400000000000003</v>
+          </cell>
+          <cell r="M27">
+            <v>0.627</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="C127">
+            <v>431.4</v>
+          </cell>
+          <cell r="D127">
+            <v>437.5</v>
+          </cell>
+          <cell r="E127">
+            <v>447.6</v>
+          </cell>
+          <cell r="F127">
+            <v>441.4</v>
+          </cell>
+          <cell r="G127">
+            <v>418.2</v>
+          </cell>
+          <cell r="H127">
+            <v>382</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="C139">
+            <v>6.83</v>
+          </cell>
+          <cell r="D139">
+            <v>7.0069999999999997</v>
+          </cell>
+          <cell r="E139">
+            <v>7.2869999999999999</v>
+          </cell>
+          <cell r="F139">
+            <v>7.2510000000000003</v>
+          </cell>
+          <cell r="G139">
+            <v>7.08</v>
+          </cell>
+          <cell r="H139">
+            <v>6.8680000000000003</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="C143">
+            <v>0.55800000000000005</v>
+          </cell>
+          <cell r="D143">
+            <v>0.56999999999999995</v>
+          </cell>
+          <cell r="E143">
+            <v>0.56200000000000006</v>
+          </cell>
+          <cell r="F143">
+            <v>0.55200000000000005</v>
+          </cell>
+          <cell r="G143">
+            <v>0.55300000000000005</v>
+          </cell>
+          <cell r="H143">
+            <v>0.52300000000000002</v>
+          </cell>
+        </row>
+        <row r="247">
+          <cell r="C247">
+            <v>357</v>
+          </cell>
+          <cell r="D247">
+            <v>362</v>
+          </cell>
+          <cell r="E247">
+            <v>370.2</v>
+          </cell>
+          <cell r="F247">
+            <v>367.2</v>
+          </cell>
+          <cell r="G247">
+            <v>347.7</v>
+          </cell>
+          <cell r="H247">
+            <v>317.60000000000002</v>
+          </cell>
+        </row>
+        <row r="259">
+          <cell r="C259">
+            <v>5.5270000000000001</v>
+          </cell>
+          <cell r="D259">
+            <v>5.6689999999999996</v>
+          </cell>
+          <cell r="E259">
+            <v>5.8840000000000003</v>
+          </cell>
+          <cell r="F259">
+            <v>5.8849999999999998</v>
+          </cell>
+          <cell r="G259">
+            <v>5.7469999999999999</v>
+          </cell>
+          <cell r="H259">
+            <v>5.5739999999999998</v>
+          </cell>
+        </row>
+        <row r="263">
+          <cell r="C263">
+            <v>0.46100000000000002</v>
+          </cell>
+          <cell r="D263">
+            <v>0.46300000000000002</v>
+          </cell>
+          <cell r="E263">
+            <v>0.46600000000000003</v>
+          </cell>
+          <cell r="F263">
+            <v>0.46500000000000002</v>
+          </cell>
+          <cell r="G263">
+            <v>0.45700000000000002</v>
+          </cell>
+          <cell r="H263">
+            <v>0.44600000000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="15">
+          <cell r="C15">
+            <v>516.20000000000005</v>
+          </cell>
+          <cell r="D15">
+            <v>513.6</v>
+          </cell>
+          <cell r="E15">
+            <v>521</v>
+          </cell>
+          <cell r="F15">
+            <v>526.29999999999995</v>
+          </cell>
+          <cell r="G15">
+            <v>531.5</v>
+          </cell>
+          <cell r="H15">
+            <v>522</v>
+          </cell>
+          <cell r="I15">
+            <v>521.1</v>
+          </cell>
+          <cell r="J15">
+            <v>503.8</v>
+          </cell>
+          <cell r="K15">
+            <v>494.6</v>
+          </cell>
+          <cell r="L15">
+            <v>494.6</v>
+          </cell>
+          <cell r="M15">
+            <v>452.1</v>
+          </cell>
+          <cell r="N15">
+            <v>452.1</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>8.0250000000000004</v>
+          </cell>
+          <cell r="D27">
+            <v>8.0109999999999992</v>
+          </cell>
+          <cell r="E27">
+            <v>8.2240000000000002</v>
+          </cell>
+          <cell r="F27">
+            <v>8.3719999999999999</v>
+          </cell>
+          <cell r="G27">
+            <v>8.5359999999999996</v>
+          </cell>
+          <cell r="H27">
+            <v>8.4640000000000004</v>
+          </cell>
+          <cell r="I27">
+            <v>8.4570000000000007</v>
+          </cell>
+          <cell r="J27">
+            <v>8.407</v>
+          </cell>
+          <cell r="K27">
+            <v>8.2729999999999997</v>
+          </cell>
+          <cell r="L27">
+            <v>8.2729999999999997</v>
+          </cell>
+          <cell r="M27">
+            <v>8.0429999999999993</v>
+          </cell>
+          <cell r="N27">
+            <v>8.0429999999999993</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31">
+            <v>0.68700000000000006</v>
+          </cell>
+          <cell r="D31">
+            <v>0.68400000000000005</v>
+          </cell>
+          <cell r="E31">
+            <v>0.69699999999999995</v>
+          </cell>
+          <cell r="F31">
+            <v>0.70599999999999996</v>
+          </cell>
+          <cell r="G31">
+            <v>0.71599999999999997</v>
+          </cell>
+          <cell r="H31">
+            <v>0.70699999999999996</v>
+          </cell>
+          <cell r="I31">
+            <v>0.70599999999999996</v>
+          </cell>
+          <cell r="J31">
+            <v>0.69099999999999995</v>
+          </cell>
+          <cell r="K31">
+            <v>0.68</v>
+          </cell>
+          <cell r="L31">
+            <v>0.68100000000000005</v>
+          </cell>
+          <cell r="M31">
+            <v>0.64400000000000002</v>
+          </cell>
+          <cell r="N31">
+            <v>0.64400000000000002</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="C133">
+            <v>431.4</v>
+          </cell>
+          <cell r="D133">
+            <v>437.5</v>
+          </cell>
+          <cell r="E133">
+            <v>447.6</v>
+          </cell>
+          <cell r="F133">
+            <v>441.4</v>
+          </cell>
+          <cell r="G133">
+            <v>418.2</v>
+          </cell>
+          <cell r="H133">
+            <v>382</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="C145">
+            <v>6.83</v>
+          </cell>
+          <cell r="D145">
+            <v>7.0069999999999997</v>
+          </cell>
+          <cell r="E145">
+            <v>7.2869999999999999</v>
+          </cell>
+          <cell r="F145">
+            <v>7.2510000000000003</v>
+          </cell>
+          <cell r="G145">
+            <v>7.08</v>
+          </cell>
+          <cell r="H145">
+            <v>6.8680000000000003</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="C149">
+            <v>0.55600000000000005</v>
+          </cell>
+          <cell r="D149">
+            <v>0.56699999999999995</v>
+          </cell>
+          <cell r="E149">
+            <v>0.58399999999999996</v>
+          </cell>
+          <cell r="F149">
+            <v>0.57799999999999996</v>
+          </cell>
+          <cell r="G149">
+            <v>0.55600000000000005</v>
+          </cell>
+          <cell r="H149">
+            <v>0.52600000000000002</v>
+          </cell>
+        </row>
+        <row r="249">
+          <cell r="C249">
+            <v>357</v>
+          </cell>
+          <cell r="D249">
+            <v>362</v>
+          </cell>
+          <cell r="E249">
+            <v>370.2</v>
+          </cell>
+          <cell r="F249">
+            <v>367.2</v>
+          </cell>
+          <cell r="G249">
+            <v>347.7</v>
+          </cell>
+          <cell r="H249">
+            <v>317.60000000000002</v>
+          </cell>
+        </row>
+        <row r="261">
+          <cell r="C261">
+            <v>5.5270000000000001</v>
+          </cell>
+          <cell r="D261">
+            <v>5.6689999999999996</v>
+          </cell>
+          <cell r="E261">
+            <v>5.8840000000000003</v>
+          </cell>
+          <cell r="F261">
+            <v>5.8849999999999998</v>
+          </cell>
+          <cell r="G261">
+            <v>5.7469999999999999</v>
+          </cell>
+          <cell r="H261">
+            <v>5.5739999999999998</v>
+          </cell>
+        </row>
+        <row r="265">
+          <cell r="C265">
+            <v>0.46100000000000002</v>
+          </cell>
+          <cell r="D265">
+            <v>0.46300000000000002</v>
+          </cell>
+          <cell r="E265">
+            <v>0.46600000000000003</v>
+          </cell>
+          <cell r="F265">
+            <v>0.46500000000000002</v>
+          </cell>
+          <cell r="G265">
+            <v>0.45700000000000002</v>
+          </cell>
+          <cell r="H265">
+            <v>0.44600000000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3710,8 +7628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E67E9C-E058-4529-B9FA-B8753B83F0AC}">
   <dimension ref="A1:Z69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
@@ -8032,7 +11950,7 @@
   <dimension ref="A3:H47"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8791,7 +12709,7 @@
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="C37">
         <v>1.6999999999999999E-3</v>
@@ -10681,4 +14599,925 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8984532C-DDFB-4CC9-9526-FD6F89027E1A}">
+  <dimension ref="A2:AU46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R72" sqref="R72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G2" s="3">
+        <v>503.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <f>'[2]Теплофикационные режимы'!C11</f>
+        <v>513.6</v>
+      </c>
+      <c r="B3">
+        <f>'[2]Теплофикационные режимы'!D11</f>
+        <v>521</v>
+      </c>
+      <c r="C3">
+        <f>'[2]Теплофикационные режимы'!E11</f>
+        <v>526.29999999999995</v>
+      </c>
+      <c r="D3">
+        <f>'[2]Теплофикационные режимы'!F11</f>
+        <v>531.5</v>
+      </c>
+      <c r="E3">
+        <f>'[2]Теплофикационные режимы'!G11</f>
+        <v>522</v>
+      </c>
+      <c r="F3">
+        <f>'[2]Теплофикационные режимы'!H11</f>
+        <v>521.1</v>
+      </c>
+      <c r="G3">
+        <f>'[2]Теплофикационные режимы'!I11</f>
+        <v>494.6</v>
+      </c>
+      <c r="H3">
+        <f>'[2]Теплофикационные режимы'!J11</f>
+        <v>452.1</v>
+      </c>
+      <c r="I3">
+        <f>'[2]Теплофикационные режимы'!K11</f>
+        <v>452.1</v>
+      </c>
+      <c r="J3">
+        <f>'[2]Теплофикационные режимы'!L11</f>
+        <v>494.6</v>
+      </c>
+      <c r="K3">
+        <f>'[2]Теплофикационные режимы'!M11</f>
+        <v>452.1</v>
+      </c>
+      <c r="L3">
+        <f>'[2]Конденсационные режимы'!C15</f>
+        <v>516.20000000000005</v>
+      </c>
+      <c r="M3">
+        <f>'[2]Конденсационные режимы'!D15</f>
+        <v>513.6</v>
+      </c>
+      <c r="N3">
+        <f>'[2]Конденсационные режимы'!E15</f>
+        <v>521</v>
+      </c>
+      <c r="O3">
+        <f>'[2]Конденсационные режимы'!F15</f>
+        <v>526.29999999999995</v>
+      </c>
+      <c r="P3">
+        <f>'[2]Конденсационные режимы'!G15</f>
+        <v>531.5</v>
+      </c>
+      <c r="Q3">
+        <f>'[2]Конденсационные режимы'!H15</f>
+        <v>522</v>
+      </c>
+      <c r="R3">
+        <f>'[2]Конденсационные режимы'!I15</f>
+        <v>521.1</v>
+      </c>
+      <c r="S3">
+        <f>'[2]Конденсационные режимы'!J15</f>
+        <v>503.8</v>
+      </c>
+      <c r="T3">
+        <f>'[2]Конденсационные режимы'!K15</f>
+        <v>494.6</v>
+      </c>
+      <c r="U3">
+        <f>'[2]Конденсационные режимы'!L15</f>
+        <v>494.6</v>
+      </c>
+      <c r="V3">
+        <f>'[2]Конденсационные режимы'!M15</f>
+        <v>452.1</v>
+      </c>
+      <c r="W3">
+        <f>'[2]Конденсационные режимы'!N15</f>
+        <v>452.1</v>
+      </c>
+      <c r="X3">
+        <f>'[2]Теплофикационные режимы'!C127</f>
+        <v>431.4</v>
+      </c>
+      <c r="Y3">
+        <f>'[2]Теплофикационные режимы'!D127</f>
+        <v>437.5</v>
+      </c>
+      <c r="Z3">
+        <f>'[2]Теплофикационные режимы'!E127</f>
+        <v>447.6</v>
+      </c>
+      <c r="AA3">
+        <f>'[2]Теплофикационные режимы'!F127</f>
+        <v>441.4</v>
+      </c>
+      <c r="AB3">
+        <f>'[2]Теплофикационные режимы'!G127</f>
+        <v>418.2</v>
+      </c>
+      <c r="AC3">
+        <f>'[2]Теплофикационные режимы'!H127</f>
+        <v>382</v>
+      </c>
+      <c r="AD3">
+        <f>'[2]Конденсационные режимы'!C133</f>
+        <v>431.4</v>
+      </c>
+      <c r="AE3">
+        <f>'[2]Конденсационные режимы'!D133</f>
+        <v>437.5</v>
+      </c>
+      <c r="AF3">
+        <f>'[2]Конденсационные режимы'!E133</f>
+        <v>447.6</v>
+      </c>
+      <c r="AG3">
+        <f>'[2]Конденсационные режимы'!F133</f>
+        <v>441.4</v>
+      </c>
+      <c r="AH3">
+        <f>'[2]Конденсационные режимы'!G133</f>
+        <v>418.2</v>
+      </c>
+      <c r="AI3">
+        <f>'[2]Конденсационные режимы'!H133</f>
+        <v>382</v>
+      </c>
+      <c r="AJ3">
+        <f>'[2]Теплофикационные режимы'!C247</f>
+        <v>357</v>
+      </c>
+      <c r="AK3">
+        <f>'[2]Теплофикационные режимы'!D247</f>
+        <v>362</v>
+      </c>
+      <c r="AL3">
+        <f>'[2]Теплофикационные режимы'!E247</f>
+        <v>370.2</v>
+      </c>
+      <c r="AM3">
+        <f>'[2]Теплофикационные режимы'!F247</f>
+        <v>367.2</v>
+      </c>
+      <c r="AN3">
+        <f>'[2]Теплофикационные режимы'!G247</f>
+        <v>347.7</v>
+      </c>
+      <c r="AO3">
+        <f>'[2]Теплофикационные режимы'!H247</f>
+        <v>317.60000000000002</v>
+      </c>
+      <c r="AP3">
+        <f>'[2]Конденсационные режимы'!C249</f>
+        <v>357</v>
+      </c>
+      <c r="AQ3">
+        <f>'[2]Конденсационные режимы'!D249</f>
+        <v>362</v>
+      </c>
+      <c r="AR3">
+        <f>'[2]Конденсационные режимы'!E249</f>
+        <v>370.2</v>
+      </c>
+      <c r="AS3">
+        <f>'[2]Конденсационные режимы'!F249</f>
+        <v>367.2</v>
+      </c>
+      <c r="AT3">
+        <f>'[2]Конденсационные режимы'!G249</f>
+        <v>347.7</v>
+      </c>
+      <c r="AU3">
+        <f>'[2]Конденсационные режимы'!H249</f>
+        <v>317.60000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <f>A3/$G$2</f>
+        <v>1.0194521635569671</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:AU4" si="0">B3/$G$2</f>
+        <v>1.0341405319571257</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>1.0446605795950772</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1.0549821357681619</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.0361254466057959</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1.0343390234219929</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0.98173878523223501</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.8973799126637555</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0.8973799126637555</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0.98173878523223501</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>0.8973799126637555</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>1.0246129416435095</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>1.0194521635569671</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>1.0341405319571257</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>1.0446605795950772</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>1.0549821357681619</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>1.0361254466057959</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>1.0343390234219929</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>0.98173878523223501</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>0.98173878523223501</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>0.8973799126637555</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>0.8973799126637555</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>0.85629217943628422</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>0.86840015879317189</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>0.88844779674473995</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="0"/>
+        <v>0.87614132592298521</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="0"/>
+        <v>0.83009130607383874</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="0"/>
+        <v>0.75823739579198091</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="0"/>
+        <v>0.85629217943628422</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="0"/>
+        <v>0.86840015879317189</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="0"/>
+        <v>0.88844779674473995</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="0"/>
+        <v>0.87614132592298521</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="0"/>
+        <v>0.83009130607383874</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="0"/>
+        <v>0.75823739579198091</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" si="0"/>
+        <v>0.7086145295752283</v>
+      </c>
+      <c r="AK4">
+        <f t="shared" si="0"/>
+        <v>0.7185391028185788</v>
+      </c>
+      <c r="AL4">
+        <f t="shared" si="0"/>
+        <v>0.73481540293767367</v>
+      </c>
+      <c r="AM4">
+        <f t="shared" si="0"/>
+        <v>0.7288606589916633</v>
+      </c>
+      <c r="AN4">
+        <f t="shared" si="0"/>
+        <v>0.69015482334259626</v>
+      </c>
+      <c r="AO4">
+        <f t="shared" si="0"/>
+        <v>0.6304088924176261</v>
+      </c>
+      <c r="AP4">
+        <f t="shared" si="0"/>
+        <v>0.7086145295752283</v>
+      </c>
+      <c r="AQ4">
+        <f t="shared" si="0"/>
+        <v>0.7185391028185788</v>
+      </c>
+      <c r="AR4">
+        <f t="shared" si="0"/>
+        <v>0.73481540293767367</v>
+      </c>
+      <c r="AS4">
+        <f t="shared" si="0"/>
+        <v>0.7288606589916633</v>
+      </c>
+      <c r="AT4">
+        <f t="shared" si="0"/>
+        <v>0.69015482334259626</v>
+      </c>
+      <c r="AU4">
+        <f t="shared" si="0"/>
+        <v>0.6304088924176261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <f>'[2]Теплофикационные режимы'!C23</f>
+        <v>8.01</v>
+      </c>
+      <c r="B5">
+        <f>'[2]Теплофикационные режимы'!D23</f>
+        <v>8.2270000000000003</v>
+      </c>
+      <c r="C5">
+        <f>'[2]Теплофикационные режимы'!E23</f>
+        <v>8.3719999999999999</v>
+      </c>
+      <c r="D5">
+        <f>'[2]Теплофикационные режимы'!F23</f>
+        <v>8.5370000000000008</v>
+      </c>
+      <c r="E5">
+        <f>'[2]Теплофикационные режимы'!G23</f>
+        <v>8.4640000000000004</v>
+      </c>
+      <c r="F5">
+        <f>'[2]Теплофикационные режимы'!H23</f>
+        <v>8.4570000000000007</v>
+      </c>
+      <c r="G5">
+        <f>'[2]Теплофикационные режимы'!I23</f>
+        <v>8.2729999999999997</v>
+      </c>
+      <c r="H5">
+        <f>'[2]Теплофикационные режимы'!J23</f>
+        <v>8.0440000000000005</v>
+      </c>
+      <c r="I5">
+        <f>'[2]Теплофикационные режимы'!K23</f>
+        <v>8.0440000000000005</v>
+      </c>
+      <c r="J5">
+        <f>'[2]Теплофикационные режимы'!L23</f>
+        <v>8.2729999999999997</v>
+      </c>
+      <c r="K5">
+        <f>'[2]Теплофикационные режимы'!M23</f>
+        <v>8.0440000000000005</v>
+      </c>
+      <c r="L5">
+        <f>'[2]Конденсационные режимы'!C27</f>
+        <v>8.0250000000000004</v>
+      </c>
+      <c r="M5">
+        <f>'[2]Конденсационные режимы'!D27</f>
+        <v>8.0109999999999992</v>
+      </c>
+      <c r="N5">
+        <f>'[2]Конденсационные режимы'!E27</f>
+        <v>8.2240000000000002</v>
+      </c>
+      <c r="O5">
+        <f>'[2]Конденсационные режимы'!F27</f>
+        <v>8.3719999999999999</v>
+      </c>
+      <c r="P5">
+        <f>'[2]Конденсационные режимы'!G27</f>
+        <v>8.5359999999999996</v>
+      </c>
+      <c r="Q5">
+        <f>'[2]Конденсационные режимы'!H27</f>
+        <v>8.4640000000000004</v>
+      </c>
+      <c r="R5">
+        <f>'[2]Конденсационные режимы'!I27</f>
+        <v>8.4570000000000007</v>
+      </c>
+      <c r="S5">
+        <f>'[2]Конденсационные режимы'!J27</f>
+        <v>8.407</v>
+      </c>
+      <c r="T5">
+        <f>'[2]Конденсационные режимы'!K27</f>
+        <v>8.2729999999999997</v>
+      </c>
+      <c r="U5">
+        <f>'[2]Конденсационные режимы'!L27</f>
+        <v>8.2729999999999997</v>
+      </c>
+      <c r="V5">
+        <f>'[2]Конденсационные режимы'!M27</f>
+        <v>8.0429999999999993</v>
+      </c>
+      <c r="W5">
+        <f>'[2]Конденсационные режимы'!N27</f>
+        <v>8.0429999999999993</v>
+      </c>
+      <c r="X5">
+        <f>'[2]Теплофикационные режимы'!C139</f>
+        <v>6.83</v>
+      </c>
+      <c r="Y5">
+        <f>'[2]Теплофикационные режимы'!D139</f>
+        <v>7.0069999999999997</v>
+      </c>
+      <c r="Z5">
+        <f>'[2]Теплофикационные режимы'!E139</f>
+        <v>7.2869999999999999</v>
+      </c>
+      <c r="AA5">
+        <f>'[2]Теплофикационные режимы'!F139</f>
+        <v>7.2510000000000003</v>
+      </c>
+      <c r="AB5">
+        <f>'[2]Теплофикационные режимы'!G139</f>
+        <v>7.08</v>
+      </c>
+      <c r="AC5">
+        <f>'[2]Теплофикационные режимы'!H139</f>
+        <v>6.8680000000000003</v>
+      </c>
+      <c r="AD5">
+        <f>'[2]Конденсационные режимы'!C145</f>
+        <v>6.83</v>
+      </c>
+      <c r="AE5">
+        <f>'[2]Конденсационные режимы'!D145</f>
+        <v>7.0069999999999997</v>
+      </c>
+      <c r="AF5">
+        <f>'[2]Конденсационные режимы'!E145</f>
+        <v>7.2869999999999999</v>
+      </c>
+      <c r="AG5">
+        <f>'[2]Конденсационные режимы'!F145</f>
+        <v>7.2510000000000003</v>
+      </c>
+      <c r="AH5">
+        <f>'[2]Конденсационные режимы'!G145</f>
+        <v>7.08</v>
+      </c>
+      <c r="AI5">
+        <f>'[2]Конденсационные режимы'!H145</f>
+        <v>6.8680000000000003</v>
+      </c>
+      <c r="AJ5">
+        <f>'[2]Теплофикационные режимы'!C259</f>
+        <v>5.5270000000000001</v>
+      </c>
+      <c r="AK5">
+        <f>'[2]Теплофикационные режимы'!D259</f>
+        <v>5.6689999999999996</v>
+      </c>
+      <c r="AL5">
+        <f>'[2]Теплофикационные режимы'!E259</f>
+        <v>5.8840000000000003</v>
+      </c>
+      <c r="AM5">
+        <f>'[2]Теплофикационные режимы'!F259</f>
+        <v>5.8849999999999998</v>
+      </c>
+      <c r="AN5">
+        <f>'[2]Теплофикационные режимы'!G259</f>
+        <v>5.7469999999999999</v>
+      </c>
+      <c r="AO5">
+        <f>'[2]Теплофикационные режимы'!H259</f>
+        <v>5.5739999999999998</v>
+      </c>
+      <c r="AP5">
+        <f>'[2]Конденсационные режимы'!C261</f>
+        <v>5.5270000000000001</v>
+      </c>
+      <c r="AQ5">
+        <f>'[2]Конденсационные режимы'!D261</f>
+        <v>5.6689999999999996</v>
+      </c>
+      <c r="AR5">
+        <f>'[2]Конденсационные режимы'!E261</f>
+        <v>5.8840000000000003</v>
+      </c>
+      <c r="AS5">
+        <f>'[2]Конденсационные режимы'!F261</f>
+        <v>5.8849999999999998</v>
+      </c>
+      <c r="AT5">
+        <f>'[2]Конденсационные режимы'!G261</f>
+        <v>5.7469999999999999</v>
+      </c>
+      <c r="AU5">
+        <f>'[2]Конденсационные режимы'!H261</f>
+        <v>5.5739999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <f>'[2]Теплофикационные режимы'!C27</f>
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="B6">
+        <f>'[2]Теплофикационные режимы'!D27</f>
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="C6">
+        <f>'[2]Теплофикационные режимы'!E27</f>
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="D6">
+        <f>'[2]Теплофикационные режимы'!F27</f>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="E6">
+        <f>'[2]Теплофикационные режимы'!G27</f>
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="F6">
+        <f>'[2]Теплофикационные режимы'!H27</f>
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="G6">
+        <f>'[2]Теплофикационные режимы'!I27</f>
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="H6">
+        <f>'[2]Теплофикационные режимы'!J27</f>
+        <v>0.6</v>
+      </c>
+      <c r="I6">
+        <f>'[2]Теплофикационные режимы'!K27</f>
+        <v>0.6</v>
+      </c>
+      <c r="J6">
+        <f>'[2]Теплофикационные режимы'!L27</f>
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="K6">
+        <f>'[2]Теплофикационные режимы'!M27</f>
+        <v>0.627</v>
+      </c>
+      <c r="L6">
+        <f>'[2]Конденсационные режимы'!C31</f>
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="M6">
+        <f>'[2]Конденсационные режимы'!D31</f>
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="N6">
+        <f>'[2]Конденсационные режимы'!E31</f>
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="O6">
+        <f>'[2]Конденсационные режимы'!F31</f>
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="P6">
+        <f>'[2]Конденсационные режимы'!G31</f>
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="Q6">
+        <f>'[2]Конденсационные режимы'!H31</f>
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="R6">
+        <f>'[2]Конденсационные режимы'!I31</f>
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="S6">
+        <f>'[2]Конденсационные режимы'!J31</f>
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="T6">
+        <f>'[2]Конденсационные режимы'!K31</f>
+        <v>0.68</v>
+      </c>
+      <c r="U6">
+        <f>'[2]Конденсационные режимы'!L31</f>
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="V6">
+        <f>'[2]Конденсационные режимы'!M31</f>
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="W6">
+        <f>'[2]Конденсационные режимы'!N31</f>
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="X6">
+        <f>'[2]Теплофикационные режимы'!C143</f>
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="Y6">
+        <f>'[2]Теплофикационные режимы'!D143</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Z6">
+        <f>'[2]Теплофикационные режимы'!E143</f>
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="AA6">
+        <f>'[2]Теплофикационные режимы'!F143</f>
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="AB6">
+        <f>'[2]Теплофикационные режимы'!G143</f>
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="AC6">
+        <f>'[2]Теплофикационные режимы'!H143</f>
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="AD6">
+        <f>'[2]Конденсационные режимы'!C149</f>
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="AE6">
+        <f>'[2]Конденсационные режимы'!D149</f>
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="AF6">
+        <f>'[2]Конденсационные режимы'!E149</f>
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="AG6">
+        <f>'[2]Конденсационные режимы'!F149</f>
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="AH6">
+        <f>'[2]Конденсационные режимы'!G149</f>
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="AI6">
+        <f>'[2]Конденсационные режимы'!H149</f>
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="AJ6">
+        <f>'[2]Теплофикационные режимы'!C263</f>
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="AK6">
+        <f>'[2]Теплофикационные режимы'!D263</f>
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="AL6">
+        <f>'[2]Теплофикационные режимы'!E263</f>
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="AM6">
+        <f>'[2]Теплофикационные режимы'!F263</f>
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="AN6">
+        <f>'[2]Теплофикационные режимы'!G263</f>
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="AO6">
+        <f>'[2]Теплофикационные режимы'!H263</f>
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="AP6">
+        <f>'[2]Конденсационные режимы'!C265</f>
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="AQ6">
+        <f>'[2]Конденсационные режимы'!D265</f>
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="AR6">
+        <f>'[2]Конденсационные режимы'!E265</f>
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="AS6">
+        <f>'[2]Конденсационные режимы'!F265</f>
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="AT6">
+        <f>'[2]Конденсационные режимы'!G265</f>
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="AU6">
+        <f>'[2]Конденсационные режимы'!H265</f>
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="F34">
+        <v>7.7610000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="F35">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="F36">
+        <v>0.45379999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="H37">
+        <f>F35*F34+F36</f>
+        <v>8.3700200000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45">
+        <v>6</v>
+      </c>
+      <c r="H45">
+        <v>7</v>
+      </c>
+      <c r="I45">
+        <v>8</v>
+      </c>
+      <c r="J45">
+        <v>9</v>
+      </c>
+      <c r="K45">
+        <v>10</v>
+      </c>
+      <c r="L45">
+        <v>11</v>
+      </c>
+      <c r="M45">
+        <v>12</v>
+      </c>
+      <c r="N45">
+        <v>13</v>
+      </c>
+      <c r="O45">
+        <v>14</v>
+      </c>
+      <c r="P45">
+        <v>15</v>
+      </c>
+      <c r="Q45">
+        <v>16</v>
+      </c>
+      <c r="R45">
+        <v>17</v>
+      </c>
+      <c r="S45">
+        <v>18</v>
+      </c>
+      <c r="T45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B46" s="2">
+        <v>8.4652799999999999</v>
+      </c>
+      <c r="C46">
+        <v>8.4043899999999994</v>
+      </c>
+      <c r="D46">
+        <v>8.3757199999999994</v>
+      </c>
+      <c r="E46">
+        <v>8.3624700000000001</v>
+      </c>
+      <c r="F46">
+        <v>8.3561200000000007</v>
+      </c>
+      <c r="G46">
+        <v>8.35304</v>
+      </c>
+      <c r="H46">
+        <v>8.3521300000000007</v>
+      </c>
+      <c r="I46">
+        <v>8.3513999999999999</v>
+      </c>
+      <c r="J46">
+        <v>8.3515099999999993</v>
+      </c>
+      <c r="K46">
+        <v>8.3508999999999993</v>
+      </c>
+      <c r="L46">
+        <v>8.3512000000000004</v>
+      </c>
+      <c r="M46">
+        <v>8.3507200000000008</v>
+      </c>
+      <c r="N46">
+        <v>8.3508899999999997</v>
+      </c>
+      <c r="O46">
+        <v>8.3505800000000008</v>
+      </c>
+      <c r="P46">
+        <v>8.35032</v>
+      </c>
+      <c r="Q46">
+        <v>8.3507099999999994</v>
+      </c>
+      <c r="R46">
+        <v>8.3508200000000006</v>
+      </c>
+      <c r="S46">
+        <v>8.3505800000000008</v>
+      </c>
+      <c r="T46">
+        <v>8.3508999999999993</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Данные для проверки на режимах.xlsx
+++ b/Данные для проверки на режимах.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Employee3\Documents\GitHub\GZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD873CAC-C057-435A-BB27-D973B406535A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD84EE7-266A-400E-8C92-603A2019ADB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Тепловикация" sheetId="2" r:id="rId1"/>
@@ -2465,6 +2465,680 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Давление начальное'!$B$57:$N$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Давление начальное'!$B$58:$N$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.68552999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67684</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67508000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67410000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67359999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6734</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67320000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67315000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.67290000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.67279999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.67274999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.67278000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D28C-45CD-9D9B-2734704E13DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1546112751"/>
+        <c:axId val="1546126063"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1546112751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1546126063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1546126063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1546112751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Давление начальное'!$B$57:$N$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Давление начальное'!$B$59:$N$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>8.5081900000000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4661100000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4453700000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4361200000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4320400000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.4297900000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4291099999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.4287600000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.42849</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.4285800000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.4286300000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.4286600000000007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.4284400000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA1D-4444-B1BB-A5B341DA1E27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1546112751"/>
+        <c:axId val="1546126063"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1546112751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1546126063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1546126063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1546112751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2625,6 +3299,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4174,6 +4928,1038 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4857,15 +6643,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>430893</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>90714</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>580570</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>36285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>181429</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>498928</xdr:colOff>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>146957</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4886,6 +6672,80 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>583293</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB885D63-2157-1367-3AF0-B958703202E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>260349</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>125187</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>97064</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>177801</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97683E05-630A-4B15-8871-4F2A463FE660}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11949,8 +13809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EDE698-8E03-4106-955A-E67F477EFCC9}">
   <dimension ref="A3:H47"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14603,10 +16463,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8984532C-DDFB-4CC9-9526-FD6F89027E1A}">
-  <dimension ref="A2:AU46"/>
+  <dimension ref="A2:AU59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R72" sqref="R72"/>
+    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15515,6 +17375,129 @@
         <v>8.3508999999999993</v>
       </c>
     </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <v>6</v>
+      </c>
+      <c r="H57">
+        <v>7</v>
+      </c>
+      <c r="I57">
+        <v>8</v>
+      </c>
+      <c r="J57">
+        <v>9</v>
+      </c>
+      <c r="K57">
+        <v>10</v>
+      </c>
+      <c r="L57">
+        <v>11</v>
+      </c>
+      <c r="M57">
+        <v>12</v>
+      </c>
+      <c r="N57">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B58" s="2">
+        <v>0.68552999999999997</v>
+      </c>
+      <c r="C58">
+        <v>0.67684</v>
+      </c>
+      <c r="D58">
+        <v>0.67508000000000001</v>
+      </c>
+      <c r="E58">
+        <v>0.67410000000000003</v>
+      </c>
+      <c r="F58">
+        <v>0.67359999999999998</v>
+      </c>
+      <c r="G58">
+        <v>0.6734</v>
+      </c>
+      <c r="H58">
+        <v>0.67330000000000001</v>
+      </c>
+      <c r="I58">
+        <v>0.67320000000000002</v>
+      </c>
+      <c r="J58">
+        <v>0.67315000000000003</v>
+      </c>
+      <c r="K58">
+        <v>0.67290000000000005</v>
+      </c>
+      <c r="L58">
+        <v>0.67279999999999995</v>
+      </c>
+      <c r="M58">
+        <v>0.67274999999999996</v>
+      </c>
+      <c r="N58">
+        <v>0.67278000000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B59" s="2">
+        <v>8.5081900000000008</v>
+      </c>
+      <c r="C59">
+        <v>8.4661100000000005</v>
+      </c>
+      <c r="D59">
+        <v>8.4453700000000005</v>
+      </c>
+      <c r="E59">
+        <v>8.4361200000000007</v>
+      </c>
+      <c r="F59">
+        <v>8.4320400000000006</v>
+      </c>
+      <c r="G59">
+        <v>8.4297900000000006</v>
+      </c>
+      <c r="H59">
+        <v>8.4291099999999997</v>
+      </c>
+      <c r="I59">
+        <v>8.4287600000000005</v>
+      </c>
+      <c r="J59">
+        <v>8.42849</v>
+      </c>
+      <c r="K59">
+        <v>8.4285800000000002</v>
+      </c>
+      <c r="L59">
+        <v>8.4286300000000001</v>
+      </c>
+      <c r="M59">
+        <v>8.4286600000000007</v>
+      </c>
+      <c r="N59">
+        <v>8.4284400000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Данные для проверки на режимах.xlsx
+++ b/Данные для проверки на режимах.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Employee3\Documents\GitHub\GZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD84EE7-266A-400E-8C92-603A2019ADB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD873CAC-C057-435A-BB27-D973B406535A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Тепловикация" sheetId="2" r:id="rId1"/>
@@ -2465,680 +2465,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Давление начальное'!$B$57:$N$57</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Давление начальное'!$B$58:$N$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.68552999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.67684</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.67508000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.67410000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.67359999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6734</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.67330000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.67320000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.67315000000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.67290000000000005</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.67279999999999995</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.67274999999999996</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.67278000000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D28C-45CD-9D9B-2734704E13DB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1546112751"/>
-        <c:axId val="1546126063"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1546112751"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1546126063"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1546126063"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1546112751"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Давление начальное'!$B$57:$N$57</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Давление начальное'!$B$59:$N$59</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>8.5081900000000008</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.4661100000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.4453700000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.4361200000000007</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.4320400000000006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.4297900000000006</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.4291099999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.4287600000000005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.42849</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.4285800000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.4286300000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.4286600000000007</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.4284400000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CA1D-4444-B1BB-A5B341DA1E27}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1546112751"/>
-        <c:axId val="1546126063"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1546112751"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1546126063"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1546126063"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1546112751"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3260,86 +2586,6 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5443,1038 +4689,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6643,15 +4857,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>580570</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>36285</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>430893</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>498928</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>181429</xdr:colOff>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>146957</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6672,80 +4886,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>583293</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB885D63-2157-1367-3AF0-B958703202E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>260349</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>125187</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>97064</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>177801</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97683E05-630A-4B15-8871-4F2A463FE660}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13809,8 +11949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EDE698-8E03-4106-955A-E67F477EFCC9}">
   <dimension ref="A3:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16463,10 +14603,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8984532C-DDFB-4CC9-9526-FD6F89027E1A}">
-  <dimension ref="A2:AU59"/>
+  <dimension ref="A2:AU46"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K80" sqref="K80"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R72" sqref="R72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17375,129 +15515,6 @@
         <v>8.3508999999999993</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-      <c r="D57">
-        <v>3</v>
-      </c>
-      <c r="E57">
-        <v>4</v>
-      </c>
-      <c r="F57">
-        <v>5</v>
-      </c>
-      <c r="G57">
-        <v>6</v>
-      </c>
-      <c r="H57">
-        <v>7</v>
-      </c>
-      <c r="I57">
-        <v>8</v>
-      </c>
-      <c r="J57">
-        <v>9</v>
-      </c>
-      <c r="K57">
-        <v>10</v>
-      </c>
-      <c r="L57">
-        <v>11</v>
-      </c>
-      <c r="M57">
-        <v>12</v>
-      </c>
-      <c r="N57">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B58" s="2">
-        <v>0.68552999999999997</v>
-      </c>
-      <c r="C58">
-        <v>0.67684</v>
-      </c>
-      <c r="D58">
-        <v>0.67508000000000001</v>
-      </c>
-      <c r="E58">
-        <v>0.67410000000000003</v>
-      </c>
-      <c r="F58">
-        <v>0.67359999999999998</v>
-      </c>
-      <c r="G58">
-        <v>0.6734</v>
-      </c>
-      <c r="H58">
-        <v>0.67330000000000001</v>
-      </c>
-      <c r="I58">
-        <v>0.67320000000000002</v>
-      </c>
-      <c r="J58">
-        <v>0.67315000000000003</v>
-      </c>
-      <c r="K58">
-        <v>0.67290000000000005</v>
-      </c>
-      <c r="L58">
-        <v>0.67279999999999995</v>
-      </c>
-      <c r="M58">
-        <v>0.67274999999999996</v>
-      </c>
-      <c r="N58">
-        <v>0.67278000000000004</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B59" s="2">
-        <v>8.5081900000000008</v>
-      </c>
-      <c r="C59">
-        <v>8.4661100000000005</v>
-      </c>
-      <c r="D59">
-        <v>8.4453700000000005</v>
-      </c>
-      <c r="E59">
-        <v>8.4361200000000007</v>
-      </c>
-      <c r="F59">
-        <v>8.4320400000000006</v>
-      </c>
-      <c r="G59">
-        <v>8.4297900000000006</v>
-      </c>
-      <c r="H59">
-        <v>8.4291099999999997</v>
-      </c>
-      <c r="I59">
-        <v>8.4287600000000005</v>
-      </c>
-      <c r="J59">
-        <v>8.42849</v>
-      </c>
-      <c r="K59">
-        <v>8.4285800000000002</v>
-      </c>
-      <c r="L59">
-        <v>8.4286300000000001</v>
-      </c>
-      <c r="M59">
-        <v>8.4286600000000007</v>
-      </c>
-      <c r="N59">
-        <v>8.4284400000000002</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Данные для проверки на режимах.xlsx
+++ b/Данные для проверки на режимах.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Employee3\Documents\GitHub\GZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD84EE7-266A-400E-8C92-603A2019ADB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1727B35-DDA1-440E-957F-1D1AAEE200E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Тепловикация" sheetId="2" r:id="rId1"/>
-    <sheet name="Турбина" sheetId="5" r:id="rId2"/>
-    <sheet name="Турбоустановка с теплофикацией" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Лист1" sheetId="3" r:id="rId5"/>
-    <sheet name="Конденсатор" sheetId="6" r:id="rId6"/>
-    <sheet name="Давление начальное" sheetId="7" r:id="rId7"/>
+    <sheet name="Расчет КПД турбина на режимах" sheetId="8" r:id="rId2"/>
+    <sheet name="Турбина" sheetId="5" r:id="rId3"/>
+    <sheet name="Турбоустановка с теплофикацией" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="Лист1" sheetId="3" r:id="rId6"/>
+    <sheet name="Конденсатор" sheetId="6" r:id="rId7"/>
+    <sheet name="Давление начальное" sheetId="7" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="109">
   <si>
     <t>Пар в отборе 2:</t>
   </si>
@@ -324,6 +325,51 @@
   </si>
   <si>
     <t>Давление пара в К, МПа</t>
+  </si>
+  <si>
+    <t>1 отсек</t>
+  </si>
+  <si>
+    <t>Расход на входе</t>
+  </si>
+  <si>
+    <t>Температура на входе</t>
+  </si>
+  <si>
+    <t>Давление на входе</t>
+  </si>
+  <si>
+    <t>2 отсек</t>
+  </si>
+  <si>
+    <t>Температура на выходе</t>
+  </si>
+  <si>
+    <t>Давление на выходе</t>
+  </si>
+  <si>
+    <t>3 отсек</t>
+  </si>
+  <si>
+    <t>4 отсек</t>
+  </si>
+  <si>
+    <t>Сухость на входе</t>
+  </si>
+  <si>
+    <t>Сухость на выходе</t>
+  </si>
+  <si>
+    <t>Энтальпия на входе</t>
+  </si>
+  <si>
+    <t>Энтальпия на выходе</t>
+  </si>
+  <si>
+    <t>Энтропия на входе</t>
+  </si>
+  <si>
+    <t>Энтальпия теор</t>
   </si>
 </sst>
 </file>
@@ -6783,8 +6829,8 @@
       <sheetName val="Таблицы для расчётов"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="11">
           <cell r="C11">
@@ -6891,6 +6937,671 @@
             <v>0.627</v>
           </cell>
         </row>
+        <row r="31">
+          <cell r="C31">
+            <v>61.36</v>
+          </cell>
+          <cell r="D31">
+            <v>62.92</v>
+          </cell>
+          <cell r="E31">
+            <v>63.95</v>
+          </cell>
+          <cell r="F31">
+            <v>65.150000000000006</v>
+          </cell>
+          <cell r="G31">
+            <v>64.47</v>
+          </cell>
+          <cell r="H31">
+            <v>64.41</v>
+          </cell>
+          <cell r="I31">
+            <v>62.64</v>
+          </cell>
+          <cell r="J31">
+            <v>60.26</v>
+          </cell>
+          <cell r="K31">
+            <v>60.26</v>
+          </cell>
+          <cell r="L31">
+            <v>62.64</v>
+          </cell>
+          <cell r="M31">
+            <v>60.26</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
+            <v>7.4790000000000001</v>
+          </cell>
+          <cell r="D32">
+            <v>7.6760000000000002</v>
+          </cell>
+          <cell r="E32">
+            <v>7.8109999999999999</v>
+          </cell>
+          <cell r="F32">
+            <v>7.9610000000000003</v>
+          </cell>
+          <cell r="G32">
+            <v>7.8959999999999999</v>
+          </cell>
+          <cell r="H32">
+            <v>7.89</v>
+          </cell>
+          <cell r="I32">
+            <v>7.7240000000000002</v>
+          </cell>
+          <cell r="J32">
+            <v>7.5170000000000003</v>
+          </cell>
+          <cell r="K32">
+            <v>7.5170000000000003</v>
+          </cell>
+          <cell r="L32">
+            <v>7.7240000000000002</v>
+          </cell>
+          <cell r="M32">
+            <v>7.5170000000000003</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>494.5</v>
+          </cell>
+          <cell r="D33">
+            <v>496.1</v>
+          </cell>
+          <cell r="E33">
+            <v>498.2</v>
+          </cell>
+          <cell r="F33">
+            <v>500</v>
+          </cell>
+          <cell r="G33">
+            <v>502.2</v>
+          </cell>
+          <cell r="H33">
+            <v>502.4</v>
+          </cell>
+          <cell r="I33">
+            <v>509.4</v>
+          </cell>
+          <cell r="J33">
+            <v>523.4</v>
+          </cell>
+          <cell r="K33">
+            <v>523.4</v>
+          </cell>
+          <cell r="L33">
+            <v>509.4</v>
+          </cell>
+          <cell r="M33">
+            <v>523.4</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>15.47</v>
+          </cell>
+          <cell r="D35">
+            <v>15.6</v>
+          </cell>
+          <cell r="E35">
+            <v>15.83</v>
+          </cell>
+          <cell r="F35">
+            <v>16.100000000000001</v>
+          </cell>
+          <cell r="G35">
+            <v>15.85</v>
+          </cell>
+          <cell r="H35">
+            <v>15.82</v>
+          </cell>
+          <cell r="I35">
+            <v>14.69</v>
+          </cell>
+          <cell r="J35">
+            <v>12.88</v>
+          </cell>
+          <cell r="K35">
+            <v>12.88</v>
+          </cell>
+          <cell r="L35">
+            <v>14.4</v>
+          </cell>
+          <cell r="M35">
+            <v>12.61</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>0.58799999999999997</v>
+          </cell>
+          <cell r="D36">
+            <v>0.60099999999999998</v>
+          </cell>
+          <cell r="E36">
+            <v>0.59499999999999997</v>
+          </cell>
+          <cell r="F36">
+            <v>0.58499999999999996</v>
+          </cell>
+          <cell r="G36">
+            <v>0.56899999999999995</v>
+          </cell>
+          <cell r="H36">
+            <v>0.56799999999999995</v>
+          </cell>
+          <cell r="I36">
+            <v>0.54600000000000004</v>
+          </cell>
+          <cell r="J36">
+            <v>0.52200000000000002</v>
+          </cell>
+          <cell r="K36">
+            <v>0.52200000000000002</v>
+          </cell>
+          <cell r="L36">
+            <v>0.58099999999999996</v>
+          </cell>
+          <cell r="M36">
+            <v>0.55600000000000005</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>210</v>
+          </cell>
+          <cell r="D37">
+            <v>210</v>
+          </cell>
+          <cell r="E37">
+            <v>210</v>
+          </cell>
+          <cell r="F37">
+            <v>209.8</v>
+          </cell>
+          <cell r="G37">
+            <v>209.6</v>
+          </cell>
+          <cell r="H37">
+            <v>209.5</v>
+          </cell>
+          <cell r="I37">
+            <v>207.4</v>
+          </cell>
+          <cell r="J37">
+            <v>205.5</v>
+          </cell>
+          <cell r="K37">
+            <v>205.8</v>
+          </cell>
+          <cell r="L37">
+            <v>208.3</v>
+          </cell>
+          <cell r="M37">
+            <v>206.4</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>76.53</v>
+          </cell>
+          <cell r="D39">
+            <v>78.22</v>
+          </cell>
+          <cell r="E39">
+            <v>79.489999999999995</v>
+          </cell>
+          <cell r="F39">
+            <v>80.95</v>
+          </cell>
+          <cell r="G39">
+            <v>80.02</v>
+          </cell>
+          <cell r="H39">
+            <v>79.930000000000007</v>
+          </cell>
+          <cell r="I39">
+            <v>77.040000000000006</v>
+          </cell>
+          <cell r="J39">
+            <v>72.87</v>
+          </cell>
+          <cell r="K39">
+            <v>72.88</v>
+          </cell>
+          <cell r="L39">
+            <v>76.739999999999995</v>
+          </cell>
+          <cell r="M39">
+            <v>72.59</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>0.52600000000000002</v>
+          </cell>
+          <cell r="D40">
+            <v>0.53900000000000003</v>
+          </cell>
+          <cell r="E40">
+            <v>0.53300000000000003</v>
+          </cell>
+          <cell r="F40">
+            <v>0.52300000000000002</v>
+          </cell>
+          <cell r="G40">
+            <v>0.50700000000000001</v>
+          </cell>
+          <cell r="H40">
+            <v>0.50600000000000001</v>
+          </cell>
+          <cell r="I40">
+            <v>0.48399999999999999</v>
+          </cell>
+          <cell r="J40">
+            <v>0.46</v>
+          </cell>
+          <cell r="K40">
+            <v>0.46</v>
+          </cell>
+          <cell r="L40">
+            <v>0.51900000000000002</v>
+          </cell>
+          <cell r="M40">
+            <v>0.49399999999999999</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41">
+            <v>190.7</v>
+          </cell>
+          <cell r="D41">
+            <v>191.3</v>
+          </cell>
+          <cell r="E41">
+            <v>190.2</v>
+          </cell>
+          <cell r="F41">
+            <v>188.4</v>
+          </cell>
+          <cell r="G41">
+            <v>188</v>
+          </cell>
+          <cell r="H41">
+            <v>188</v>
+          </cell>
+          <cell r="I41">
+            <v>189.9</v>
+          </cell>
+          <cell r="J41">
+            <v>195.68</v>
+          </cell>
+          <cell r="K41">
+            <v>195.68</v>
+          </cell>
+          <cell r="L41">
+            <v>194.9</v>
+          </cell>
+          <cell r="M41">
+            <v>201</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="C43">
+            <v>20.190000000000001</v>
+          </cell>
+          <cell r="D43">
+            <v>20.440000000000001</v>
+          </cell>
+          <cell r="E43">
+            <v>23.51</v>
+          </cell>
+          <cell r="F43">
+            <v>30.26</v>
+          </cell>
+          <cell r="G43">
+            <v>37.619999999999997</v>
+          </cell>
+          <cell r="H43">
+            <v>38.22</v>
+          </cell>
+          <cell r="I43">
+            <v>43</v>
+          </cell>
+          <cell r="J43">
+            <v>41.91</v>
+          </cell>
+          <cell r="K43">
+            <v>41.91</v>
+          </cell>
+          <cell r="L43">
+            <v>0</v>
+          </cell>
+          <cell r="M43">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="C44">
+            <v>0.21629999999999999</v>
+          </cell>
+          <cell r="D44">
+            <v>0.2225</v>
+          </cell>
+          <cell r="E44">
+            <v>0.19389999999999999</v>
+          </cell>
+          <cell r="F44">
+            <v>0.1497</v>
+          </cell>
+          <cell r="G44">
+            <v>0.1123</v>
+          </cell>
+          <cell r="H44">
+            <v>0.1096</v>
+          </cell>
+          <cell r="I44">
+            <v>8.4599999999999995E-2</v>
+          </cell>
+          <cell r="J44">
+            <v>7.6700000000000004E-2</v>
+          </cell>
+          <cell r="K44">
+            <v>7.6700000000000004E-2</v>
+          </cell>
+          <cell r="L44">
+            <v>0.2046</v>
+          </cell>
+          <cell r="M44">
+            <v>0.19500000000000001</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="C45">
+            <v>122.6</v>
+          </cell>
+          <cell r="D45">
+            <v>123.6</v>
+          </cell>
+          <cell r="E45">
+            <v>119.2</v>
+          </cell>
+          <cell r="F45">
+            <v>111.3</v>
+          </cell>
+          <cell r="G45">
+            <v>102.9</v>
+          </cell>
+          <cell r="H45">
+            <v>102.2</v>
+          </cell>
+          <cell r="I45">
+            <v>95</v>
+          </cell>
+          <cell r="J45">
+            <v>92.4</v>
+          </cell>
+          <cell r="K45">
+            <v>92.4</v>
+          </cell>
+          <cell r="L45">
+            <v>120.9</v>
+          </cell>
+          <cell r="M45">
+            <v>121.8</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="C47">
+            <v>51.91</v>
+          </cell>
+          <cell r="D47">
+            <v>53.34</v>
+          </cell>
+          <cell r="E47">
+            <v>51.53</v>
+          </cell>
+          <cell r="F47">
+            <v>46.24</v>
+          </cell>
+          <cell r="G47">
+            <v>37.96</v>
+          </cell>
+          <cell r="H47">
+            <v>37.270000000000003</v>
+          </cell>
+          <cell r="I47">
+            <v>29.59</v>
+          </cell>
+          <cell r="J47">
+            <v>25.67</v>
+          </cell>
+          <cell r="K47">
+            <v>26.51</v>
+          </cell>
+          <cell r="L47">
+            <v>47.22</v>
+          </cell>
+          <cell r="M47">
+            <v>46.75</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="C48">
+            <v>0.1608</v>
+          </cell>
+          <cell r="D48">
+            <v>0.16569999999999999</v>
+          </cell>
+          <cell r="E48">
+            <v>0.13389999999999999</v>
+          </cell>
+          <cell r="F48">
+            <v>8.6199999999999999E-2</v>
+          </cell>
+          <cell r="G48">
+            <v>5.1499999999999997E-2</v>
+          </cell>
+          <cell r="H48">
+            <v>4.9099999999999998E-2</v>
+          </cell>
+          <cell r="I48">
+            <v>3.1199999999999999E-2</v>
+          </cell>
+          <cell r="J48">
+            <v>2.7900000000000001E-2</v>
+          </cell>
+          <cell r="K48">
+            <v>2.7900000000000001E-2</v>
+          </cell>
+          <cell r="L48">
+            <v>5.0799999999999998E-2</v>
+          </cell>
+          <cell r="M48">
+            <v>5.0900000000000001E-2</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="C49">
+            <v>113.4</v>
+          </cell>
+          <cell r="D49">
+            <v>114.4</v>
+          </cell>
+          <cell r="E49">
+            <v>108</v>
+          </cell>
+          <cell r="F49">
+            <v>95.5</v>
+          </cell>
+          <cell r="G49">
+            <v>82</v>
+          </cell>
+          <cell r="H49">
+            <v>80.900000000000006</v>
+          </cell>
+          <cell r="I49">
+            <v>69.900000000000006</v>
+          </cell>
+          <cell r="J49">
+            <v>67.37</v>
+          </cell>
+          <cell r="K49">
+            <v>67.37</v>
+          </cell>
+          <cell r="L49">
+            <v>81.72</v>
+          </cell>
+          <cell r="M49">
+            <v>81.73</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="C51">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="D51">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="E51">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="F51">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="G51">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="H51">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="I51">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="J51">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="K51">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="L51">
+            <v>29.53</v>
+          </cell>
+          <cell r="M51">
+            <v>25.8</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="C52">
+            <v>89.57</v>
+          </cell>
+          <cell r="D52">
+            <v>90.17</v>
+          </cell>
+          <cell r="E52">
+            <v>74.319999999999993</v>
+          </cell>
+          <cell r="F52">
+            <v>42.9</v>
+          </cell>
+          <cell r="G52">
+            <v>42.72</v>
+          </cell>
+          <cell r="H52">
+            <v>42.7</v>
+          </cell>
+          <cell r="I52">
+            <v>42.72</v>
+          </cell>
+          <cell r="J52">
+            <v>45.8</v>
+          </cell>
+          <cell r="K52">
+            <v>48</v>
+          </cell>
+          <cell r="L52">
+            <v>83.56</v>
+          </cell>
+          <cell r="M52">
+            <v>80.58</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="C60">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="D60">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="E60">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="F60">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="G60">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="H60">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="I60">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="J60">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="K60">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="L60">
+            <v>29.53</v>
+          </cell>
+          <cell r="M60">
+            <v>25.8</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="C61">
+            <v>3.3999999999999998E-3</v>
+          </cell>
+          <cell r="D61">
+            <v>3.3999999999999998E-3</v>
+          </cell>
+          <cell r="E61">
+            <v>3.3999999999999998E-3</v>
+          </cell>
+          <cell r="F61">
+            <v>3.3999999999999998E-3</v>
+          </cell>
+          <cell r="G61">
+            <v>3.3999999999999998E-3</v>
+          </cell>
+          <cell r="H61">
+            <v>3.3999999999999998E-3</v>
+          </cell>
+          <cell r="I61">
+            <v>3.5999999999999999E-3</v>
+          </cell>
+          <cell r="J61">
+            <v>6.3E-3</v>
+          </cell>
+          <cell r="K61">
+            <v>8.2000000000000007E-3</v>
+          </cell>
+          <cell r="L61">
+            <v>6.1000000000000004E-3</v>
+          </cell>
+          <cell r="M61">
+            <v>9.7000000000000003E-3</v>
+          </cell>
+        </row>
         <row r="127">
           <cell r="C127">
             <v>431.4</v>
@@ -6951,6 +7662,386 @@
             <v>0.52300000000000002</v>
           </cell>
         </row>
+        <row r="147">
+          <cell r="C147">
+            <v>51.75</v>
+          </cell>
+          <cell r="D147">
+            <v>53</v>
+          </cell>
+          <cell r="E147">
+            <v>54.97</v>
+          </cell>
+          <cell r="F147">
+            <v>54.61</v>
+          </cell>
+          <cell r="G147">
+            <v>53.06</v>
+          </cell>
+          <cell r="H147">
+            <v>50.92</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="C148">
+            <v>6.4009999999999998</v>
+          </cell>
+          <cell r="D148">
+            <v>6.5640000000000001</v>
+          </cell>
+          <cell r="E148">
+            <v>6.8209999999999997</v>
+          </cell>
+          <cell r="F148">
+            <v>6.7889999999999997</v>
+          </cell>
+          <cell r="G148">
+            <v>6.633</v>
+          </cell>
+          <cell r="H148">
+            <v>6.4409999999999998</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="C149">
+            <v>497.9</v>
+          </cell>
+          <cell r="D149">
+            <v>500.5</v>
+          </cell>
+          <cell r="E149">
+            <v>504.1</v>
+          </cell>
+          <cell r="F149">
+            <v>506.1</v>
+          </cell>
+          <cell r="G149">
+            <v>513.1</v>
+          </cell>
+          <cell r="H149">
+            <v>527.29999999999995</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="C151">
+            <v>12.72</v>
+          </cell>
+          <cell r="D151">
+            <v>12.83</v>
+          </cell>
+          <cell r="E151">
+            <v>13.31</v>
+          </cell>
+          <cell r="F151">
+            <v>13.14</v>
+          </cell>
+          <cell r="G151">
+            <v>12.12</v>
+          </cell>
+          <cell r="H151">
+            <v>10.87</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="C152">
+            <v>0.48199999999999998</v>
+          </cell>
+          <cell r="D152">
+            <v>0.49399999999999999</v>
+          </cell>
+          <cell r="E152">
+            <v>0.48</v>
+          </cell>
+          <cell r="F152">
+            <v>0.47</v>
+          </cell>
+          <cell r="G152">
+            <v>0.48399999999999999</v>
+          </cell>
+          <cell r="H152">
+            <v>0.46400000000000002</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="C153">
+            <v>204.5</v>
+          </cell>
+          <cell r="D153">
+            <v>205.3</v>
+          </cell>
+          <cell r="E153">
+            <v>205.1</v>
+          </cell>
+          <cell r="F153">
+            <v>204.6</v>
+          </cell>
+          <cell r="G153">
+            <v>204.3</v>
+          </cell>
+          <cell r="H153">
+            <v>202.3</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="C155">
+            <v>64.22</v>
+          </cell>
+          <cell r="D155">
+            <v>65.58</v>
+          </cell>
+          <cell r="E155">
+            <v>68.03</v>
+          </cell>
+          <cell r="F155">
+            <v>67.5</v>
+          </cell>
+          <cell r="G155">
+            <v>64.92</v>
+          </cell>
+          <cell r="H155">
+            <v>61.55</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="C156">
+            <v>0.44400000000000001</v>
+          </cell>
+          <cell r="D156">
+            <v>0.45600000000000002</v>
+          </cell>
+          <cell r="E156">
+            <v>0.442</v>
+          </cell>
+          <cell r="F156">
+            <v>0.432</v>
+          </cell>
+          <cell r="G156">
+            <v>0.44600000000000001</v>
+          </cell>
+          <cell r="H156">
+            <v>0.42599999999999999</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="C157">
+            <v>192.1</v>
+          </cell>
+          <cell r="D157">
+            <v>193.5</v>
+          </cell>
+          <cell r="E157">
+            <v>190.2</v>
+          </cell>
+          <cell r="F157">
+            <v>190</v>
+          </cell>
+          <cell r="G157">
+            <v>197.7</v>
+          </cell>
+          <cell r="H157">
+            <v>204.4</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="C161">
+            <v>18.010000000000002</v>
+          </cell>
+          <cell r="D161">
+            <v>17.760000000000002</v>
+          </cell>
+          <cell r="E161">
+            <v>27.69</v>
+          </cell>
+          <cell r="F161">
+            <v>33.33</v>
+          </cell>
+          <cell r="G161">
+            <v>0</v>
+          </cell>
+          <cell r="H161">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="C162">
+            <v>0.1754</v>
+          </cell>
+          <cell r="D162">
+            <v>0.1883</v>
+          </cell>
+          <cell r="E162">
+            <v>0.1148</v>
+          </cell>
+          <cell r="F162">
+            <v>8.9300000000000004E-2</v>
+          </cell>
+          <cell r="G162">
+            <v>0.1787</v>
+          </cell>
+          <cell r="H162">
+            <v>0.1714</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="C163">
+            <v>119.4</v>
+          </cell>
+          <cell r="D163">
+            <v>122.2</v>
+          </cell>
+          <cell r="E163">
+            <v>103.5</v>
+          </cell>
+          <cell r="F163">
+            <v>96.5</v>
+          </cell>
+          <cell r="G163">
+            <v>120.2</v>
+          </cell>
+          <cell r="H163">
+            <v>126.3</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="C165">
+            <v>41.78</v>
+          </cell>
+          <cell r="D165">
+            <v>43.39</v>
+          </cell>
+          <cell r="E165">
+            <v>35.89</v>
+          </cell>
+          <cell r="F165">
+            <v>29.72</v>
+          </cell>
+          <cell r="G165">
+            <v>46.07</v>
+          </cell>
+          <cell r="H165">
+            <v>46.55</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="C166">
+            <v>0.12839999999999999</v>
+          </cell>
+          <cell r="D166">
+            <v>0.1452</v>
+          </cell>
+          <cell r="E166">
+            <v>6.0600000000000001E-2</v>
+          </cell>
+          <cell r="F166">
+            <v>3.9800000000000002E-2</v>
+          </cell>
+          <cell r="G166">
+            <v>5.21E-2</v>
+          </cell>
+          <cell r="H166">
+            <v>5.1700000000000003E-2</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="C167">
+            <v>106.7</v>
+          </cell>
+          <cell r="D167">
+            <v>110.4</v>
+          </cell>
+          <cell r="E167">
+            <v>86.2</v>
+          </cell>
+          <cell r="F167">
+            <v>75.8</v>
+          </cell>
+          <cell r="G167">
+            <v>82.3</v>
+          </cell>
+          <cell r="H167">
+            <v>82.14</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="C169">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="D169">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="E169">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="F169">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="G169">
+            <v>18.84</v>
+          </cell>
+          <cell r="H169">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="C170">
+            <v>90.9</v>
+          </cell>
+          <cell r="D170">
+            <v>93.3</v>
+          </cell>
+          <cell r="E170">
+            <v>35.08</v>
+          </cell>
+          <cell r="F170">
+            <v>35.369999999999997</v>
+          </cell>
+          <cell r="G170">
+            <v>63</v>
+          </cell>
+          <cell r="H170">
+            <v>61.89</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="C178">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="D178">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="E178">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="F178">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="G178">
+            <v>18.84</v>
+          </cell>
+          <cell r="H178">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="C179">
+            <v>1.8E-3</v>
+          </cell>
+          <cell r="D179">
+            <v>2.0999999999999999E-3</v>
+          </cell>
+          <cell r="E179">
+            <v>2.3999999999999998E-3</v>
+          </cell>
+          <cell r="F179">
+            <v>2.7000000000000001E-3</v>
+          </cell>
+          <cell r="G179">
+            <v>5.0000000000000001E-3</v>
+          </cell>
+          <cell r="H179">
+            <v>1.06E-2</v>
+          </cell>
+        </row>
         <row r="247">
           <cell r="C247">
             <v>357</v>
@@ -7011,8 +8102,388 @@
             <v>0.44600000000000001</v>
           </cell>
         </row>
+        <row r="267">
+          <cell r="C267">
+            <v>41.97</v>
+          </cell>
+          <cell r="D267">
+            <v>42.97</v>
+          </cell>
+          <cell r="E267">
+            <v>44.5</v>
+          </cell>
+          <cell r="F267">
+            <v>44.44</v>
+          </cell>
+          <cell r="G267">
+            <v>43.17</v>
+          </cell>
+          <cell r="H267">
+            <v>41.42</v>
+          </cell>
+        </row>
+        <row r="268">
+          <cell r="C268">
+            <v>5.1989999999999998</v>
+          </cell>
+          <cell r="D268">
+            <v>5.3310000000000004</v>
+          </cell>
+          <cell r="E268">
+            <v>5.5289999999999999</v>
+          </cell>
+          <cell r="F268">
+            <v>5.53</v>
+          </cell>
+          <cell r="G268">
+            <v>5.4039999999999999</v>
+          </cell>
+          <cell r="H268">
+            <v>5.2460000000000004</v>
+          </cell>
+        </row>
+        <row r="269">
+          <cell r="C269">
+            <v>492.2</v>
+          </cell>
+          <cell r="D269">
+            <v>495</v>
+          </cell>
+          <cell r="E269">
+            <v>499</v>
+          </cell>
+          <cell r="F269">
+            <v>500.9</v>
+          </cell>
+          <cell r="G269">
+            <v>507.8</v>
+          </cell>
+          <cell r="H269">
+            <v>522.1</v>
+          </cell>
+        </row>
+        <row r="271">
+          <cell r="C271">
+            <v>10.57</v>
+          </cell>
+          <cell r="D271">
+            <v>10.74</v>
+          </cell>
+          <cell r="E271">
+            <v>11.04</v>
+          </cell>
+          <cell r="F271">
+            <v>10.92</v>
+          </cell>
+          <cell r="G271">
+            <v>10.17</v>
+          </cell>
+          <cell r="H271">
+            <v>9.0299999999999994</v>
+          </cell>
+        </row>
+        <row r="272">
+          <cell r="C272">
+            <v>0.4</v>
+          </cell>
+          <cell r="D272">
+            <v>0.4</v>
+          </cell>
+          <cell r="E272">
+            <v>0.4</v>
+          </cell>
+          <cell r="F272">
+            <v>0.4</v>
+          </cell>
+          <cell r="G272">
+            <v>0.4</v>
+          </cell>
+          <cell r="H272">
+            <v>0.4</v>
+          </cell>
+        </row>
+        <row r="273">
+          <cell r="C273">
+            <v>199.4</v>
+          </cell>
+          <cell r="D273">
+            <v>199.6</v>
+          </cell>
+          <cell r="E273">
+            <v>199.8</v>
+          </cell>
+          <cell r="F273">
+            <v>199.7</v>
+          </cell>
+          <cell r="G273">
+            <v>199</v>
+          </cell>
+          <cell r="H273">
+            <v>197.8</v>
+          </cell>
+        </row>
+        <row r="275">
+          <cell r="C275">
+            <v>52.33</v>
+          </cell>
+          <cell r="D275">
+            <v>53.5</v>
+          </cell>
+          <cell r="E275">
+            <v>55.33</v>
+          </cell>
+          <cell r="F275">
+            <v>55.2</v>
+          </cell>
+          <cell r="G275">
+            <v>53.14</v>
+          </cell>
+          <cell r="H275">
+            <v>50.25</v>
+          </cell>
+        </row>
+        <row r="276">
+          <cell r="C276">
+            <v>0.35799999999999998</v>
+          </cell>
+          <cell r="D276">
+            <v>0.36399999999999999</v>
+          </cell>
+          <cell r="E276">
+            <v>0.35699999999999998</v>
+          </cell>
+          <cell r="F276">
+            <v>0.35199999999999998</v>
+          </cell>
+          <cell r="G276">
+            <v>0.36599999999999999</v>
+          </cell>
+          <cell r="H276">
+            <v>0.35199999999999998</v>
+          </cell>
+        </row>
+        <row r="277">
+          <cell r="C277">
+            <v>191.5</v>
+          </cell>
+          <cell r="D277">
+            <v>192.3</v>
+          </cell>
+          <cell r="E277">
+            <v>190.4</v>
+          </cell>
+          <cell r="F277">
+            <v>190.3</v>
+          </cell>
+          <cell r="G277">
+            <v>198.5</v>
+          </cell>
+          <cell r="H277">
+            <v>206.1</v>
+          </cell>
+        </row>
+        <row r="279">
+          <cell r="C279">
+            <v>17.62</v>
+          </cell>
+          <cell r="D279">
+            <v>16.23</v>
+          </cell>
+          <cell r="E279">
+            <v>25</v>
+          </cell>
+          <cell r="F279">
+            <v>29.86</v>
+          </cell>
+          <cell r="G279">
+            <v>0</v>
+          </cell>
+          <cell r="H279">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="280">
+          <cell r="C280">
+            <v>0.13089999999999999</v>
+          </cell>
+          <cell r="D280">
+            <v>0.13439999999999999</v>
+          </cell>
+          <cell r="E280">
+            <v>8.4900000000000003E-2</v>
+          </cell>
+          <cell r="F280">
+            <v>6.4899999999999999E-2</v>
+          </cell>
+          <cell r="G280">
+            <v>0.14760000000000001</v>
+          </cell>
+          <cell r="H280">
+            <v>0.14910000000000001</v>
+          </cell>
+        </row>
+        <row r="281">
+          <cell r="C281">
+            <v>116.1</v>
+          </cell>
+          <cell r="D281">
+            <v>114.4</v>
+          </cell>
+          <cell r="E281">
+            <v>95.1</v>
+          </cell>
+          <cell r="F281">
+            <v>87.9</v>
+          </cell>
+          <cell r="G281">
+            <v>122.5</v>
+          </cell>
+          <cell r="H281">
+            <v>132.69999999999999</v>
+          </cell>
+        </row>
+        <row r="283">
+          <cell r="C283">
+            <v>30.28</v>
+          </cell>
+          <cell r="D283">
+            <v>32.83</v>
+          </cell>
+          <cell r="E283">
+            <v>25.9</v>
+          </cell>
+          <cell r="F283">
+            <v>20.86</v>
+          </cell>
+          <cell r="G283">
+            <v>45.45</v>
+          </cell>
+          <cell r="H283">
+            <v>44.72</v>
+          </cell>
+        </row>
+        <row r="284">
+          <cell r="C284">
+            <v>9.6299999999999997E-2</v>
+          </cell>
+          <cell r="D284">
+            <v>9.5200000000000007E-2</v>
+          </cell>
+          <cell r="E284">
+            <v>4.3900000000000002E-2</v>
+          </cell>
+          <cell r="F284">
+            <v>3.0300000000000001E-2</v>
+          </cell>
+          <cell r="G284">
+            <v>4.6199999999999998E-2</v>
+          </cell>
+          <cell r="H284">
+            <v>5.7799999999999997E-2</v>
+          </cell>
+        </row>
+        <row r="285">
+          <cell r="C285">
+            <v>98.6</v>
+          </cell>
+          <cell r="D285">
+            <v>98.2</v>
+          </cell>
+          <cell r="E285">
+            <v>78.099999999999994</v>
+          </cell>
+          <cell r="F285">
+            <v>69.3</v>
+          </cell>
+          <cell r="G285">
+            <v>79.400000000000006</v>
+          </cell>
+          <cell r="H285">
+            <v>84.9</v>
+          </cell>
+        </row>
+        <row r="287">
+          <cell r="C287">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="D287">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="E287">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="F287">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="G287">
+            <v>7.68</v>
+          </cell>
+          <cell r="H287">
+            <v>5.52</v>
+          </cell>
+        </row>
+        <row r="288">
+          <cell r="C288">
+            <v>91.3</v>
+          </cell>
+          <cell r="D288">
+            <v>84.58</v>
+          </cell>
+          <cell r="E288">
+            <v>35.06</v>
+          </cell>
+          <cell r="F288">
+            <v>35.39</v>
+          </cell>
+          <cell r="G288">
+            <v>45.43</v>
+          </cell>
+          <cell r="H288">
+            <v>68.8</v>
+          </cell>
+        </row>
+        <row r="296">
+          <cell r="C296">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="D296">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="E296">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="F296">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="G296">
+            <v>7.68</v>
+          </cell>
+          <cell r="H296">
+            <v>5.52</v>
+          </cell>
+        </row>
+        <row r="297">
+          <cell r="C297">
+            <v>1.6999999999999999E-3</v>
+          </cell>
+          <cell r="D297">
+            <v>2.0999999999999999E-3</v>
+          </cell>
+          <cell r="E297">
+            <v>2.3999999999999998E-3</v>
+          </cell>
+          <cell r="F297">
+            <v>2.7000000000000001E-3</v>
+          </cell>
+          <cell r="G297">
+            <v>3.8999999999999998E-3</v>
+          </cell>
+          <cell r="H297">
+            <v>8.5000000000000006E-3</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4">
         <row r="15">
           <cell r="C15">
@@ -7128,6 +8599,825 @@
             <v>0.64400000000000002</v>
           </cell>
         </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>Расход пара, кг/с</v>
+          </cell>
+          <cell r="C35">
+            <v>61.51</v>
+          </cell>
+          <cell r="D35">
+            <v>61.36</v>
+          </cell>
+          <cell r="E35">
+            <v>62.88</v>
+          </cell>
+          <cell r="F35">
+            <v>63.95</v>
+          </cell>
+          <cell r="G35">
+            <v>65.14</v>
+          </cell>
+          <cell r="H35">
+            <v>64.47</v>
+          </cell>
+          <cell r="I35">
+            <v>64.400000000000006</v>
+          </cell>
+          <cell r="J35">
+            <v>63.4</v>
+          </cell>
+          <cell r="K35">
+            <v>62.63</v>
+          </cell>
+          <cell r="L35">
+            <v>62.63</v>
+          </cell>
+          <cell r="M35">
+            <v>60.24</v>
+          </cell>
+          <cell r="N35">
+            <v>60.24</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>Давление пара, МПа</v>
+          </cell>
+          <cell r="C36">
+            <v>7.4930000000000003</v>
+          </cell>
+          <cell r="D36">
+            <v>7.48</v>
+          </cell>
+          <cell r="E36">
+            <v>7.6760000000000002</v>
+          </cell>
+          <cell r="F36">
+            <v>7.8109999999999999</v>
+          </cell>
+          <cell r="G36">
+            <v>7.9610000000000003</v>
+          </cell>
+          <cell r="H36">
+            <v>7.8959999999999999</v>
+          </cell>
+          <cell r="I36">
+            <v>7.8890000000000002</v>
+          </cell>
+          <cell r="J36">
+            <v>7.8449999999999998</v>
+          </cell>
+          <cell r="K36">
+            <v>7.7229999999999999</v>
+          </cell>
+          <cell r="L36">
+            <v>7.7229999999999999</v>
+          </cell>
+          <cell r="M36">
+            <v>7.5170000000000003</v>
+          </cell>
+          <cell r="N36">
+            <v>7.5170000000000003</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>Температура пара, °С:</v>
+          </cell>
+          <cell r="C37">
+            <v>493.8</v>
+          </cell>
+          <cell r="D37">
+            <v>494.5</v>
+          </cell>
+          <cell r="E37">
+            <v>496.8</v>
+          </cell>
+          <cell r="F37">
+            <v>498.2</v>
+          </cell>
+          <cell r="G37">
+            <v>500</v>
+          </cell>
+          <cell r="H37">
+            <v>502.2</v>
+          </cell>
+          <cell r="I37">
+            <v>502.4</v>
+          </cell>
+          <cell r="J37">
+            <v>508.6</v>
+          </cell>
+          <cell r="K37">
+            <v>509.4</v>
+          </cell>
+          <cell r="L37">
+            <v>509.4</v>
+          </cell>
+          <cell r="M37">
+            <v>524</v>
+          </cell>
+          <cell r="N37">
+            <v>524</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>Пар НД на входе в турбину:</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>Расход пара, кг/с</v>
+          </cell>
+          <cell r="C39">
+            <v>15.51</v>
+          </cell>
+          <cell r="D39">
+            <v>15.42</v>
+          </cell>
+          <cell r="E39">
+            <v>15.59</v>
+          </cell>
+          <cell r="F39">
+            <v>15.69</v>
+          </cell>
+          <cell r="G39">
+            <v>15.78</v>
+          </cell>
+          <cell r="H39">
+            <v>15.46</v>
+          </cell>
+          <cell r="I39">
+            <v>15.43</v>
+          </cell>
+          <cell r="J39">
+            <v>14.76</v>
+          </cell>
+          <cell r="K39">
+            <v>14.49</v>
+          </cell>
+          <cell r="L39">
+            <v>14.53</v>
+          </cell>
+          <cell r="M39">
+            <v>13</v>
+          </cell>
+          <cell r="N39">
+            <v>12.99</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>Давление пара, МПа</v>
+          </cell>
+          <cell r="C40">
+            <v>0.59799999999999998</v>
+          </cell>
+          <cell r="D40">
+            <v>0.59599999999999997</v>
+          </cell>
+          <cell r="E40">
+            <v>0.60799999999999998</v>
+          </cell>
+          <cell r="F40">
+            <v>0.61699999999999999</v>
+          </cell>
+          <cell r="G40">
+            <v>0.627</v>
+          </cell>
+          <cell r="H40">
+            <v>0.62</v>
+          </cell>
+          <cell r="I40">
+            <v>0.61899999999999999</v>
+          </cell>
+          <cell r="J40">
+            <v>0.61099999999999999</v>
+          </cell>
+          <cell r="K40">
+            <v>0.60199999999999998</v>
+          </cell>
+          <cell r="L40">
+            <v>0.60199999999999998</v>
+          </cell>
+          <cell r="M40">
+            <v>0.57799999999999996</v>
+          </cell>
+          <cell r="N40">
+            <v>0.57899999999999996</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>Температура пара, °С</v>
+          </cell>
+          <cell r="C41">
+            <v>210.3</v>
+          </cell>
+          <cell r="D41" t="str">
+            <v>210.2</v>
+          </cell>
+          <cell r="E41">
+            <v>210.7</v>
+          </cell>
+          <cell r="F41">
+            <v>211.1</v>
+          </cell>
+          <cell r="G41">
+            <v>211.4</v>
+          </cell>
+          <cell r="H41">
+            <v>210.8</v>
+          </cell>
+          <cell r="I41">
+            <v>210.8</v>
+          </cell>
+          <cell r="J41">
+            <v>209.8</v>
+          </cell>
+          <cell r="K41">
+            <v>209.2</v>
+          </cell>
+          <cell r="L41">
+            <v>209.2</v>
+          </cell>
+          <cell r="M41">
+            <v>206.5</v>
+          </cell>
+          <cell r="N41">
+            <v>206.5</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>Пар после смешения:</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>Расход, кг/с</v>
+          </cell>
+          <cell r="C43">
+            <v>76.72</v>
+          </cell>
+          <cell r="D43">
+            <v>76.5</v>
+          </cell>
+          <cell r="E43">
+            <v>78.17</v>
+          </cell>
+          <cell r="F43">
+            <v>79.33</v>
+          </cell>
+          <cell r="G43">
+            <v>80.61</v>
+          </cell>
+          <cell r="H43">
+            <v>79.62</v>
+          </cell>
+          <cell r="I43">
+            <v>79.52</v>
+          </cell>
+          <cell r="J43">
+            <v>78.16</v>
+          </cell>
+          <cell r="K43">
+            <v>76.819999999999993</v>
+          </cell>
+          <cell r="L43">
+            <v>76.86</v>
+          </cell>
+          <cell r="M43">
+            <v>72.94</v>
+          </cell>
+          <cell r="N43">
+            <v>72.94</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>Давление пара, МПа</v>
+          </cell>
+          <cell r="C44">
+            <v>0.53600000000000003</v>
+          </cell>
+          <cell r="D44">
+            <v>0.53400000000000003</v>
+          </cell>
+          <cell r="E44">
+            <v>0.54600000000000004</v>
+          </cell>
+          <cell r="F44">
+            <v>0.55500000000000005</v>
+          </cell>
+          <cell r="G44">
+            <v>0.56499999999999995</v>
+          </cell>
+          <cell r="H44">
+            <v>0.55800000000000005</v>
+          </cell>
+          <cell r="I44">
+            <v>0.55700000000000005</v>
+          </cell>
+          <cell r="J44">
+            <v>0.54900000000000004</v>
+          </cell>
+          <cell r="K44">
+            <v>0.54</v>
+          </cell>
+          <cell r="L44">
+            <v>0.54</v>
+          </cell>
+          <cell r="M44">
+            <v>0.51600000000000001</v>
+          </cell>
+          <cell r="N44">
+            <v>0.51700000000000002</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>Температура пара,°С</v>
+          </cell>
+          <cell r="C45">
+            <v>191.6</v>
+          </cell>
+          <cell r="D45">
+            <v>191.9</v>
+          </cell>
+          <cell r="E45">
+            <v>192.8</v>
+          </cell>
+          <cell r="F45">
+            <v>193.3</v>
+          </cell>
+          <cell r="G45">
+            <v>194.4</v>
+          </cell>
+          <cell r="H45">
+            <v>195.1</v>
+          </cell>
+          <cell r="I45">
+            <v>195.2</v>
+          </cell>
+          <cell r="J45">
+            <v>197.8</v>
+          </cell>
+          <cell r="K45">
+            <v>198</v>
+          </cell>
+          <cell r="L45">
+            <v>198</v>
+          </cell>
+          <cell r="M45">
+            <v>204.7</v>
+          </cell>
+          <cell r="N45">
+            <v>204.6</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>Пар в отборе 2:</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47" t="str">
+            <v>Расход, кг/с</v>
+          </cell>
+          <cell r="C47">
+            <v>0</v>
+          </cell>
+          <cell r="D47">
+            <v>0</v>
+          </cell>
+          <cell r="E47">
+            <v>0</v>
+          </cell>
+          <cell r="F47">
+            <v>0</v>
+          </cell>
+          <cell r="G47">
+            <v>0</v>
+          </cell>
+          <cell r="H47">
+            <v>0</v>
+          </cell>
+          <cell r="I47">
+            <v>0</v>
+          </cell>
+          <cell r="J47">
+            <v>0</v>
+          </cell>
+          <cell r="K47">
+            <v>0</v>
+          </cell>
+          <cell r="L47">
+            <v>0</v>
+          </cell>
+          <cell r="M47">
+            <v>0</v>
+          </cell>
+          <cell r="N47">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="str">
+            <v>Давление пара, МПа</v>
+          </cell>
+          <cell r="C48">
+            <v>0.24829999999999999</v>
+          </cell>
+          <cell r="D48">
+            <v>0.24759999999999999</v>
+          </cell>
+          <cell r="E48">
+            <v>0.25330000000000003</v>
+          </cell>
+          <cell r="F48">
+            <v>0.25719999999999998</v>
+          </cell>
+          <cell r="G48">
+            <v>0.2616</v>
+          </cell>
+          <cell r="H48">
+            <v>0.25850000000000001</v>
+          </cell>
+          <cell r="I48">
+            <v>0.25819999999999999</v>
+          </cell>
+          <cell r="J48">
+            <v>0.25419999999999998</v>
+          </cell>
+          <cell r="K48">
+            <v>0.25</v>
+          </cell>
+          <cell r="L48">
+            <v>0.25019999999999998</v>
+          </cell>
+          <cell r="M48">
+            <v>0.2392</v>
+          </cell>
+          <cell r="N48">
+            <v>0.23980000000000001</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49" t="str">
+            <v>Температура пара, °С</v>
+          </cell>
+          <cell r="C49">
+            <v>127.2</v>
+          </cell>
+          <cell r="D49">
+            <v>127.1</v>
+          </cell>
+          <cell r="E49">
+            <v>127.8</v>
+          </cell>
+          <cell r="F49">
+            <v>128.30000000000001</v>
+          </cell>
+          <cell r="G49">
+            <v>128.9</v>
+          </cell>
+          <cell r="H49">
+            <v>129</v>
+          </cell>
+          <cell r="I49">
+            <v>129.19999999999999</v>
+          </cell>
+          <cell r="J49">
+            <v>131.4</v>
+          </cell>
+          <cell r="K49">
+            <v>131.6</v>
+          </cell>
+          <cell r="L49">
+            <v>131.69999999999999</v>
+          </cell>
+          <cell r="M49">
+            <v>137.6</v>
+          </cell>
+          <cell r="N49">
+            <v>137.69999999999999</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50" t="str">
+            <v>Пар в отборе 1:</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51" t="str">
+            <v>Расход, кг/с</v>
+          </cell>
+          <cell r="C51">
+            <v>0</v>
+          </cell>
+          <cell r="D51">
+            <v>0</v>
+          </cell>
+          <cell r="E51">
+            <v>0</v>
+          </cell>
+          <cell r="F51">
+            <v>0</v>
+          </cell>
+          <cell r="G51">
+            <v>0</v>
+          </cell>
+          <cell r="H51">
+            <v>0</v>
+          </cell>
+          <cell r="I51">
+            <v>0</v>
+          </cell>
+          <cell r="J51">
+            <v>0</v>
+          </cell>
+          <cell r="K51">
+            <v>0</v>
+          </cell>
+          <cell r="L51">
+            <v>0</v>
+          </cell>
+          <cell r="M51">
+            <v>0</v>
+          </cell>
+          <cell r="N51">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52" t="str">
+            <v>Давление пара, МПа</v>
+          </cell>
+          <cell r="C52">
+            <v>0.1492</v>
+          </cell>
+          <cell r="D52">
+            <v>0.1487</v>
+          </cell>
+          <cell r="E52">
+            <v>0.1522</v>
+          </cell>
+          <cell r="F52">
+            <v>0.15459999999999999</v>
+          </cell>
+          <cell r="G52">
+            <v>0.15720000000000001</v>
+          </cell>
+          <cell r="H52">
+            <v>0.15540000000000001</v>
+          </cell>
+          <cell r="I52">
+            <v>0.1552</v>
+          </cell>
+          <cell r="J52">
+            <v>0.1525</v>
+          </cell>
+          <cell r="K52">
+            <v>0.15</v>
+          </cell>
+          <cell r="L52">
+            <v>0.15029999999999999</v>
+          </cell>
+          <cell r="M52">
+            <v>0.14369999999999999</v>
+          </cell>
+          <cell r="N52">
+            <v>0.14460000000000001</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>Температура пара, °С</v>
+          </cell>
+          <cell r="C53">
+            <v>111.2</v>
+          </cell>
+          <cell r="D53">
+            <v>111.1</v>
+          </cell>
+          <cell r="E53">
+            <v>111.8</v>
+          </cell>
+          <cell r="F53">
+            <v>112.2</v>
+          </cell>
+          <cell r="G53">
+            <v>112.8</v>
+          </cell>
+          <cell r="H53">
+            <v>112.4</v>
+          </cell>
+          <cell r="I53">
+            <v>112.4</v>
+          </cell>
+          <cell r="J53">
+            <v>111.8</v>
+          </cell>
+          <cell r="K53">
+            <v>111.3</v>
+          </cell>
+          <cell r="L53">
+            <v>111.4</v>
+          </cell>
+          <cell r="M53">
+            <v>110.1</v>
+          </cell>
+          <cell r="N53">
+            <v>110.2</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54" t="str">
+            <v>Пар перед ЦНД:</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>Расход, кг/с</v>
+          </cell>
+          <cell r="C55">
+            <v>76.72</v>
+          </cell>
+          <cell r="D55">
+            <v>76.5</v>
+          </cell>
+          <cell r="E55">
+            <v>78.17</v>
+          </cell>
+          <cell r="F55">
+            <v>79.33</v>
+          </cell>
+          <cell r="G55">
+            <v>80.61</v>
+          </cell>
+          <cell r="H55">
+            <v>79.62</v>
+          </cell>
+          <cell r="I55">
+            <v>79.52</v>
+          </cell>
+          <cell r="J55">
+            <v>78.16</v>
+          </cell>
+          <cell r="K55">
+            <v>76.819999999999993</v>
+          </cell>
+          <cell r="L55">
+            <v>76.86</v>
+          </cell>
+          <cell r="M55">
+            <v>72.94</v>
+          </cell>
+          <cell r="N55">
+            <v>72.94</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56" t="str">
+            <v>Температура пара, °С</v>
+          </cell>
+          <cell r="C56">
+            <v>111.2</v>
+          </cell>
+          <cell r="D56">
+            <v>111.1</v>
+          </cell>
+          <cell r="E56">
+            <v>111.2</v>
+          </cell>
+          <cell r="F56">
+            <v>112.2</v>
+          </cell>
+          <cell r="G56">
+            <v>112.8</v>
+          </cell>
+          <cell r="H56">
+            <v>112.4</v>
+          </cell>
+          <cell r="I56">
+            <v>112.4</v>
+          </cell>
+          <cell r="J56">
+            <v>111.8</v>
+          </cell>
+          <cell r="K56">
+            <v>111.3</v>
+          </cell>
+          <cell r="L56">
+            <v>111.4</v>
+          </cell>
+          <cell r="M56">
+            <v>110.1</v>
+          </cell>
+          <cell r="N56">
+            <v>110.2</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57" t="str">
+            <v>Степень сухости пара/влажность пара , %</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63" t="str">
+            <v>Пар после ЦНД:</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64" t="str">
+            <v>Расход, кг/с</v>
+          </cell>
+          <cell r="C64">
+            <v>76.73</v>
+          </cell>
+          <cell r="D64">
+            <v>76.489999999999995</v>
+          </cell>
+          <cell r="E64">
+            <v>78.17</v>
+          </cell>
+          <cell r="F64">
+            <v>79.33</v>
+          </cell>
+          <cell r="G64">
+            <v>80.61</v>
+          </cell>
+          <cell r="H64">
+            <v>79.62</v>
+          </cell>
+          <cell r="I64">
+            <v>79.52</v>
+          </cell>
+          <cell r="J64">
+            <v>78.16</v>
+          </cell>
+          <cell r="K64">
+            <v>76.819999999999993</v>
+          </cell>
+          <cell r="L64">
+            <v>76.86</v>
+          </cell>
+          <cell r="M64">
+            <v>72.94</v>
+          </cell>
+          <cell r="N64">
+            <v>72.94</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65" t="str">
+            <v>Давление пара, МПа</v>
+          </cell>
+          <cell r="C65">
+            <v>7.0000000000000001E-3</v>
+          </cell>
+          <cell r="D65">
+            <v>6.8999999999999999E-3</v>
+          </cell>
+          <cell r="E65">
+            <v>8.3999999999999995E-3</v>
+          </cell>
+          <cell r="F65">
+            <v>8.5000000000000006E-3</v>
+          </cell>
+          <cell r="G65">
+            <v>0.01</v>
+          </cell>
+          <cell r="H65">
+            <v>1.06E-2</v>
+          </cell>
+          <cell r="I65">
+            <v>1.06E-2</v>
+          </cell>
+          <cell r="J65">
+            <v>8.0000000000000002E-3</v>
+          </cell>
+          <cell r="K65">
+            <v>0.01</v>
+          </cell>
+          <cell r="L65">
+            <v>1.32E-2</v>
+          </cell>
+          <cell r="M65">
+            <v>0.02</v>
+          </cell>
+          <cell r="N65">
+            <v>2.52E-2</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66" t="str">
+            <v>Степень сухости пара/влажность пара , %</v>
+          </cell>
+        </row>
         <row r="133">
           <cell r="C133">
             <v>431.4</v>
@@ -7188,6 +9478,391 @@
             <v>0.52600000000000002</v>
           </cell>
         </row>
+        <row r="153">
+          <cell r="C153">
+            <v>51.75</v>
+          </cell>
+          <cell r="D153">
+            <v>53</v>
+          </cell>
+          <cell r="E153">
+            <v>54.97</v>
+          </cell>
+          <cell r="F153">
+            <v>54.61</v>
+          </cell>
+          <cell r="G153">
+            <v>53.06</v>
+          </cell>
+          <cell r="H153">
+            <v>50.92</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="C154">
+            <v>6.4009999999999998</v>
+          </cell>
+          <cell r="D154">
+            <v>6.5640000000000001</v>
+          </cell>
+          <cell r="E154">
+            <v>6.8209999999999997</v>
+          </cell>
+          <cell r="F154">
+            <v>6.7889999999999997</v>
+          </cell>
+          <cell r="G154">
+            <v>6.633</v>
+          </cell>
+          <cell r="H154">
+            <v>6.4409999999999998</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="C155">
+            <v>497.9</v>
+          </cell>
+          <cell r="D155">
+            <v>500.5</v>
+          </cell>
+          <cell r="E155">
+            <v>504.1</v>
+          </cell>
+          <cell r="F155">
+            <v>506.1</v>
+          </cell>
+          <cell r="G155">
+            <v>513.1</v>
+          </cell>
+          <cell r="H155">
+            <v>527.29999999999995</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="C157">
+            <v>12.74</v>
+          </cell>
+          <cell r="D157">
+            <v>12.87</v>
+          </cell>
+          <cell r="E157">
+            <v>13.1</v>
+          </cell>
+          <cell r="F157">
+            <v>12.88</v>
+          </cell>
+          <cell r="G157">
+            <v>12.09</v>
+          </cell>
+          <cell r="H157">
+            <v>10.85</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="C158">
+            <v>0.48</v>
+          </cell>
+          <cell r="D158">
+            <v>0.49</v>
+          </cell>
+          <cell r="E158">
+            <v>0.50600000000000001</v>
+          </cell>
+          <cell r="F158">
+            <v>0.503</v>
+          </cell>
+          <cell r="G158">
+            <v>0.48799999999999999</v>
+          </cell>
+          <cell r="H158">
+            <v>0.46800000000000003</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="C159">
+            <v>204.7</v>
+          </cell>
+          <cell r="D159">
+            <v>205.2</v>
+          </cell>
+          <cell r="E159">
+            <v>206</v>
+          </cell>
+          <cell r="F159">
+            <v>205.7</v>
+          </cell>
+          <cell r="G159">
+            <v>204.4</v>
+          </cell>
+          <cell r="H159">
+            <v>202.4</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="C161">
+            <v>64.25</v>
+          </cell>
+          <cell r="D161">
+            <v>65.61</v>
+          </cell>
+          <cell r="E161">
+            <v>67.81</v>
+          </cell>
+          <cell r="F161">
+            <v>67.22</v>
+          </cell>
+          <cell r="G161">
+            <v>64.89</v>
+          </cell>
+          <cell r="H161">
+            <v>61.55</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="C162">
+            <v>0.442</v>
+          </cell>
+          <cell r="D162">
+            <v>0.45200000000000001</v>
+          </cell>
+          <cell r="E162">
+            <v>0.46800000000000003</v>
+          </cell>
+          <cell r="F162">
+            <v>0.46500000000000002</v>
+          </cell>
+          <cell r="G162">
+            <v>0.45</v>
+          </cell>
+          <cell r="H162">
+            <v>0.43</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="C163">
+            <v>191.7</v>
+          </cell>
+          <cell r="D163">
+            <v>192.8</v>
+          </cell>
+          <cell r="E163">
+            <v>194.4</v>
+          </cell>
+          <cell r="F163">
+            <v>195.3</v>
+          </cell>
+          <cell r="G163">
+            <v>198.3</v>
+          </cell>
+          <cell r="H163">
+            <v>205.1</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="C165">
+            <v>0</v>
+          </cell>
+          <cell r="D165">
+            <v>0</v>
+          </cell>
+          <cell r="E165">
+            <v>0</v>
+          </cell>
+          <cell r="F165">
+            <v>0</v>
+          </cell>
+          <cell r="G165">
+            <v>0</v>
+          </cell>
+          <cell r="H165">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="C166">
+            <v>0.184</v>
+          </cell>
+          <cell r="D166">
+            <v>0.189</v>
+          </cell>
+          <cell r="E166">
+            <v>0.19500000000000001</v>
+          </cell>
+          <cell r="F166">
+            <v>0.19400000000000001</v>
+          </cell>
+          <cell r="G166">
+            <v>0.188</v>
+          </cell>
+          <cell r="H166">
+            <v>0.18</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="C167">
+            <v>118.4</v>
+          </cell>
+          <cell r="D167">
+            <v>119.3</v>
+          </cell>
+          <cell r="E167">
+            <v>120.4</v>
+          </cell>
+          <cell r="F167">
+            <v>121.1</v>
+          </cell>
+          <cell r="G167">
+            <v>123.9</v>
+          </cell>
+          <cell r="H167">
+            <v>129.9</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="C169">
+            <v>0</v>
+          </cell>
+          <cell r="D169">
+            <v>0</v>
+          </cell>
+          <cell r="E169">
+            <v>0</v>
+          </cell>
+          <cell r="F169">
+            <v>0</v>
+          </cell>
+          <cell r="G169">
+            <v>0</v>
+          </cell>
+          <cell r="H169">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="C170">
+            <v>0.08</v>
+          </cell>
+          <cell r="D170">
+            <v>8.2000000000000003E-2</v>
+          </cell>
+          <cell r="E170">
+            <v>8.5000000000000006E-2</v>
+          </cell>
+          <cell r="F170">
+            <v>8.4000000000000005E-2</v>
+          </cell>
+          <cell r="G170">
+            <v>8.1000000000000003E-2</v>
+          </cell>
+          <cell r="H170">
+            <v>7.9000000000000001E-2</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="C171">
+            <v>93.4</v>
+          </cell>
+          <cell r="D171">
+            <v>94</v>
+          </cell>
+          <cell r="E171">
+            <v>95</v>
+          </cell>
+          <cell r="F171">
+            <v>94.8</v>
+          </cell>
+          <cell r="G171">
+            <v>93.9</v>
+          </cell>
+          <cell r="H171">
+            <v>93</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="C173">
+            <v>64.25</v>
+          </cell>
+          <cell r="D173">
+            <v>65.61</v>
+          </cell>
+          <cell r="E173">
+            <v>67.81</v>
+          </cell>
+          <cell r="F173">
+            <v>67.22</v>
+          </cell>
+          <cell r="G173">
+            <v>64.89</v>
+          </cell>
+          <cell r="H173">
+            <v>61.55</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="C174">
+            <v>93.4</v>
+          </cell>
+          <cell r="D174">
+            <v>94</v>
+          </cell>
+          <cell r="E174">
+            <v>95</v>
+          </cell>
+          <cell r="F174">
+            <v>94.8</v>
+          </cell>
+          <cell r="G174">
+            <v>93.9</v>
+          </cell>
+          <cell r="H174">
+            <v>93</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="C177">
+            <v>64.25</v>
+          </cell>
+          <cell r="D177">
+            <v>65.61</v>
+          </cell>
+          <cell r="E177">
+            <v>67.81</v>
+          </cell>
+          <cell r="F177">
+            <v>67.22</v>
+          </cell>
+          <cell r="G177">
+            <v>64.89</v>
+          </cell>
+          <cell r="H177">
+            <v>61.55</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="C178">
+            <v>6.0000000000000001E-3</v>
+          </cell>
+          <cell r="D178">
+            <v>7.0000000000000001E-3</v>
+          </cell>
+          <cell r="E178">
+            <v>8.0000000000000002E-3</v>
+          </cell>
+          <cell r="F178">
+            <v>8.9999999999999993E-3</v>
+          </cell>
+          <cell r="G178">
+            <v>1.0999999999999999E-2</v>
+          </cell>
+          <cell r="H178">
+            <v>1.7000000000000001E-2</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="C188" t="str">
+            <v>-</v>
+          </cell>
+        </row>
         <row r="249">
           <cell r="C249">
             <v>357</v>
@@ -7248,9 +9923,389 @@
             <v>0.44600000000000001</v>
           </cell>
         </row>
+        <row r="269">
+          <cell r="C269">
+            <v>41.97</v>
+          </cell>
+          <cell r="D269">
+            <v>42.97</v>
+          </cell>
+          <cell r="E269">
+            <v>44.5</v>
+          </cell>
+          <cell r="F269">
+            <v>44.44</v>
+          </cell>
+          <cell r="G269">
+            <v>43.17</v>
+          </cell>
+          <cell r="H269">
+            <v>41.42</v>
+          </cell>
+        </row>
+        <row r="270">
+          <cell r="C270">
+            <v>5.1989999999999998</v>
+          </cell>
+          <cell r="D270">
+            <v>5.3310000000000004</v>
+          </cell>
+          <cell r="E270">
+            <v>5.5289999999999999</v>
+          </cell>
+          <cell r="F270">
+            <v>5.53</v>
+          </cell>
+          <cell r="G270">
+            <v>5.4039999999999999</v>
+          </cell>
+          <cell r="H270">
+            <v>5.2460000000000004</v>
+          </cell>
+        </row>
+        <row r="271">
+          <cell r="C271">
+            <v>492.2</v>
+          </cell>
+          <cell r="D271">
+            <v>495</v>
+          </cell>
+          <cell r="E271">
+            <v>499</v>
+          </cell>
+          <cell r="F271">
+            <v>500.9</v>
+          </cell>
+          <cell r="G271">
+            <v>507.8</v>
+          </cell>
+          <cell r="H271">
+            <v>522.1</v>
+          </cell>
+        </row>
+        <row r="273">
+          <cell r="C273">
+            <v>10.57</v>
+          </cell>
+          <cell r="D273">
+            <v>10.74</v>
+          </cell>
+          <cell r="E273">
+            <v>11.04</v>
+          </cell>
+          <cell r="F273">
+            <v>10.92</v>
+          </cell>
+          <cell r="G273">
+            <v>10.17</v>
+          </cell>
+          <cell r="H273">
+            <v>9.0299999999999994</v>
+          </cell>
+        </row>
+        <row r="274">
+          <cell r="C274">
+            <v>0.4</v>
+          </cell>
+          <cell r="D274">
+            <v>0.4</v>
+          </cell>
+          <cell r="E274">
+            <v>0.4</v>
+          </cell>
+          <cell r="F274">
+            <v>0.4</v>
+          </cell>
+          <cell r="G274">
+            <v>0.4</v>
+          </cell>
+          <cell r="H274">
+            <v>0.4</v>
+          </cell>
+        </row>
+        <row r="275">
+          <cell r="C275">
+            <v>199.4</v>
+          </cell>
+          <cell r="D275">
+            <v>199.6</v>
+          </cell>
+          <cell r="E275">
+            <v>199.8</v>
+          </cell>
+          <cell r="F275">
+            <v>199.7</v>
+          </cell>
+          <cell r="G275">
+            <v>199</v>
+          </cell>
+          <cell r="H275">
+            <v>197.8</v>
+          </cell>
+        </row>
+        <row r="277">
+          <cell r="C277">
+            <v>52.33</v>
+          </cell>
+          <cell r="D277">
+            <v>53.5</v>
+          </cell>
+          <cell r="E277">
+            <v>55.33</v>
+          </cell>
+          <cell r="F277">
+            <v>55.2</v>
+          </cell>
+          <cell r="G277">
+            <v>53.14</v>
+          </cell>
+          <cell r="H277">
+            <v>50.25</v>
+          </cell>
+        </row>
+        <row r="278">
+          <cell r="C278">
+            <v>0.36</v>
+          </cell>
+          <cell r="D278">
+            <v>0.36899999999999999</v>
+          </cell>
+          <cell r="E278">
+            <v>0.38200000000000001</v>
+          </cell>
+          <cell r="F278">
+            <v>0.38100000000000001</v>
+          </cell>
+          <cell r="G278">
+            <v>0.36699999999999999</v>
+          </cell>
+          <cell r="H278">
+            <v>0.35099999999999998</v>
+          </cell>
+        </row>
+        <row r="279">
+          <cell r="C279">
+            <v>191.9</v>
+          </cell>
+          <cell r="D279">
+            <v>193.2</v>
+          </cell>
+          <cell r="E279">
+            <v>195.2</v>
+          </cell>
+          <cell r="F279">
+            <v>196</v>
+          </cell>
+          <cell r="G279">
+            <v>196.1</v>
+          </cell>
+          <cell r="H279">
+            <v>205.8</v>
+          </cell>
+        </row>
+        <row r="281">
+          <cell r="C281">
+            <v>0</v>
+          </cell>
+          <cell r="D281">
+            <v>0</v>
+          </cell>
+          <cell r="E281">
+            <v>0</v>
+          </cell>
+          <cell r="F281">
+            <v>0</v>
+          </cell>
+          <cell r="G281">
+            <v>0</v>
+          </cell>
+          <cell r="H281">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="282">
+          <cell r="C282">
+            <v>0.15</v>
+          </cell>
+          <cell r="D282">
+            <v>0.15379999999999999</v>
+          </cell>
+          <cell r="E282">
+            <v>0.1595</v>
+          </cell>
+          <cell r="F282">
+            <v>0.15909999999999999</v>
+          </cell>
+          <cell r="G282">
+            <v>0.153</v>
+          </cell>
+          <cell r="H282">
+            <v>0.1469</v>
+          </cell>
+        </row>
+        <row r="283">
+          <cell r="C283">
+            <v>119.3</v>
+          </cell>
+          <cell r="D283">
+            <v>120.4</v>
+          </cell>
+          <cell r="E283">
+            <v>122.1</v>
+          </cell>
+          <cell r="F283">
+            <v>122.9</v>
+          </cell>
+          <cell r="G283">
+            <v>122.1</v>
+          </cell>
+          <cell r="H283">
+            <v>131.6</v>
+          </cell>
+        </row>
+        <row r="285">
+          <cell r="C285">
+            <v>0</v>
+          </cell>
+          <cell r="D285">
+            <v>0</v>
+          </cell>
+          <cell r="E285">
+            <v>0</v>
+          </cell>
+          <cell r="F285">
+            <v>0</v>
+          </cell>
+          <cell r="G285">
+            <v>0</v>
+          </cell>
+          <cell r="H285">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="286">
+          <cell r="C286">
+            <v>6.4699999999999994E-2</v>
+          </cell>
+          <cell r="D286">
+            <v>6.6299999999999998E-2</v>
+          </cell>
+          <cell r="E286">
+            <v>6.88E-2</v>
+          </cell>
+          <cell r="F286">
+            <v>6.8599999999999994E-2</v>
+          </cell>
+          <cell r="G286">
+            <v>6.6000000000000003E-2</v>
+          </cell>
+          <cell r="H286">
+            <v>6.4000000000000001E-2</v>
+          </cell>
+        </row>
+        <row r="287">
+          <cell r="C287">
+            <v>87.9</v>
+          </cell>
+          <cell r="D287">
+            <v>88.5</v>
+          </cell>
+          <cell r="E287">
+            <v>89.5</v>
+          </cell>
+          <cell r="F287">
+            <v>89.4</v>
+          </cell>
+          <cell r="G287">
+            <v>88.4</v>
+          </cell>
+          <cell r="H287">
+            <v>87.6</v>
+          </cell>
+        </row>
+        <row r="289">
+          <cell r="C289">
+            <v>52.33</v>
+          </cell>
+          <cell r="D289">
+            <v>53.5</v>
+          </cell>
+          <cell r="E289">
+            <v>55.33</v>
+          </cell>
+          <cell r="F289">
+            <v>55.17</v>
+          </cell>
+          <cell r="G289">
+            <v>53.14</v>
+          </cell>
+          <cell r="H289">
+            <v>50.25</v>
+          </cell>
+        </row>
+        <row r="290">
+          <cell r="C290">
+            <v>87.9</v>
+          </cell>
+          <cell r="D290">
+            <v>88.5</v>
+          </cell>
+          <cell r="E290">
+            <v>89.5</v>
+          </cell>
+          <cell r="F290">
+            <v>89.4</v>
+          </cell>
+          <cell r="G290">
+            <v>88.5</v>
+          </cell>
+          <cell r="H290">
+            <v>87.6</v>
+          </cell>
+        </row>
+        <row r="293">
+          <cell r="C293">
+            <v>52.3</v>
+          </cell>
+          <cell r="D293">
+            <v>53.5</v>
+          </cell>
+          <cell r="E293">
+            <v>55.33</v>
+          </cell>
+          <cell r="F293">
+            <v>55.17</v>
+          </cell>
+          <cell r="G293">
+            <v>53.14</v>
+          </cell>
+          <cell r="H293">
+            <v>50.25</v>
+          </cell>
+        </row>
+        <row r="294">
+          <cell r="C294">
+            <v>4.7999999999999996E-3</v>
+          </cell>
+          <cell r="D294">
+            <v>5.7000000000000002E-3</v>
+          </cell>
+          <cell r="E294">
+            <v>6.6E-3</v>
+          </cell>
+          <cell r="F294">
+            <v>7.3000000000000001E-3</v>
+          </cell>
+          <cell r="G294">
+            <v>9.1999999999999998E-3</v>
+          </cell>
+          <cell r="H294">
+            <v>1.47E-2</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -9485,6 +12540,5245 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BD7F4F-C630-44C6-B6AE-CF7C437C65FD}">
+  <dimension ref="A2:AV60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="Y2">
+        <v>75</v>
+      </c>
+      <c r="AK2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A4" t="str">
+        <f>'[2]Конденсационные режимы'!B35</f>
+        <v>Расход пара, кг/с</v>
+      </c>
+      <c r="B4">
+        <f>'[2]Конденсационные режимы'!C35</f>
+        <v>61.51</v>
+      </c>
+      <c r="C4">
+        <f>'[2]Конденсационные режимы'!D35</f>
+        <v>61.36</v>
+      </c>
+      <c r="D4">
+        <f>'[2]Конденсационные режимы'!E35</f>
+        <v>62.88</v>
+      </c>
+      <c r="E4">
+        <f>'[2]Конденсационные режимы'!F35</f>
+        <v>63.95</v>
+      </c>
+      <c r="F4">
+        <f>'[2]Конденсационные режимы'!G35</f>
+        <v>65.14</v>
+      </c>
+      <c r="G4">
+        <f>'[2]Конденсационные режимы'!H35</f>
+        <v>64.47</v>
+      </c>
+      <c r="H4">
+        <f>'[2]Конденсационные режимы'!I35</f>
+        <v>64.400000000000006</v>
+      </c>
+      <c r="I4">
+        <f>'[2]Конденсационные режимы'!J35</f>
+        <v>63.4</v>
+      </c>
+      <c r="J4">
+        <f>'[2]Конденсационные режимы'!K35</f>
+        <v>62.63</v>
+      </c>
+      <c r="K4">
+        <f>'[2]Конденсационные режимы'!L35</f>
+        <v>62.63</v>
+      </c>
+      <c r="L4">
+        <f>'[2]Конденсационные режимы'!M35</f>
+        <v>60.24</v>
+      </c>
+      <c r="M4">
+        <f>'[2]Конденсационные режимы'!N35</f>
+        <v>60.24</v>
+      </c>
+      <c r="N4">
+        <f>'[2]Теплофикационные режимы'!C31</f>
+        <v>61.36</v>
+      </c>
+      <c r="O4">
+        <f>'[2]Теплофикационные режимы'!D31</f>
+        <v>62.92</v>
+      </c>
+      <c r="P4">
+        <f>'[2]Теплофикационные режимы'!E31</f>
+        <v>63.95</v>
+      </c>
+      <c r="Q4">
+        <f>'[2]Теплофикационные режимы'!F31</f>
+        <v>65.150000000000006</v>
+      </c>
+      <c r="R4">
+        <f>'[2]Теплофикационные режимы'!G31</f>
+        <v>64.47</v>
+      </c>
+      <c r="S4">
+        <f>'[2]Теплофикационные режимы'!H31</f>
+        <v>64.41</v>
+      </c>
+      <c r="T4">
+        <f>'[2]Теплофикационные режимы'!I31</f>
+        <v>62.64</v>
+      </c>
+      <c r="U4">
+        <f>'[2]Теплофикационные режимы'!J31</f>
+        <v>60.26</v>
+      </c>
+      <c r="V4">
+        <f>'[2]Теплофикационные режимы'!K31</f>
+        <v>60.26</v>
+      </c>
+      <c r="W4">
+        <f>'[2]Теплофикационные режимы'!L31</f>
+        <v>62.64</v>
+      </c>
+      <c r="X4">
+        <f>'[2]Теплофикационные режимы'!M31</f>
+        <v>60.26</v>
+      </c>
+      <c r="Y4">
+        <f>'[2]Конденсационные режимы'!C153</f>
+        <v>51.75</v>
+      </c>
+      <c r="Z4">
+        <f>'[2]Конденсационные режимы'!D153</f>
+        <v>53</v>
+      </c>
+      <c r="AA4">
+        <f>'[2]Конденсационные режимы'!E153</f>
+        <v>54.97</v>
+      </c>
+      <c r="AB4">
+        <f>'[2]Конденсационные режимы'!F153</f>
+        <v>54.61</v>
+      </c>
+      <c r="AC4">
+        <f>'[2]Конденсационные режимы'!G153</f>
+        <v>53.06</v>
+      </c>
+      <c r="AD4">
+        <f>'[2]Конденсационные режимы'!H153</f>
+        <v>50.92</v>
+      </c>
+      <c r="AE4">
+        <f>'[2]Теплофикационные режимы'!C147</f>
+        <v>51.75</v>
+      </c>
+      <c r="AF4">
+        <f>'[2]Теплофикационные режимы'!D147</f>
+        <v>53</v>
+      </c>
+      <c r="AG4">
+        <f>'[2]Теплофикационные режимы'!E147</f>
+        <v>54.97</v>
+      </c>
+      <c r="AH4">
+        <f>'[2]Теплофикационные режимы'!F147</f>
+        <v>54.61</v>
+      </c>
+      <c r="AI4">
+        <f>'[2]Теплофикационные режимы'!G147</f>
+        <v>53.06</v>
+      </c>
+      <c r="AJ4">
+        <f>'[2]Теплофикационные режимы'!H147</f>
+        <v>50.92</v>
+      </c>
+      <c r="AK4">
+        <f>'[2]Конденсационные режимы'!C269</f>
+        <v>41.97</v>
+      </c>
+      <c r="AL4">
+        <f>'[2]Конденсационные режимы'!D269</f>
+        <v>42.97</v>
+      </c>
+      <c r="AM4">
+        <f>'[2]Конденсационные режимы'!E269</f>
+        <v>44.5</v>
+      </c>
+      <c r="AN4">
+        <f>'[2]Конденсационные режимы'!F269</f>
+        <v>44.44</v>
+      </c>
+      <c r="AO4">
+        <f>'[2]Конденсационные режимы'!G269</f>
+        <v>43.17</v>
+      </c>
+      <c r="AP4">
+        <f>'[2]Конденсационные режимы'!H269</f>
+        <v>41.42</v>
+      </c>
+      <c r="AQ4">
+        <f>'[2]Теплофикационные режимы'!C267</f>
+        <v>41.97</v>
+      </c>
+      <c r="AR4">
+        <f>'[2]Теплофикационные режимы'!D267</f>
+        <v>42.97</v>
+      </c>
+      <c r="AS4">
+        <f>'[2]Теплофикационные режимы'!E267</f>
+        <v>44.5</v>
+      </c>
+      <c r="AT4">
+        <f>'[2]Теплофикационные режимы'!F267</f>
+        <v>44.44</v>
+      </c>
+      <c r="AU4">
+        <f>'[2]Теплофикационные режимы'!G267</f>
+        <v>43.17</v>
+      </c>
+      <c r="AV4">
+        <f>'[2]Теплофикационные режимы'!H267</f>
+        <v>41.42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A5" t="str">
+        <f>'[2]Конденсационные режимы'!B36</f>
+        <v>Давление пара, МПа</v>
+      </c>
+      <c r="B5">
+        <f>'[2]Конденсационные режимы'!C36</f>
+        <v>7.4930000000000003</v>
+      </c>
+      <c r="C5">
+        <f>'[2]Конденсационные режимы'!D36</f>
+        <v>7.48</v>
+      </c>
+      <c r="D5">
+        <f>'[2]Конденсационные режимы'!E36</f>
+        <v>7.6760000000000002</v>
+      </c>
+      <c r="E5">
+        <f>'[2]Конденсационные режимы'!F36</f>
+        <v>7.8109999999999999</v>
+      </c>
+      <c r="F5">
+        <f>'[2]Конденсационные режимы'!G36</f>
+        <v>7.9610000000000003</v>
+      </c>
+      <c r="G5">
+        <f>'[2]Конденсационные режимы'!H36</f>
+        <v>7.8959999999999999</v>
+      </c>
+      <c r="H5">
+        <f>'[2]Конденсационные режимы'!I36</f>
+        <v>7.8890000000000002</v>
+      </c>
+      <c r="I5">
+        <f>'[2]Конденсационные режимы'!J36</f>
+        <v>7.8449999999999998</v>
+      </c>
+      <c r="J5">
+        <f>'[2]Конденсационные режимы'!K36</f>
+        <v>7.7229999999999999</v>
+      </c>
+      <c r="K5">
+        <f>'[2]Конденсационные режимы'!L36</f>
+        <v>7.7229999999999999</v>
+      </c>
+      <c r="L5">
+        <f>'[2]Конденсационные режимы'!M36</f>
+        <v>7.5170000000000003</v>
+      </c>
+      <c r="M5">
+        <f>'[2]Конденсационные режимы'!N36</f>
+        <v>7.5170000000000003</v>
+      </c>
+      <c r="N5">
+        <f>'[2]Теплофикационные режимы'!C32</f>
+        <v>7.4790000000000001</v>
+      </c>
+      <c r="O5">
+        <f>'[2]Теплофикационные режимы'!D32</f>
+        <v>7.6760000000000002</v>
+      </c>
+      <c r="P5">
+        <f>'[2]Теплофикационные режимы'!E32</f>
+        <v>7.8109999999999999</v>
+      </c>
+      <c r="Q5">
+        <f>'[2]Теплофикационные режимы'!F32</f>
+        <v>7.9610000000000003</v>
+      </c>
+      <c r="R5">
+        <f>'[2]Теплофикационные режимы'!G32</f>
+        <v>7.8959999999999999</v>
+      </c>
+      <c r="S5">
+        <f>'[2]Теплофикационные режимы'!H32</f>
+        <v>7.89</v>
+      </c>
+      <c r="T5">
+        <f>'[2]Теплофикационные режимы'!I32</f>
+        <v>7.7240000000000002</v>
+      </c>
+      <c r="U5">
+        <f>'[2]Теплофикационные режимы'!J32</f>
+        <v>7.5170000000000003</v>
+      </c>
+      <c r="V5">
+        <f>'[2]Теплофикационные режимы'!K32</f>
+        <v>7.5170000000000003</v>
+      </c>
+      <c r="W5">
+        <f>'[2]Теплофикационные режимы'!L32</f>
+        <v>7.7240000000000002</v>
+      </c>
+      <c r="X5">
+        <f>'[2]Теплофикационные режимы'!M32</f>
+        <v>7.5170000000000003</v>
+      </c>
+      <c r="Y5">
+        <f>'[2]Конденсационные режимы'!C154</f>
+        <v>6.4009999999999998</v>
+      </c>
+      <c r="Z5">
+        <f>'[2]Конденсационные режимы'!D154</f>
+        <v>6.5640000000000001</v>
+      </c>
+      <c r="AA5">
+        <f>'[2]Конденсационные режимы'!E154</f>
+        <v>6.8209999999999997</v>
+      </c>
+      <c r="AB5">
+        <f>'[2]Конденсационные режимы'!F154</f>
+        <v>6.7889999999999997</v>
+      </c>
+      <c r="AC5">
+        <f>'[2]Конденсационные режимы'!G154</f>
+        <v>6.633</v>
+      </c>
+      <c r="AD5">
+        <f>'[2]Конденсационные режимы'!H154</f>
+        <v>6.4409999999999998</v>
+      </c>
+      <c r="AE5">
+        <f>'[2]Теплофикационные режимы'!C148</f>
+        <v>6.4009999999999998</v>
+      </c>
+      <c r="AF5">
+        <f>'[2]Теплофикационные режимы'!D148</f>
+        <v>6.5640000000000001</v>
+      </c>
+      <c r="AG5">
+        <f>'[2]Теплофикационные режимы'!E148</f>
+        <v>6.8209999999999997</v>
+      </c>
+      <c r="AH5">
+        <f>'[2]Теплофикационные режимы'!F148</f>
+        <v>6.7889999999999997</v>
+      </c>
+      <c r="AI5">
+        <f>'[2]Теплофикационные режимы'!G148</f>
+        <v>6.633</v>
+      </c>
+      <c r="AJ5">
+        <f>'[2]Теплофикационные режимы'!H148</f>
+        <v>6.4409999999999998</v>
+      </c>
+      <c r="AK5">
+        <f>'[2]Конденсационные режимы'!C270</f>
+        <v>5.1989999999999998</v>
+      </c>
+      <c r="AL5">
+        <f>'[2]Конденсационные режимы'!D270</f>
+        <v>5.3310000000000004</v>
+      </c>
+      <c r="AM5">
+        <f>'[2]Конденсационные режимы'!E270</f>
+        <v>5.5289999999999999</v>
+      </c>
+      <c r="AN5">
+        <f>'[2]Конденсационные режимы'!F270</f>
+        <v>5.53</v>
+      </c>
+      <c r="AO5">
+        <f>'[2]Конденсационные режимы'!G270</f>
+        <v>5.4039999999999999</v>
+      </c>
+      <c r="AP5">
+        <f>'[2]Конденсационные режимы'!H270</f>
+        <v>5.2460000000000004</v>
+      </c>
+      <c r="AQ5">
+        <f>'[2]Теплофикационные режимы'!C268</f>
+        <v>5.1989999999999998</v>
+      </c>
+      <c r="AR5">
+        <f>'[2]Теплофикационные режимы'!D268</f>
+        <v>5.3310000000000004</v>
+      </c>
+      <c r="AS5">
+        <f>'[2]Теплофикационные режимы'!E268</f>
+        <v>5.5289999999999999</v>
+      </c>
+      <c r="AT5">
+        <f>'[2]Теплофикационные режимы'!F268</f>
+        <v>5.53</v>
+      </c>
+      <c r="AU5">
+        <f>'[2]Теплофикационные режимы'!G268</f>
+        <v>5.4039999999999999</v>
+      </c>
+      <c r="AV5">
+        <f>'[2]Теплофикационные режимы'!H268</f>
+        <v>5.2460000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A6" t="str">
+        <f>'[2]Конденсационные режимы'!B37</f>
+        <v>Температура пара, °С:</v>
+      </c>
+      <c r="B6">
+        <f>'[2]Конденсационные режимы'!C37</f>
+        <v>493.8</v>
+      </c>
+      <c r="C6">
+        <f>'[2]Конденсационные режимы'!D37</f>
+        <v>494.5</v>
+      </c>
+      <c r="D6">
+        <f>'[2]Конденсационные режимы'!E37</f>
+        <v>496.8</v>
+      </c>
+      <c r="E6">
+        <f>'[2]Конденсационные режимы'!F37</f>
+        <v>498.2</v>
+      </c>
+      <c r="F6">
+        <f>'[2]Конденсационные режимы'!G37</f>
+        <v>500</v>
+      </c>
+      <c r="G6">
+        <f>'[2]Конденсационные режимы'!H37</f>
+        <v>502.2</v>
+      </c>
+      <c r="H6">
+        <f>'[2]Конденсационные режимы'!I37</f>
+        <v>502.4</v>
+      </c>
+      <c r="I6">
+        <f>'[2]Конденсационные режимы'!J37</f>
+        <v>508.6</v>
+      </c>
+      <c r="J6">
+        <f>'[2]Конденсационные режимы'!K37</f>
+        <v>509.4</v>
+      </c>
+      <c r="K6">
+        <f>'[2]Конденсационные режимы'!L37</f>
+        <v>509.4</v>
+      </c>
+      <c r="L6">
+        <f>'[2]Конденсационные режимы'!M37</f>
+        <v>524</v>
+      </c>
+      <c r="M6">
+        <f>'[2]Конденсационные режимы'!N37</f>
+        <v>524</v>
+      </c>
+      <c r="N6">
+        <f>'[2]Теплофикационные режимы'!C33</f>
+        <v>494.5</v>
+      </c>
+      <c r="O6">
+        <f>'[2]Теплофикационные режимы'!D33</f>
+        <v>496.1</v>
+      </c>
+      <c r="P6">
+        <f>'[2]Теплофикационные режимы'!E33</f>
+        <v>498.2</v>
+      </c>
+      <c r="Q6">
+        <f>'[2]Теплофикационные режимы'!F33</f>
+        <v>500</v>
+      </c>
+      <c r="R6">
+        <f>'[2]Теплофикационные режимы'!G33</f>
+        <v>502.2</v>
+      </c>
+      <c r="S6">
+        <f>'[2]Теплофикационные режимы'!H33</f>
+        <v>502.4</v>
+      </c>
+      <c r="T6">
+        <f>'[2]Теплофикационные режимы'!I33</f>
+        <v>509.4</v>
+      </c>
+      <c r="U6">
+        <f>'[2]Теплофикационные режимы'!J33</f>
+        <v>523.4</v>
+      </c>
+      <c r="V6">
+        <f>'[2]Теплофикационные режимы'!K33</f>
+        <v>523.4</v>
+      </c>
+      <c r="W6">
+        <f>'[2]Теплофикационные режимы'!L33</f>
+        <v>509.4</v>
+      </c>
+      <c r="X6">
+        <f>'[2]Теплофикационные режимы'!M33</f>
+        <v>523.4</v>
+      </c>
+      <c r="Y6">
+        <f>'[2]Конденсационные режимы'!C155</f>
+        <v>497.9</v>
+      </c>
+      <c r="Z6">
+        <f>'[2]Конденсационные режимы'!D155</f>
+        <v>500.5</v>
+      </c>
+      <c r="AA6">
+        <f>'[2]Конденсационные режимы'!E155</f>
+        <v>504.1</v>
+      </c>
+      <c r="AB6">
+        <f>'[2]Конденсационные режимы'!F155</f>
+        <v>506.1</v>
+      </c>
+      <c r="AC6">
+        <f>'[2]Конденсационные режимы'!G155</f>
+        <v>513.1</v>
+      </c>
+      <c r="AD6">
+        <f>'[2]Конденсационные режимы'!H155</f>
+        <v>527.29999999999995</v>
+      </c>
+      <c r="AE6">
+        <f>'[2]Теплофикационные режимы'!C149</f>
+        <v>497.9</v>
+      </c>
+      <c r="AF6">
+        <f>'[2]Теплофикационные режимы'!D149</f>
+        <v>500.5</v>
+      </c>
+      <c r="AG6">
+        <f>'[2]Теплофикационные режимы'!E149</f>
+        <v>504.1</v>
+      </c>
+      <c r="AH6">
+        <f>'[2]Теплофикационные режимы'!F149</f>
+        <v>506.1</v>
+      </c>
+      <c r="AI6">
+        <f>'[2]Теплофикационные режимы'!G149</f>
+        <v>513.1</v>
+      </c>
+      <c r="AJ6">
+        <f>'[2]Теплофикационные режимы'!H149</f>
+        <v>527.29999999999995</v>
+      </c>
+      <c r="AK6">
+        <f>'[2]Конденсационные режимы'!C271</f>
+        <v>492.2</v>
+      </c>
+      <c r="AL6">
+        <f>'[2]Конденсационные режимы'!D271</f>
+        <v>495</v>
+      </c>
+      <c r="AM6">
+        <f>'[2]Конденсационные режимы'!E271</f>
+        <v>499</v>
+      </c>
+      <c r="AN6">
+        <f>'[2]Конденсационные режимы'!F271</f>
+        <v>500.9</v>
+      </c>
+      <c r="AO6">
+        <f>'[2]Конденсационные режимы'!G271</f>
+        <v>507.8</v>
+      </c>
+      <c r="AP6">
+        <f>'[2]Конденсационные режимы'!H271</f>
+        <v>522.1</v>
+      </c>
+      <c r="AQ6">
+        <f>'[2]Теплофикационные режимы'!C269</f>
+        <v>492.2</v>
+      </c>
+      <c r="AR6">
+        <f>'[2]Теплофикационные режимы'!D269</f>
+        <v>495</v>
+      </c>
+      <c r="AS6">
+        <f>'[2]Теплофикационные режимы'!E269</f>
+        <v>499</v>
+      </c>
+      <c r="AT6">
+        <f>'[2]Теплофикационные режимы'!F269</f>
+        <v>500.9</v>
+      </c>
+      <c r="AU6">
+        <f>'[2]Теплофикационные режимы'!G269</f>
+        <v>507.8</v>
+      </c>
+      <c r="AV6">
+        <f>'[2]Теплофикационные режимы'!H269</f>
+        <v>522.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A7" t="str">
+        <f>'[2]Конденсационные режимы'!B38</f>
+        <v>Пар НД на входе в турбину:</v>
+      </c>
+      <c r="B7">
+        <f>'[2]Конденсационные режимы'!C38</f>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f>'[2]Конденсационные режимы'!D38</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>'[2]Конденсационные режимы'!E38</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>'[2]Конденсационные режимы'!F38</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>'[2]Конденсационные режимы'!G38</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>'[2]Конденсационные режимы'!H38</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>'[2]Конденсационные режимы'!I38</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>'[2]Конденсационные режимы'!J38</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>'[2]Конденсационные режимы'!K38</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>'[2]Конденсационные режимы'!L38</f>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f>'[2]Конденсационные режимы'!M38</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f>'[2]Конденсационные режимы'!N38</f>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>'[2]Теплофикационные режимы'!C34</f>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f>'[2]Теплофикационные режимы'!D34</f>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f>'[2]Теплофикационные режимы'!E34</f>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f>'[2]Теплофикационные режимы'!F34</f>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f>'[2]Теплофикационные режимы'!G34</f>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f>'[2]Теплофикационные режимы'!H34</f>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f>'[2]Теплофикационные режимы'!I34</f>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f>'[2]Теплофикационные режимы'!J34</f>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f>'[2]Теплофикационные режимы'!K34</f>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f>'[2]Теплофикационные режимы'!L34</f>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f>'[2]Теплофикационные режимы'!M34</f>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f>'[2]Конденсационные режимы'!C156</f>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f>'[2]Конденсационные режимы'!D156</f>
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <f>'[2]Конденсационные режимы'!E156</f>
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <f>'[2]Конденсационные режимы'!F156</f>
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <f>'[2]Конденсационные режимы'!G156</f>
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <f>'[2]Конденсационные режимы'!H156</f>
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <f>'[2]Теплофикационные режимы'!C150</f>
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <f>'[2]Теплофикационные режимы'!D150</f>
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <f>'[2]Теплофикационные режимы'!E150</f>
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <f>'[2]Теплофикационные режимы'!F150</f>
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <f>'[2]Теплофикационные режимы'!G150</f>
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <f>'[2]Теплофикационные режимы'!H150</f>
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <f>'[2]Конденсационные режимы'!C272</f>
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <f>'[2]Конденсационные режимы'!D272</f>
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <f>'[2]Конденсационные режимы'!E272</f>
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <f>'[2]Конденсационные режимы'!F272</f>
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <f>'[2]Конденсационные режимы'!G272</f>
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <f>'[2]Конденсационные режимы'!H272</f>
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <f>'[2]Теплофикационные режимы'!C270</f>
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <f>'[2]Теплофикационные режимы'!D270</f>
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <f>'[2]Теплофикационные режимы'!E270</f>
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <f>'[2]Теплофикационные режимы'!F270</f>
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <f>'[2]Теплофикационные режимы'!G270</f>
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <f>'[2]Теплофикационные режимы'!H270</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A8" t="str">
+        <f>'[2]Конденсационные режимы'!B39</f>
+        <v>Расход пара, кг/с</v>
+      </c>
+      <c r="B8">
+        <f>'[2]Конденсационные режимы'!C39</f>
+        <v>15.51</v>
+      </c>
+      <c r="C8">
+        <f>'[2]Конденсационные режимы'!D39</f>
+        <v>15.42</v>
+      </c>
+      <c r="D8">
+        <f>'[2]Конденсационные режимы'!E39</f>
+        <v>15.59</v>
+      </c>
+      <c r="E8">
+        <f>'[2]Конденсационные режимы'!F39</f>
+        <v>15.69</v>
+      </c>
+      <c r="F8">
+        <f>'[2]Конденсационные режимы'!G39</f>
+        <v>15.78</v>
+      </c>
+      <c r="G8">
+        <f>'[2]Конденсационные режимы'!H39</f>
+        <v>15.46</v>
+      </c>
+      <c r="H8">
+        <f>'[2]Конденсационные режимы'!I39</f>
+        <v>15.43</v>
+      </c>
+      <c r="I8">
+        <f>'[2]Конденсационные режимы'!J39</f>
+        <v>14.76</v>
+      </c>
+      <c r="J8">
+        <f>'[2]Конденсационные режимы'!K39</f>
+        <v>14.49</v>
+      </c>
+      <c r="K8">
+        <f>'[2]Конденсационные режимы'!L39</f>
+        <v>14.53</v>
+      </c>
+      <c r="L8">
+        <f>'[2]Конденсационные режимы'!M39</f>
+        <v>13</v>
+      </c>
+      <c r="M8">
+        <f>'[2]Конденсационные режимы'!N39</f>
+        <v>12.99</v>
+      </c>
+      <c r="N8">
+        <f>'[2]Теплофикационные режимы'!C35</f>
+        <v>15.47</v>
+      </c>
+      <c r="O8">
+        <f>'[2]Теплофикационные режимы'!D35</f>
+        <v>15.6</v>
+      </c>
+      <c r="P8">
+        <f>'[2]Теплофикационные режимы'!E35</f>
+        <v>15.83</v>
+      </c>
+      <c r="Q8">
+        <f>'[2]Теплофикационные режимы'!F35</f>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="R8">
+        <f>'[2]Теплофикационные режимы'!G35</f>
+        <v>15.85</v>
+      </c>
+      <c r="S8">
+        <f>'[2]Теплофикационные режимы'!H35</f>
+        <v>15.82</v>
+      </c>
+      <c r="T8">
+        <f>'[2]Теплофикационные режимы'!I35</f>
+        <v>14.69</v>
+      </c>
+      <c r="U8">
+        <f>'[2]Теплофикационные режимы'!J35</f>
+        <v>12.88</v>
+      </c>
+      <c r="V8">
+        <f>'[2]Теплофикационные режимы'!K35</f>
+        <v>12.88</v>
+      </c>
+      <c r="W8">
+        <f>'[2]Теплофикационные режимы'!L35</f>
+        <v>14.4</v>
+      </c>
+      <c r="X8">
+        <f>'[2]Теплофикационные режимы'!M35</f>
+        <v>12.61</v>
+      </c>
+      <c r="Y8">
+        <f>'[2]Конденсационные режимы'!C157</f>
+        <v>12.74</v>
+      </c>
+      <c r="Z8">
+        <f>'[2]Конденсационные режимы'!D157</f>
+        <v>12.87</v>
+      </c>
+      <c r="AA8">
+        <f>'[2]Конденсационные режимы'!E157</f>
+        <v>13.1</v>
+      </c>
+      <c r="AB8">
+        <f>'[2]Конденсационные режимы'!F157</f>
+        <v>12.88</v>
+      </c>
+      <c r="AC8">
+        <f>'[2]Конденсационные режимы'!G157</f>
+        <v>12.09</v>
+      </c>
+      <c r="AD8">
+        <f>'[2]Конденсационные режимы'!H157</f>
+        <v>10.85</v>
+      </c>
+      <c r="AE8">
+        <f>'[2]Теплофикационные режимы'!C151</f>
+        <v>12.72</v>
+      </c>
+      <c r="AF8">
+        <f>'[2]Теплофикационные режимы'!D151</f>
+        <v>12.83</v>
+      </c>
+      <c r="AG8">
+        <f>'[2]Теплофикационные режимы'!E151</f>
+        <v>13.31</v>
+      </c>
+      <c r="AH8">
+        <f>'[2]Теплофикационные режимы'!F151</f>
+        <v>13.14</v>
+      </c>
+      <c r="AI8">
+        <f>'[2]Теплофикационные режимы'!G151</f>
+        <v>12.12</v>
+      </c>
+      <c r="AJ8">
+        <f>'[2]Теплофикационные режимы'!H151</f>
+        <v>10.87</v>
+      </c>
+      <c r="AK8">
+        <f>'[2]Конденсационные режимы'!C273</f>
+        <v>10.57</v>
+      </c>
+      <c r="AL8">
+        <f>'[2]Конденсационные режимы'!D273</f>
+        <v>10.74</v>
+      </c>
+      <c r="AM8">
+        <f>'[2]Конденсационные режимы'!E273</f>
+        <v>11.04</v>
+      </c>
+      <c r="AN8">
+        <f>'[2]Конденсационные режимы'!F273</f>
+        <v>10.92</v>
+      </c>
+      <c r="AO8">
+        <f>'[2]Конденсационные режимы'!G273</f>
+        <v>10.17</v>
+      </c>
+      <c r="AP8">
+        <f>'[2]Конденсационные режимы'!H273</f>
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="AQ8">
+        <f>'[2]Теплофикационные режимы'!C271</f>
+        <v>10.57</v>
+      </c>
+      <c r="AR8">
+        <f>'[2]Теплофикационные режимы'!D271</f>
+        <v>10.74</v>
+      </c>
+      <c r="AS8">
+        <f>'[2]Теплофикационные режимы'!E271</f>
+        <v>11.04</v>
+      </c>
+      <c r="AT8">
+        <f>'[2]Теплофикационные режимы'!F271</f>
+        <v>10.92</v>
+      </c>
+      <c r="AU8">
+        <f>'[2]Теплофикационные режимы'!G271</f>
+        <v>10.17</v>
+      </c>
+      <c r="AV8">
+        <f>'[2]Теплофикационные режимы'!H271</f>
+        <v>9.0299999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A9" t="str">
+        <f>'[2]Конденсационные режимы'!B40</f>
+        <v>Давление пара, МПа</v>
+      </c>
+      <c r="B9">
+        <f>'[2]Конденсационные режимы'!C40</f>
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="C9">
+        <f>'[2]Конденсационные режимы'!D40</f>
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="D9">
+        <f>'[2]Конденсационные режимы'!E40</f>
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="E9">
+        <f>'[2]Конденсационные режимы'!F40</f>
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="F9">
+        <f>'[2]Конденсационные режимы'!G40</f>
+        <v>0.627</v>
+      </c>
+      <c r="G9">
+        <f>'[2]Конденсационные режимы'!H40</f>
+        <v>0.62</v>
+      </c>
+      <c r="H9">
+        <f>'[2]Конденсационные режимы'!I40</f>
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="I9">
+        <f>'[2]Конденсационные режимы'!J40</f>
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="J9">
+        <f>'[2]Конденсационные режимы'!K40</f>
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="K9">
+        <f>'[2]Конденсационные режимы'!L40</f>
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="L9">
+        <f>'[2]Конденсационные режимы'!M40</f>
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="M9">
+        <f>'[2]Конденсационные режимы'!N40</f>
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="N9">
+        <f>'[2]Теплофикационные режимы'!C36</f>
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="O9">
+        <f>'[2]Теплофикационные режимы'!D36</f>
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="P9">
+        <f>'[2]Теплофикационные режимы'!E36</f>
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="Q9">
+        <f>'[2]Теплофикационные режимы'!F36</f>
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="R9">
+        <f>'[2]Теплофикационные режимы'!G36</f>
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="S9">
+        <f>'[2]Теплофикационные режимы'!H36</f>
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="T9">
+        <f>'[2]Теплофикационные режимы'!I36</f>
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="U9">
+        <f>'[2]Теплофикационные режимы'!J36</f>
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="V9">
+        <f>'[2]Теплофикационные режимы'!K36</f>
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="W9">
+        <f>'[2]Теплофикационные режимы'!L36</f>
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="X9">
+        <f>'[2]Теплофикационные режимы'!M36</f>
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="Y9">
+        <f>'[2]Конденсационные режимы'!C158</f>
+        <v>0.48</v>
+      </c>
+      <c r="Z9">
+        <f>'[2]Конденсационные режимы'!D158</f>
+        <v>0.49</v>
+      </c>
+      <c r="AA9">
+        <f>'[2]Конденсационные режимы'!E158</f>
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="AB9">
+        <f>'[2]Конденсационные режимы'!F158</f>
+        <v>0.503</v>
+      </c>
+      <c r="AC9">
+        <f>'[2]Конденсационные режимы'!G158</f>
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="AD9">
+        <f>'[2]Конденсационные режимы'!H158</f>
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="AE9">
+        <f>'[2]Теплофикационные режимы'!C152</f>
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="AF9">
+        <f>'[2]Теплофикационные режимы'!D152</f>
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="AG9">
+        <f>'[2]Теплофикационные режимы'!E152</f>
+        <v>0.48</v>
+      </c>
+      <c r="AH9">
+        <f>'[2]Теплофикационные режимы'!F152</f>
+        <v>0.47</v>
+      </c>
+      <c r="AI9">
+        <f>'[2]Теплофикационные режимы'!G152</f>
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="AJ9">
+        <f>'[2]Теплофикационные режимы'!H152</f>
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="AK9">
+        <f>'[2]Конденсационные режимы'!C274</f>
+        <v>0.4</v>
+      </c>
+      <c r="AL9">
+        <f>'[2]Конденсационные режимы'!D274</f>
+        <v>0.4</v>
+      </c>
+      <c r="AM9">
+        <f>'[2]Конденсационные режимы'!E274</f>
+        <v>0.4</v>
+      </c>
+      <c r="AN9">
+        <f>'[2]Конденсационные режимы'!F274</f>
+        <v>0.4</v>
+      </c>
+      <c r="AO9">
+        <f>'[2]Конденсационные режимы'!G274</f>
+        <v>0.4</v>
+      </c>
+      <c r="AP9">
+        <f>'[2]Конденсационные режимы'!H274</f>
+        <v>0.4</v>
+      </c>
+      <c r="AQ9">
+        <f>'[2]Теплофикационные режимы'!C272</f>
+        <v>0.4</v>
+      </c>
+      <c r="AR9">
+        <f>'[2]Теплофикационные режимы'!D272</f>
+        <v>0.4</v>
+      </c>
+      <c r="AS9">
+        <f>'[2]Теплофикационные режимы'!E272</f>
+        <v>0.4</v>
+      </c>
+      <c r="AT9">
+        <f>'[2]Теплофикационные режимы'!F272</f>
+        <v>0.4</v>
+      </c>
+      <c r="AU9">
+        <f>'[2]Теплофикационные режимы'!G272</f>
+        <v>0.4</v>
+      </c>
+      <c r="AV9">
+        <f>'[2]Теплофикационные режимы'!H272</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A10" t="str">
+        <f>'[2]Конденсационные режимы'!B41</f>
+        <v>Температура пара, °С</v>
+      </c>
+      <c r="B10">
+        <f>'[2]Конденсационные режимы'!C41</f>
+        <v>210.3</v>
+      </c>
+      <c r="C10" t="str">
+        <f>'[2]Конденсационные режимы'!D41</f>
+        <v>210.2</v>
+      </c>
+      <c r="D10">
+        <f>'[2]Конденсационные режимы'!E41</f>
+        <v>210.7</v>
+      </c>
+      <c r="E10">
+        <f>'[2]Конденсационные режимы'!F41</f>
+        <v>211.1</v>
+      </c>
+      <c r="F10">
+        <f>'[2]Конденсационные режимы'!G41</f>
+        <v>211.4</v>
+      </c>
+      <c r="G10">
+        <f>'[2]Конденсационные режимы'!H41</f>
+        <v>210.8</v>
+      </c>
+      <c r="H10">
+        <f>'[2]Конденсационные режимы'!I41</f>
+        <v>210.8</v>
+      </c>
+      <c r="I10">
+        <f>'[2]Конденсационные режимы'!J41</f>
+        <v>209.8</v>
+      </c>
+      <c r="J10">
+        <f>'[2]Конденсационные режимы'!K41</f>
+        <v>209.2</v>
+      </c>
+      <c r="K10">
+        <f>'[2]Конденсационные режимы'!L41</f>
+        <v>209.2</v>
+      </c>
+      <c r="L10">
+        <f>'[2]Конденсационные режимы'!M41</f>
+        <v>206.5</v>
+      </c>
+      <c r="M10">
+        <f>'[2]Конденсационные режимы'!N41</f>
+        <v>206.5</v>
+      </c>
+      <c r="N10">
+        <f>'[2]Теплофикационные режимы'!C37</f>
+        <v>210</v>
+      </c>
+      <c r="O10">
+        <f>'[2]Теплофикационные режимы'!D37</f>
+        <v>210</v>
+      </c>
+      <c r="P10">
+        <f>'[2]Теплофикационные режимы'!E37</f>
+        <v>210</v>
+      </c>
+      <c r="Q10">
+        <f>'[2]Теплофикационные режимы'!F37</f>
+        <v>209.8</v>
+      </c>
+      <c r="R10">
+        <f>'[2]Теплофикационные режимы'!G37</f>
+        <v>209.6</v>
+      </c>
+      <c r="S10">
+        <f>'[2]Теплофикационные режимы'!H37</f>
+        <v>209.5</v>
+      </c>
+      <c r="T10">
+        <f>'[2]Теплофикационные режимы'!I37</f>
+        <v>207.4</v>
+      </c>
+      <c r="U10">
+        <f>'[2]Теплофикационные режимы'!J37</f>
+        <v>205.5</v>
+      </c>
+      <c r="V10">
+        <f>'[2]Теплофикационные режимы'!K37</f>
+        <v>205.8</v>
+      </c>
+      <c r="W10">
+        <f>'[2]Теплофикационные режимы'!L37</f>
+        <v>208.3</v>
+      </c>
+      <c r="X10">
+        <f>'[2]Теплофикационные режимы'!M37</f>
+        <v>206.4</v>
+      </c>
+      <c r="Y10">
+        <f>'[2]Конденсационные режимы'!C159</f>
+        <v>204.7</v>
+      </c>
+      <c r="Z10">
+        <f>'[2]Конденсационные режимы'!D159</f>
+        <v>205.2</v>
+      </c>
+      <c r="AA10">
+        <f>'[2]Конденсационные режимы'!E159</f>
+        <v>206</v>
+      </c>
+      <c r="AB10">
+        <f>'[2]Конденсационные режимы'!F159</f>
+        <v>205.7</v>
+      </c>
+      <c r="AC10">
+        <f>'[2]Конденсационные режимы'!G159</f>
+        <v>204.4</v>
+      </c>
+      <c r="AD10">
+        <f>'[2]Конденсационные режимы'!H159</f>
+        <v>202.4</v>
+      </c>
+      <c r="AE10">
+        <f>'[2]Теплофикационные режимы'!C153</f>
+        <v>204.5</v>
+      </c>
+      <c r="AF10">
+        <f>'[2]Теплофикационные режимы'!D153</f>
+        <v>205.3</v>
+      </c>
+      <c r="AG10">
+        <f>'[2]Теплофикационные режимы'!E153</f>
+        <v>205.1</v>
+      </c>
+      <c r="AH10">
+        <f>'[2]Теплофикационные режимы'!F153</f>
+        <v>204.6</v>
+      </c>
+      <c r="AI10">
+        <f>'[2]Теплофикационные режимы'!G153</f>
+        <v>204.3</v>
+      </c>
+      <c r="AJ10">
+        <f>'[2]Теплофикационные режимы'!H153</f>
+        <v>202.3</v>
+      </c>
+      <c r="AK10">
+        <f>'[2]Конденсационные режимы'!C275</f>
+        <v>199.4</v>
+      </c>
+      <c r="AL10">
+        <f>'[2]Конденсационные режимы'!D275</f>
+        <v>199.6</v>
+      </c>
+      <c r="AM10">
+        <f>'[2]Конденсационные режимы'!E275</f>
+        <v>199.8</v>
+      </c>
+      <c r="AN10">
+        <f>'[2]Конденсационные режимы'!F275</f>
+        <v>199.7</v>
+      </c>
+      <c r="AO10">
+        <f>'[2]Конденсационные режимы'!G275</f>
+        <v>199</v>
+      </c>
+      <c r="AP10">
+        <f>'[2]Конденсационные режимы'!H275</f>
+        <v>197.8</v>
+      </c>
+      <c r="AQ10">
+        <f>'[2]Теплофикационные режимы'!C273</f>
+        <v>199.4</v>
+      </c>
+      <c r="AR10">
+        <f>'[2]Теплофикационные режимы'!D273</f>
+        <v>199.6</v>
+      </c>
+      <c r="AS10">
+        <f>'[2]Теплофикационные режимы'!E273</f>
+        <v>199.8</v>
+      </c>
+      <c r="AT10">
+        <f>'[2]Теплофикационные режимы'!F273</f>
+        <v>199.7</v>
+      </c>
+      <c r="AU10">
+        <f>'[2]Теплофикационные режимы'!G273</f>
+        <v>199</v>
+      </c>
+      <c r="AV10">
+        <f>'[2]Теплофикационные режимы'!H273</f>
+        <v>197.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A11" t="str">
+        <f>'[2]Конденсационные режимы'!B42</f>
+        <v>Пар после смешения:</v>
+      </c>
+      <c r="B11">
+        <f>'[2]Конденсационные режимы'!C42</f>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f>'[2]Конденсационные режимы'!D42</f>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f>'[2]Конденсационные режимы'!E42</f>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>'[2]Конденсационные режимы'!F42</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>'[2]Конденсационные режимы'!G42</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>'[2]Конденсационные режимы'!H42</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>'[2]Конденсационные режимы'!I42</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>'[2]Конденсационные режимы'!J42</f>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f>'[2]Конденсационные режимы'!K42</f>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f>'[2]Конденсационные режимы'!L42</f>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f>'[2]Конденсационные режимы'!M42</f>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f>'[2]Конденсационные режимы'!N42</f>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f>'[2]Теплофикационные режимы'!C38</f>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f>'[2]Теплофикационные режимы'!D38</f>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f>'[2]Теплофикационные режимы'!E38</f>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f>'[2]Теплофикационные режимы'!F38</f>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f>'[2]Теплофикационные режимы'!G38</f>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f>'[2]Теплофикационные режимы'!H38</f>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f>'[2]Теплофикационные режимы'!I38</f>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f>'[2]Теплофикационные режимы'!J38</f>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f>'[2]Теплофикационные режимы'!K38</f>
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <f>'[2]Теплофикационные режимы'!L38</f>
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <f>'[2]Теплофикационные режимы'!M38</f>
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <f>'[2]Конденсационные режимы'!C160</f>
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <f>'[2]Конденсационные режимы'!D160</f>
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <f>'[2]Конденсационные режимы'!E160</f>
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <f>'[2]Конденсационные режимы'!F160</f>
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <f>'[2]Конденсационные режимы'!G160</f>
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <f>'[2]Конденсационные режимы'!H160</f>
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <f>'[2]Теплофикационные режимы'!C154</f>
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <f>'[2]Теплофикационные режимы'!D154</f>
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <f>'[2]Теплофикационные режимы'!E154</f>
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <f>'[2]Теплофикационные режимы'!F154</f>
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <f>'[2]Теплофикационные режимы'!G154</f>
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <f>'[2]Теплофикационные режимы'!H154</f>
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <f>'[2]Конденсационные режимы'!C276</f>
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <f>'[2]Конденсационные режимы'!D276</f>
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <f>'[2]Конденсационные режимы'!E276</f>
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <f>'[2]Конденсационные режимы'!F276</f>
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <f>'[2]Конденсационные режимы'!G276</f>
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <f>'[2]Конденсационные режимы'!H276</f>
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <f>'[2]Теплофикационные режимы'!C274</f>
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <f>'[2]Теплофикационные режимы'!D274</f>
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <f>'[2]Теплофикационные режимы'!E274</f>
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <f>'[2]Теплофикационные режимы'!F274</f>
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <f>'[2]Теплофикационные режимы'!G274</f>
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <f>'[2]Теплофикационные режимы'!H274</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A12" t="str">
+        <f>'[2]Конденсационные режимы'!B43</f>
+        <v>Расход, кг/с</v>
+      </c>
+      <c r="B12">
+        <f>'[2]Конденсационные режимы'!C43</f>
+        <v>76.72</v>
+      </c>
+      <c r="C12">
+        <f>'[2]Конденсационные режимы'!D43</f>
+        <v>76.5</v>
+      </c>
+      <c r="D12">
+        <f>'[2]Конденсационные режимы'!E43</f>
+        <v>78.17</v>
+      </c>
+      <c r="E12">
+        <f>'[2]Конденсационные режимы'!F43</f>
+        <v>79.33</v>
+      </c>
+      <c r="F12">
+        <f>'[2]Конденсационные режимы'!G43</f>
+        <v>80.61</v>
+      </c>
+      <c r="G12">
+        <f>'[2]Конденсационные режимы'!H43</f>
+        <v>79.62</v>
+      </c>
+      <c r="H12">
+        <f>'[2]Конденсационные режимы'!I43</f>
+        <v>79.52</v>
+      </c>
+      <c r="I12">
+        <f>'[2]Конденсационные режимы'!J43</f>
+        <v>78.16</v>
+      </c>
+      <c r="J12">
+        <f>'[2]Конденсационные режимы'!K43</f>
+        <v>76.819999999999993</v>
+      </c>
+      <c r="K12">
+        <f>'[2]Конденсационные режимы'!L43</f>
+        <v>76.86</v>
+      </c>
+      <c r="L12">
+        <f>'[2]Конденсационные режимы'!M43</f>
+        <v>72.94</v>
+      </c>
+      <c r="M12">
+        <f>'[2]Конденсационные режимы'!N43</f>
+        <v>72.94</v>
+      </c>
+      <c r="N12">
+        <f>'[2]Теплофикационные режимы'!C39</f>
+        <v>76.53</v>
+      </c>
+      <c r="O12">
+        <f>'[2]Теплофикационные режимы'!D39</f>
+        <v>78.22</v>
+      </c>
+      <c r="P12">
+        <f>'[2]Теплофикационные режимы'!E39</f>
+        <v>79.489999999999995</v>
+      </c>
+      <c r="Q12">
+        <f>'[2]Теплофикационные режимы'!F39</f>
+        <v>80.95</v>
+      </c>
+      <c r="R12">
+        <f>'[2]Теплофикационные режимы'!G39</f>
+        <v>80.02</v>
+      </c>
+      <c r="S12">
+        <f>'[2]Теплофикационные режимы'!H39</f>
+        <v>79.930000000000007</v>
+      </c>
+      <c r="T12">
+        <f>'[2]Теплофикационные режимы'!I39</f>
+        <v>77.040000000000006</v>
+      </c>
+      <c r="U12">
+        <f>'[2]Теплофикационные режимы'!J39</f>
+        <v>72.87</v>
+      </c>
+      <c r="V12">
+        <f>'[2]Теплофикационные режимы'!K39</f>
+        <v>72.88</v>
+      </c>
+      <c r="W12">
+        <f>'[2]Теплофикационные режимы'!L39</f>
+        <v>76.739999999999995</v>
+      </c>
+      <c r="X12">
+        <f>'[2]Теплофикационные режимы'!M39</f>
+        <v>72.59</v>
+      </c>
+      <c r="Y12">
+        <f>'[2]Конденсационные режимы'!C161</f>
+        <v>64.25</v>
+      </c>
+      <c r="Z12">
+        <f>'[2]Конденсационные режимы'!D161</f>
+        <v>65.61</v>
+      </c>
+      <c r="AA12">
+        <f>'[2]Конденсационные режимы'!E161</f>
+        <v>67.81</v>
+      </c>
+      <c r="AB12">
+        <f>'[2]Конденсационные режимы'!F161</f>
+        <v>67.22</v>
+      </c>
+      <c r="AC12">
+        <f>'[2]Конденсационные режимы'!G161</f>
+        <v>64.89</v>
+      </c>
+      <c r="AD12">
+        <f>'[2]Конденсационные режимы'!H161</f>
+        <v>61.55</v>
+      </c>
+      <c r="AE12">
+        <f>'[2]Теплофикационные режимы'!C155</f>
+        <v>64.22</v>
+      </c>
+      <c r="AF12">
+        <f>'[2]Теплофикационные режимы'!D155</f>
+        <v>65.58</v>
+      </c>
+      <c r="AG12">
+        <f>'[2]Теплофикационные режимы'!E155</f>
+        <v>68.03</v>
+      </c>
+      <c r="AH12">
+        <f>'[2]Теплофикационные режимы'!F155</f>
+        <v>67.5</v>
+      </c>
+      <c r="AI12">
+        <f>'[2]Теплофикационные режимы'!G155</f>
+        <v>64.92</v>
+      </c>
+      <c r="AJ12">
+        <f>'[2]Теплофикационные режимы'!H155</f>
+        <v>61.55</v>
+      </c>
+      <c r="AK12">
+        <f>'[2]Конденсационные режимы'!C277</f>
+        <v>52.33</v>
+      </c>
+      <c r="AL12">
+        <f>'[2]Конденсационные режимы'!D277</f>
+        <v>53.5</v>
+      </c>
+      <c r="AM12">
+        <f>'[2]Конденсационные режимы'!E277</f>
+        <v>55.33</v>
+      </c>
+      <c r="AN12">
+        <f>'[2]Конденсационные режимы'!F277</f>
+        <v>55.2</v>
+      </c>
+      <c r="AO12">
+        <f>'[2]Конденсационные режимы'!G277</f>
+        <v>53.14</v>
+      </c>
+      <c r="AP12">
+        <f>'[2]Конденсационные режимы'!H277</f>
+        <v>50.25</v>
+      </c>
+      <c r="AQ12">
+        <f>'[2]Теплофикационные режимы'!C275</f>
+        <v>52.33</v>
+      </c>
+      <c r="AR12">
+        <f>'[2]Теплофикационные режимы'!D275</f>
+        <v>53.5</v>
+      </c>
+      <c r="AS12">
+        <f>'[2]Теплофикационные режимы'!E275</f>
+        <v>55.33</v>
+      </c>
+      <c r="AT12">
+        <f>'[2]Теплофикационные режимы'!F275</f>
+        <v>55.2</v>
+      </c>
+      <c r="AU12">
+        <f>'[2]Теплофикационные режимы'!G275</f>
+        <v>53.14</v>
+      </c>
+      <c r="AV12">
+        <f>'[2]Теплофикационные режимы'!H275</f>
+        <v>50.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A13" t="str">
+        <f>'[2]Конденсационные режимы'!B44</f>
+        <v>Давление пара, МПа</v>
+      </c>
+      <c r="B13">
+        <f>'[2]Конденсационные режимы'!C44</f>
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="C13">
+        <f>'[2]Конденсационные режимы'!D44</f>
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="D13">
+        <f>'[2]Конденсационные режимы'!E44</f>
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="E13">
+        <f>'[2]Конденсационные режимы'!F44</f>
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="F13">
+        <f>'[2]Конденсационные режимы'!G44</f>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="G13">
+        <f>'[2]Конденсационные режимы'!H44</f>
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="H13">
+        <f>'[2]Конденсационные режимы'!I44</f>
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="I13">
+        <f>'[2]Конденсационные режимы'!J44</f>
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="J13">
+        <f>'[2]Конденсационные режимы'!K44</f>
+        <v>0.54</v>
+      </c>
+      <c r="K13">
+        <f>'[2]Конденсационные режимы'!L44</f>
+        <v>0.54</v>
+      </c>
+      <c r="L13">
+        <f>'[2]Конденсационные режимы'!M44</f>
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="M13">
+        <f>'[2]Конденсационные режимы'!N44</f>
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="N13">
+        <f>'[2]Теплофикационные режимы'!C40</f>
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="O13">
+        <f>'[2]Теплофикационные режимы'!D40</f>
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="P13">
+        <f>'[2]Теплофикационные режимы'!E40</f>
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="Q13">
+        <f>'[2]Теплофикационные режимы'!F40</f>
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="R13">
+        <f>'[2]Теплофикационные режимы'!G40</f>
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="S13">
+        <f>'[2]Теплофикационные режимы'!H40</f>
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="T13">
+        <f>'[2]Теплофикационные режимы'!I40</f>
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="U13">
+        <f>'[2]Теплофикационные режимы'!J40</f>
+        <v>0.46</v>
+      </c>
+      <c r="V13">
+        <f>'[2]Теплофикационные режимы'!K40</f>
+        <v>0.46</v>
+      </c>
+      <c r="W13">
+        <f>'[2]Теплофикационные режимы'!L40</f>
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="X13">
+        <f>'[2]Теплофикационные режимы'!M40</f>
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="Y13">
+        <f>'[2]Конденсационные режимы'!C162</f>
+        <v>0.442</v>
+      </c>
+      <c r="Z13">
+        <f>'[2]Конденсационные режимы'!D162</f>
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="AA13">
+        <f>'[2]Конденсационные режимы'!E162</f>
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="AB13">
+        <f>'[2]Конденсационные режимы'!F162</f>
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="AC13">
+        <f>'[2]Конденсационные режимы'!G162</f>
+        <v>0.45</v>
+      </c>
+      <c r="AD13">
+        <f>'[2]Конденсационные режимы'!H162</f>
+        <v>0.43</v>
+      </c>
+      <c r="AE13">
+        <f>'[2]Теплофикационные режимы'!C156</f>
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="AF13">
+        <f>'[2]Теплофикационные режимы'!D156</f>
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="AG13">
+        <f>'[2]Теплофикационные режимы'!E156</f>
+        <v>0.442</v>
+      </c>
+      <c r="AH13">
+        <f>'[2]Теплофикационные режимы'!F156</f>
+        <v>0.432</v>
+      </c>
+      <c r="AI13">
+        <f>'[2]Теплофикационные режимы'!G156</f>
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="AJ13">
+        <f>'[2]Теплофикационные режимы'!H156</f>
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="AK13">
+        <f>'[2]Конденсационные режимы'!C278</f>
+        <v>0.36</v>
+      </c>
+      <c r="AL13">
+        <f>'[2]Конденсационные режимы'!D278</f>
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="AM13">
+        <f>'[2]Конденсационные режимы'!E278</f>
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="AN13">
+        <f>'[2]Конденсационные режимы'!F278</f>
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="AO13">
+        <f>'[2]Конденсационные режимы'!G278</f>
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="AP13">
+        <f>'[2]Конденсационные режимы'!H278</f>
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="AQ13">
+        <f>'[2]Теплофикационные режимы'!C276</f>
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="AR13">
+        <f>'[2]Теплофикационные режимы'!D276</f>
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="AS13">
+        <f>'[2]Теплофикационные режимы'!E276</f>
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="AT13">
+        <f>'[2]Теплофикационные режимы'!F276</f>
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="AU13">
+        <f>'[2]Теплофикационные режимы'!G276</f>
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="AV13">
+        <f>'[2]Теплофикационные режимы'!H276</f>
+        <v>0.35199999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A14" t="str">
+        <f>'[2]Конденсационные режимы'!B45</f>
+        <v>Температура пара,°С</v>
+      </c>
+      <c r="B14">
+        <f>'[2]Конденсационные режимы'!C45</f>
+        <v>191.6</v>
+      </c>
+      <c r="C14">
+        <f>'[2]Конденсационные режимы'!D45</f>
+        <v>191.9</v>
+      </c>
+      <c r="D14">
+        <f>'[2]Конденсационные режимы'!E45</f>
+        <v>192.8</v>
+      </c>
+      <c r="E14">
+        <f>'[2]Конденсационные режимы'!F45</f>
+        <v>193.3</v>
+      </c>
+      <c r="F14">
+        <f>'[2]Конденсационные режимы'!G45</f>
+        <v>194.4</v>
+      </c>
+      <c r="G14">
+        <f>'[2]Конденсационные режимы'!H45</f>
+        <v>195.1</v>
+      </c>
+      <c r="H14">
+        <f>'[2]Конденсационные режимы'!I45</f>
+        <v>195.2</v>
+      </c>
+      <c r="I14">
+        <f>'[2]Конденсационные режимы'!J45</f>
+        <v>197.8</v>
+      </c>
+      <c r="J14">
+        <f>'[2]Конденсационные режимы'!K45</f>
+        <v>198</v>
+      </c>
+      <c r="K14">
+        <f>'[2]Конденсационные режимы'!L45</f>
+        <v>198</v>
+      </c>
+      <c r="L14">
+        <f>'[2]Конденсационные режимы'!M45</f>
+        <v>204.7</v>
+      </c>
+      <c r="M14">
+        <f>'[2]Конденсационные режимы'!N45</f>
+        <v>204.6</v>
+      </c>
+      <c r="N14">
+        <f>'[2]Теплофикационные режимы'!C41</f>
+        <v>190.7</v>
+      </c>
+      <c r="O14">
+        <f>'[2]Теплофикационные режимы'!D41</f>
+        <v>191.3</v>
+      </c>
+      <c r="P14">
+        <f>'[2]Теплофикационные режимы'!E41</f>
+        <v>190.2</v>
+      </c>
+      <c r="Q14">
+        <f>'[2]Теплофикационные режимы'!F41</f>
+        <v>188.4</v>
+      </c>
+      <c r="R14">
+        <f>'[2]Теплофикационные режимы'!G41</f>
+        <v>188</v>
+      </c>
+      <c r="S14">
+        <f>'[2]Теплофикационные режимы'!H41</f>
+        <v>188</v>
+      </c>
+      <c r="T14">
+        <f>'[2]Теплофикационные режимы'!I41</f>
+        <v>189.9</v>
+      </c>
+      <c r="U14">
+        <f>'[2]Теплофикационные режимы'!J41</f>
+        <v>195.68</v>
+      </c>
+      <c r="V14">
+        <f>'[2]Теплофикационные режимы'!K41</f>
+        <v>195.68</v>
+      </c>
+      <c r="W14">
+        <f>'[2]Теплофикационные режимы'!L41</f>
+        <v>194.9</v>
+      </c>
+      <c r="X14">
+        <f>'[2]Теплофикационные режимы'!M41</f>
+        <v>201</v>
+      </c>
+      <c r="Y14">
+        <f>'[2]Конденсационные режимы'!C163</f>
+        <v>191.7</v>
+      </c>
+      <c r="Z14">
+        <f>'[2]Конденсационные режимы'!D163</f>
+        <v>192.8</v>
+      </c>
+      <c r="AA14">
+        <f>'[2]Конденсационные режимы'!E163</f>
+        <v>194.4</v>
+      </c>
+      <c r="AB14">
+        <f>'[2]Конденсационные режимы'!F163</f>
+        <v>195.3</v>
+      </c>
+      <c r="AC14">
+        <f>'[2]Конденсационные режимы'!G163</f>
+        <v>198.3</v>
+      </c>
+      <c r="AD14">
+        <f>'[2]Конденсационные режимы'!H163</f>
+        <v>205.1</v>
+      </c>
+      <c r="AE14">
+        <f>'[2]Теплофикационные режимы'!C157</f>
+        <v>192.1</v>
+      </c>
+      <c r="AF14">
+        <f>'[2]Теплофикационные режимы'!D157</f>
+        <v>193.5</v>
+      </c>
+      <c r="AG14">
+        <f>'[2]Теплофикационные режимы'!E157</f>
+        <v>190.2</v>
+      </c>
+      <c r="AH14">
+        <f>'[2]Теплофикационные режимы'!F157</f>
+        <v>190</v>
+      </c>
+      <c r="AI14">
+        <f>'[2]Теплофикационные режимы'!G157</f>
+        <v>197.7</v>
+      </c>
+      <c r="AJ14">
+        <f>'[2]Теплофикационные режимы'!H157</f>
+        <v>204.4</v>
+      </c>
+      <c r="AK14">
+        <f>'[2]Конденсационные режимы'!C279</f>
+        <v>191.9</v>
+      </c>
+      <c r="AL14">
+        <f>'[2]Конденсационные режимы'!D279</f>
+        <v>193.2</v>
+      </c>
+      <c r="AM14">
+        <f>'[2]Конденсационные режимы'!E279</f>
+        <v>195.2</v>
+      </c>
+      <c r="AN14">
+        <f>'[2]Конденсационные режимы'!F279</f>
+        <v>196</v>
+      </c>
+      <c r="AO14">
+        <f>'[2]Конденсационные режимы'!G279</f>
+        <v>196.1</v>
+      </c>
+      <c r="AP14">
+        <f>'[2]Конденсационные режимы'!H279</f>
+        <v>205.8</v>
+      </c>
+      <c r="AQ14">
+        <f>'[2]Теплофикационные режимы'!C277</f>
+        <v>191.5</v>
+      </c>
+      <c r="AR14">
+        <f>'[2]Теплофикационные режимы'!D277</f>
+        <v>192.3</v>
+      </c>
+      <c r="AS14">
+        <f>'[2]Теплофикационные режимы'!E277</f>
+        <v>190.4</v>
+      </c>
+      <c r="AT14">
+        <f>'[2]Теплофикационные режимы'!F277</f>
+        <v>190.3</v>
+      </c>
+      <c r="AU14">
+        <f>'[2]Теплофикационные режимы'!G277</f>
+        <v>198.5</v>
+      </c>
+      <c r="AV14">
+        <f>'[2]Теплофикационные режимы'!H277</f>
+        <v>206.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A15" t="str">
+        <f>'[2]Конденсационные режимы'!B46</f>
+        <v>Пар в отборе 2:</v>
+      </c>
+      <c r="B15">
+        <f>'[2]Конденсационные режимы'!C46</f>
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f>'[2]Конденсационные режимы'!D46</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f>'[2]Конденсационные режимы'!E46</f>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f>'[2]Конденсационные режимы'!F46</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>'[2]Конденсационные режимы'!G46</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f>'[2]Конденсационные режимы'!H46</f>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f>'[2]Конденсационные режимы'!I46</f>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f>'[2]Конденсационные режимы'!J46</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f>'[2]Конденсационные режимы'!K46</f>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f>'[2]Конденсационные режимы'!L46</f>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f>'[2]Конденсационные режимы'!M46</f>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f>'[2]Конденсационные режимы'!N46</f>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f>'[2]Теплофикационные режимы'!C42</f>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f>'[2]Теплофикационные режимы'!D42</f>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f>'[2]Теплофикационные режимы'!E42</f>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f>'[2]Теплофикационные режимы'!F42</f>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f>'[2]Теплофикационные режимы'!G42</f>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f>'[2]Теплофикационные режимы'!H42</f>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f>'[2]Теплофикационные режимы'!I42</f>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f>'[2]Теплофикационные режимы'!J42</f>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f>'[2]Теплофикационные режимы'!K42</f>
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <f>'[2]Теплофикационные режимы'!L42</f>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f>'[2]Теплофикационные режимы'!M42</f>
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f>'[2]Конденсационные режимы'!C164</f>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f>'[2]Конденсационные режимы'!D164</f>
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <f>'[2]Конденсационные режимы'!E164</f>
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <f>'[2]Конденсационные режимы'!F164</f>
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <f>'[2]Конденсационные режимы'!G164</f>
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <f>'[2]Конденсационные режимы'!H164</f>
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <f>'[2]Теплофикационные режимы'!C158</f>
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <f>'[2]Теплофикационные режимы'!D158</f>
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <f>'[2]Теплофикационные режимы'!E158</f>
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <f>'[2]Теплофикационные режимы'!F158</f>
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <f>'[2]Теплофикационные режимы'!G158</f>
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <f>'[2]Теплофикационные режимы'!H158</f>
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <f>'[2]Конденсационные режимы'!C280</f>
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <f>'[2]Конденсационные режимы'!D280</f>
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <f>'[2]Конденсационные режимы'!E280</f>
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <f>'[2]Конденсационные режимы'!F280</f>
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <f>'[2]Конденсационные режимы'!G280</f>
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <f>'[2]Конденсационные режимы'!H280</f>
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <f>'[2]Теплофикационные режимы'!C278</f>
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <f>'[2]Теплофикационные режимы'!D278</f>
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <f>'[2]Теплофикационные режимы'!E278</f>
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <f>'[2]Теплофикационные режимы'!F278</f>
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <f>'[2]Теплофикационные режимы'!G278</f>
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <f>'[2]Теплофикационные режимы'!H278</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A16" t="str">
+        <f>'[2]Конденсационные режимы'!B47</f>
+        <v>Расход, кг/с</v>
+      </c>
+      <c r="B16">
+        <f>'[2]Конденсационные режимы'!C47</f>
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f>'[2]Конденсационные режимы'!D47</f>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f>'[2]Конденсационные режимы'!E47</f>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f>'[2]Конденсационные режимы'!F47</f>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f>'[2]Конденсационные режимы'!G47</f>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f>'[2]Конденсационные режимы'!H47</f>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f>'[2]Конденсационные режимы'!I47</f>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f>'[2]Конденсационные режимы'!J47</f>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f>'[2]Конденсационные режимы'!K47</f>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f>'[2]Конденсационные режимы'!L47</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f>'[2]Конденсационные режимы'!M47</f>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f>'[2]Конденсационные режимы'!N47</f>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f>'[2]Теплофикационные режимы'!C43</f>
+        <v>20.190000000000001</v>
+      </c>
+      <c r="O16">
+        <f>'[2]Теплофикационные режимы'!D43</f>
+        <v>20.440000000000001</v>
+      </c>
+      <c r="P16">
+        <f>'[2]Теплофикационные режимы'!E43</f>
+        <v>23.51</v>
+      </c>
+      <c r="Q16">
+        <f>'[2]Теплофикационные режимы'!F43</f>
+        <v>30.26</v>
+      </c>
+      <c r="R16">
+        <f>'[2]Теплофикационные режимы'!G43</f>
+        <v>37.619999999999997</v>
+      </c>
+      <c r="S16">
+        <f>'[2]Теплофикационные режимы'!H43</f>
+        <v>38.22</v>
+      </c>
+      <c r="T16">
+        <f>'[2]Теплофикационные режимы'!I43</f>
+        <v>43</v>
+      </c>
+      <c r="U16">
+        <f>'[2]Теплофикационные режимы'!J43</f>
+        <v>41.91</v>
+      </c>
+      <c r="V16">
+        <f>'[2]Теплофикационные режимы'!K43</f>
+        <v>41.91</v>
+      </c>
+      <c r="W16">
+        <f>'[2]Теплофикационные режимы'!L43</f>
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <f>'[2]Теплофикационные режимы'!M43</f>
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <f>'[2]Конденсационные режимы'!C165</f>
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <f>'[2]Конденсационные режимы'!D165</f>
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <f>'[2]Конденсационные режимы'!E165</f>
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <f>'[2]Конденсационные режимы'!F165</f>
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <f>'[2]Конденсационные режимы'!G165</f>
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <f>'[2]Конденсационные режимы'!H165</f>
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <f>'[2]Теплофикационные режимы'!C161</f>
+        <v>18.010000000000002</v>
+      </c>
+      <c r="AF16">
+        <f>'[2]Теплофикационные режимы'!D161</f>
+        <v>17.760000000000002</v>
+      </c>
+      <c r="AG16">
+        <f>'[2]Теплофикационные режимы'!E161</f>
+        <v>27.69</v>
+      </c>
+      <c r="AH16">
+        <f>'[2]Теплофикационные режимы'!F161</f>
+        <v>33.33</v>
+      </c>
+      <c r="AI16">
+        <f>'[2]Теплофикационные режимы'!G161</f>
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <f>'[2]Теплофикационные режимы'!H161</f>
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <f>'[2]Конденсационные режимы'!C281</f>
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <f>'[2]Конденсационные режимы'!D281</f>
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <f>'[2]Конденсационные режимы'!E281</f>
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <f>'[2]Конденсационные режимы'!F281</f>
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <f>'[2]Конденсационные режимы'!G281</f>
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <f>'[2]Конденсационные режимы'!H281</f>
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <f>'[2]Теплофикационные режимы'!C279</f>
+        <v>17.62</v>
+      </c>
+      <c r="AR16">
+        <f>'[2]Теплофикационные режимы'!D279</f>
+        <v>16.23</v>
+      </c>
+      <c r="AS16">
+        <f>'[2]Теплофикационные режимы'!E279</f>
+        <v>25</v>
+      </c>
+      <c r="AT16">
+        <f>'[2]Теплофикационные режимы'!F279</f>
+        <v>29.86</v>
+      </c>
+      <c r="AU16">
+        <f>'[2]Теплофикационные режимы'!G279</f>
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <f>'[2]Теплофикационные режимы'!H279</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A17" t="str">
+        <f>'[2]Конденсационные режимы'!B48</f>
+        <v>Давление пара, МПа</v>
+      </c>
+      <c r="B17">
+        <f>'[2]Конденсационные режимы'!C48</f>
+        <v>0.24829999999999999</v>
+      </c>
+      <c r="C17">
+        <f>'[2]Конденсационные режимы'!D48</f>
+        <v>0.24759999999999999</v>
+      </c>
+      <c r="D17">
+        <f>'[2]Конденсационные режимы'!E48</f>
+        <v>0.25330000000000003</v>
+      </c>
+      <c r="E17">
+        <f>'[2]Конденсационные режимы'!F48</f>
+        <v>0.25719999999999998</v>
+      </c>
+      <c r="F17">
+        <f>'[2]Конденсационные режимы'!G48</f>
+        <v>0.2616</v>
+      </c>
+      <c r="G17">
+        <f>'[2]Конденсационные режимы'!H48</f>
+        <v>0.25850000000000001</v>
+      </c>
+      <c r="H17">
+        <f>'[2]Конденсационные режимы'!I48</f>
+        <v>0.25819999999999999</v>
+      </c>
+      <c r="I17">
+        <f>'[2]Конденсационные режимы'!J48</f>
+        <v>0.25419999999999998</v>
+      </c>
+      <c r="J17">
+        <f>'[2]Конденсационные режимы'!K48</f>
+        <v>0.25</v>
+      </c>
+      <c r="K17">
+        <f>'[2]Конденсационные режимы'!L48</f>
+        <v>0.25019999999999998</v>
+      </c>
+      <c r="L17">
+        <f>'[2]Конденсационные режимы'!M48</f>
+        <v>0.2392</v>
+      </c>
+      <c r="M17">
+        <f>'[2]Конденсационные режимы'!N48</f>
+        <v>0.23980000000000001</v>
+      </c>
+      <c r="N17">
+        <f>'[2]Теплофикационные режимы'!C44</f>
+        <v>0.21629999999999999</v>
+      </c>
+      <c r="O17">
+        <f>'[2]Теплофикационные режимы'!D44</f>
+        <v>0.2225</v>
+      </c>
+      <c r="P17">
+        <f>'[2]Теплофикационные режимы'!E44</f>
+        <v>0.19389999999999999</v>
+      </c>
+      <c r="Q17">
+        <f>'[2]Теплофикационные режимы'!F44</f>
+        <v>0.1497</v>
+      </c>
+      <c r="R17">
+        <f>'[2]Теплофикационные режимы'!G44</f>
+        <v>0.1123</v>
+      </c>
+      <c r="S17">
+        <f>'[2]Теплофикационные режимы'!H44</f>
+        <v>0.1096</v>
+      </c>
+      <c r="T17">
+        <f>'[2]Теплофикационные режимы'!I44</f>
+        <v>8.4599999999999995E-2</v>
+      </c>
+      <c r="U17">
+        <f>'[2]Теплофикационные режимы'!J44</f>
+        <v>7.6700000000000004E-2</v>
+      </c>
+      <c r="V17">
+        <f>'[2]Теплофикационные режимы'!K44</f>
+        <v>7.6700000000000004E-2</v>
+      </c>
+      <c r="W17">
+        <f>'[2]Теплофикационные режимы'!L44</f>
+        <v>0.2046</v>
+      </c>
+      <c r="X17">
+        <f>'[2]Теплофикационные режимы'!M44</f>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="Y17">
+        <f>'[2]Конденсационные режимы'!C166</f>
+        <v>0.184</v>
+      </c>
+      <c r="Z17">
+        <f>'[2]Конденсационные режимы'!D166</f>
+        <v>0.189</v>
+      </c>
+      <c r="AA17">
+        <f>'[2]Конденсационные режимы'!E166</f>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="AB17">
+        <f>'[2]Конденсационные режимы'!F166</f>
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="AC17">
+        <f>'[2]Конденсационные режимы'!G166</f>
+        <v>0.188</v>
+      </c>
+      <c r="AD17">
+        <f>'[2]Конденсационные режимы'!H166</f>
+        <v>0.18</v>
+      </c>
+      <c r="AE17">
+        <f>'[2]Теплофикационные режимы'!C162</f>
+        <v>0.1754</v>
+      </c>
+      <c r="AF17">
+        <f>'[2]Теплофикационные режимы'!D162</f>
+        <v>0.1883</v>
+      </c>
+      <c r="AG17">
+        <f>'[2]Теплофикационные режимы'!E162</f>
+        <v>0.1148</v>
+      </c>
+      <c r="AH17">
+        <f>'[2]Теплофикационные режимы'!F162</f>
+        <v>8.9300000000000004E-2</v>
+      </c>
+      <c r="AI17">
+        <f>'[2]Теплофикационные режимы'!G162</f>
+        <v>0.1787</v>
+      </c>
+      <c r="AJ17">
+        <f>'[2]Теплофикационные режимы'!H162</f>
+        <v>0.1714</v>
+      </c>
+      <c r="AK17">
+        <f>'[2]Конденсационные режимы'!C282</f>
+        <v>0.15</v>
+      </c>
+      <c r="AL17">
+        <f>'[2]Конденсационные режимы'!D282</f>
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="AM17">
+        <f>'[2]Конденсационные режимы'!E282</f>
+        <v>0.1595</v>
+      </c>
+      <c r="AN17">
+        <f>'[2]Конденсационные режимы'!F282</f>
+        <v>0.15909999999999999</v>
+      </c>
+      <c r="AO17">
+        <f>'[2]Конденсационные режимы'!G282</f>
+        <v>0.153</v>
+      </c>
+      <c r="AP17">
+        <f>'[2]Конденсационные режимы'!H282</f>
+        <v>0.1469</v>
+      </c>
+      <c r="AQ17">
+        <f>'[2]Теплофикационные режимы'!C280</f>
+        <v>0.13089999999999999</v>
+      </c>
+      <c r="AR17">
+        <f>'[2]Теплофикационные режимы'!D280</f>
+        <v>0.13439999999999999</v>
+      </c>
+      <c r="AS17">
+        <f>'[2]Теплофикационные режимы'!E280</f>
+        <v>8.4900000000000003E-2</v>
+      </c>
+      <c r="AT17">
+        <f>'[2]Теплофикационные режимы'!F280</f>
+        <v>6.4899999999999999E-2</v>
+      </c>
+      <c r="AU17">
+        <f>'[2]Теплофикационные режимы'!G280</f>
+        <v>0.14760000000000001</v>
+      </c>
+      <c r="AV17">
+        <f>'[2]Теплофикационные режимы'!H280</f>
+        <v>0.14910000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A18" t="str">
+        <f>'[2]Конденсационные режимы'!B49</f>
+        <v>Температура пара, °С</v>
+      </c>
+      <c r="B18">
+        <f>'[2]Конденсационные режимы'!C49</f>
+        <v>127.2</v>
+      </c>
+      <c r="C18">
+        <f>'[2]Конденсационные режимы'!D49</f>
+        <v>127.1</v>
+      </c>
+      <c r="D18">
+        <f>'[2]Конденсационные режимы'!E49</f>
+        <v>127.8</v>
+      </c>
+      <c r="E18">
+        <f>'[2]Конденсационные режимы'!F49</f>
+        <v>128.30000000000001</v>
+      </c>
+      <c r="F18">
+        <f>'[2]Конденсационные режимы'!G49</f>
+        <v>128.9</v>
+      </c>
+      <c r="G18">
+        <f>'[2]Конденсационные режимы'!H49</f>
+        <v>129</v>
+      </c>
+      <c r="H18">
+        <f>'[2]Конденсационные режимы'!I49</f>
+        <v>129.19999999999999</v>
+      </c>
+      <c r="I18">
+        <f>'[2]Конденсационные режимы'!J49</f>
+        <v>131.4</v>
+      </c>
+      <c r="J18">
+        <f>'[2]Конденсационные режимы'!K49</f>
+        <v>131.6</v>
+      </c>
+      <c r="K18">
+        <f>'[2]Конденсационные режимы'!L49</f>
+        <v>131.69999999999999</v>
+      </c>
+      <c r="L18">
+        <f>'[2]Конденсационные режимы'!M49</f>
+        <v>137.6</v>
+      </c>
+      <c r="M18">
+        <f>'[2]Конденсационные режимы'!N49</f>
+        <v>137.69999999999999</v>
+      </c>
+      <c r="N18">
+        <f>'[2]Теплофикационные режимы'!C45</f>
+        <v>122.6</v>
+      </c>
+      <c r="O18">
+        <f>'[2]Теплофикационные режимы'!D45</f>
+        <v>123.6</v>
+      </c>
+      <c r="P18">
+        <f>'[2]Теплофикационные режимы'!E45</f>
+        <v>119.2</v>
+      </c>
+      <c r="Q18">
+        <f>'[2]Теплофикационные режимы'!F45</f>
+        <v>111.3</v>
+      </c>
+      <c r="R18">
+        <f>'[2]Теплофикационные режимы'!G45</f>
+        <v>102.9</v>
+      </c>
+      <c r="S18">
+        <f>'[2]Теплофикационные режимы'!H45</f>
+        <v>102.2</v>
+      </c>
+      <c r="T18">
+        <f>'[2]Теплофикационные режимы'!I45</f>
+        <v>95</v>
+      </c>
+      <c r="U18">
+        <f>'[2]Теплофикационные режимы'!J45</f>
+        <v>92.4</v>
+      </c>
+      <c r="V18">
+        <f>'[2]Теплофикационные режимы'!K45</f>
+        <v>92.4</v>
+      </c>
+      <c r="W18">
+        <f>'[2]Теплофикационные режимы'!L45</f>
+        <v>120.9</v>
+      </c>
+      <c r="X18">
+        <f>'[2]Теплофикационные режимы'!M45</f>
+        <v>121.8</v>
+      </c>
+      <c r="Y18">
+        <f>'[2]Конденсационные режимы'!C167</f>
+        <v>118.4</v>
+      </c>
+      <c r="Z18">
+        <f>'[2]Конденсационные режимы'!D167</f>
+        <v>119.3</v>
+      </c>
+      <c r="AA18">
+        <f>'[2]Конденсационные режимы'!E167</f>
+        <v>120.4</v>
+      </c>
+      <c r="AB18">
+        <f>'[2]Конденсационные режимы'!F167</f>
+        <v>121.1</v>
+      </c>
+      <c r="AC18">
+        <f>'[2]Конденсационные режимы'!G167</f>
+        <v>123.9</v>
+      </c>
+      <c r="AD18">
+        <f>'[2]Конденсационные режимы'!H167</f>
+        <v>129.9</v>
+      </c>
+      <c r="AE18">
+        <f>'[2]Теплофикационные режимы'!C163</f>
+        <v>119.4</v>
+      </c>
+      <c r="AF18">
+        <f>'[2]Теплофикационные режимы'!D163</f>
+        <v>122.2</v>
+      </c>
+      <c r="AG18">
+        <f>'[2]Теплофикационные режимы'!E163</f>
+        <v>103.5</v>
+      </c>
+      <c r="AH18">
+        <f>'[2]Теплофикационные режимы'!F163</f>
+        <v>96.5</v>
+      </c>
+      <c r="AI18">
+        <f>'[2]Теплофикационные режимы'!G163</f>
+        <v>120.2</v>
+      </c>
+      <c r="AJ18">
+        <f>'[2]Теплофикационные режимы'!H163</f>
+        <v>126.3</v>
+      </c>
+      <c r="AK18">
+        <f>'[2]Конденсационные режимы'!C283</f>
+        <v>119.3</v>
+      </c>
+      <c r="AL18">
+        <f>'[2]Конденсационные режимы'!D283</f>
+        <v>120.4</v>
+      </c>
+      <c r="AM18">
+        <f>'[2]Конденсационные режимы'!E283</f>
+        <v>122.1</v>
+      </c>
+      <c r="AN18">
+        <f>'[2]Конденсационные режимы'!F283</f>
+        <v>122.9</v>
+      </c>
+      <c r="AO18">
+        <f>'[2]Конденсационные режимы'!G283</f>
+        <v>122.1</v>
+      </c>
+      <c r="AP18">
+        <f>'[2]Конденсационные режимы'!H283</f>
+        <v>131.6</v>
+      </c>
+      <c r="AQ18">
+        <f>'[2]Теплофикационные режимы'!C281</f>
+        <v>116.1</v>
+      </c>
+      <c r="AR18">
+        <f>'[2]Теплофикационные режимы'!D281</f>
+        <v>114.4</v>
+      </c>
+      <c r="AS18">
+        <f>'[2]Теплофикационные режимы'!E281</f>
+        <v>95.1</v>
+      </c>
+      <c r="AT18">
+        <f>'[2]Теплофикационные режимы'!F281</f>
+        <v>87.9</v>
+      </c>
+      <c r="AU18">
+        <f>'[2]Теплофикационные режимы'!G281</f>
+        <v>122.5</v>
+      </c>
+      <c r="AV18">
+        <f>'[2]Теплофикационные режимы'!H281</f>
+        <v>132.69999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A19" t="str">
+        <f>'[2]Конденсационные режимы'!B50</f>
+        <v>Пар в отборе 1:</v>
+      </c>
+      <c r="B19">
+        <f>'[2]Конденсационные режимы'!C50</f>
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f>'[2]Конденсационные режимы'!D50</f>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f>'[2]Конденсационные режимы'!E50</f>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f>'[2]Конденсационные режимы'!F50</f>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f>'[2]Конденсационные режимы'!G50</f>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f>'[2]Конденсационные режимы'!H50</f>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f>'[2]Конденсационные режимы'!I50</f>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f>'[2]Конденсационные режимы'!J50</f>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f>'[2]Конденсационные режимы'!K50</f>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f>'[2]Конденсационные режимы'!L50</f>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f>'[2]Конденсационные режимы'!M50</f>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f>'[2]Конденсационные режимы'!N50</f>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f>'[2]Теплофикационные режимы'!C46</f>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f>'[2]Теплофикационные режимы'!D46</f>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f>'[2]Теплофикационные режимы'!E46</f>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f>'[2]Теплофикационные режимы'!F46</f>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f>'[2]Теплофикационные режимы'!G46</f>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f>'[2]Теплофикационные режимы'!H46</f>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f>'[2]Теплофикационные режимы'!I46</f>
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <f>'[2]Теплофикационные режимы'!J46</f>
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f>'[2]Теплофикационные режимы'!K46</f>
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <f>'[2]Теплофикационные режимы'!L46</f>
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <f>'[2]Теплофикационные режимы'!M46</f>
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <f>'[2]Конденсационные режимы'!C168</f>
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <f>'[2]Конденсационные режимы'!D168</f>
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <f>'[2]Конденсационные режимы'!E168</f>
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <f>'[2]Конденсационные режимы'!F168</f>
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <f>'[2]Конденсационные режимы'!G168</f>
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <f>'[2]Конденсационные режимы'!H168</f>
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <f>'[2]Теплофикационные режимы'!C164</f>
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <f>'[2]Теплофикационные режимы'!D164</f>
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <f>'[2]Теплофикационные режимы'!E164</f>
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <f>'[2]Теплофикационные режимы'!F164</f>
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <f>'[2]Теплофикационные режимы'!G164</f>
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <f>'[2]Теплофикационные режимы'!H164</f>
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <f>'[2]Конденсационные режимы'!C284</f>
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <f>'[2]Конденсационные режимы'!D284</f>
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <f>'[2]Конденсационные режимы'!E284</f>
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <f>'[2]Конденсационные режимы'!F284</f>
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <f>'[2]Конденсационные режимы'!G284</f>
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <f>'[2]Конденсационные режимы'!H284</f>
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <f>'[2]Теплофикационные режимы'!C282</f>
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <f>'[2]Теплофикационные режимы'!D282</f>
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <f>'[2]Теплофикационные режимы'!E282</f>
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <f>'[2]Теплофикационные режимы'!F282</f>
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <f>'[2]Теплофикационные режимы'!G282</f>
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <f>'[2]Теплофикационные режимы'!H282</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A20" t="str">
+        <f>'[2]Конденсационные режимы'!B51</f>
+        <v>Расход, кг/с</v>
+      </c>
+      <c r="B20">
+        <f>'[2]Конденсационные режимы'!C51</f>
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f>'[2]Конденсационные режимы'!D51</f>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f>'[2]Конденсационные режимы'!E51</f>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f>'[2]Конденсационные режимы'!F51</f>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f>'[2]Конденсационные режимы'!G51</f>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f>'[2]Конденсационные режимы'!H51</f>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f>'[2]Конденсационные режимы'!I51</f>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f>'[2]Конденсационные режимы'!J51</f>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f>'[2]Конденсационные режимы'!K51</f>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f>'[2]Конденсационные режимы'!L51</f>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f>'[2]Конденсационные режимы'!M51</f>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f>'[2]Конденсационные режимы'!N51</f>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f>'[2]Теплофикационные режимы'!C47</f>
+        <v>51.91</v>
+      </c>
+      <c r="O20">
+        <f>'[2]Теплофикационные режимы'!D47</f>
+        <v>53.34</v>
+      </c>
+      <c r="P20">
+        <f>'[2]Теплофикационные режимы'!E47</f>
+        <v>51.53</v>
+      </c>
+      <c r="Q20">
+        <f>'[2]Теплофикационные режимы'!F47</f>
+        <v>46.24</v>
+      </c>
+      <c r="R20">
+        <f>'[2]Теплофикационные режимы'!G47</f>
+        <v>37.96</v>
+      </c>
+      <c r="S20">
+        <f>'[2]Теплофикационные режимы'!H47</f>
+        <v>37.270000000000003</v>
+      </c>
+      <c r="T20">
+        <f>'[2]Теплофикационные режимы'!I47</f>
+        <v>29.59</v>
+      </c>
+      <c r="U20">
+        <f>'[2]Теплофикационные режимы'!J47</f>
+        <v>25.67</v>
+      </c>
+      <c r="V20">
+        <f>'[2]Теплофикационные режимы'!K47</f>
+        <v>26.51</v>
+      </c>
+      <c r="W20">
+        <f>'[2]Теплофикационные режимы'!L47</f>
+        <v>47.22</v>
+      </c>
+      <c r="X20">
+        <f>'[2]Теплофикационные режимы'!M47</f>
+        <v>46.75</v>
+      </c>
+      <c r="Y20">
+        <f>'[2]Конденсационные режимы'!C169</f>
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <f>'[2]Конденсационные режимы'!D169</f>
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <f>'[2]Конденсационные режимы'!E169</f>
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <f>'[2]Конденсационные режимы'!F169</f>
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <f>'[2]Конденсационные режимы'!G169</f>
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <f>'[2]Конденсационные режимы'!H169</f>
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <f>'[2]Теплофикационные режимы'!C165</f>
+        <v>41.78</v>
+      </c>
+      <c r="AF20">
+        <f>'[2]Теплофикационные режимы'!D165</f>
+        <v>43.39</v>
+      </c>
+      <c r="AG20">
+        <f>'[2]Теплофикационные режимы'!E165</f>
+        <v>35.89</v>
+      </c>
+      <c r="AH20">
+        <f>'[2]Теплофикационные режимы'!F165</f>
+        <v>29.72</v>
+      </c>
+      <c r="AI20">
+        <f>'[2]Теплофикационные режимы'!G165</f>
+        <v>46.07</v>
+      </c>
+      <c r="AJ20">
+        <f>'[2]Теплофикационные режимы'!H165</f>
+        <v>46.55</v>
+      </c>
+      <c r="AK20">
+        <f>'[2]Конденсационные режимы'!C285</f>
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <f>'[2]Конденсационные режимы'!D285</f>
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <f>'[2]Конденсационные режимы'!E285</f>
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <f>'[2]Конденсационные режимы'!F285</f>
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <f>'[2]Конденсационные режимы'!G285</f>
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <f>'[2]Конденсационные режимы'!H285</f>
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <f>'[2]Теплофикационные режимы'!C283</f>
+        <v>30.28</v>
+      </c>
+      <c r="AR20">
+        <f>'[2]Теплофикационные режимы'!D283</f>
+        <v>32.83</v>
+      </c>
+      <c r="AS20">
+        <f>'[2]Теплофикационные режимы'!E283</f>
+        <v>25.9</v>
+      </c>
+      <c r="AT20">
+        <f>'[2]Теплофикационные режимы'!F283</f>
+        <v>20.86</v>
+      </c>
+      <c r="AU20">
+        <f>'[2]Теплофикационные режимы'!G283</f>
+        <v>45.45</v>
+      </c>
+      <c r="AV20">
+        <f>'[2]Теплофикационные режимы'!H283</f>
+        <v>44.72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A21" t="str">
+        <f>'[2]Конденсационные режимы'!B52</f>
+        <v>Давление пара, МПа</v>
+      </c>
+      <c r="B21">
+        <f>'[2]Конденсационные режимы'!C52</f>
+        <v>0.1492</v>
+      </c>
+      <c r="C21">
+        <f>'[2]Конденсационные режимы'!D52</f>
+        <v>0.1487</v>
+      </c>
+      <c r="D21">
+        <f>'[2]Конденсационные режимы'!E52</f>
+        <v>0.1522</v>
+      </c>
+      <c r="E21">
+        <f>'[2]Конденсационные режимы'!F52</f>
+        <v>0.15459999999999999</v>
+      </c>
+      <c r="F21">
+        <f>'[2]Конденсационные режимы'!G52</f>
+        <v>0.15720000000000001</v>
+      </c>
+      <c r="G21">
+        <f>'[2]Конденсационные режимы'!H52</f>
+        <v>0.15540000000000001</v>
+      </c>
+      <c r="H21">
+        <f>'[2]Конденсационные режимы'!I52</f>
+        <v>0.1552</v>
+      </c>
+      <c r="I21">
+        <f>'[2]Конденсационные режимы'!J52</f>
+        <v>0.1525</v>
+      </c>
+      <c r="J21">
+        <f>'[2]Конденсационные режимы'!K52</f>
+        <v>0.15</v>
+      </c>
+      <c r="K21">
+        <f>'[2]Конденсационные режимы'!L52</f>
+        <v>0.15029999999999999</v>
+      </c>
+      <c r="L21">
+        <f>'[2]Конденсационные режимы'!M52</f>
+        <v>0.14369999999999999</v>
+      </c>
+      <c r="M21">
+        <f>'[2]Конденсационные режимы'!N52</f>
+        <v>0.14460000000000001</v>
+      </c>
+      <c r="N21">
+        <f>'[2]Теплофикационные режимы'!C48</f>
+        <v>0.1608</v>
+      </c>
+      <c r="O21">
+        <f>'[2]Теплофикационные режимы'!D48</f>
+        <v>0.16569999999999999</v>
+      </c>
+      <c r="P21">
+        <f>'[2]Теплофикационные режимы'!E48</f>
+        <v>0.13389999999999999</v>
+      </c>
+      <c r="Q21">
+        <f>'[2]Теплофикационные режимы'!F48</f>
+        <v>8.6199999999999999E-2</v>
+      </c>
+      <c r="R21">
+        <f>'[2]Теплофикационные режимы'!G48</f>
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="S21">
+        <f>'[2]Теплофикационные режимы'!H48</f>
+        <v>4.9099999999999998E-2</v>
+      </c>
+      <c r="T21">
+        <f>'[2]Теплофикационные режимы'!I48</f>
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="U21">
+        <f>'[2]Теплофикационные режимы'!J48</f>
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="V21">
+        <f>'[2]Теплофикационные режимы'!K48</f>
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="W21">
+        <f>'[2]Теплофикационные режимы'!L48</f>
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="X21">
+        <f>'[2]Теплофикационные режимы'!M48</f>
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="Y21">
+        <f>'[2]Конденсационные режимы'!C170</f>
+        <v>0.08</v>
+      </c>
+      <c r="Z21">
+        <f>'[2]Конденсационные режимы'!D170</f>
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="AA21">
+        <f>'[2]Конденсационные режимы'!E170</f>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AB21">
+        <f>'[2]Конденсационные режимы'!F170</f>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="AC21">
+        <f>'[2]Конденсационные режимы'!G170</f>
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="AD21">
+        <f>'[2]Конденсационные режимы'!H170</f>
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="AE21">
+        <f>'[2]Теплофикационные режимы'!C166</f>
+        <v>0.12839999999999999</v>
+      </c>
+      <c r="AF21">
+        <f>'[2]Теплофикационные режимы'!D166</f>
+        <v>0.1452</v>
+      </c>
+      <c r="AG21">
+        <f>'[2]Теплофикационные режимы'!E166</f>
+        <v>6.0600000000000001E-2</v>
+      </c>
+      <c r="AH21">
+        <f>'[2]Теплофикационные режимы'!F166</f>
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="AI21">
+        <f>'[2]Теплофикационные режимы'!G166</f>
+        <v>5.21E-2</v>
+      </c>
+      <c r="AJ21">
+        <f>'[2]Теплофикационные режимы'!H166</f>
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="AK21">
+        <f>'[2]Конденсационные режимы'!C286</f>
+        <v>6.4699999999999994E-2</v>
+      </c>
+      <c r="AL21">
+        <f>'[2]Конденсационные режимы'!D286</f>
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="AM21">
+        <f>'[2]Конденсационные режимы'!E286</f>
+        <v>6.88E-2</v>
+      </c>
+      <c r="AN21">
+        <f>'[2]Конденсационные режимы'!F286</f>
+        <v>6.8599999999999994E-2</v>
+      </c>
+      <c r="AO21">
+        <f>'[2]Конденсационные режимы'!G286</f>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="AP21">
+        <f>'[2]Конденсационные режимы'!H286</f>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="AQ21">
+        <f>'[2]Теплофикационные режимы'!C284</f>
+        <v>9.6299999999999997E-2</v>
+      </c>
+      <c r="AR21">
+        <f>'[2]Теплофикационные режимы'!D284</f>
+        <v>9.5200000000000007E-2</v>
+      </c>
+      <c r="AS21">
+        <f>'[2]Теплофикационные режимы'!E284</f>
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="AT21">
+        <f>'[2]Теплофикационные режимы'!F284</f>
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="AU21">
+        <f>'[2]Теплофикационные режимы'!G284</f>
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="AV21">
+        <f>'[2]Теплофикационные режимы'!H284</f>
+        <v>5.7799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A22" t="str">
+        <f>'[2]Конденсационные режимы'!B53</f>
+        <v>Температура пара, °С</v>
+      </c>
+      <c r="B22">
+        <f>'[2]Конденсационные режимы'!C53</f>
+        <v>111.2</v>
+      </c>
+      <c r="C22">
+        <f>'[2]Конденсационные режимы'!D53</f>
+        <v>111.1</v>
+      </c>
+      <c r="D22">
+        <f>'[2]Конденсационные режимы'!E53</f>
+        <v>111.8</v>
+      </c>
+      <c r="E22">
+        <f>'[2]Конденсационные режимы'!F53</f>
+        <v>112.2</v>
+      </c>
+      <c r="F22">
+        <f>'[2]Конденсационные режимы'!G53</f>
+        <v>112.8</v>
+      </c>
+      <c r="G22">
+        <f>'[2]Конденсационные режимы'!H53</f>
+        <v>112.4</v>
+      </c>
+      <c r="H22">
+        <f>'[2]Конденсационные режимы'!I53</f>
+        <v>112.4</v>
+      </c>
+      <c r="I22">
+        <f>'[2]Конденсационные режимы'!J53</f>
+        <v>111.8</v>
+      </c>
+      <c r="J22">
+        <f>'[2]Конденсационные режимы'!K53</f>
+        <v>111.3</v>
+      </c>
+      <c r="K22">
+        <f>'[2]Конденсационные режимы'!L53</f>
+        <v>111.4</v>
+      </c>
+      <c r="L22">
+        <f>'[2]Конденсационные режимы'!M53</f>
+        <v>110.1</v>
+      </c>
+      <c r="M22">
+        <f>'[2]Конденсационные режимы'!N53</f>
+        <v>110.2</v>
+      </c>
+      <c r="N22">
+        <f>'[2]Теплофикационные режимы'!C49</f>
+        <v>113.4</v>
+      </c>
+      <c r="O22">
+        <f>'[2]Теплофикационные режимы'!D49</f>
+        <v>114.4</v>
+      </c>
+      <c r="P22">
+        <f>'[2]Теплофикационные режимы'!E49</f>
+        <v>108</v>
+      </c>
+      <c r="Q22">
+        <f>'[2]Теплофикационные режимы'!F49</f>
+        <v>95.5</v>
+      </c>
+      <c r="R22">
+        <f>'[2]Теплофикационные режимы'!G49</f>
+        <v>82</v>
+      </c>
+      <c r="S22">
+        <f>'[2]Теплофикационные режимы'!H49</f>
+        <v>80.900000000000006</v>
+      </c>
+      <c r="T22">
+        <f>'[2]Теплофикационные режимы'!I49</f>
+        <v>69.900000000000006</v>
+      </c>
+      <c r="U22">
+        <f>'[2]Теплофикационные режимы'!J49</f>
+        <v>67.37</v>
+      </c>
+      <c r="V22">
+        <f>'[2]Теплофикационные режимы'!K49</f>
+        <v>67.37</v>
+      </c>
+      <c r="W22">
+        <f>'[2]Теплофикационные режимы'!L49</f>
+        <v>81.72</v>
+      </c>
+      <c r="X22">
+        <f>'[2]Теплофикационные режимы'!M49</f>
+        <v>81.73</v>
+      </c>
+      <c r="Y22">
+        <f>'[2]Конденсационные режимы'!C171</f>
+        <v>93.4</v>
+      </c>
+      <c r="Z22">
+        <f>'[2]Конденсационные режимы'!D171</f>
+        <v>94</v>
+      </c>
+      <c r="AA22">
+        <f>'[2]Конденсационные режимы'!E171</f>
+        <v>95</v>
+      </c>
+      <c r="AB22">
+        <f>'[2]Конденсационные режимы'!F171</f>
+        <v>94.8</v>
+      </c>
+      <c r="AC22">
+        <f>'[2]Конденсационные режимы'!G171</f>
+        <v>93.9</v>
+      </c>
+      <c r="AD22">
+        <f>'[2]Конденсационные режимы'!H171</f>
+        <v>93</v>
+      </c>
+      <c r="AE22">
+        <f>'[2]Теплофикационные режимы'!C167</f>
+        <v>106.7</v>
+      </c>
+      <c r="AF22">
+        <f>'[2]Теплофикационные режимы'!D167</f>
+        <v>110.4</v>
+      </c>
+      <c r="AG22">
+        <f>'[2]Теплофикационные режимы'!E167</f>
+        <v>86.2</v>
+      </c>
+      <c r="AH22">
+        <f>'[2]Теплофикационные режимы'!F167</f>
+        <v>75.8</v>
+      </c>
+      <c r="AI22">
+        <f>'[2]Теплофикационные режимы'!G167</f>
+        <v>82.3</v>
+      </c>
+      <c r="AJ22">
+        <f>'[2]Теплофикационные режимы'!H167</f>
+        <v>82.14</v>
+      </c>
+      <c r="AK22">
+        <f>'[2]Конденсационные режимы'!C287</f>
+        <v>87.9</v>
+      </c>
+      <c r="AL22">
+        <f>'[2]Конденсационные режимы'!D287</f>
+        <v>88.5</v>
+      </c>
+      <c r="AM22">
+        <f>'[2]Конденсационные режимы'!E287</f>
+        <v>89.5</v>
+      </c>
+      <c r="AN22">
+        <f>'[2]Конденсационные режимы'!F287</f>
+        <v>89.4</v>
+      </c>
+      <c r="AO22">
+        <f>'[2]Конденсационные режимы'!G287</f>
+        <v>88.4</v>
+      </c>
+      <c r="AP22">
+        <f>'[2]Конденсационные режимы'!H287</f>
+        <v>87.6</v>
+      </c>
+      <c r="AQ22">
+        <f>'[2]Теплофикационные режимы'!C285</f>
+        <v>98.6</v>
+      </c>
+      <c r="AR22">
+        <f>'[2]Теплофикационные режимы'!D285</f>
+        <v>98.2</v>
+      </c>
+      <c r="AS22">
+        <f>'[2]Теплофикационные режимы'!E285</f>
+        <v>78.099999999999994</v>
+      </c>
+      <c r="AT22">
+        <f>'[2]Теплофикационные режимы'!F285</f>
+        <v>69.3</v>
+      </c>
+      <c r="AU22">
+        <f>'[2]Теплофикационные режимы'!G285</f>
+        <v>79.400000000000006</v>
+      </c>
+      <c r="AV22">
+        <f>'[2]Теплофикационные режимы'!H285</f>
+        <v>84.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A23" t="str">
+        <f>'[2]Конденсационные режимы'!B54</f>
+        <v>Пар перед ЦНД:</v>
+      </c>
+      <c r="B23">
+        <f>'[2]Конденсационные режимы'!C54</f>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f>'[2]Конденсационные режимы'!D54</f>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f>'[2]Конденсационные режимы'!E54</f>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f>'[2]Конденсационные режимы'!F54</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>'[2]Конденсационные режимы'!G54</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f>'[2]Конденсационные режимы'!H54</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f>'[2]Конденсационные режимы'!I54</f>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f>'[2]Конденсационные режимы'!J54</f>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f>'[2]Конденсационные режимы'!K54</f>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f>'[2]Конденсационные режимы'!L54</f>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f>'[2]Конденсационные режимы'!M54</f>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f>'[2]Конденсационные режимы'!N54</f>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f>'[2]Теплофикационные режимы'!C50</f>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f>'[2]Теплофикационные режимы'!D50</f>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f>'[2]Теплофикационные режимы'!E50</f>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f>'[2]Теплофикационные режимы'!F50</f>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f>'[2]Теплофикационные режимы'!G50</f>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f>'[2]Теплофикационные режимы'!H50</f>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f>'[2]Теплофикационные режимы'!I50</f>
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <f>'[2]Теплофикационные режимы'!J50</f>
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <f>'[2]Теплофикационные режимы'!K50</f>
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <f>'[2]Теплофикационные режимы'!L50</f>
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <f>'[2]Теплофикационные режимы'!M50</f>
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <f>'[2]Конденсационные режимы'!C172</f>
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <f>'[2]Конденсационные режимы'!D172</f>
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <f>'[2]Конденсационные режимы'!E172</f>
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <f>'[2]Конденсационные режимы'!F172</f>
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <f>'[2]Конденсационные режимы'!G172</f>
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <f>'[2]Конденсационные режимы'!H172</f>
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <f>'[2]Теплофикационные режимы'!C168</f>
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <f>'[2]Теплофикационные режимы'!D168</f>
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <f>'[2]Теплофикационные режимы'!E168</f>
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <f>'[2]Теплофикационные режимы'!F168</f>
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <f>'[2]Теплофикационные режимы'!G168</f>
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <f>'[2]Теплофикационные режимы'!H168</f>
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <f>'[2]Конденсационные режимы'!C288</f>
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <f>'[2]Конденсационные режимы'!D288</f>
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <f>'[2]Конденсационные режимы'!E288</f>
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <f>'[2]Конденсационные режимы'!F288</f>
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <f>'[2]Конденсационные режимы'!G288</f>
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <f>'[2]Конденсационные режимы'!H288</f>
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <f>'[2]Теплофикационные режимы'!C286</f>
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <f>'[2]Теплофикационные режимы'!D286</f>
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <f>'[2]Теплофикационные режимы'!E286</f>
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <f>'[2]Теплофикационные режимы'!F286</f>
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <f>'[2]Теплофикационные режимы'!G286</f>
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <f>'[2]Теплофикационные режимы'!H286</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A24" t="str">
+        <f>'[2]Конденсационные режимы'!B55</f>
+        <v>Расход, кг/с</v>
+      </c>
+      <c r="B24">
+        <f>'[2]Конденсационные режимы'!C55</f>
+        <v>76.72</v>
+      </c>
+      <c r="C24">
+        <f>'[2]Конденсационные режимы'!D55</f>
+        <v>76.5</v>
+      </c>
+      <c r="D24">
+        <f>'[2]Конденсационные режимы'!E55</f>
+        <v>78.17</v>
+      </c>
+      <c r="E24">
+        <f>'[2]Конденсационные режимы'!F55</f>
+        <v>79.33</v>
+      </c>
+      <c r="F24">
+        <f>'[2]Конденсационные режимы'!G55</f>
+        <v>80.61</v>
+      </c>
+      <c r="G24">
+        <f>'[2]Конденсационные режимы'!H55</f>
+        <v>79.62</v>
+      </c>
+      <c r="H24">
+        <f>'[2]Конденсационные режимы'!I55</f>
+        <v>79.52</v>
+      </c>
+      <c r="I24">
+        <f>'[2]Конденсационные режимы'!J55</f>
+        <v>78.16</v>
+      </c>
+      <c r="J24">
+        <f>'[2]Конденсационные режимы'!K55</f>
+        <v>76.819999999999993</v>
+      </c>
+      <c r="K24">
+        <f>'[2]Конденсационные режимы'!L55</f>
+        <v>76.86</v>
+      </c>
+      <c r="L24">
+        <f>'[2]Конденсационные режимы'!M55</f>
+        <v>72.94</v>
+      </c>
+      <c r="M24">
+        <f>'[2]Конденсационные режимы'!N55</f>
+        <v>72.94</v>
+      </c>
+      <c r="N24">
+        <f>'[2]Теплофикационные режимы'!C51</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="O24">
+        <f>'[2]Теплофикационные режимы'!D51</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="P24">
+        <f>'[2]Теплофикационные режимы'!E51</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="Q24">
+        <f>'[2]Теплофикационные режимы'!F51</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="R24">
+        <f>'[2]Теплофикационные режимы'!G51</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="S24">
+        <f>'[2]Теплофикационные режимы'!H51</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="T24">
+        <f>'[2]Теплофикационные режимы'!I51</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="U24">
+        <f>'[2]Теплофикационные режимы'!J51</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="V24">
+        <f>'[2]Теплофикационные режимы'!K51</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="W24">
+        <f>'[2]Теплофикационные режимы'!L51</f>
+        <v>29.53</v>
+      </c>
+      <c r="X24">
+        <f>'[2]Теплофикационные режимы'!M51</f>
+        <v>25.8</v>
+      </c>
+      <c r="Y24">
+        <f>'[2]Конденсационные режимы'!C173</f>
+        <v>64.25</v>
+      </c>
+      <c r="Z24">
+        <f>'[2]Конденсационные режимы'!D173</f>
+        <v>65.61</v>
+      </c>
+      <c r="AA24">
+        <f>'[2]Конденсационные режимы'!E173</f>
+        <v>67.81</v>
+      </c>
+      <c r="AB24">
+        <f>'[2]Конденсационные режимы'!F173</f>
+        <v>67.22</v>
+      </c>
+      <c r="AC24">
+        <f>'[2]Конденсационные режимы'!G173</f>
+        <v>64.89</v>
+      </c>
+      <c r="AD24">
+        <f>'[2]Конденсационные режимы'!H173</f>
+        <v>61.55</v>
+      </c>
+      <c r="AE24">
+        <f>'[2]Теплофикационные режимы'!C169</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="AF24">
+        <f>'[2]Теплофикационные режимы'!D169</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="AG24">
+        <f>'[2]Теплофикационные режимы'!E169</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="AH24">
+        <f>'[2]Теплофикационные режимы'!F169</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="AI24">
+        <f>'[2]Теплофикационные режимы'!G169</f>
+        <v>18.84</v>
+      </c>
+      <c r="AJ24">
+        <f>'[2]Теплофикационные режимы'!H169</f>
+        <v>16</v>
+      </c>
+      <c r="AK24">
+        <f>'[2]Конденсационные режимы'!C289</f>
+        <v>52.33</v>
+      </c>
+      <c r="AL24">
+        <f>'[2]Конденсационные режимы'!D289</f>
+        <v>53.5</v>
+      </c>
+      <c r="AM24">
+        <f>'[2]Конденсационные режимы'!E289</f>
+        <v>55.33</v>
+      </c>
+      <c r="AN24">
+        <f>'[2]Конденсационные режимы'!F289</f>
+        <v>55.17</v>
+      </c>
+      <c r="AO24">
+        <f>'[2]Конденсационные режимы'!G289</f>
+        <v>53.14</v>
+      </c>
+      <c r="AP24">
+        <f>'[2]Конденсационные режимы'!H289</f>
+        <v>50.25</v>
+      </c>
+      <c r="AQ24">
+        <f>'[2]Теплофикационные режимы'!C287</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="AR24">
+        <f>'[2]Теплофикационные режимы'!D287</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="AS24">
+        <f>'[2]Теплофикационные режимы'!E287</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="AT24">
+        <f>'[2]Теплофикационные режимы'!F287</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="AU24">
+        <f>'[2]Теплофикационные режимы'!G287</f>
+        <v>7.68</v>
+      </c>
+      <c r="AV24">
+        <f>'[2]Теплофикационные режимы'!H287</f>
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A25" t="str">
+        <f>'[2]Конденсационные режимы'!B56</f>
+        <v>Температура пара, °С</v>
+      </c>
+      <c r="B25">
+        <f>'[2]Конденсационные режимы'!C56</f>
+        <v>111.2</v>
+      </c>
+      <c r="C25">
+        <f>'[2]Конденсационные режимы'!D56</f>
+        <v>111.1</v>
+      </c>
+      <c r="D25">
+        <f>'[2]Конденсационные режимы'!E56</f>
+        <v>111.2</v>
+      </c>
+      <c r="E25">
+        <f>'[2]Конденсационные режимы'!F56</f>
+        <v>112.2</v>
+      </c>
+      <c r="F25">
+        <f>'[2]Конденсационные режимы'!G56</f>
+        <v>112.8</v>
+      </c>
+      <c r="G25">
+        <f>'[2]Конденсационные режимы'!H56</f>
+        <v>112.4</v>
+      </c>
+      <c r="H25">
+        <f>'[2]Конденсационные режимы'!I56</f>
+        <v>112.4</v>
+      </c>
+      <c r="I25">
+        <f>'[2]Конденсационные режимы'!J56</f>
+        <v>111.8</v>
+      </c>
+      <c r="J25">
+        <f>'[2]Конденсационные режимы'!K56</f>
+        <v>111.3</v>
+      </c>
+      <c r="K25">
+        <f>'[2]Конденсационные режимы'!L56</f>
+        <v>111.4</v>
+      </c>
+      <c r="L25">
+        <f>'[2]Конденсационные режимы'!M56</f>
+        <v>110.1</v>
+      </c>
+      <c r="M25">
+        <f>'[2]Конденсационные режимы'!N56</f>
+        <v>110.2</v>
+      </c>
+      <c r="N25">
+        <f>'[2]Теплофикационные режимы'!C52</f>
+        <v>89.57</v>
+      </c>
+      <c r="O25">
+        <f>'[2]Теплофикационные режимы'!D52</f>
+        <v>90.17</v>
+      </c>
+      <c r="P25">
+        <f>'[2]Теплофикационные режимы'!E52</f>
+        <v>74.319999999999993</v>
+      </c>
+      <c r="Q25">
+        <f>'[2]Теплофикационные режимы'!F52</f>
+        <v>42.9</v>
+      </c>
+      <c r="R25">
+        <f>'[2]Теплофикационные режимы'!G52</f>
+        <v>42.72</v>
+      </c>
+      <c r="S25">
+        <f>'[2]Теплофикационные режимы'!H52</f>
+        <v>42.7</v>
+      </c>
+      <c r="T25">
+        <f>'[2]Теплофикационные режимы'!I52</f>
+        <v>42.72</v>
+      </c>
+      <c r="U25">
+        <f>'[2]Теплофикационные режимы'!J52</f>
+        <v>45.8</v>
+      </c>
+      <c r="V25">
+        <f>'[2]Теплофикационные режимы'!K52</f>
+        <v>48</v>
+      </c>
+      <c r="W25">
+        <f>'[2]Теплофикационные режимы'!L52</f>
+        <v>83.56</v>
+      </c>
+      <c r="X25">
+        <f>'[2]Теплофикационные режимы'!M52</f>
+        <v>80.58</v>
+      </c>
+      <c r="Y25">
+        <f>'[2]Конденсационные режимы'!C174</f>
+        <v>93.4</v>
+      </c>
+      <c r="Z25">
+        <f>'[2]Конденсационные режимы'!D174</f>
+        <v>94</v>
+      </c>
+      <c r="AA25">
+        <f>'[2]Конденсационные режимы'!E174</f>
+        <v>95</v>
+      </c>
+      <c r="AB25">
+        <f>'[2]Конденсационные режимы'!F174</f>
+        <v>94.8</v>
+      </c>
+      <c r="AC25">
+        <f>'[2]Конденсационные режимы'!G174</f>
+        <v>93.9</v>
+      </c>
+      <c r="AD25">
+        <f>'[2]Конденсационные режимы'!H174</f>
+        <v>93</v>
+      </c>
+      <c r="AE25">
+        <f>'[2]Теплофикационные режимы'!C170</f>
+        <v>90.9</v>
+      </c>
+      <c r="AF25">
+        <f>'[2]Теплофикационные режимы'!D170</f>
+        <v>93.3</v>
+      </c>
+      <c r="AG25">
+        <f>'[2]Теплофикационные режимы'!E170</f>
+        <v>35.08</v>
+      </c>
+      <c r="AH25">
+        <f>'[2]Теплофикационные режимы'!F170</f>
+        <v>35.369999999999997</v>
+      </c>
+      <c r="AI25">
+        <f>'[2]Теплофикационные режимы'!G170</f>
+        <v>63</v>
+      </c>
+      <c r="AJ25">
+        <f>'[2]Теплофикационные режимы'!H170</f>
+        <v>61.89</v>
+      </c>
+      <c r="AK25">
+        <f>'[2]Конденсационные режимы'!C290</f>
+        <v>87.9</v>
+      </c>
+      <c r="AL25">
+        <f>'[2]Конденсационные режимы'!D290</f>
+        <v>88.5</v>
+      </c>
+      <c r="AM25">
+        <f>'[2]Конденсационные режимы'!E290</f>
+        <v>89.5</v>
+      </c>
+      <c r="AN25">
+        <f>'[2]Конденсационные режимы'!F290</f>
+        <v>89.4</v>
+      </c>
+      <c r="AO25">
+        <f>'[2]Конденсационные режимы'!G290</f>
+        <v>88.5</v>
+      </c>
+      <c r="AP25">
+        <f>'[2]Конденсационные режимы'!H290</f>
+        <v>87.6</v>
+      </c>
+      <c r="AQ25">
+        <f>'[2]Теплофикационные режимы'!C288</f>
+        <v>91.3</v>
+      </c>
+      <c r="AR25">
+        <f>'[2]Теплофикационные режимы'!D288</f>
+        <v>84.58</v>
+      </c>
+      <c r="AS25">
+        <f>'[2]Теплофикационные режимы'!E288</f>
+        <v>35.06</v>
+      </c>
+      <c r="AT25">
+        <f>'[2]Теплофикационные режимы'!F288</f>
+        <v>35.39</v>
+      </c>
+      <c r="AU25">
+        <f>'[2]Теплофикационные режимы'!G288</f>
+        <v>45.43</v>
+      </c>
+      <c r="AV25">
+        <f>'[2]Теплофикационные режимы'!H288</f>
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A26" t="str">
+        <f>'[2]Конденсационные режимы'!B57</f>
+        <v>Степень сухости пара/влажность пара , %</v>
+      </c>
+      <c r="B26">
+        <v>-2.39</v>
+      </c>
+      <c r="C26">
+        <v>-2.36</v>
+      </c>
+      <c r="D26">
+        <v>-2.36</v>
+      </c>
+      <c r="E26">
+        <v>-2.38</v>
+      </c>
+      <c r="F26">
+        <v>-2.34</v>
+      </c>
+      <c r="G26">
+        <v>-2.25</v>
+      </c>
+      <c r="H26">
+        <v>-2.2400000000000002</v>
+      </c>
+      <c r="I26">
+        <v>-1.89</v>
+      </c>
+      <c r="J26">
+        <v>-1.9</v>
+      </c>
+      <c r="K26">
+        <v>-1.9</v>
+      </c>
+      <c r="L26">
+        <v>-1.23</v>
+      </c>
+      <c r="M26">
+        <v>-1.2</v>
+      </c>
+      <c r="N26">
+        <v>103.6</v>
+      </c>
+      <c r="O26">
+        <v>103.7</v>
+      </c>
+      <c r="P26">
+        <v>102.42</v>
+      </c>
+      <c r="Q26">
+        <v>-0.21</v>
+      </c>
+      <c r="R26">
+        <v>-2.62</v>
+      </c>
+      <c r="S26">
+        <v>-2.85</v>
+      </c>
+      <c r="T26">
+        <v>-4.76</v>
+      </c>
+      <c r="U26">
+        <v>-4.84</v>
+      </c>
+      <c r="V26">
+        <v>-5</v>
+      </c>
+      <c r="W26">
+        <v>-5.57</v>
+      </c>
+      <c r="X26">
+        <v>-4.5599999999999996</v>
+      </c>
+      <c r="Y26">
+        <v>-3.5</v>
+      </c>
+      <c r="Z26">
+        <v>-3.5</v>
+      </c>
+      <c r="AA26">
+        <v>-3.5</v>
+      </c>
+      <c r="AB26">
+        <v>-3.37</v>
+      </c>
+      <c r="AC26">
+        <v>-3</v>
+      </c>
+      <c r="AD26">
+        <v>-2.37</v>
+      </c>
+      <c r="AE26">
+        <v>104.3</v>
+      </c>
+      <c r="AF26">
+        <v>104.5</v>
+      </c>
+      <c r="AG26">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="AH26">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="AI26">
+        <v>-2.46</v>
+      </c>
+      <c r="AJ26">
+        <v>-1.35</v>
+      </c>
+      <c r="AK26">
+        <v>-2.75</v>
+      </c>
+      <c r="AL26">
+        <v>-2.72</v>
+      </c>
+      <c r="AM26">
+        <v>-2.68</v>
+      </c>
+      <c r="AN26">
+        <v>-2.61</v>
+      </c>
+      <c r="AO26">
+        <v>-2.62</v>
+      </c>
+      <c r="AP26">
+        <v>-1.63</v>
+      </c>
+      <c r="AQ26">
+        <v>104.3</v>
+      </c>
+      <c r="AR26">
+        <v>103.8</v>
+      </c>
+      <c r="AS26">
+        <v>-0.34</v>
+      </c>
+      <c r="AT26">
+        <v>-1.81</v>
+      </c>
+      <c r="AU26">
+        <v>-0.44</v>
+      </c>
+      <c r="AV26">
+        <v>101.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A27" t="str">
+        <f>'[2]Конденсационные режимы'!B63</f>
+        <v>Пар после ЦНД:</v>
+      </c>
+      <c r="Y27">
+        <f>'[2]Конденсационные режимы'!C176</f>
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <f>'[2]Конденсационные режимы'!D176</f>
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <f>'[2]Конденсационные режимы'!E176</f>
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <f>'[2]Конденсационные режимы'!F176</f>
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <f>'[2]Конденсационные режимы'!G176</f>
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <f>'[2]Конденсационные режимы'!H176</f>
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <f>'[2]Конденсационные режимы'!C292</f>
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <f>'[2]Конденсационные режимы'!D292</f>
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <f>'[2]Конденсационные режимы'!E292</f>
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <f>'[2]Конденсационные режимы'!F292</f>
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <f>'[2]Конденсационные режимы'!G292</f>
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <f>'[2]Конденсационные режимы'!H292</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A28" t="str">
+        <f>'[2]Конденсационные режимы'!B64</f>
+        <v>Расход, кг/с</v>
+      </c>
+      <c r="B28">
+        <f>'[2]Конденсационные режимы'!C64</f>
+        <v>76.73</v>
+      </c>
+      <c r="C28">
+        <f>'[2]Конденсационные режимы'!D64</f>
+        <v>76.489999999999995</v>
+      </c>
+      <c r="D28">
+        <f>'[2]Конденсационные режимы'!E64</f>
+        <v>78.17</v>
+      </c>
+      <c r="E28">
+        <f>'[2]Конденсационные режимы'!F64</f>
+        <v>79.33</v>
+      </c>
+      <c r="F28">
+        <f>'[2]Конденсационные режимы'!G64</f>
+        <v>80.61</v>
+      </c>
+      <c r="G28">
+        <f>'[2]Конденсационные режимы'!H64</f>
+        <v>79.62</v>
+      </c>
+      <c r="H28">
+        <f>'[2]Конденсационные режимы'!I64</f>
+        <v>79.52</v>
+      </c>
+      <c r="I28">
+        <f>'[2]Конденсационные режимы'!J64</f>
+        <v>78.16</v>
+      </c>
+      <c r="J28">
+        <f>'[2]Конденсационные режимы'!K64</f>
+        <v>76.819999999999993</v>
+      </c>
+      <c r="K28">
+        <f>'[2]Конденсационные режимы'!L64</f>
+        <v>76.86</v>
+      </c>
+      <c r="L28">
+        <f>'[2]Конденсационные режимы'!M64</f>
+        <v>72.94</v>
+      </c>
+      <c r="M28">
+        <f>'[2]Конденсационные режимы'!N64</f>
+        <v>72.94</v>
+      </c>
+      <c r="N28">
+        <f>'[2]Теплофикационные режимы'!C60</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="O28">
+        <f>'[2]Теплофикационные режимы'!D60</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="P28">
+        <f>'[2]Теплофикационные режимы'!E60</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="Q28">
+        <f>'[2]Теплофикационные режимы'!F60</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="R28">
+        <f>'[2]Теплофикационные режимы'!G60</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="S28">
+        <f>'[2]Теплофикационные режимы'!H60</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="T28">
+        <f>'[2]Теплофикационные режимы'!I60</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="U28">
+        <f>'[2]Теплофикационные режимы'!J60</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="V28">
+        <f>'[2]Теплофикационные режимы'!K60</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="W28">
+        <f>'[2]Теплофикационные режимы'!L60</f>
+        <v>29.53</v>
+      </c>
+      <c r="X28">
+        <f>'[2]Теплофикационные режимы'!M60</f>
+        <v>25.8</v>
+      </c>
+      <c r="Y28">
+        <f>'[2]Конденсационные режимы'!C177</f>
+        <v>64.25</v>
+      </c>
+      <c r="Z28">
+        <f>'[2]Конденсационные режимы'!D177</f>
+        <v>65.61</v>
+      </c>
+      <c r="AA28">
+        <f>'[2]Конденсационные режимы'!E177</f>
+        <v>67.81</v>
+      </c>
+      <c r="AB28">
+        <f>'[2]Конденсационные режимы'!F177</f>
+        <v>67.22</v>
+      </c>
+      <c r="AC28">
+        <f>'[2]Конденсационные режимы'!G177</f>
+        <v>64.89</v>
+      </c>
+      <c r="AD28">
+        <f>'[2]Конденсационные режимы'!H177</f>
+        <v>61.55</v>
+      </c>
+      <c r="AE28">
+        <f>'[2]Теплофикационные режимы'!C178</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="AF28">
+        <f>'[2]Теплофикационные режимы'!D178</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="AG28">
+        <f>'[2]Теплофикационные режимы'!E178</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="AH28">
+        <f>'[2]Теплофикационные режимы'!F178</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="AI28">
+        <f>'[2]Теплофикационные режимы'!G178</f>
+        <v>18.84</v>
+      </c>
+      <c r="AJ28">
+        <f>'[2]Теплофикационные режимы'!H178</f>
+        <v>16</v>
+      </c>
+      <c r="AK28">
+        <f>'[2]Конденсационные режимы'!C293</f>
+        <v>52.3</v>
+      </c>
+      <c r="AL28">
+        <f>'[2]Конденсационные режимы'!D293</f>
+        <v>53.5</v>
+      </c>
+      <c r="AM28">
+        <f>'[2]Конденсационные режимы'!E293</f>
+        <v>55.33</v>
+      </c>
+      <c r="AN28">
+        <f>'[2]Конденсационные режимы'!F293</f>
+        <v>55.17</v>
+      </c>
+      <c r="AO28">
+        <f>'[2]Конденсационные режимы'!G293</f>
+        <v>53.14</v>
+      </c>
+      <c r="AP28">
+        <f>'[2]Конденсационные режимы'!H293</f>
+        <v>50.25</v>
+      </c>
+      <c r="AQ28">
+        <f>'[2]Теплофикационные режимы'!C296</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="AR28">
+        <f>'[2]Теплофикационные режимы'!D296</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="AS28">
+        <f>'[2]Теплофикационные режимы'!E296</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="AT28">
+        <f>'[2]Теплофикационные режимы'!F296</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="AU28">
+        <f>'[2]Теплофикационные режимы'!G296</f>
+        <v>7.68</v>
+      </c>
+      <c r="AV28">
+        <f>'[2]Теплофикационные режимы'!H296</f>
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A29" t="str">
+        <f>'[2]Конденсационные режимы'!B65</f>
+        <v>Давление пара, МПа</v>
+      </c>
+      <c r="B29">
+        <f>'[2]Конденсационные режимы'!C65</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C29">
+        <f>'[2]Конденсационные режимы'!D65</f>
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="D29">
+        <f>'[2]Конденсационные режимы'!E65</f>
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="E29">
+        <f>'[2]Конденсационные режимы'!F65</f>
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="F29">
+        <f>'[2]Конденсационные режимы'!G65</f>
+        <v>0.01</v>
+      </c>
+      <c r="G29">
+        <f>'[2]Конденсационные режимы'!H65</f>
+        <v>1.06E-2</v>
+      </c>
+      <c r="H29">
+        <f>'[2]Конденсационные режимы'!I65</f>
+        <v>1.06E-2</v>
+      </c>
+      <c r="I29">
+        <f>'[2]Конденсационные режимы'!J65</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J29">
+        <f>'[2]Конденсационные режимы'!K65</f>
+        <v>0.01</v>
+      </c>
+      <c r="K29">
+        <f>'[2]Конденсационные режимы'!L65</f>
+        <v>1.32E-2</v>
+      </c>
+      <c r="L29">
+        <f>'[2]Конденсационные режимы'!M65</f>
+        <v>0.02</v>
+      </c>
+      <c r="M29">
+        <f>'[2]Конденсационные режимы'!N65</f>
+        <v>2.52E-2</v>
+      </c>
+      <c r="N29">
+        <f>'[2]Теплофикационные режимы'!C61</f>
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="O29">
+        <f>'[2]Теплофикационные режимы'!D61</f>
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="P29">
+        <f>'[2]Теплофикационные режимы'!E61</f>
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="Q29">
+        <f>'[2]Теплофикационные режимы'!F61</f>
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="R29">
+        <f>'[2]Теплофикационные режимы'!G61</f>
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="S29">
+        <f>'[2]Теплофикационные режимы'!H61</f>
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="T29">
+        <f>'[2]Теплофикационные режимы'!I61</f>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="U29">
+        <f>'[2]Теплофикационные режимы'!J61</f>
+        <v>6.3E-3</v>
+      </c>
+      <c r="V29">
+        <f>'[2]Теплофикационные режимы'!K61</f>
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="W29">
+        <f>'[2]Теплофикационные режимы'!L61</f>
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="X29">
+        <f>'[2]Теплофикационные режимы'!M61</f>
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="Y29">
+        <f>'[2]Конденсационные режимы'!C178</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Z29">
+        <f>'[2]Конденсационные режимы'!D178</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AA29">
+        <f>'[2]Конденсационные режимы'!E178</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AB29">
+        <f>'[2]Конденсационные режимы'!F178</f>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AC29">
+        <f>'[2]Конденсационные режимы'!G178</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AD29">
+        <f>'[2]Конденсационные режимы'!H178</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AE29">
+        <f>'[2]Теплофикационные режимы'!C179</f>
+        <v>1.8E-3</v>
+      </c>
+      <c r="AF29">
+        <f>'[2]Теплофикационные режимы'!D179</f>
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="AG29">
+        <f>'[2]Теплофикационные режимы'!E179</f>
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="AH29">
+        <f>'[2]Теплофикационные режимы'!F179</f>
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="AI29">
+        <f>'[2]Теплофикационные режимы'!G179</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AJ29">
+        <f>'[2]Теплофикационные режимы'!H179</f>
+        <v>1.06E-2</v>
+      </c>
+      <c r="AK29">
+        <f>'[2]Конденсационные режимы'!C294</f>
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="AL29">
+        <f>'[2]Конденсационные режимы'!D294</f>
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="AM29">
+        <f>'[2]Конденсационные режимы'!E294</f>
+        <v>6.6E-3</v>
+      </c>
+      <c r="AN29">
+        <f>'[2]Конденсационные режимы'!F294</f>
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="AO29">
+        <f>'[2]Конденсационные режимы'!G294</f>
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="AP29">
+        <f>'[2]Конденсационные режимы'!H294</f>
+        <v>1.47E-2</v>
+      </c>
+      <c r="AQ29">
+        <f>'[2]Теплофикационные режимы'!C297</f>
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="AR29">
+        <f>'[2]Теплофикационные режимы'!D297</f>
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="AS29">
+        <f>'[2]Теплофикационные режимы'!E297</f>
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="AT29">
+        <f>'[2]Теплофикационные режимы'!F297</f>
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="AU29">
+        <f>'[2]Теплофикационные режимы'!G297</f>
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="AV29">
+        <f>'[2]Теплофикационные режимы'!H297</f>
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A30" t="str">
+        <f>'[2]Конденсационные режимы'!B66</f>
+        <v>Степень сухости пара/влажность пара , %</v>
+      </c>
+      <c r="B30">
+        <v>-10.27</v>
+      </c>
+      <c r="C30">
+        <v>-10.25</v>
+      </c>
+      <c r="D30">
+        <v>-10.039999999999999</v>
+      </c>
+      <c r="E30">
+        <v>-9.9499999999999993</v>
+      </c>
+      <c r="F30">
+        <v>-9.73</v>
+      </c>
+      <c r="G30">
+        <v>-9.4600000000000009</v>
+      </c>
+      <c r="H30">
+        <v>-9.4499999999999993</v>
+      </c>
+      <c r="I30">
+        <v>-9.7799999999999994</v>
+      </c>
+      <c r="J30">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="K30">
+        <v>-8.68</v>
+      </c>
+      <c r="L30">
+        <v>-7.1</v>
+      </c>
+      <c r="M30">
+        <v>-6.52</v>
+      </c>
+      <c r="N30">
+        <v>100.3</v>
+      </c>
+      <c r="O30">
+        <v>100.3</v>
+      </c>
+      <c r="P30">
+        <v>-0.65</v>
+      </c>
+      <c r="Q30">
+        <v>-2.96</v>
+      </c>
+      <c r="R30">
+        <v>-5.12</v>
+      </c>
+      <c r="S30">
+        <v>-5.32</v>
+      </c>
+      <c r="T30">
+        <v>-7.93</v>
+      </c>
+      <c r="U30">
+        <v>-6.04</v>
+      </c>
+      <c r="V30">
+        <v>-5.9</v>
+      </c>
+      <c r="W30">
+        <v>-10.69</v>
+      </c>
+      <c r="X30">
+        <v>-8.65</v>
+      </c>
+      <c r="Y30">
+        <v>-10</v>
+      </c>
+      <c r="Z30">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="AA30">
+        <v>-9.5</v>
+      </c>
+      <c r="AB30">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="AC30">
+        <v>-8.4</v>
+      </c>
+      <c r="AD30">
+        <v>-6.7</v>
+      </c>
+      <c r="AE30">
+        <v>100.2</v>
+      </c>
+      <c r="AF30">
+        <v>100.8</v>
+      </c>
+      <c r="AG30">
+        <v>-2.68</v>
+      </c>
+      <c r="AH30">
+        <v>-4.18</v>
+      </c>
+      <c r="AI30">
+        <v>-6.56</v>
+      </c>
+      <c r="AJ30">
+        <v>-3.82</v>
+      </c>
+      <c r="AK30">
+        <v>-9.27</v>
+      </c>
+      <c r="AL30">
+        <v>-8.92</v>
+      </c>
+      <c r="AM30">
+        <v>-8.68</v>
+      </c>
+      <c r="AN30">
+        <v>-8.4</v>
+      </c>
+      <c r="AO30">
+        <v>-7.94</v>
+      </c>
+      <c r="AP30">
+        <v>-5.87</v>
+      </c>
+      <c r="AQ30">
+        <v>100.3</v>
+      </c>
+      <c r="AR30">
+        <v>100.4</v>
+      </c>
+      <c r="AS30">
+        <v>-2.82</v>
+      </c>
+      <c r="AT30">
+        <v>-3.91</v>
+      </c>
+      <c r="AU30">
+        <v>-3.11</v>
+      </c>
+      <c r="AV30">
+        <v>101.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33">
+        <f>B4</f>
+        <v>61.51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34">
+        <f>B6</f>
+        <v>493.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35">
+        <f>B5</f>
+        <v>7.4930000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38">
+        <f>B12</f>
+        <v>76.72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39">
+        <f>B14</f>
+        <v>191.6</v>
+      </c>
+      <c r="Y39" t="str">
+        <f>'[2]Конденсационные режимы'!C188</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40">
+        <f>B13</f>
+        <v>0.53600000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41">
+        <f>[1]!PropsSI("H","P",B40*1000000,"T",B39+273.15,"Water")/1000</f>
+        <v>2835.7289538722171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42">
+        <f>[1]!PropsSI("S","P",B40*1000000,"T",B39+273.15,"Water")/1000</f>
+        <v>6.9869776083719879</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43">
+        <f>B18</f>
+        <v>127.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44">
+        <f>B17</f>
+        <v>0.24829999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45">
+        <f>[1]!PropsSI("H","P",B44*1000000,"T",B43+273.15,"Water")/1000</f>
+        <v>2716.2048080580698</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46">
+        <f>[1]!PropsSI("H","P",B44*1000000,"S",B42*1000,"Water")/1000</f>
+        <v>2689.053451694987</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49">
+        <f>B38-B15</f>
+        <v>76.72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55">
+        <f>B24</f>
+        <v>76.72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56">
+        <f>B25</f>
+        <v>111.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57">
+        <f>IF(B26&lt;0,100+B26,B26)</f>
+        <v>97.61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59">
+        <f>B29</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60">
+        <f>IF(B30&lt;0,100+B30,B30)</f>
+        <v>89.73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E67E9C-E058-4529-B9FA-B8753B83F0AC}">
   <dimension ref="A1:Z69"/>
   <sheetViews>
@@ -9492,7 +17786,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13805,12 +22099,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EDE698-8E03-4106-955A-E67F477EFCC9}">
   <dimension ref="A3:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14749,7 +23043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W25"/>
   <sheetViews>
@@ -16069,7 +24363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0167F3E-7BBE-4E10-9277-F2F26A5DBFC2}">
   <dimension ref="B3:F14"/>
   <sheetViews>
@@ -16149,7 +24443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD3BF47-064D-4ADE-AF40-A33E2E57375A}">
   <dimension ref="B3:O18"/>
   <sheetViews>
@@ -16461,7 +24755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8984532C-DDFB-4CC9-9526-FD6F89027E1A}">
   <dimension ref="A2:AU59"/>
   <sheetViews>

--- a/Данные для проверки на режимах.xlsx
+++ b/Данные для проверки на режимах.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Employee3\Documents\GitHub\GZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0B12F8-C428-416D-ADC6-27EDC66CD1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7967C9ED-728A-4D64-9807-2EE13810D6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="132">
   <si>
     <t>Пар в отборе 2:</t>
   </si>
@@ -428,6 +428,18 @@
   <si>
     <t>x</t>
   </si>
+  <si>
+    <t>KPD</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>KPD_otn</t>
+  </si>
+  <si>
+    <t>D_otn</t>
+  </si>
 </sst>
 </file>
 
@@ -468,7 +480,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,6 +490,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,7 +524,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -517,6 +535,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -961,7 +981,7 @@
                   <c:v>0.81220413650913403</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.98338296877352371</c:v>
+                  <c:v>0.98338296877354425</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.98376755247755954</c:v>
@@ -1006,7 +1026,7 @@
                   <c:v>0.81220413650913403</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.98338296877352371</c:v>
+                  <c:v>0.98338296877354425</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>0.98376755247755954</c:v>
@@ -1208,6 +1228,680 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Давление начальное'!$B$57:$N$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Давление начальное'!$B$58:$N$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.68552999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67684</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67508000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67410000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67359999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6734</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67320000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67315000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.67290000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.67279999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.67274999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.67278000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D28C-45CD-9D9B-2734704E13DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1546112751"/>
+        <c:axId val="1546126063"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1546112751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1546126063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1546126063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1546112751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Давление начальное'!$B$57:$N$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Давление начальное'!$B$59:$N$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>8.5081900000000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4661100000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4453700000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4361200000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4320400000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.4297900000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4291099999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.4287600000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.42849</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.4285800000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.4286300000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.4286600000000007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.4284400000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA1D-4444-B1BB-A5B341DA1E27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1546112751"/>
+        <c:axId val="1546126063"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1546112751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1546126063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1546126063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1546112751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1548,7 +2242,7 @@
                   <c:v>0.81220413650913403</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.98338296877352371</c:v>
+                  <c:v>0.98338296877354425</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.98376755247755954</c:v>
@@ -1855,127 +2549,127 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>1.0962300436226673</c:v>
+                  <c:v>1.0962300436225514</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1071310260669189</c:v>
+                  <c:v>1.1071310260668019</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95853105783448178</c:v>
+                  <c:v>0.95853105783438053</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9593954010247473</c:v>
+                  <c:v>0.95939540102464582</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.84994785558678809</c:v>
+                  <c:v>0.84994785558669828</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.80203388263163178</c:v>
+                  <c:v>0.80203388263154696</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.80109234016162989</c:v>
+                  <c:v>0.80109234016154518</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.81790658212971268</c:v>
+                  <c:v>0.81790658212962619</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.65253760157642338</c:v>
+                  <c:v>0.65253760157635432</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.45290738407847098</c:v>
+                  <c:v>0.45290738407842307</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.38089186603272901</c:v>
+                  <c:v>0.38089186603268871</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.89529302532043065</c:v>
+                  <c:v>0.89529302532033606</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.19084527152471811</c:v>
+                  <c:v>0.19084527152469793</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.18829537514497957</c:v>
+                  <c:v>0.18829537514495967</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.18806101365024186</c:v>
+                  <c:v>0.18806101365022199</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.17912766386312598</c:v>
+                  <c:v>0.17912766386310702</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.12261245154421589</c:v>
+                  <c:v>0.12261245154420293</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.10196894825438865</c:v>
+                  <c:v>0.10196894825437787</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.52359759699463504</c:v>
+                  <c:v>0.52359759699458375</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.33254194028541983</c:v>
+                  <c:v>0.3325419402853847</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.1123375743154083</c:v>
+                  <c:v>1.1123375743152906</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.99906805827538958</c:v>
+                  <c:v>0.99906805827524625</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.92259770312601874</c:v>
+                  <c:v>0.9225977031259226</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.83475144983340943</c:v>
+                  <c:v>0.83475144983332117</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.69544136613757102</c:v>
+                  <c:v>0.69544136613749752</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.48408906797418411</c:v>
+                  <c:v>0.48408906797413292</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.27163564756383968</c:v>
+                  <c:v>0.27163564756381092</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.24833782553097736</c:v>
+                  <c:v>0.2483378255309511</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.47095571637745148</c:v>
+                  <c:v>0.47095571637740169</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.25063112933084108</c:v>
+                  <c:v>0.25063112933081461</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.1243826219619173</c:v>
+                  <c:v>1.1243826219617985</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.99645037879709775</c:v>
+                  <c:v>0.99645037879699239</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.91118193069246289</c:v>
+                  <c:v>0.91118193069236653</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.83952141521006107</c:v>
+                  <c:v>0.83952141520997225</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.67937513917234715</c:v>
+                  <c:v>0.67937513917227532</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.46222327497515198</c:v>
+                  <c:v>0.46222327497510307</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.27137182948704813</c:v>
+                  <c:v>0.27137182948701943</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.2486664980903017</c:v>
+                  <c:v>0.24866649809027541</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.29010108473062202</c:v>
+                  <c:v>0.29010108473059132</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.58923760982287765</c:v>
+                  <c:v>0.58923760982281526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2056,7 +2750,7 @@
                   <c:v>5.196377492070936E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.6721929698186337E-2</c:v>
+                  <c:v>4.672192969817579E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>3.2821838617129284E-2</c:v>
@@ -2354,6 +3048,820 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Расчет КПД турбина на режимах'!$L$160</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KPD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.1189307615477968E-2"/>
+                  <c:y val="0.13649783041921321"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Расчет КПД турбина на режимах'!$M$159:$U$159</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Расчет КПД турбина на режимах'!$M$160:$U$160</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-454B-4532-A139-43AFB57C47E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1784246816"/>
+        <c:axId val="1859832368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1784246816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1859832368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1859832368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="80"/>
+          <c:min val="-20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1784246816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Расчет КПД турбина на режимах'!$L$160</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KPD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.5768664872871595E-4"/>
+                  <c:y val="-8.091086532205595E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Расчет КПД турбина на режимах'!$M$161:$U$161</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Расчет КПД турбина на режимах'!$M$162:$U$162</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0571428571428572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0571428571428572</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88571428571428568</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68571428571428572</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.21428571428571427</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A259-4842-B9F0-0AEDCE068287}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1784246816"/>
+        <c:axId val="1859832368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1784246816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1859832368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1859832368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1784246816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -2738,7 +4246,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3328,7 +4836,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3947,7 +5455,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4350,681 +5858,87 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Давление начальное'!$B$57:$N$57</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Давление начальное'!$B$58:$N$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.68552999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.67684</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.67508000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.67410000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.67359999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6734</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.67330000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.67320000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.67315000000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.67290000000000005</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.67279999999999995</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.67274999999999996</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.67278000000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D28C-45CD-9D9B-2734704E13DB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1546112751"/>
-        <c:axId val="1546126063"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1546112751"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1546126063"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1546126063"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1546112751"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Давление начальное'!$B$57:$N$57</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Давление начальное'!$B$59:$N$59</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>8.5081900000000008</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.4661100000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.4453700000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.4361200000000007</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.4320400000000006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.4297900000000006</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.4291099999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.4287600000000005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.42849</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.4285800000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.4286300000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.4286600000000007</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.4284400000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CA1D-4444-B1BB-A5B341DA1E27}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1546112751"/>
-        <c:axId val="1546126063"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1546112751"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1546126063"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1546126063"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1546112751"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5385,6 +6299,1038 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10032,16 +11978,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>537201</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>137444</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228773</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>128372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>232401</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>118393</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>531759</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>109322</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13095,6 +15041,134 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>113274</xdr:colOff>
+          <xdr:row>168</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>581236</xdr:colOff>
+          <xdr:row>202</xdr:row>
+          <xdr:rowOff>31749</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{176EC867-B277-0B4B-2D57-CFE09C5AA147}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A44D5C9D-2C1A-030D-85F3-47AEBE5791E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>15876</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Chart 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B2CD8F-1BFC-48A7-A281-23412F5FC195}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13406,8 +15480,8 @@
       <sheetName val="Таблицы для расчётов"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="11">
           <cell r="C11">
@@ -13619,19 +15693,6 @@
             <v>523.4</v>
           </cell>
         </row>
-        <row r="34">
-          <cell r="C34"/>
-          <cell r="D34"/>
-          <cell r="E34"/>
-          <cell r="F34"/>
-          <cell r="G34"/>
-          <cell r="H34"/>
-          <cell r="I34"/>
-          <cell r="J34"/>
-          <cell r="K34"/>
-          <cell r="L34"/>
-          <cell r="M34"/>
-        </row>
         <row r="35">
           <cell r="C35">
             <v>15.47</v>
@@ -13737,19 +15798,6 @@
             <v>206.4</v>
           </cell>
         </row>
-        <row r="38">
-          <cell r="C38"/>
-          <cell r="D38"/>
-          <cell r="E38"/>
-          <cell r="F38"/>
-          <cell r="G38"/>
-          <cell r="H38"/>
-          <cell r="I38"/>
-          <cell r="J38"/>
-          <cell r="K38"/>
-          <cell r="L38"/>
-          <cell r="M38"/>
-        </row>
         <row r="39">
           <cell r="C39">
             <v>76.53</v>
@@ -13855,19 +15903,6 @@
             <v>201</v>
           </cell>
         </row>
-        <row r="42">
-          <cell r="C42"/>
-          <cell r="D42"/>
-          <cell r="E42"/>
-          <cell r="F42"/>
-          <cell r="G42"/>
-          <cell r="H42"/>
-          <cell r="I42"/>
-          <cell r="J42"/>
-          <cell r="K42"/>
-          <cell r="L42"/>
-          <cell r="M42"/>
-        </row>
         <row r="43">
           <cell r="C43">
             <v>20.190000000000001</v>
@@ -13973,19 +16008,6 @@
             <v>121.8</v>
           </cell>
         </row>
-        <row r="46">
-          <cell r="C46"/>
-          <cell r="D46"/>
-          <cell r="E46"/>
-          <cell r="F46"/>
-          <cell r="G46"/>
-          <cell r="H46"/>
-          <cell r="I46"/>
-          <cell r="J46"/>
-          <cell r="K46"/>
-          <cell r="L46"/>
-          <cell r="M46"/>
-        </row>
         <row r="47">
           <cell r="C47">
             <v>51.91</v>
@@ -14091,19 +16113,6 @@
             <v>81.73</v>
           </cell>
         </row>
-        <row r="50">
-          <cell r="C50"/>
-          <cell r="D50"/>
-          <cell r="E50"/>
-          <cell r="F50"/>
-          <cell r="G50"/>
-          <cell r="H50"/>
-          <cell r="I50"/>
-          <cell r="J50"/>
-          <cell r="K50"/>
-          <cell r="L50"/>
-          <cell r="M50"/>
-        </row>
         <row r="51">
           <cell r="C51">
             <v>4.4400000000000004</v>
@@ -14364,14 +16373,6 @@
             <v>527.29999999999995</v>
           </cell>
         </row>
-        <row r="150">
-          <cell r="C150"/>
-          <cell r="D150"/>
-          <cell r="E150"/>
-          <cell r="F150"/>
-          <cell r="G150"/>
-          <cell r="H150"/>
-        </row>
         <row r="151">
           <cell r="C151">
             <v>12.72</v>
@@ -14432,14 +16433,6 @@
             <v>202.3</v>
           </cell>
         </row>
-        <row r="154">
-          <cell r="C154"/>
-          <cell r="D154"/>
-          <cell r="E154"/>
-          <cell r="F154"/>
-          <cell r="G154"/>
-          <cell r="H154"/>
-        </row>
         <row r="155">
           <cell r="C155">
             <v>64.22</v>
@@ -14560,14 +16553,6 @@
             <v>126.3</v>
           </cell>
         </row>
-        <row r="164">
-          <cell r="C164"/>
-          <cell r="D164"/>
-          <cell r="E164"/>
-          <cell r="F164"/>
-          <cell r="G164"/>
-          <cell r="H164"/>
-        </row>
         <row r="165">
           <cell r="C165">
             <v>41.78</v>
@@ -14628,14 +16613,6 @@
             <v>82.14</v>
           </cell>
         </row>
-        <row r="168">
-          <cell r="C168"/>
-          <cell r="D168"/>
-          <cell r="E168"/>
-          <cell r="F168"/>
-          <cell r="G168"/>
-          <cell r="H168"/>
-        </row>
         <row r="169">
           <cell r="C169">
             <v>4.4400000000000004</v>
@@ -14836,14 +16813,6 @@
             <v>522.1</v>
           </cell>
         </row>
-        <row r="270">
-          <cell r="C270"/>
-          <cell r="D270"/>
-          <cell r="E270"/>
-          <cell r="F270"/>
-          <cell r="G270"/>
-          <cell r="H270"/>
-        </row>
         <row r="271">
           <cell r="C271">
             <v>10.57</v>
@@ -14904,14 +16873,6 @@
             <v>197.8</v>
           </cell>
         </row>
-        <row r="274">
-          <cell r="C274"/>
-          <cell r="D274"/>
-          <cell r="E274"/>
-          <cell r="F274"/>
-          <cell r="G274"/>
-          <cell r="H274"/>
-        </row>
         <row r="275">
           <cell r="C275">
             <v>52.33</v>
@@ -14972,14 +16933,6 @@
             <v>206.1</v>
           </cell>
         </row>
-        <row r="278">
-          <cell r="C278"/>
-          <cell r="D278"/>
-          <cell r="E278"/>
-          <cell r="F278"/>
-          <cell r="G278"/>
-          <cell r="H278"/>
-        </row>
         <row r="279">
           <cell r="C279">
             <v>17.62</v>
@@ -15040,14 +16993,6 @@
             <v>132.69999999999999</v>
           </cell>
         </row>
-        <row r="282">
-          <cell r="C282"/>
-          <cell r="D282"/>
-          <cell r="E282"/>
-          <cell r="F282"/>
-          <cell r="G282"/>
-          <cell r="H282"/>
-        </row>
         <row r="283">
           <cell r="C283">
             <v>30.28</v>
@@ -15108,14 +17053,6 @@
             <v>84.9</v>
           </cell>
         </row>
-        <row r="286">
-          <cell r="C286"/>
-          <cell r="D286"/>
-          <cell r="E286"/>
-          <cell r="F286"/>
-          <cell r="G286"/>
-          <cell r="H286"/>
-        </row>
         <row r="287">
           <cell r="C287">
             <v>4.4400000000000004</v>
@@ -15197,7 +17134,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4">
         <row r="15">
           <cell r="C15">
@@ -15440,18 +17377,6 @@
           <cell r="B38" t="str">
             <v>Пар НД на входе в турбину:</v>
           </cell>
-          <cell r="C38"/>
-          <cell r="D38"/>
-          <cell r="E38"/>
-          <cell r="F38"/>
-          <cell r="G38"/>
-          <cell r="H38"/>
-          <cell r="I38"/>
-          <cell r="J38"/>
-          <cell r="K38"/>
-          <cell r="L38"/>
-          <cell r="M38"/>
-          <cell r="N38"/>
         </row>
         <row r="39">
           <cell r="B39" t="str">
@@ -15580,18 +17505,6 @@
           <cell r="B42" t="str">
             <v>Пар после смешения:</v>
           </cell>
-          <cell r="C42"/>
-          <cell r="D42"/>
-          <cell r="E42"/>
-          <cell r="F42"/>
-          <cell r="G42"/>
-          <cell r="H42"/>
-          <cell r="I42"/>
-          <cell r="J42"/>
-          <cell r="K42"/>
-          <cell r="L42"/>
-          <cell r="M42"/>
-          <cell r="N42"/>
         </row>
         <row r="43">
           <cell r="B43" t="str">
@@ -15720,18 +17633,6 @@
           <cell r="B46" t="str">
             <v>Пар в отборе 2:</v>
           </cell>
-          <cell r="C46"/>
-          <cell r="D46"/>
-          <cell r="E46"/>
-          <cell r="F46"/>
-          <cell r="G46"/>
-          <cell r="H46"/>
-          <cell r="I46"/>
-          <cell r="J46"/>
-          <cell r="K46"/>
-          <cell r="L46"/>
-          <cell r="M46"/>
-          <cell r="N46"/>
         </row>
         <row r="47">
           <cell r="B47" t="str">
@@ -15860,18 +17761,6 @@
           <cell r="B50" t="str">
             <v>Пар в отборе 1:</v>
           </cell>
-          <cell r="C50"/>
-          <cell r="D50"/>
-          <cell r="E50"/>
-          <cell r="F50"/>
-          <cell r="G50"/>
-          <cell r="H50"/>
-          <cell r="I50"/>
-          <cell r="J50"/>
-          <cell r="K50"/>
-          <cell r="L50"/>
-          <cell r="M50"/>
-          <cell r="N50"/>
         </row>
         <row r="51">
           <cell r="B51" t="str">
@@ -16000,18 +17889,6 @@
           <cell r="B54" t="str">
             <v>Пар перед ЦНД:</v>
           </cell>
-          <cell r="C54"/>
-          <cell r="D54"/>
-          <cell r="E54"/>
-          <cell r="F54"/>
-          <cell r="G54"/>
-          <cell r="H54"/>
-          <cell r="I54"/>
-          <cell r="J54"/>
-          <cell r="K54"/>
-          <cell r="L54"/>
-          <cell r="M54"/>
-          <cell r="N54"/>
         </row>
         <row r="55">
           <cell r="B55" t="str">
@@ -16312,14 +18189,6 @@
             <v>527.29999999999995</v>
           </cell>
         </row>
-        <row r="156">
-          <cell r="C156"/>
-          <cell r="D156"/>
-          <cell r="E156"/>
-          <cell r="F156"/>
-          <cell r="G156"/>
-          <cell r="H156"/>
-        </row>
         <row r="157">
           <cell r="C157">
             <v>12.74</v>
@@ -16380,14 +18249,6 @@
             <v>202.4</v>
           </cell>
         </row>
-        <row r="160">
-          <cell r="C160"/>
-          <cell r="D160"/>
-          <cell r="E160"/>
-          <cell r="F160"/>
-          <cell r="G160"/>
-          <cell r="H160"/>
-        </row>
         <row r="161">
           <cell r="C161">
             <v>64.25</v>
@@ -16448,14 +18309,6 @@
             <v>205.1</v>
           </cell>
         </row>
-        <row r="164">
-          <cell r="C164"/>
-          <cell r="D164"/>
-          <cell r="E164"/>
-          <cell r="F164"/>
-          <cell r="G164"/>
-          <cell r="H164"/>
-        </row>
         <row r="165">
           <cell r="C165">
             <v>0</v>
@@ -16516,14 +18369,6 @@
             <v>129.9</v>
           </cell>
         </row>
-        <row r="168">
-          <cell r="C168"/>
-          <cell r="D168"/>
-          <cell r="E168"/>
-          <cell r="F168"/>
-          <cell r="G168"/>
-          <cell r="H168"/>
-        </row>
         <row r="169">
           <cell r="C169">
             <v>0</v>
@@ -16584,14 +18429,6 @@
             <v>93</v>
           </cell>
         </row>
-        <row r="172">
-          <cell r="C172"/>
-          <cell r="D172"/>
-          <cell r="E172"/>
-          <cell r="F172"/>
-          <cell r="G172"/>
-          <cell r="H172"/>
-        </row>
         <row r="173">
           <cell r="C173">
             <v>64.25</v>
@@ -16632,14 +18469,6 @@
             <v>93</v>
           </cell>
         </row>
-        <row r="176">
-          <cell r="C176"/>
-          <cell r="D176"/>
-          <cell r="E176"/>
-          <cell r="F176"/>
-          <cell r="G176"/>
-          <cell r="H176"/>
-        </row>
         <row r="177">
           <cell r="C177">
             <v>64.25</v>
@@ -16800,14 +18629,6 @@
             <v>522.1</v>
           </cell>
         </row>
-        <row r="272">
-          <cell r="C272"/>
-          <cell r="D272"/>
-          <cell r="E272"/>
-          <cell r="F272"/>
-          <cell r="G272"/>
-          <cell r="H272"/>
-        </row>
         <row r="273">
           <cell r="C273">
             <v>10.57</v>
@@ -16868,14 +18689,6 @@
             <v>197.8</v>
           </cell>
         </row>
-        <row r="276">
-          <cell r="C276"/>
-          <cell r="D276"/>
-          <cell r="E276"/>
-          <cell r="F276"/>
-          <cell r="G276"/>
-          <cell r="H276"/>
-        </row>
         <row r="277">
           <cell r="C277">
             <v>52.33</v>
@@ -16936,14 +18749,6 @@
             <v>205.8</v>
           </cell>
         </row>
-        <row r="280">
-          <cell r="C280"/>
-          <cell r="D280"/>
-          <cell r="E280"/>
-          <cell r="F280"/>
-          <cell r="G280"/>
-          <cell r="H280"/>
-        </row>
         <row r="281">
           <cell r="C281">
             <v>0</v>
@@ -17004,14 +18809,6 @@
             <v>131.6</v>
           </cell>
         </row>
-        <row r="284">
-          <cell r="C284"/>
-          <cell r="D284"/>
-          <cell r="E284"/>
-          <cell r="F284"/>
-          <cell r="G284"/>
-          <cell r="H284"/>
-        </row>
         <row r="285">
           <cell r="C285">
             <v>0</v>
@@ -17072,14 +18869,6 @@
             <v>87.6</v>
           </cell>
         </row>
-        <row r="288">
-          <cell r="C288"/>
-          <cell r="D288"/>
-          <cell r="E288"/>
-          <cell r="F288"/>
-          <cell r="G288"/>
-          <cell r="H288"/>
-        </row>
         <row r="289">
           <cell r="C289">
             <v>52.33</v>
@@ -17120,14 +18909,6 @@
             <v>87.6</v>
           </cell>
         </row>
-        <row r="292">
-          <cell r="C292"/>
-          <cell r="D292"/>
-          <cell r="E292"/>
-          <cell r="F292"/>
-          <cell r="G292"/>
-          <cell r="H292"/>
-        </row>
         <row r="293">
           <cell r="C293">
             <v>52.3</v>
@@ -17169,8 +18950,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -19405,17 +21186,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BD7F4F-C630-44C6-B6AE-CF7C437C65FD}">
-  <dimension ref="A2:CQ127"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BD7F4F-C630-44C6-B6AE-CF7C437C65FD}">
+  <dimension ref="A2:CQ176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AV89" sqref="AV89"/>
+    <sheetView tabSelected="1" topLeftCell="K4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R69" sqref="R69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:48" x14ac:dyDescent="0.35">
@@ -19518,7 +21300,7 @@
         <f>'[2]Теплофикационные режимы'!F31</f>
         <v>65.150000000000006</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="6">
         <f>'[2]Теплофикационные режимы'!G31</f>
         <v>64.47</v>
       </c>
@@ -19712,7 +21494,7 @@
         <f>'[2]Теплофикационные режимы'!F32</f>
         <v>7.9610000000000003</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="6">
         <f>'[2]Теплофикационные режимы'!G32</f>
         <v>7.8959999999999999</v>
       </c>
@@ -19906,7 +21688,7 @@
         <f>'[2]Теплофикационные режимы'!F33</f>
         <v>500</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="6">
         <f>'[2]Теплофикационные режимы'!G33</f>
         <v>502.2</v>
       </c>
@@ -20100,7 +21882,7 @@
         <f>'[2]Теплофикационные режимы'!F34</f>
         <v>0</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="6">
         <f>'[2]Теплофикационные режимы'!G34</f>
         <v>0</v>
       </c>
@@ -20294,7 +22076,7 @@
         <f>'[2]Теплофикационные режимы'!F35</f>
         <v>16.100000000000001</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="6">
         <f>'[2]Теплофикационные режимы'!G35</f>
         <v>15.85</v>
       </c>
@@ -20488,7 +22270,7 @@
         <f>'[2]Теплофикационные режимы'!F36</f>
         <v>0.58499999999999996</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="6">
         <f>'[2]Теплофикационные режимы'!G36</f>
         <v>0.56899999999999995</v>
       </c>
@@ -20682,7 +22464,7 @@
         <f>'[2]Теплофикационные режимы'!F37</f>
         <v>209.8</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="6">
         <f>'[2]Теплофикационные режимы'!G37</f>
         <v>209.6</v>
       </c>
@@ -20876,7 +22658,7 @@
         <f>'[2]Теплофикационные режимы'!F38</f>
         <v>0</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="6">
         <f>'[2]Теплофикационные режимы'!G38</f>
         <v>0</v>
       </c>
@@ -21070,7 +22852,7 @@
         <f>'[2]Теплофикационные режимы'!F39</f>
         <v>80.95</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="6">
         <f>'[2]Теплофикационные режимы'!G39</f>
         <v>80.02</v>
       </c>
@@ -21264,7 +23046,7 @@
         <f>'[2]Теплофикационные режимы'!F40</f>
         <v>0.52300000000000002</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="6">
         <f>'[2]Теплофикационные режимы'!G40</f>
         <v>0.50700000000000001</v>
       </c>
@@ -21458,7 +23240,7 @@
         <f>'[2]Теплофикационные режимы'!F41</f>
         <v>188.4</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="6">
         <f>'[2]Теплофикационные режимы'!G41</f>
         <v>188</v>
       </c>
@@ -21652,7 +23434,7 @@
         <f>'[2]Теплофикационные режимы'!F42</f>
         <v>0</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="6">
         <f>'[2]Теплофикационные режимы'!G42</f>
         <v>0</v>
       </c>
@@ -21846,7 +23628,7 @@
         <f>'[2]Теплофикационные режимы'!F43</f>
         <v>30.26</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="6">
         <f>'[2]Теплофикационные режимы'!G43</f>
         <v>37.619999999999997</v>
       </c>
@@ -22040,7 +23822,7 @@
         <f>'[2]Теплофикационные режимы'!F44</f>
         <v>0.1497</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="6">
         <f>'[2]Теплофикационные режимы'!G44</f>
         <v>0.1123</v>
       </c>
@@ -22234,7 +24016,7 @@
         <f>'[2]Теплофикационные режимы'!F45</f>
         <v>111.3</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="6">
         <f>'[2]Теплофикационные режимы'!G45</f>
         <v>102.9</v>
       </c>
@@ -22428,7 +24210,7 @@
         <f>'[2]Теплофикационные режимы'!F46</f>
         <v>0</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="6">
         <f>'[2]Теплофикационные режимы'!G46</f>
         <v>0</v>
       </c>
@@ -22622,7 +24404,7 @@
         <f>'[2]Теплофикационные режимы'!F47</f>
         <v>46.24</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="6">
         <f>'[2]Теплофикационные режимы'!G47</f>
         <v>37.96</v>
       </c>
@@ -22816,7 +24598,7 @@
         <f>'[2]Теплофикационные режимы'!F48</f>
         <v>8.6199999999999999E-2</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="6">
         <f>'[2]Теплофикационные режимы'!G48</f>
         <v>5.1499999999999997E-2</v>
       </c>
@@ -23010,7 +24792,7 @@
         <f>'[2]Теплофикационные режимы'!F49</f>
         <v>95.5</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="6">
         <f>'[2]Теплофикационные режимы'!G49</f>
         <v>82</v>
       </c>
@@ -23204,7 +24986,7 @@
         <f>'[2]Теплофикационные режимы'!F50</f>
         <v>0</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="6">
         <f>'[2]Теплофикационные режимы'!G50</f>
         <v>0</v>
       </c>
@@ -23398,7 +25180,7 @@
         <f>'[2]Теплофикационные режимы'!F51</f>
         <v>4.4400000000000004</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="6">
         <f>'[2]Теплофикационные режимы'!G51</f>
         <v>4.4400000000000004</v>
       </c>
@@ -23592,7 +25374,7 @@
         <f>'[2]Теплофикационные режимы'!F52</f>
         <v>42.9</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="6">
         <f>'[2]Теплофикационные режимы'!G52</f>
         <v>42.72</v>
       </c>
@@ -23770,7 +25552,7 @@
       <c r="Q26">
         <v>-0.21</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="6">
         <v>-2.62</v>
       </c>
       <c r="S26">
@@ -23988,7 +25770,7 @@
         <f>'[2]Теплофикационные режимы'!F60</f>
         <v>4.4400000000000004</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="6">
         <f>'[2]Теплофикационные режимы'!G60</f>
         <v>4.4400000000000004</v>
       </c>
@@ -24182,7 +25964,7 @@
         <f>'[2]Теплофикационные режимы'!F61</f>
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="6">
         <f>'[2]Теплофикационные режимы'!G61</f>
         <v>3.3999999999999998E-3</v>
       </c>
@@ -24360,7 +26142,7 @@
       <c r="Q30">
         <v>-2.96</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="6">
         <v>-5.12</v>
       </c>
       <c r="S30">
@@ -24542,7 +26324,7 @@
       <c r="Q36">
         <v>16</v>
       </c>
-      <c r="R36">
+      <c r="R36" s="6">
         <v>17</v>
       </c>
       <c r="S36">
@@ -24851,7 +26633,7 @@
         <f t="shared" si="0"/>
         <v>80.95</v>
       </c>
-      <c r="R38">
+      <c r="R38" s="6">
         <f t="shared" si="0"/>
         <v>80.02</v>
       </c>
@@ -25044,7 +26826,7 @@
         <f t="shared" si="2"/>
         <v>188.4</v>
       </c>
-      <c r="R39">
+      <c r="R39" s="6">
         <f t="shared" si="2"/>
         <v>188</v>
       </c>
@@ -25237,7 +27019,7 @@
         <f t="shared" si="4"/>
         <v>0.52300000000000002</v>
       </c>
-      <c r="R40">
+      <c r="R40" s="6">
         <f t="shared" si="4"/>
         <v>0.50700000000000001</v>
       </c>
@@ -25430,7 +27212,7 @@
         <f>[1]!PropsSI("H","P",Q40*1000000,"T",Q39+273.15,"REFPROP::Water")/1000</f>
         <v>2829.4785133829887</v>
       </c>
-      <c r="R41">
+      <c r="R41" s="6">
         <f>[1]!PropsSI("H","P",R40*1000000,"T",R39+273.15,"REFPROP::Water")/1000</f>
         <v>2829.5335011803736</v>
       </c>
@@ -25623,7 +27405,7 @@
         <f>[1]!PropsSI("S","P",Q40*1000000,"T",Q39+273.15,"REFPROP::Water")/1000</f>
         <v>6.9844586905592978</v>
       </c>
-      <c r="R42">
+      <c r="R42" s="6">
         <f>[1]!PropsSI("S","P",R40*1000000,"T",R39+273.15,"REFPROP::Water")/1000</f>
         <v>6.9984736936907179</v>
       </c>
@@ -25816,7 +27598,7 @@
         <f t="shared" si="6"/>
         <v>111.3</v>
       </c>
-      <c r="R43">
+      <c r="R43" s="6">
         <f t="shared" si="6"/>
         <v>102.9</v>
       </c>
@@ -26009,7 +27791,7 @@
         <f t="shared" si="8"/>
         <v>0.1497</v>
       </c>
-      <c r="R44">
+      <c r="R44" s="6">
         <f t="shared" si="8"/>
         <v>0.1123</v>
       </c>
@@ -26202,7 +27984,7 @@
         <f>[1]!PropsSI("H","P",Q44*1000000,"T",Q43+273.15,"REFPROP::Water")/1000</f>
         <v>2693.0375190772397</v>
       </c>
-      <c r="R45">
+      <c r="R45" s="6">
         <f>[1]!PropsSI("H","P",R44*1000000,"T",R43+273.15,"REFPROP::Water")/1000</f>
         <v>2680.1322031299301</v>
       </c>
@@ -26395,7 +28177,7 @@
         <f>[1]!PropsSI("H","P",Q44*1000000,"S",Q42*1000,"REFPROP::Water")/1000</f>
         <v>2601.0605711577655</v>
       </c>
-      <c r="R46">
+      <c r="R46" s="6">
         <f>[1]!PropsSI("H","P",R44*1000000,"S",R42*1000,"REFPROP::Water")/1000</f>
         <v>2559.2234396654585</v>
       </c>
@@ -26513,7 +28295,7 @@
       </c>
       <c r="AU46">
         <f>[1]!PropsSI("H","P",AU44*1000000,"S",AU42*1000,"REFPROP::Water")/1000</f>
-        <v>2685.1077268122494</v>
+        <v>2685.1077268122531</v>
       </c>
       <c r="AV46">
         <f>[1]!PropsSI("H","P",AV44*1000000,"S",AV42*1000,"REFPROP::Water")/1000</f>
@@ -26588,7 +28370,7 @@
         <f t="shared" si="11"/>
         <v>0.59733045914237459</v>
       </c>
-      <c r="R47">
+      <c r="R47" s="6">
         <f t="shared" si="11"/>
         <v>0.55270342958432528</v>
       </c>
@@ -26706,7 +28488,7 @@
       </c>
       <c r="AU47">
         <f t="shared" si="11"/>
-        <v>0.81817875042391197</v>
+        <v>0.81817875042392907</v>
       </c>
       <c r="AV47">
         <f t="shared" si="11"/>
@@ -26781,7 +28563,7 @@
         <f t="shared" si="12"/>
         <v>31.935044579851546</v>
       </c>
-      <c r="R48">
+      <c r="R48" s="6">
         <f t="shared" si="12"/>
         <v>32.56641146921713</v>
       </c>
@@ -26974,7 +28756,7 @@
         <f t="shared" si="13"/>
         <v>62.978993635869003</v>
       </c>
-      <c r="R49">
+      <c r="R49" s="6">
         <f t="shared" si="13"/>
         <v>77.092160295934207</v>
       </c>
@@ -27251,7 +29033,7 @@
         <f t="shared" ref="Q50" si="50">Q49/$I$49</f>
         <v>1.4671097039715935</v>
       </c>
-      <c r="R50">
+      <c r="R50" s="6">
         <f t="shared" ref="R50" si="51">R49/$I$49</f>
         <v>1.7958790692057403</v>
       </c>
@@ -27501,7 +29283,7 @@
         <f t="shared" si="104"/>
         <v>0.71794164777065683</v>
       </c>
-      <c r="R51">
+      <c r="R51" s="6">
         <f t="shared" si="104"/>
         <v>0.66430366121625095</v>
       </c>
@@ -27607,7 +29389,7 @@
       </c>
       <c r="AU51">
         <f t="shared" si="104"/>
-        <v>0.98338296877352371</v>
+        <v>0.98338296877354425</v>
       </c>
       <c r="AV51">
         <f t="shared" si="104"/>
@@ -27667,7 +29449,7 @@
       </c>
       <c r="CP51">
         <f t="shared" ref="CP51" si="118">AU51</f>
-        <v>0.98338296877352371</v>
+        <v>0.98338296877354425</v>
       </c>
       <c r="CQ51">
         <f t="shared" ref="CQ51" si="119">AV51</f>
@@ -27748,7 +29530,7 @@
         <f>1/[1]!PropsSI("D","P",Q40*1000000,"T",Q39+273.15,"REFPROP::Water")</f>
         <v>0.39450333020199563</v>
       </c>
-      <c r="R53">
+      <c r="R53" s="6">
         <f>1/[1]!PropsSI("D","P",R40*1000000,"T",R39+273.15,"REFPROP::Water")</f>
         <v>0.40697839876552278</v>
       </c>
@@ -27941,7 +29723,7 @@
         <f>1/[1]!PropsSI("D","P",Q44*1000000,"H",Q45*1000,"REFPROP::Water")</f>
         <v>1.1614940419010062</v>
       </c>
-      <c r="R54">
+      <c r="R54" s="6">
         <f>1/[1]!PropsSI("D","P",R44*1000000,"H",R45*1000,"REFPROP::Water")</f>
         <v>1.5198439030573767</v>
       </c>
@@ -28134,7 +29916,7 @@
         <f t="shared" si="120"/>
         <v>0.77799868605150091</v>
       </c>
-      <c r="R55">
+      <c r="R55" s="6">
         <f t="shared" si="120"/>
         <v>0.9634111509114498</v>
       </c>
@@ -28404,7 +30186,7 @@
         <f t="shared" si="122"/>
         <v>4.4400000000000004</v>
       </c>
-      <c r="R64">
+      <c r="R64" s="6">
         <f t="shared" si="122"/>
         <v>4.4400000000000004</v>
       </c>
@@ -28597,7 +30379,7 @@
         <f t="shared" si="124"/>
         <v>42.9</v>
       </c>
-      <c r="R65">
+      <c r="R65" s="6">
         <f t="shared" si="124"/>
         <v>42.72</v>
       </c>
@@ -28790,7 +30572,7 @@
         <f t="shared" si="126"/>
         <v>99.79</v>
       </c>
-      <c r="R66">
+      <c r="R66" s="6">
         <f t="shared" si="126"/>
         <v>97.38</v>
       </c>
@@ -28983,7 +30765,7 @@
         <f>[1]!PropsSI("H","Q",1,"T",Q65+273.15,"REFPROP::Water")/1000</f>
         <v>2578.6872363909924</v>
       </c>
-      <c r="R67">
+      <c r="R67" s="6">
         <f>[1]!PropsSI("H","Q",1,"T",R65+273.15,"REFPROP::Water")/1000</f>
         <v>2578.3663861586156</v>
       </c>
@@ -29176,7 +30958,7 @@
         <f>[1]!PropsSI("H","Q",0,"T",Q65+273.15,"REFPROP::Water")/1000</f>
         <v>179.65555370007297</v>
       </c>
-      <c r="R68">
+      <c r="R68" s="6">
         <f>[1]!PropsSI("H","Q",0,"T",R65+273.15,"REFPROP::Water")/1000</f>
         <v>178.90308569821093</v>
       </c>
@@ -29369,7 +31151,7 @@
         <f t="shared" si="127"/>
         <v>2573.6492698573416</v>
       </c>
-      <c r="R69">
+      <c r="R69" s="6">
         <f t="shared" si="127"/>
         <v>2515.5004476865529</v>
       </c>
@@ -29562,7 +31344,7 @@
         <f>[1]!PropsSI("S","H",Q69*1000,"T",Q65+273.15,"REFPROP::Water")/1000</f>
         <v>8.1856621571052131</v>
       </c>
-      <c r="R70">
+      <c r="R70" s="6">
         <f>[1]!PropsSI("S","H",R69*1000,"T",R65+273.15,"REFPROP::Water")/1000</f>
         <v>8.005888595072415</v>
       </c>
@@ -29600,7 +31382,7 @@
       </c>
       <c r="AA70">
         <f>[1]!PropsSI("S","H",AA69*1000,"T",AA65+273.15,"REFPROP::Water")/1000</f>
-        <v>7.1993026450108193</v>
+        <v>7.1993026450108299</v>
       </c>
       <c r="AB70">
         <f>[1]!PropsSI("S","H",AB69*1000,"T",AB65+273.15,"REFPROP::Water")/1000</f>
@@ -29755,7 +31537,7 @@
         <f t="shared" si="131"/>
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="R71">
+      <c r="R71" s="6">
         <f t="shared" si="131"/>
         <v>3.3999999999999998E-3</v>
       </c>
@@ -29948,7 +31730,7 @@
         <f t="shared" si="133"/>
         <v>97.04</v>
       </c>
-      <c r="R72">
+      <c r="R72" s="6">
         <f t="shared" si="133"/>
         <v>94.88</v>
       </c>
@@ -30141,7 +31923,7 @@
         <f>[1]!PropsSI("H","Q",1,"P",Q71*1000000,"REFPROP::Water")/1000</f>
         <v>2548.6429456154033</v>
       </c>
-      <c r="R73">
+      <c r="R73" s="6">
         <f>[1]!PropsSI("H","Q",1,"P",R71*1000000,"REFPROP::Water")/1000</f>
         <v>2548.6429456154033</v>
       </c>
@@ -30334,7 +32116,7 @@
         <f>[1]!PropsSI("H","Q",0,"P",Q71*1000000,"REFPROP::Water")/1000</f>
         <v>109.76597963088028</v>
       </c>
-      <c r="R74">
+      <c r="R74" s="6">
         <f>[1]!PropsSI("H","Q",0,"P",R71*1000000,"REFPROP::Water")/1000</f>
         <v>109.76597963088028</v>
       </c>
@@ -30527,7 +32309,7 @@
         <f t="shared" si="134"/>
         <v>2476.4521874222614</v>
       </c>
-      <c r="R75">
+      <c r="R75" s="6">
         <f t="shared" si="134"/>
         <v>2423.7724449569955</v>
       </c>
@@ -30720,7 +32502,7 @@
         <f>[1]!PropsSI("H","P",Q71*1000000,"S",Q70*1000,"REFPROP::Water")/1000</f>
         <v>2445.1172332714168</v>
       </c>
-      <c r="R76">
+      <c r="R76" s="6">
         <f>[1]!PropsSI("H","P",R71*1000000,"S",R70*1000,"REFPROP::Water")/1000</f>
         <v>2391.3055040300551</v>
       </c>
@@ -30758,7 +32540,7 @@
       </c>
       <c r="AA76">
         <f>[1]!PropsSI("H","P",AA71*1000000,"S",AA70*1000,"REFPROP::Water")/1000</f>
-        <v>2252.7309472855668</v>
+        <v>2252.7309472855709</v>
       </c>
       <c r="AB76">
         <f>[1]!PropsSI("H","P",AB71*1000000,"S",AB70*1000,"REFPROP::Water")/1000</f>
@@ -30913,7 +32695,7 @@
         <f t="shared" si="138"/>
         <v>0.75620899673602426</v>
       </c>
-      <c r="R77">
+      <c r="R77" s="6">
         <f t="shared" si="138"/>
         <v>0.73858081520018648</v>
       </c>
@@ -30951,7 +32733,7 @@
       </c>
       <c r="AA77">
         <f t="shared" si="138"/>
-        <v>0.71605259825142775</v>
+        <v>0.71605259825143641</v>
       </c>
       <c r="AB77">
         <f t="shared" si="138"/>
@@ -31106,7 +32888,7 @@
         <f t="shared" si="142"/>
         <v>98.415000000000006</v>
       </c>
-      <c r="R78">
+      <c r="R78" s="6">
         <f t="shared" si="142"/>
         <v>96.13</v>
       </c>
@@ -31305,7 +33087,7 @@
         <f t="shared" si="144"/>
         <v>0.15</v>
       </c>
-      <c r="R80">
+      <c r="R80" s="6">
         <f t="shared" si="144"/>
         <v>0.15</v>
       </c>
@@ -31498,7 +33280,7 @@
         <f t="shared" ref="Q81" si="152">1-0.4*(1-Q80)*(MAX(100-Q66,0)-MAX(100-Q72,0))*Q84/Q82/100</f>
         <v>1.00935</v>
       </c>
-      <c r="R81" s="5">
+      <c r="R81" s="7">
         <f t="shared" ref="R81" si="153">1-0.4*(1-R80)*(MAX(100-R66,0)-MAX(100-R72,0))*R84/R82/100</f>
         <v>1.0085</v>
       </c>
@@ -31691,7 +33473,7 @@
         <f t="shared" si="180"/>
         <v>128.53203658592474</v>
       </c>
-      <c r="R82">
+      <c r="R82" s="6">
         <f t="shared" si="180"/>
         <v>124.1949436564978</v>
       </c>
@@ -31729,7 +33511,7 @@
       </c>
       <c r="AA82">
         <f t="shared" si="180"/>
-        <v>335.44943602885269</v>
+        <v>335.4494360288486</v>
       </c>
       <c r="AB82">
         <f t="shared" si="180"/>
@@ -31884,7 +33666,7 @@
         <f t="shared" si="182"/>
         <v>0.54308950236557263</v>
       </c>
-      <c r="R83">
+      <c r="R83" s="6">
         <f t="shared" si="182"/>
         <v>0.53112169856883107</v>
       </c>
@@ -31922,7 +33704,7 @@
       </c>
       <c r="AA83">
         <f t="shared" si="182"/>
-        <v>0.76277452794961409</v>
+        <v>0.7627745279496122</v>
       </c>
       <c r="AB83">
         <f t="shared" si="182"/>
@@ -32077,7 +33859,7 @@
         <f t="shared" si="186"/>
         <v>128.53203658592474</v>
       </c>
-      <c r="R84">
+      <c r="R84" s="6">
         <f t="shared" si="186"/>
         <v>124.1949436564978</v>
       </c>
@@ -32115,7 +33897,7 @@
       </c>
       <c r="AA84">
         <f t="shared" si="186"/>
-        <v>335.44943602885269</v>
+        <v>335.4494360288486</v>
       </c>
       <c r="AB84">
         <f t="shared" si="186"/>
@@ -32270,7 +34052,7 @@
         <f t="shared" si="188"/>
         <v>40</v>
       </c>
-      <c r="R85">
+      <c r="R85" s="6">
         <f t="shared" si="188"/>
         <v>40</v>
       </c>
@@ -32463,7 +34245,7 @@
         <f>IF(Q66&gt;100,[1]!PropsSI("H","Q",1,"S",Q70*1000,"REFPROP::Water")/1000,Q76)</f>
         <v>2445.1172332714168</v>
       </c>
-      <c r="R86">
+      <c r="R86" s="6">
         <f>IF(R66&gt;100,[1]!PropsSI("H","Q",1,"S",R70*1000,"REFPROP::Water")/1000,R76)</f>
         <v>2391.3055040300551</v>
       </c>
@@ -32501,7 +34283,7 @@
       </c>
       <c r="AA86">
         <f>IF(AA66&gt;100,[1]!PropsSI("H","Q",1,"S",AA70*1000,"REFPROP::Water")/1000,AA76)</f>
-        <v>2252.7309472855668</v>
+        <v>2252.7309472855709</v>
       </c>
       <c r="AB86">
         <f>IF(AB66&gt;100,[1]!PropsSI("H","Q",1,"S",AB70*1000,"REFPROP::Water")/1000,AB76)</f>
@@ -32640,7 +34422,7 @@
       <c r="Q87">
         <v>200</v>
       </c>
-      <c r="R87">
+      <c r="R87" s="6">
         <v>200</v>
       </c>
       <c r="S87">
@@ -32737,7 +34519,7 @@
     <row r="88" spans="1:48" x14ac:dyDescent="0.35">
       <c r="H88">
         <f>$I$87*H94/$I$94*H64/$I$64</f>
-        <v>157.29482608568995</v>
+        <v>157.2948260856721</v>
       </c>
       <c r="I88" s="4"/>
     </row>
@@ -32806,7 +34588,7 @@
         <f t="shared" si="190"/>
         <v>4.4400000000000004</v>
       </c>
-      <c r="R89">
+      <c r="R89" s="6">
         <f t="shared" si="190"/>
         <v>4.4400000000000004</v>
       </c>
@@ -32980,7 +34762,7 @@
         <f t="shared" si="191"/>
         <v>-0.21311949437045163</v>
       </c>
-      <c r="R90">
+      <c r="R90" s="6">
         <f t="shared" si="191"/>
         <v>-0.20745911663135541</v>
       </c>
@@ -33018,7 +34800,7 @@
       </c>
       <c r="AA90">
         <f t="shared" si="191"/>
-        <v>4.6721929698186337E-2</v>
+        <v>4.672192969817579E-2</v>
       </c>
       <c r="AB90">
         <f t="shared" si="191"/>
@@ -33159,7 +34941,7 @@
         <f>1/[1]!PropsSI("D","H",Q67*1000,"T",Q65+273.15,"REFPROP::Water")</f>
         <v>16.896781577980988</v>
       </c>
-      <c r="R93">
+      <c r="R93" s="6">
         <f>1/[1]!PropsSI("D","H",R67*1000,"T",R65+273.15,"REFPROP::Water")</f>
         <v>17.047016341223781</v>
       </c>
@@ -33302,7 +35084,7 @@
       </c>
       <c r="I94" s="4">
         <f>1/[1]!PropsSI("D","P",I71*1000000,"H",I76*1000,"REFPROP::Water")</f>
-        <v>15.447343976380649</v>
+        <v>15.447343976382401</v>
       </c>
       <c r="J94">
         <f>1/[1]!PropsSI("D","P",J71*1000000,"H",J76*1000,"REFPROP::Water")</f>
@@ -33328,7 +35110,7 @@
         <f>1/[1]!PropsSI("D","P",Q71*1000000,"H",Q76*1000,"REFPROP::Water")</f>
         <v>38.840004550837904</v>
       </c>
-      <c r="R94">
+      <c r="R94" s="6">
         <f>1/[1]!PropsSI("D","P",R71*1000000,"H",R76*1000,"REFPROP::Water")</f>
         <v>37.945066877050486</v>
       </c>
@@ -33350,7 +35132,7 @@
       </c>
       <c r="W94">
         <f>1/[1]!PropsSI("D","P",W71*1000000,"H",W76*1000,"REFPROP::Water")</f>
-        <v>20.012145949716832</v>
+        <v>20.012145949717009</v>
       </c>
       <c r="X94">
         <f>1/[1]!PropsSI("D","P",X71*1000000,"H",X76*1000,"REFPROP::Water")</f>
@@ -33362,11 +35144,11 @@
       </c>
       <c r="Z94">
         <f>1/[1]!PropsSI("D","P",Z71*1000000,"H",Z76*1000,"REFPROP::Water")</f>
-        <v>17.695362896999033</v>
+        <v>17.695362896998287</v>
       </c>
       <c r="AA94">
         <f>1/[1]!PropsSI("D","P",AA71*1000000,"H",AA76*1000,"REFPROP::Water")</f>
-        <v>15.662024327903854</v>
+        <v>15.662024327903881</v>
       </c>
       <c r="AB94">
         <f>1/[1]!PropsSI("D","P",AB71*1000000,"H",AB76*1000,"REFPROP::Water")</f>
@@ -33471,7 +35253,7 @@
       </c>
       <c r="I95" s="4">
         <f t="shared" si="192"/>
-        <v>8.2952397506420894</v>
+        <v>8.2952397506429669</v>
       </c>
       <c r="J95">
         <f t="shared" si="192"/>
@@ -33497,7 +35279,7 @@
         <f t="shared" si="192"/>
         <v>27.868393064409446</v>
       </c>
-      <c r="R95">
+      <c r="R95" s="6">
         <f t="shared" si="192"/>
         <v>27.496041609137134</v>
       </c>
@@ -33519,7 +35301,7 @@
       </c>
       <c r="W95">
         <f t="shared" si="192"/>
-        <v>11.496024775163347</v>
+        <v>11.496024775163436</v>
       </c>
       <c r="X95">
         <f t="shared" si="192"/>
@@ -33531,11 +35313,11 @@
       </c>
       <c r="Z95">
         <f t="shared" si="192"/>
-        <v>9.8727588623428808</v>
+        <v>9.8727588623425078</v>
       </c>
       <c r="AA95">
         <f t="shared" si="192"/>
-        <v>8.821290370839856</v>
+        <v>8.8212903708398702</v>
       </c>
       <c r="AB95">
         <f t="shared" si="192"/>
@@ -33666,7 +35448,7 @@
         <f t="shared" si="193"/>
         <v>10856.320515725092</v>
       </c>
-      <c r="R96">
+      <c r="R96" s="6">
         <f t="shared" si="193"/>
         <v>10617.396437893445</v>
       </c>
@@ -33704,7 +35486,7 @@
       </c>
       <c r="AA96">
         <f t="shared" si="193"/>
-        <v>152757.68553543428</v>
+        <v>152757.68553543458</v>
       </c>
       <c r="AB96">
         <f t="shared" si="193"/>
@@ -33809,7 +35591,7 @@
       </c>
       <c r="I97" s="4">
         <f t="shared" si="194"/>
-        <v>648.35593891018573</v>
+        <v>648.35593891025428</v>
       </c>
       <c r="J97">
         <f t="shared" si="194"/>
@@ -33835,7 +35617,7 @@
         <f t="shared" si="194"/>
         <v>123.73566520597795</v>
       </c>
-      <c r="R97">
+      <c r="R97" s="6">
         <f t="shared" si="194"/>
         <v>122.08242474456888</v>
       </c>
@@ -33857,7 +35639,7 @@
       </c>
       <c r="W97">
         <f t="shared" si="194"/>
-        <v>339.47761161057366</v>
+        <v>339.47761161057628</v>
       </c>
       <c r="X97">
         <f t="shared" si="194"/>
@@ -33869,11 +35651,11 @@
       </c>
       <c r="Z97">
         <f t="shared" si="194"/>
-        <v>647.75170895831639</v>
+        <v>647.75170895829194</v>
       </c>
       <c r="AA97">
         <f t="shared" si="194"/>
-        <v>598.1717000466507</v>
+        <v>598.17170004665161</v>
       </c>
       <c r="AB97">
         <f t="shared" si="194"/>
@@ -33950,31 +35732,31 @@
       </c>
       <c r="B98">
         <f>B97/$I$97</f>
-        <v>1.0962300436226673</v>
+        <v>1.0962300436225514</v>
       </c>
       <c r="C98">
         <f t="shared" ref="C98:AV98" si="195">C97/$I$97</f>
-        <v>1.1071310260669189</v>
+        <v>1.1071310260668019</v>
       </c>
       <c r="D98">
         <f t="shared" si="195"/>
-        <v>0.95853105783448178</v>
+        <v>0.95853105783438053</v>
       </c>
       <c r="E98">
         <f t="shared" si="195"/>
-        <v>0.9593954010247473</v>
+        <v>0.95939540102464582</v>
       </c>
       <c r="F98">
         <f t="shared" si="195"/>
-        <v>0.84994785558678809</v>
+        <v>0.84994785558669828</v>
       </c>
       <c r="G98">
         <f t="shared" si="195"/>
-        <v>0.80203388263163178</v>
+        <v>0.80203388263154696</v>
       </c>
       <c r="H98">
         <f t="shared" si="195"/>
-        <v>0.80109234016162989</v>
+        <v>0.80109234016154518</v>
       </c>
       <c r="I98" s="4">
         <f t="shared" si="195"/>
@@ -33982,135 +35764,135 @@
       </c>
       <c r="J98">
         <f t="shared" si="195"/>
-        <v>0.81790658212971268</v>
+        <v>0.81790658212962619</v>
       </c>
       <c r="K98">
         <f t="shared" si="195"/>
-        <v>0.65253760157642338</v>
+        <v>0.65253760157635432</v>
       </c>
       <c r="L98">
         <f t="shared" si="195"/>
-        <v>0.45290738407847098</v>
+        <v>0.45290738407842307</v>
       </c>
       <c r="M98">
         <f t="shared" si="195"/>
-        <v>0.38089186603272901</v>
+        <v>0.38089186603268871</v>
       </c>
       <c r="P98">
         <f t="shared" si="195"/>
-        <v>0.89529302532043065</v>
+        <v>0.89529302532033606</v>
       </c>
       <c r="Q98">
         <f t="shared" si="195"/>
-        <v>0.19084527152471811</v>
-      </c>
-      <c r="R98">
+        <v>0.19084527152469793</v>
+      </c>
+      <c r="R98" s="6">
         <f t="shared" si="195"/>
-        <v>0.18829537514497957</v>
+        <v>0.18829537514495967</v>
       </c>
       <c r="S98">
         <f t="shared" si="195"/>
-        <v>0.18806101365024186</v>
+        <v>0.18806101365022199</v>
       </c>
       <c r="T98">
         <f t="shared" si="195"/>
-        <v>0.17912766386312598</v>
+        <v>0.17912766386310702</v>
       </c>
       <c r="U98">
         <f t="shared" si="195"/>
-        <v>0.12261245154421589</v>
+        <v>0.12261245154420293</v>
       </c>
       <c r="V98">
         <f t="shared" si="195"/>
-        <v>0.10196894825438865</v>
+        <v>0.10196894825437787</v>
       </c>
       <c r="W98">
         <f t="shared" si="195"/>
-        <v>0.52359759699463504</v>
+        <v>0.52359759699458375</v>
       </c>
       <c r="X98">
         <f t="shared" si="195"/>
-        <v>0.33254194028541983</v>
+        <v>0.3325419402853847</v>
       </c>
       <c r="Y98">
         <f t="shared" si="195"/>
-        <v>1.1123375743154083</v>
+        <v>1.1123375743152906</v>
       </c>
       <c r="Z98">
         <f t="shared" si="195"/>
-        <v>0.99906805827538958</v>
+        <v>0.99906805827524625</v>
       </c>
       <c r="AA98">
         <f t="shared" si="195"/>
-        <v>0.92259770312601874</v>
+        <v>0.9225977031259226</v>
       </c>
       <c r="AB98">
         <f t="shared" si="195"/>
-        <v>0.83475144983340943</v>
+        <v>0.83475144983332117</v>
       </c>
       <c r="AC98">
         <f t="shared" si="195"/>
-        <v>0.69544136613757102</v>
+        <v>0.69544136613749752</v>
       </c>
       <c r="AD98">
         <f t="shared" si="195"/>
-        <v>0.48408906797418411</v>
+        <v>0.48408906797413292</v>
       </c>
       <c r="AG98">
         <f t="shared" si="195"/>
-        <v>0.27163564756383968</v>
+        <v>0.27163564756381092</v>
       </c>
       <c r="AH98">
         <f t="shared" si="195"/>
-        <v>0.24833782553097736</v>
+        <v>0.2483378255309511</v>
       </c>
       <c r="AI98">
         <f t="shared" si="195"/>
-        <v>0.47095571637745148</v>
+        <v>0.47095571637740169</v>
       </c>
       <c r="AJ98">
         <f t="shared" si="195"/>
-        <v>0.25063112933084108</v>
+        <v>0.25063112933081461</v>
       </c>
       <c r="AK98">
         <f t="shared" si="195"/>
-        <v>1.1243826219619173</v>
+        <v>1.1243826219617985</v>
       </c>
       <c r="AL98">
         <f t="shared" si="195"/>
-        <v>0.99645037879709775</v>
+        <v>0.99645037879699239</v>
       </c>
       <c r="AM98">
         <f t="shared" si="195"/>
-        <v>0.91118193069246289</v>
+        <v>0.91118193069236653</v>
       </c>
       <c r="AN98">
         <f t="shared" si="195"/>
-        <v>0.83952141521006107</v>
+        <v>0.83952141520997225</v>
       </c>
       <c r="AO98">
         <f t="shared" si="195"/>
-        <v>0.67937513917234715</v>
+        <v>0.67937513917227532</v>
       </c>
       <c r="AP98">
         <f t="shared" si="195"/>
-        <v>0.46222327497515198</v>
+        <v>0.46222327497510307</v>
       </c>
       <c r="AS98">
         <f t="shared" si="195"/>
-        <v>0.27137182948704813</v>
+        <v>0.27137182948701943</v>
       </c>
       <c r="AT98">
         <f t="shared" si="195"/>
-        <v>0.2486664980903017</v>
+        <v>0.24866649809027541</v>
       </c>
       <c r="AU98">
         <f t="shared" si="195"/>
-        <v>0.29010108473062202</v>
+        <v>0.29010108473059132</v>
       </c>
       <c r="AV98">
         <f t="shared" si="195"/>
-        <v>0.58923760982287765</v>
+        <v>0.58923760982281526</v>
       </c>
     </row>
     <row r="99" spans="1:48" x14ac:dyDescent="0.35">
@@ -34170,7 +35952,7 @@
         <f t="shared" si="196"/>
         <v>0.75620899673602426</v>
       </c>
-      <c r="R99">
+      <c r="R99" s="6">
         <f t="shared" si="196"/>
         <v>0.73858081520018648</v>
       </c>
@@ -34208,7 +35990,7 @@
       </c>
       <c r="AA99">
         <f t="shared" si="196"/>
-        <v>0.71605259825142775</v>
+        <v>0.71605259825143641</v>
       </c>
       <c r="AB99">
         <f t="shared" si="196"/>
@@ -34336,7 +36118,7 @@
         <f t="shared" si="197"/>
         <v>-0.21311949437045163</v>
       </c>
-      <c r="R100">
+      <c r="R100" s="6">
         <f t="shared" si="197"/>
         <v>-0.20745911663135541</v>
       </c>
@@ -34374,7 +36156,7 @@
       </c>
       <c r="AA100">
         <f t="shared" si="197"/>
-        <v>4.6721929698186337E-2</v>
+        <v>4.672192969817579E-2</v>
       </c>
       <c r="AB100">
         <f t="shared" si="197"/>
@@ -34479,7 +36261,7 @@
       </c>
       <c r="I105">
         <f t="shared" si="198"/>
-        <v>1207.3644051939116</v>
+        <v>1207.3644051940485</v>
       </c>
       <c r="J105">
         <f t="shared" si="198"/>
@@ -34607,7 +36389,7 @@
         <v>-0.65969999999999995</v>
       </c>
       <c r="W126">
-        <f t="shared" ref="W125:W126" si="200">V126*$W$123^U126</f>
+        <f t="shared" ref="W126" si="200">V126*$W$123^U126</f>
         <v>-0.65969999999999995</v>
       </c>
     </row>
@@ -34617,9 +36399,293 @@
         <v>6.5199999999999925E-2</v>
       </c>
     </row>
+    <row r="154" spans="12:21" x14ac:dyDescent="0.35">
+      <c r="M154">
+        <v>80</v>
+      </c>
+      <c r="N154">
+        <v>60</v>
+      </c>
+      <c r="O154">
+        <v>40</v>
+      </c>
+      <c r="P154">
+        <v>20</v>
+      </c>
+      <c r="Q154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="12:21" x14ac:dyDescent="0.35">
+      <c r="M155">
+        <v>70</v>
+      </c>
+      <c r="N155">
+        <v>74</v>
+      </c>
+      <c r="O155">
+        <v>70</v>
+      </c>
+      <c r="P155">
+        <v>48</v>
+      </c>
+      <c r="Q155">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="159" spans="12:21" x14ac:dyDescent="0.35">
+      <c r="L159" t="s">
+        <v>129</v>
+      </c>
+      <c r="M159">
+        <v>80</v>
+      </c>
+      <c r="N159">
+        <v>70</v>
+      </c>
+      <c r="O159">
+        <v>60</v>
+      </c>
+      <c r="P159">
+        <v>50</v>
+      </c>
+      <c r="Q159">
+        <v>40</v>
+      </c>
+      <c r="R159" s="6">
+        <v>30</v>
+      </c>
+      <c r="S159">
+        <v>20</v>
+      </c>
+      <c r="T159">
+        <v>10</v>
+      </c>
+      <c r="U159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="12:21" x14ac:dyDescent="0.35">
+      <c r="L160" t="s">
+        <v>128</v>
+      </c>
+      <c r="M160">
+        <v>70</v>
+      </c>
+      <c r="N160">
+        <v>73</v>
+      </c>
+      <c r="O160">
+        <v>74</v>
+      </c>
+      <c r="P160">
+        <v>74</v>
+      </c>
+      <c r="Q160">
+        <v>70</v>
+      </c>
+      <c r="R160" s="6">
+        <v>62</v>
+      </c>
+      <c r="S160">
+        <v>48</v>
+      </c>
+      <c r="T160">
+        <v>20</v>
+      </c>
+      <c r="U160">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="161" spans="12:30" x14ac:dyDescent="0.35">
+      <c r="L161" t="s">
+        <v>131</v>
+      </c>
+      <c r="M161">
+        <f>M159/$M$159</f>
+        <v>1</v>
+      </c>
+      <c r="N161">
+        <f t="shared" ref="N161:U161" si="201">N159/$M$159</f>
+        <v>0.875</v>
+      </c>
+      <c r="O161">
+        <f t="shared" si="201"/>
+        <v>0.75</v>
+      </c>
+      <c r="P161">
+        <f t="shared" si="201"/>
+        <v>0.625</v>
+      </c>
+      <c r="Q161">
+        <f t="shared" si="201"/>
+        <v>0.5</v>
+      </c>
+      <c r="R161" s="6">
+        <f t="shared" si="201"/>
+        <v>0.375</v>
+      </c>
+      <c r="S161">
+        <f t="shared" si="201"/>
+        <v>0.25</v>
+      </c>
+      <c r="T161">
+        <f t="shared" si="201"/>
+        <v>0.125</v>
+      </c>
+      <c r="U161">
+        <f t="shared" si="201"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="12:30" x14ac:dyDescent="0.35">
+      <c r="L162" t="s">
+        <v>130</v>
+      </c>
+      <c r="M162">
+        <f>M160/$M$160</f>
+        <v>1</v>
+      </c>
+      <c r="N162">
+        <f t="shared" ref="N162:U162" si="202">N160/$M$160</f>
+        <v>1.0428571428571429</v>
+      </c>
+      <c r="O162">
+        <f t="shared" si="202"/>
+        <v>1.0571428571428572</v>
+      </c>
+      <c r="P162">
+        <f t="shared" si="202"/>
+        <v>1.0571428571428572</v>
+      </c>
+      <c r="Q162">
+        <f t="shared" si="202"/>
+        <v>1</v>
+      </c>
+      <c r="R162" s="6">
+        <f t="shared" si="202"/>
+        <v>0.88571428571428568</v>
+      </c>
+      <c r="S162">
+        <f t="shared" si="202"/>
+        <v>0.68571428571428572</v>
+      </c>
+      <c r="T162">
+        <f t="shared" si="202"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="U162">
+        <f t="shared" si="202"/>
+        <v>-0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="164" spans="12:30" x14ac:dyDescent="0.35">
+      <c r="S164">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="165" spans="12:30" x14ac:dyDescent="0.35">
+      <c r="S165">
+        <f>S164/3.6</f>
+        <v>133.33333333333334</v>
+      </c>
+    </row>
+    <row r="167" spans="12:30" x14ac:dyDescent="0.35">
+      <c r="S167">
+        <f>S165*0.6</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="171" spans="12:30" x14ac:dyDescent="0.35">
+      <c r="AD171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="12:30" x14ac:dyDescent="0.35">
+      <c r="AB172">
+        <v>3</v>
+      </c>
+      <c r="AC172">
+        <v>2.2965</v>
+      </c>
+      <c r="AD172">
+        <f>AC172*$AD$171^AB172</f>
+        <v>2.2965</v>
+      </c>
+    </row>
+    <row r="173" spans="12:30" x14ac:dyDescent="0.35">
+      <c r="AB173">
+        <v>2</v>
+      </c>
+      <c r="AC173">
+        <v>-5.9154999999999998</v>
+      </c>
+      <c r="AD173">
+        <f>AC173*$AD$171^AB173</f>
+        <v>-5.9154999999999998</v>
+      </c>
+    </row>
+    <row r="174" spans="12:30" x14ac:dyDescent="0.35">
+      <c r="AB174">
+        <v>1</v>
+      </c>
+      <c r="AC174">
+        <v>4.8421000000000003</v>
+      </c>
+      <c r="AD174">
+        <f>AC174*$AD$171^AB174</f>
+        <v>4.8421000000000003</v>
+      </c>
+    </row>
+    <row r="175" spans="12:30" x14ac:dyDescent="0.35">
+      <c r="AB175">
+        <v>0</v>
+      </c>
+      <c r="AC175">
+        <v>-0.21629999999999999</v>
+      </c>
+      <c r="AD175">
+        <f>AC175*$AD$171^AB175</f>
+        <v>-0.21629999999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="12:30" x14ac:dyDescent="0.35">
+      <c r="AD176">
+        <f>SUM(AD172:AD175)</f>
+        <v>1.0068000000000006</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="PBrush" shapeId="1025" r:id="rId3">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId4">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>168</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>584200</xdr:colOff>
+                <xdr:row>202</xdr:row>
+                <xdr:rowOff>31750</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="PBrush" shapeId="1025" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
